--- a/樊佩茹/项目进度控制表-樊佩茹 .xlsx
+++ b/樊佩茹/项目进度控制表-樊佩茹 .xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12465" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="樊佩茹" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="57">
   <si>
     <t>进度控制表-在线点餐的设计与实现</t>
   </si>
@@ -189,19 +189,17 @@
   </si>
   <si>
     <t>未成功</t>
+  </si>
+  <si>
+    <t>分页未做</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="35">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,156 +298,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -462,194 +322,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -755,258 +429,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1019,16 +451,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1140,59 +572,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1483,38 +925,38 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.6333333333333" customWidth="1"/>
-    <col min="2" max="2" width="29.725" customWidth="1"/>
-    <col min="3" max="6" width="15.6333333333333" customWidth="1"/>
-    <col min="7" max="7" width="84.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="29.75" customWidth="1"/>
+    <col min="3" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="84.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.75" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" ht="21" customHeight="1" spans="1:7">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1537,25 +979,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="44" customFormat="1" ht="23.15" customHeight="1" spans="1:7">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:7" s="44" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" ht="18" customHeight="1" spans="1:7">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="60">
         <v>43638</v>
       </c>
       <c r="D4" s="11"/>
@@ -1569,14 +1011,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:7">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -1586,8 +1028,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" ht="16.5" spans="1:7">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="54" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -1607,12 +1049,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" ht="16.5" spans="1:7">
-      <c r="A7" s="19"/>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="55"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="60">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -1620,16 +1062,18 @@
         <v>43641</v>
       </c>
       <c r="F7" s="13">
-        <v>1</v>
-      </c>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:7">
-      <c r="A8" s="20"/>
+        <v>0.9</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="56"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="12">
         <v>43641</v>
       </c>
@@ -1641,14 +1085,14 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" ht="16.5" spans="1:7">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="57" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="60">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -1660,27 +1104,29 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" ht="16.5" spans="1:7">
-      <c r="A10" s="22"/>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="58"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="23"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12">
         <v>43642</v>
       </c>
       <c r="F10" s="13">
-        <v>1</v>
-      </c>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" ht="16.5" spans="1:7">
-      <c r="A11" s="24"/>
+        <v>0.9</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="59"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12">
         <v>43642</v>
@@ -1690,14 +1136,14 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" ht="16.5" spans="1:7">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="57" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="60">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -1705,58 +1151,58 @@
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" ht="16.5" spans="1:7">
-      <c r="A13" s="22"/>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="58"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="25"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" ht="16.5" spans="1:7">
-      <c r="A14" s="22"/>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="58"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="23"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="25"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" ht="16.5" spans="1:7">
-      <c r="A15" s="24"/>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="59"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="25"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" ht="24" customHeight="1" spans="1:7">
-      <c r="A16" s="26" t="s">
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
-    </row>
-    <row r="17" ht="16.5" spans="1:7">
-      <c r="A17" s="21" t="s">
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="57" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="60">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -1764,25 +1210,25 @@
       <c r="F17" s="25"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" ht="16.5" spans="1:7">
-      <c r="A18" s="24"/>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="59"/>
       <c r="B18" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" ht="16.5" spans="1:7">
-      <c r="A19" s="21" t="s">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="57" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="60" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="12"/>
@@ -1790,23 +1236,23 @@
       <c r="F19" s="25"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" ht="16.5" spans="1:7">
-      <c r="A20" s="22"/>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="58"/>
       <c r="B20" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="25"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" ht="16.5" spans="1:7">
-      <c r="A21" s="22"/>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="58"/>
       <c r="B21" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="60">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -1814,25 +1260,25 @@
       <c r="F21" s="25"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" ht="16.5" spans="1:7">
-      <c r="A22" s="24"/>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="59"/>
       <c r="B22" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="17"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="25"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" ht="16.5" spans="1:7">
-      <c r="A23" s="21" t="s">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="57" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="63" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="12"/>
@@ -1840,36 +1286,36 @@
       <c r="F23" s="25"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" ht="16.5" spans="1:7">
-      <c r="A24" s="22"/>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="58"/>
       <c r="B24" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="23"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="25"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" ht="16.5" spans="1:7">
-      <c r="A25" s="24"/>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="59"/>
       <c r="B25" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="25"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" ht="16.5" spans="1:7">
-      <c r="A26" s="21" t="s">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="57" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="60">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -1877,34 +1323,34 @@
       <c r="F26" s="25"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" ht="16.5" spans="1:7">
-      <c r="A27" s="22"/>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="58"/>
       <c r="B27" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="23"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="25"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" ht="16.5" spans="1:7">
-      <c r="A28" s="22"/>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="58"/>
       <c r="B28" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="25"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" ht="16.5" spans="1:7">
-      <c r="A29" s="22"/>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="58"/>
       <c r="B29" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="60">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -1912,23 +1358,23 @@
       <c r="F29" s="25"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" ht="16.5" spans="1:7">
-      <c r="A30" s="24"/>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="59"/>
       <c r="B30" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="23"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="25"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" ht="16.5" spans="1:7">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="17"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -1936,12 +1382,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -1956,45 +1396,50 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.9083333333333" customWidth="1"/>
-    <col min="2" max="2" width="32.9083333333333" customWidth="1"/>
-    <col min="3" max="3" width="15.0916666666667" customWidth="1"/>
-    <col min="4" max="4" width="15.2666666666667" customWidth="1"/>
-    <col min="5" max="5" width="14.9083333333333" customWidth="1"/>
-    <col min="6" max="6" width="15.6333333333333" customWidth="1"/>
-    <col min="7" max="7" width="81.0916666666667" customWidth="1"/>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="32.875" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="81.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.75" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" ht="18" customHeight="1" spans="1:7">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2017,25 +1462,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="23.15" customHeight="1" spans="1:7">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" ht="16.5" spans="1:7">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="60">
         <v>43638</v>
       </c>
       <c r="D4" s="11"/>
@@ -2049,14 +1494,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:7">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -2066,8 +1511,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" ht="16.5" spans="1:7">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="54" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -2085,12 +1530,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" ht="16.5" spans="1:7">
-      <c r="A7" s="19"/>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="55"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="60">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -2098,25 +1543,25 @@
       <c r="F7" s="25"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" ht="16.5" spans="1:7">
-      <c r="A8" s="20"/>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="56"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="25"/>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" ht="16.5" spans="1:7">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="57" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="60">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -2124,36 +1569,36 @@
       <c r="F9" s="25"/>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" ht="16.5" spans="1:7">
-      <c r="A10" s="22"/>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="58"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="23"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="25"/>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" ht="16.5" spans="1:7">
-      <c r="A11" s="24"/>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="59"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="13"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" ht="16.5" spans="1:7">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="57" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="60">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -2161,58 +1606,58 @@
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" ht="16.5" spans="1:7">
-      <c r="A13" s="22"/>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="58"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="25"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" ht="16.5" spans="1:7">
-      <c r="A14" s="22"/>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="58"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="23"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="25"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" ht="16.5" spans="1:7">
-      <c r="A15" s="24"/>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="59"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="25"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" ht="24" customHeight="1" spans="1:7">
-      <c r="A16" s="26" t="s">
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
-    </row>
-    <row r="17" ht="16.5" spans="1:7">
-      <c r="A17" s="21" t="s">
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="57" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="60">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -2220,25 +1665,25 @@
       <c r="F17" s="25"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" ht="16.5" spans="1:7">
-      <c r="A18" s="24"/>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="59"/>
       <c r="B18" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" ht="16.5" spans="1:7">
-      <c r="A19" s="21" t="s">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="57" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="60" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="12"/>
@@ -2246,23 +1691,23 @@
       <c r="F19" s="25"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" ht="16.5" spans="1:7">
-      <c r="A20" s="22"/>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="58"/>
       <c r="B20" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="25"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" ht="16.5" spans="1:7">
-      <c r="A21" s="22"/>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="58"/>
       <c r="B21" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="60">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -2270,25 +1715,25 @@
       <c r="F21" s="25"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" ht="16.5" spans="1:7">
-      <c r="A22" s="24"/>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="59"/>
       <c r="B22" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="17"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="25"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" ht="16.5" spans="1:7">
-      <c r="A23" s="21" t="s">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="57" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="63" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="12"/>
@@ -2296,36 +1741,36 @@
       <c r="F23" s="25"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" ht="16.5" spans="1:7">
-      <c r="A24" s="22"/>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="58"/>
       <c r="B24" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="23"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="25"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" ht="16.5" spans="1:7">
-      <c r="A25" s="24"/>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="59"/>
       <c r="B25" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="25"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" ht="16.5" spans="1:7">
-      <c r="A26" s="21" t="s">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="57" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="60">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -2333,34 +1778,34 @@
       <c r="F26" s="25"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" ht="16.5" spans="1:7">
-      <c r="A27" s="22"/>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="58"/>
       <c r="B27" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="23"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="25"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" ht="16.5" spans="1:7">
-      <c r="A28" s="22"/>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="58"/>
       <c r="B28" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="25"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" ht="16.5" spans="1:7">
-      <c r="A29" s="22"/>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="58"/>
       <c r="B29" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="60">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -2368,23 +1813,23 @@
       <c r="F29" s="25"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" ht="16.5" spans="1:7">
-      <c r="A30" s="24"/>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="59"/>
       <c r="B30" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="23"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="25"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" ht="16.5" spans="1:7">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="17"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -2392,12 +1837,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -2412,34 +1851,39 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.3666666666667" customWidth="1"/>
-    <col min="2" max="2" width="31.6333333333333" customWidth="1"/>
-    <col min="3" max="3" width="14.45" customWidth="1"/>
-    <col min="4" max="4" width="15.45" customWidth="1"/>
-    <col min="5" max="5" width="15.2666666666667" customWidth="1"/>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="31.625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="87.6333333333333" customWidth="1"/>
+    <col min="7" max="7" width="87.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.75" spans="1:7">
+    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2450,7 +1894,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="18" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2473,7 +1917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="20.15" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2484,7 +1928,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" ht="16.5" spans="1:7">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -2505,7 +1949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:7">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
@@ -2522,7 +1966,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" ht="16.5" spans="1:7">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
@@ -2543,7 +1987,7 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" ht="16.5" spans="1:7">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
@@ -2562,7 +2006,7 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" ht="16.5" spans="1:7">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="20"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
@@ -2577,7 +2021,7 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" ht="16.5" spans="1:7">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>18</v>
       </c>
@@ -2596,7 +2040,7 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" ht="16.5" spans="1:7">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="22"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
@@ -2611,7 +2055,7 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" ht="16.5" spans="1:7">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
@@ -2622,7 +2066,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" ht="16.5" spans="1:7">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>22</v>
       </c>
@@ -2643,7 +2087,7 @@
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" ht="16.5" spans="1:7">
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="22"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
@@ -2654,7 +2098,7 @@
       <c r="F13" s="25"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" ht="16.5" spans="1:7">
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="22"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
@@ -2665,7 +2109,7 @@
       <c r="F14" s="25"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" ht="16.5" spans="1:7">
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
@@ -2676,7 +2120,7 @@
       <c r="F15" s="25"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" ht="24" customHeight="1" spans="1:7">
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="26" t="s">
         <v>27</v>
       </c>
@@ -2687,7 +2131,7 @@
       <c r="F16" s="27"/>
       <c r="G16" s="28"/>
     </row>
-    <row r="17" ht="16.5" spans="1:7">
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>28</v>
       </c>
@@ -2702,7 +2146,7 @@
       <c r="F17" s="25"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" ht="16.5" spans="1:7">
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
         <v>30</v>
@@ -2713,7 +2157,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" ht="16.5" spans="1:7">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>31</v>
       </c>
@@ -2728,7 +2172,7 @@
       <c r="F19" s="25"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" ht="16.5" spans="1:7">
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="22"/>
       <c r="B20" s="16" t="s">
         <v>34</v>
@@ -2739,7 +2183,7 @@
       <c r="F20" s="25"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" ht="16.5" spans="1:7">
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="22"/>
       <c r="B21" s="16" t="s">
         <v>35</v>
@@ -2752,7 +2196,7 @@
       <c r="F21" s="25"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" ht="16.5" spans="1:7">
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="24"/>
       <c r="B22" s="16" t="s">
         <v>36</v>
@@ -2763,7 +2207,7 @@
       <c r="F22" s="25"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" ht="33" spans="1:7">
+    <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
         <v>37</v>
       </c>
@@ -2778,7 +2222,7 @@
       <c r="F23" s="25"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" ht="16.5" spans="1:7">
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="22"/>
       <c r="B24" s="16" t="s">
         <v>40</v>
@@ -2789,7 +2233,7 @@
       <c r="F24" s="25"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" ht="16.5" spans="1:7">
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="24"/>
       <c r="B25" s="16" t="s">
         <v>41</v>
@@ -2800,7 +2244,7 @@
       <c r="F25" s="25"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" ht="16.5" spans="1:7">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
         <v>42</v>
       </c>
@@ -2815,7 +2259,7 @@
       <c r="F26" s="25"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" ht="16.5" spans="1:7">
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="22"/>
       <c r="B27" s="16" t="s">
         <v>44</v>
@@ -2826,7 +2270,7 @@
       <c r="F27" s="25"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" ht="16.5" spans="1:7">
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="22"/>
       <c r="B28" s="16" t="s">
         <v>45</v>
@@ -2837,7 +2281,7 @@
       <c r="F28" s="25"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" ht="16.5" spans="1:7">
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="22"/>
       <c r="B29" s="16" t="s">
         <v>46</v>
@@ -2850,7 +2294,7 @@
       <c r="F29" s="25"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" ht="16.5" spans="1:7">
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="24"/>
       <c r="B30" s="16" t="s">
         <v>47</v>
@@ -2861,7 +2305,7 @@
       <c r="F30" s="25"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" ht="16.5" spans="1:7">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>48</v>
@@ -2873,45 +2317,44 @@
       <c r="G31" s="31"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.45" style="32" customWidth="1"/>
-    <col min="2" max="2" width="18.6333333333333" style="32" customWidth="1"/>
-    <col min="3" max="3" width="25.3666666666667" style="32" customWidth="1"/>
-    <col min="4" max="4" width="18.9083333333333" style="32" customWidth="1"/>
-    <col min="5" max="5" width="18.45" style="32" customWidth="1"/>
-    <col min="6" max="6" width="16.6333333333333" style="32" customWidth="1"/>
-    <col min="7" max="7" width="47.3666666666667" style="32" customWidth="1"/>
+    <col min="1" max="1" width="16.5" style="32" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="25.375" style="32" customWidth="1"/>
+    <col min="4" max="4" width="18.875" style="32" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="32" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="32" customWidth="1"/>
+    <col min="7" max="7" width="47.375" style="32" customWidth="1"/>
     <col min="8" max="16384" width="11" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.75" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2934,25 +2377,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" ht="16.5" spans="1:7">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="60">
         <v>43638</v>
       </c>
       <c r="D4" s="35"/>
@@ -2964,14 +2407,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:7">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="13">
@@ -2979,7 +2422,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" ht="16.5" spans="1:7">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
@@ -2996,12 +2439,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" ht="16.5" spans="1:7">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="60">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -3011,12 +2454,12 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" ht="16.5" spans="1:7">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="38"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="13">
@@ -3024,14 +2467,14 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" ht="16.5" spans="1:7">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="60">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -3041,12 +2484,12 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" ht="16.5" spans="1:7">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="38"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="23"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="13">
@@ -3054,12 +2497,12 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" ht="16.5" spans="1:7">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="40"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="13">
@@ -3067,14 +2510,14 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" ht="16.5" spans="1:7">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="60">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -3082,58 +2525,58 @@
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" ht="16.5" spans="1:7">
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="25"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" ht="16.5" spans="1:7">
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="41"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="23"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="25"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" ht="16.5" spans="1:7">
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="42"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="25"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="26" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
-    </row>
-    <row r="17" ht="16.5" spans="1:7">
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="39" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="60">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -3141,25 +2584,25 @@
       <c r="F17" s="25"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" ht="16.5" spans="1:7">
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="42"/>
       <c r="B18" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" ht="16.5" spans="1:7">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="39" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="60" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="12"/>
@@ -3167,23 +2610,23 @@
       <c r="F19" s="25"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" ht="16.5" spans="1:7">
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="42"/>
       <c r="B20" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="25"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" ht="16.5" spans="1:7">
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="42"/>
       <c r="B21" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="60">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -3191,25 +2634,25 @@
       <c r="F21" s="25"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" ht="16.5" spans="1:7">
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="41"/>
       <c r="B22" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="17"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="25"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" ht="16.5" spans="1:7">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="63" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="12"/>
@@ -3217,36 +2660,36 @@
       <c r="F23" s="25"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" ht="16.5" spans="1:7">
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="23"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="25"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" ht="16.5" spans="1:7">
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="25"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" ht="25.5" spans="1:7">
+    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A26" s="39" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="60">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -3254,34 +2697,34 @@
       <c r="F26" s="25"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" ht="16.5" spans="1:7">
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="23"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="25"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" ht="16.5" spans="1:7">
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="42"/>
       <c r="B28" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="25"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" ht="16.5" spans="1:7">
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="42"/>
       <c r="B29" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="60">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -3289,23 +2732,23 @@
       <c r="F29" s="25"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" ht="16.5" spans="1:7">
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
       <c r="B30" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="23"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="25"/>
       <c r="G30" s="43"/>
     </row>
-    <row r="31" ht="16.5" spans="1:7">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="35"/>
       <c r="B31" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="17"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
@@ -3313,6 +2756,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C28"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A16:G16"/>
@@ -3320,50 +2769,43 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="C12:C15"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C31"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.45" customWidth="1"/>
-    <col min="2" max="2" width="31.6333333333333" customWidth="1"/>
-    <col min="3" max="3" width="14.725" customWidth="1"/>
-    <col min="4" max="4" width="13.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="15.6333333333333" customWidth="1"/>
-    <col min="6" max="6" width="14.9083333333333" customWidth="1"/>
-    <col min="7" max="7" width="90.725" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="31.625" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="90.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.75" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" ht="23.15" customHeight="1" spans="1:7">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3386,25 +2828,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="22" customHeight="1" spans="1:7">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" ht="16.5" spans="1:7">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="60">
         <v>43638</v>
       </c>
       <c r="D4" s="11"/>
@@ -3418,25 +2860,25 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:7">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
       </c>
       <c r="F5" s="13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" ht="16.5" spans="1:7">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="54" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -3450,16 +2892,16 @@
         <v>43640</v>
       </c>
       <c r="F6" s="13">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" ht="16.5" spans="1:7">
-      <c r="A7" s="19"/>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="55"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="60">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -3467,33 +2909,35 @@
         <v>43641</v>
       </c>
       <c r="F7" s="13">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" ht="16.5" spans="1:7">
-      <c r="A8" s="20"/>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="56"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12">
         <v>43641</v>
       </c>
       <c r="F8" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:7">
-      <c r="A9" s="21" t="s">
+        <v>0.9</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="57" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="60">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -3505,12 +2949,12 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" ht="16.5" spans="1:7">
-      <c r="A10" s="22"/>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="58"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="23"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12">
         <v>43641</v>
@@ -3520,12 +2964,12 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" ht="16.5" spans="1:7">
-      <c r="A11" s="24"/>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="59"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12">
         <v>43641</v>
@@ -3535,73 +2979,91 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" ht="16.5" spans="1:7">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="57" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="60">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" ht="16.5" spans="1:7">
-      <c r="A13" s="22"/>
+      <c r="E12" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="58"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="25"/>
+      <c r="E13" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0.2</v>
+      </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" ht="16.5" spans="1:7">
-      <c r="A14" s="22"/>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="58"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="23"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="25"/>
+      <c r="E14" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.2</v>
+      </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" ht="16.5" spans="1:7">
-      <c r="A15" s="24"/>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="59"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="25"/>
+      <c r="E15" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.2</v>
+      </c>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" ht="22" customHeight="1" spans="1:7">
-      <c r="A16" s="26" t="s">
+    <row r="16" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
-    </row>
-    <row r="17" ht="16.5" spans="1:7">
-      <c r="A17" s="21" t="s">
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="57" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="60">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -3609,25 +3071,25 @@
       <c r="F17" s="25"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" ht="16.5" spans="1:7">
-      <c r="A18" s="24"/>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="59"/>
       <c r="B18" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" ht="16.5" spans="1:7">
-      <c r="A19" s="21" t="s">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="57" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="60" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="12"/>
@@ -3635,23 +3097,23 @@
       <c r="F19" s="25"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" ht="16.5" spans="1:7">
-      <c r="A20" s="22"/>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="58"/>
       <c r="B20" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="25"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" ht="16.5" spans="1:7">
-      <c r="A21" s="22"/>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="58"/>
       <c r="B21" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="60">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -3659,25 +3121,25 @@
       <c r="F21" s="25"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" ht="16.5" spans="1:7">
-      <c r="A22" s="24"/>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="59"/>
       <c r="B22" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="17"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="25"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" ht="16.5" spans="1:7">
-      <c r="A23" s="21" t="s">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="57" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="63" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="12"/>
@@ -3685,36 +3147,36 @@
       <c r="F23" s="25"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" ht="16.5" spans="1:7">
-      <c r="A24" s="22"/>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="58"/>
       <c r="B24" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="23"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="25"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" ht="16.5" spans="1:7">
-      <c r="A25" s="24"/>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="59"/>
       <c r="B25" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="25"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" ht="16.5" spans="1:7">
-      <c r="A26" s="21" t="s">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="57" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="60">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -3722,34 +3184,34 @@
       <c r="F26" s="25"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" ht="16.5" spans="1:7">
-      <c r="A27" s="22"/>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="58"/>
       <c r="B27" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="23"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="25"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" ht="16.5" spans="1:7">
-      <c r="A28" s="22"/>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="58"/>
       <c r="B28" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="25"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" ht="16.5" spans="1:7">
-      <c r="A29" s="22"/>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="58"/>
       <c r="B29" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="60">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -3757,23 +3219,23 @@
       <c r="F29" s="25"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" ht="16.5" spans="1:7">
-      <c r="A30" s="24"/>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="59"/>
       <c r="B30" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="23"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="25"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" ht="16.5" spans="1:7">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="17"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -3781,12 +3243,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -3801,44 +3257,49 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.725" customWidth="1"/>
-    <col min="2" max="2" width="30.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.0916666666667" customWidth="1"/>
-    <col min="5" max="5" width="13.2666666666667" customWidth="1"/>
-    <col min="6" max="6" width="14.45" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
     <col min="7" max="7" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.75" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" ht="21" customHeight="1" spans="1:7">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3861,25 +3322,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="23.15" customHeight="1" spans="1:7">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" ht="16.5" spans="1:7">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="60">
         <v>43638</v>
       </c>
       <c r="D4" s="11"/>
@@ -3891,14 +3352,14 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" ht="16.5" spans="1:7">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -3908,8 +3369,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" ht="16.5" spans="1:7">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="54" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -3927,12 +3388,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" ht="16.5" spans="1:7">
-      <c r="A7" s="19"/>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="55"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="60">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -3940,25 +3401,25 @@
       <c r="F7" s="25"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" ht="16.5" spans="1:7">
-      <c r="A8" s="20"/>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="56"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="25"/>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" ht="16.5" spans="1:7">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="57" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="60">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -3966,36 +3427,36 @@
       <c r="F9" s="25"/>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" ht="16.5" spans="1:7">
-      <c r="A10" s="22"/>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="58"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="23"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="25"/>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" ht="16.5" spans="1:7">
-      <c r="A11" s="24"/>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="59"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="13"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" ht="16.5" spans="1:7">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="57" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="60">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -4003,58 +3464,58 @@
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" ht="16.5" spans="1:7">
-      <c r="A13" s="22"/>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="58"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="25"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" ht="16.5" spans="1:7">
-      <c r="A14" s="22"/>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="58"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="23"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="25"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" ht="16.5" spans="1:7">
-      <c r="A15" s="24"/>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="59"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="25"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" ht="24" customHeight="1" spans="1:7">
-      <c r="A16" s="26" t="s">
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
-    </row>
-    <row r="17" ht="16.5" spans="1:7">
-      <c r="A17" s="21" t="s">
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="57" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="60">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -4062,12 +3523,12 @@
       <c r="F17" s="25"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" ht="16.5" spans="1:7">
-      <c r="A18" s="24"/>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="59"/>
       <c r="B18" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13">
@@ -4077,14 +3538,14 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:7">
-      <c r="A19" s="21" t="s">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="57" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="60" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="12"/>
@@ -4092,23 +3553,23 @@
       <c r="F19" s="25"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" ht="16.5" spans="1:7">
-      <c r="A20" s="22"/>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="58"/>
       <c r="B20" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="25"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" ht="16.5" spans="1:7">
-      <c r="A21" s="22"/>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="58"/>
       <c r="B21" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="60">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -4116,25 +3577,25 @@
       <c r="F21" s="25"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" ht="16.5" spans="1:7">
-      <c r="A22" s="24"/>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="59"/>
       <c r="B22" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="17"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="25"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" ht="16.5" spans="1:7">
-      <c r="A23" s="21" t="s">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="57" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="63" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="12"/>
@@ -4142,36 +3603,36 @@
       <c r="F23" s="25"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" ht="16.5" spans="1:7">
-      <c r="A24" s="22"/>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="58"/>
       <c r="B24" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="23"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="25"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" ht="16.5" spans="1:7">
-      <c r="A25" s="24"/>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="59"/>
       <c r="B25" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="25"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" ht="16.5" spans="1:7">
-      <c r="A26" s="21" t="s">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="57" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="60">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -4179,34 +3640,34 @@
       <c r="F26" s="25"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" ht="16.5" spans="1:7">
-      <c r="A27" s="22"/>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="58"/>
       <c r="B27" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="23"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="25"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" ht="16.5" spans="1:7">
-      <c r="A28" s="22"/>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="58"/>
       <c r="B28" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="25"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" ht="16.5" spans="1:7">
-      <c r="A29" s="22"/>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="58"/>
       <c r="B29" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="60">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -4214,23 +3675,23 @@
       <c r="F29" s="25"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" ht="16.5" spans="1:7">
-      <c r="A30" s="24"/>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="59"/>
       <c r="B30" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="23"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="25"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" ht="16.5" spans="1:7">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="17"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -4238,12 +3699,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -4258,481 +3713,480 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G31"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="16.725" customWidth="1"/>
-    <col min="2" max="2" width="30.6333333333333" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.0916666666667" customWidth="1"/>
-    <col min="5" max="5" width="13.2666666666667" customWidth="1"/>
-    <col min="6" max="6" width="14.45" customWidth="1"/>
-    <col min="7" max="7" width="90" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="33.75" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" ht="24" customHeight="1" spans="1:7">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" ht="21" customHeight="1" spans="1:7">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" ht="16.5" spans="1:7">
-      <c r="A4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="10">
-        <v>43638</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12">
-        <v>43640</v>
-      </c>
-      <c r="F4" s="13">
-        <v>0.6</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:7">
-      <c r="A5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12">
-        <v>43640</v>
-      </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" ht="16.5" spans="1:7">
-      <c r="A6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="12">
-        <v>43639</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12">
-        <v>43640</v>
-      </c>
-      <c r="F6" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" spans="1:7">
-      <c r="A7" s="19"/>
-      <c r="B7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="10">
-        <v>43640</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12">
-        <v>43641</v>
-      </c>
-      <c r="F7" s="13">
-        <v>1</v>
-      </c>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:7">
-      <c r="A8" s="20"/>
-      <c r="B8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12">
-        <v>43641</v>
-      </c>
-      <c r="F8" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" ht="16.5" spans="1:7">
-      <c r="A9" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="10">
-        <v>43641</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12">
-        <v>43642</v>
-      </c>
-      <c r="F9" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" spans="1:7">
-      <c r="A10" s="22"/>
-      <c r="B10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12">
-        <v>43642</v>
-      </c>
-      <c r="F10" s="13">
-        <v>1</v>
-      </c>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" ht="16.5" spans="1:7">
-      <c r="A11" s="24"/>
-      <c r="B11" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12">
-        <v>43642</v>
-      </c>
-      <c r="F11" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" ht="16.5" spans="1:7">
-      <c r="A12" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="10">
-        <v>43642</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12">
-        <v>43642</v>
-      </c>
-      <c r="F12" s="13">
-        <v>1</v>
-      </c>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" ht="16.5" spans="1:7">
-      <c r="A13" s="22"/>
-      <c r="B13" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" ht="16.5" spans="1:7">
-      <c r="A14" s="22"/>
-      <c r="B14" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" ht="16.5" spans="1:7">
-      <c r="A15" s="24"/>
-      <c r="B15" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" ht="21" customHeight="1" spans="1:7">
-      <c r="A16" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
-    </row>
-    <row r="17" ht="16.5" spans="1:7">
-      <c r="A17" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="10">
-        <v>43643</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" ht="16.5" spans="1:7">
-      <c r="A18" s="24"/>
-      <c r="B18" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" ht="16.5" spans="1:7">
-      <c r="A19" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" ht="16.5" spans="1:7">
-      <c r="A20" s="22"/>
-      <c r="B20" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" ht="16.5" spans="1:7">
-      <c r="A21" s="22"/>
-      <c r="B21" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="10">
-        <v>43646</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" ht="16.5" spans="1:7">
-      <c r="A22" s="24"/>
-      <c r="B22" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" ht="16.5" spans="1:7">
-      <c r="A23" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" ht="16.5" spans="1:7">
-      <c r="A24" s="22"/>
-      <c r="B24" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" ht="16.5" spans="1:7">
-      <c r="A25" s="24"/>
-      <c r="B25" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26" ht="16.5" spans="1:7">
-      <c r="A26" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="10">
-        <v>43650</v>
-      </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="14"/>
-    </row>
-    <row r="27" ht="16.5" spans="1:7">
-      <c r="A27" s="22"/>
-      <c r="B27" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" ht="16.5" spans="1:7">
-      <c r="A28" s="22"/>
-      <c r="B28" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="14"/>
-    </row>
-    <row r="29" ht="16.5" spans="1:7">
-      <c r="A29" s="22"/>
-      <c r="B29" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="10">
-        <v>43651</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="14"/>
-    </row>
-    <row r="30" ht="16.5" spans="1:7">
-      <c r="A30" s="24"/>
-      <c r="B30" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="30"/>
-    </row>
-    <row r="31" ht="16.5" spans="1:7">
-      <c r="A31" s="11"/>
-      <c r="B31" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="31"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A15"/>
+  </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="90" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="60">
+        <v>43638</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12">
+        <v>43640</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12">
+        <v>43640</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="12">
+        <v>43639</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12">
+        <v>43640</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="55"/>
+      <c r="B7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="60">
+        <v>43640</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12">
+        <v>43641</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="56"/>
+      <c r="B8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12">
+        <v>43641</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="60">
+        <v>43641</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="58"/>
+      <c r="B10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="62"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1</v>
+      </c>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="59"/>
+      <c r="B11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="61"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="60">
+        <v>43642</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F12" s="13">
+        <v>1</v>
+      </c>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="58"/>
+      <c r="B13" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="62"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="58"/>
+      <c r="B14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="62"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="59"/>
+      <c r="B15" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="61"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="60">
+        <v>43643</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="59"/>
+      <c r="B18" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="61"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="58"/>
+      <c r="B20" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="61"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="58"/>
+      <c r="B21" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="60">
+        <v>43646</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="59"/>
+      <c r="B22" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="61"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="58"/>
+      <c r="B24" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="62"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="59"/>
+      <c r="B25" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="61"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="60">
+        <v>43650</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="58"/>
+      <c r="B27" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="62"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="58"/>
+      <c r="B28" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="61"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="58"/>
+      <c r="B29" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="60">
+        <v>43651</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="59"/>
+      <c r="B30" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="62"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="30"/>
+    </row>
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="11"/>
+      <c r="B31" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="61"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -4747,8 +4201,14 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/樊佩茹/项目进度控制表-樊佩茹 .xlsx
+++ b/樊佩茹/项目进度控制表-樊佩茹 .xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SDX\Desktop\hgkj_02\樊佩茹\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFDAEBF-9431-4D87-9E59-4A25FA5F8A23}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="樊佩茹" sheetId="1" r:id="rId1"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="62">
   <si>
     <t>进度控制表-在线点餐的设计与实现</t>
   </si>
@@ -192,14 +198,30 @@
   </si>
   <si>
     <t>分页未做</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接退出</t>
+  </si>
+  <si>
+    <t>上传有问题</t>
+  </si>
+  <si>
+    <t>假分页</t>
+  </si>
+  <si>
+    <t>30天内自动登录未做</t>
+  </si>
+  <si>
+    <t>分页没做</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,6 +329,13 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -438,7 +467,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -628,17 +657,83 @@
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -687,7 +782,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -720,9 +815,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -755,6 +867,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -930,33 +1059,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="29.75" customWidth="1"/>
-    <col min="3" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="84.625" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" customWidth="1"/>
+    <col min="3" max="6" width="15.6328125" customWidth="1"/>
+    <col min="7" max="7" width="84.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-    </row>
-    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -979,25 +1108,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="44" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:7" s="44" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-    </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="76"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="67">
         <v>43638</v>
       </c>
       <c r="D4" s="11"/>
@@ -1011,14 +1140,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="61"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -1028,8 +1157,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="54" t="s">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="80" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -1049,12 +1178,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="55"/>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="81"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="67">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -1068,12 +1197,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="56"/>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="82"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="12">
         <v>43641</v>
       </c>
@@ -1085,14 +1214,14 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="57" t="s">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="64" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="67">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -1104,12 +1233,12 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="58"/>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="66"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="62"/>
+      <c r="C10" s="69"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12">
         <v>43642</v>
@@ -1121,12 +1250,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="65"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12">
         <v>43642</v>
@@ -1136,14 +1265,14 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="57" t="s">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="64" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="60">
+      <c r="C12" s="67">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -1151,58 +1280,58 @@
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="58"/>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="66"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="62"/>
+      <c r="C13" s="69"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="25"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="58"/>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="66"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="62"/>
+      <c r="C14" s="69"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="25"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="59"/>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="65"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="61"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="25"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="51" t="s">
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="57" t="s">
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="79"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="64" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="67">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -1210,25 +1339,25 @@
       <c r="F17" s="25"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="59"/>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="65"/>
       <c r="B18" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="61"/>
+      <c r="C18" s="68"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="57" t="s">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="64" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="67" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="12"/>
@@ -1236,23 +1365,23 @@
       <c r="F19" s="25"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="58"/>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="66"/>
       <c r="B20" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="61"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="25"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="58"/>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="66"/>
       <c r="B21" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="60">
+      <c r="C21" s="67">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -1260,25 +1389,25 @@
       <c r="F21" s="25"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="59"/>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="65"/>
       <c r="B22" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="61"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="25"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="57" t="s">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="64" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="70" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="12"/>
@@ -1286,36 +1415,36 @@
       <c r="F23" s="25"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="58"/>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="66"/>
       <c r="B24" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="69"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="25"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="59"/>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="65"/>
       <c r="B25" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="25"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="57" t="s">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="64" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="60">
+      <c r="C26" s="67">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -1323,34 +1452,34 @@
       <c r="F26" s="25"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="58"/>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="66"/>
       <c r="B27" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="62"/>
+      <c r="C27" s="69"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="25"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="58"/>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="66"/>
       <c r="B28" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="68"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="25"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="58"/>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="66"/>
       <c r="B29" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="60">
+      <c r="C29" s="67">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -1358,23 +1487,23 @@
       <c r="F29" s="25"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="59"/>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="65"/>
       <c r="B30" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="62"/>
+      <c r="C30" s="69"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="25"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="61"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -1382,6 +1511,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -1396,12 +1531,6 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1410,36 +1539,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.875" customWidth="1"/>
-    <col min="2" max="2" width="32.875" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="81.125" customWidth="1"/>
+    <col min="1" max="1" width="18.90625" customWidth="1"/>
+    <col min="2" max="2" width="32.90625" customWidth="1"/>
+    <col min="3" max="3" width="15.08984375" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" customWidth="1"/>
+    <col min="5" max="5" width="14.90625" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" customWidth="1"/>
+    <col min="7" max="7" width="81.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
+    </row>
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1462,25 +1591,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:7" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="76"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="67">
         <v>43638</v>
       </c>
       <c r="D4" s="11"/>
@@ -1494,14 +1623,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="61"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -1511,8 +1640,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="54" t="s">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="80" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -1526,42 +1655,48 @@
         <v>43640</v>
       </c>
       <c r="F6" s="13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="55"/>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="81"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="67">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="56"/>
+      <c r="E7" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="82"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="25"/>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="57" t="s">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="64" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="67">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -1569,36 +1704,42 @@
       <c r="F9" s="25"/>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="58"/>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="66"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="62"/>
+      <c r="C10" s="69"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
+      <c r="E10" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="65"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="13"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="57" t="s">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="64" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="60">
+      <c r="C12" s="67">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -1606,58 +1747,70 @@
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="58"/>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="66"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="62"/>
+      <c r="C13" s="69"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="58"/>
+      <c r="E13" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="66"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="62"/>
+      <c r="C14" s="69"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="59"/>
+      <c r="E14" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="65"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="61"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="25"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="51" t="s">
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="57" t="s">
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="79"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="64" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="67">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -1665,25 +1818,25 @@
       <c r="F17" s="25"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="59"/>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="65"/>
       <c r="B18" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="61"/>
+      <c r="C18" s="68"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="57" t="s">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="64" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="67" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="12"/>
@@ -1691,23 +1844,23 @@
       <c r="F19" s="25"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="58"/>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="66"/>
       <c r="B20" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="61"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="25"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="58"/>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="66"/>
       <c r="B21" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="60">
+      <c r="C21" s="67">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -1715,25 +1868,25 @@
       <c r="F21" s="25"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="59"/>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="65"/>
       <c r="B22" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="61"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="25"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="57" t="s">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="64" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="70" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="12"/>
@@ -1741,36 +1894,36 @@
       <c r="F23" s="25"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="58"/>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="66"/>
       <c r="B24" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="69"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="25"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="59"/>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="65"/>
       <c r="B25" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="25"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="57" t="s">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="64" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="60">
+      <c r="C26" s="67">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -1778,34 +1931,34 @@
       <c r="F26" s="25"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="58"/>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="66"/>
       <c r="B27" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="62"/>
+      <c r="C27" s="69"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="25"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="58"/>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="66"/>
       <c r="B28" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="68"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="25"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="58"/>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="66"/>
       <c r="B29" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="60">
+      <c r="C29" s="67">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -1813,23 +1966,23 @@
       <c r="F29" s="25"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="59"/>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="65"/>
       <c r="B30" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="62"/>
+      <c r="C30" s="69"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="25"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="61"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -1837,6 +1990,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -1851,12 +2010,6 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1865,25 +2018,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="31.625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="16.36328125" customWidth="1"/>
+    <col min="2" max="2" width="31.6328125" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="87.625" customWidth="1"/>
+    <col min="7" max="7" width="87.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1894,7 +2047,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1917,7 +2070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1928,7 +2081,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -1949,7 +2102,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
@@ -1966,7 +2119,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
@@ -1985,9 +2138,9 @@
       <c r="F6" s="13">
         <v>1</v>
       </c>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="G6" s="84"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="19"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
@@ -2002,11 +2155,13 @@
         <v>43641</v>
       </c>
       <c r="F7" s="13">
-        <v>1</v>
-      </c>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>0.8</v>
+      </c>
+      <c r="G7" s="84" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="20"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
@@ -2021,7 +2176,7 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="21" t="s">
         <v>18</v>
       </c>
@@ -2040,7 +2195,7 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="22"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
@@ -2051,11 +2206,13 @@
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="13">
-        <v>1</v>
-      </c>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>0.8</v>
+      </c>
+      <c r="G10" s="84" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
@@ -2066,7 +2223,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="21" t="s">
         <v>22</v>
       </c>
@@ -2083,11 +2240,13 @@
         <v>43640</v>
       </c>
       <c r="F12" s="13">
-        <v>1</v>
-      </c>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>0.8</v>
+      </c>
+      <c r="G12" s="84" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="22"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
@@ -2098,7 +2257,7 @@
       <c r="F13" s="25"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="22"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
@@ -2109,7 +2268,7 @@
       <c r="F14" s="25"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
@@ -2120,7 +2279,7 @@
       <c r="F15" s="25"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>27</v>
       </c>
@@ -2131,7 +2290,7 @@
       <c r="F16" s="27"/>
       <c r="G16" s="28"/>
     </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="21" t="s">
         <v>28</v>
       </c>
@@ -2146,7 +2305,7 @@
       <c r="F17" s="25"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
         <v>30</v>
@@ -2157,7 +2316,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="21" t="s">
         <v>31</v>
       </c>
@@ -2172,7 +2331,7 @@
       <c r="F19" s="25"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="22"/>
       <c r="B20" s="16" t="s">
         <v>34</v>
@@ -2183,7 +2342,7 @@
       <c r="F20" s="25"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="22"/>
       <c r="B21" s="16" t="s">
         <v>35</v>
@@ -2196,7 +2355,7 @@
       <c r="F21" s="25"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="24"/>
       <c r="B22" s="16" t="s">
         <v>36</v>
@@ -2207,7 +2366,7 @@
       <c r="F22" s="25"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.45">
       <c r="A23" s="21" t="s">
         <v>37</v>
       </c>
@@ -2222,7 +2381,7 @@
       <c r="F23" s="25"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="22"/>
       <c r="B24" s="16" t="s">
         <v>40</v>
@@ -2233,7 +2392,7 @@
       <c r="F24" s="25"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="24"/>
       <c r="B25" s="16" t="s">
         <v>41</v>
@@ -2244,7 +2403,7 @@
       <c r="F25" s="25"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="21" t="s">
         <v>42</v>
       </c>
@@ -2259,7 +2418,7 @@
       <c r="F26" s="25"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="22"/>
       <c r="B27" s="16" t="s">
         <v>44</v>
@@ -2270,7 +2429,7 @@
       <c r="F27" s="25"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="22"/>
       <c r="B28" s="16" t="s">
         <v>45</v>
@@ -2281,7 +2440,7 @@
       <c r="F28" s="25"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="22"/>
       <c r="B29" s="16" t="s">
         <v>46</v>
@@ -2294,7 +2453,7 @@
       <c r="F29" s="25"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A30" s="24"/>
       <c r="B30" s="16" t="s">
         <v>47</v>
@@ -2305,7 +2464,7 @@
       <c r="F30" s="25"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>48</v>
@@ -2319,42 +2478,42 @@
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="32" customWidth="1"/>
-    <col min="2" max="2" width="18.625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="25.375" style="32" customWidth="1"/>
-    <col min="4" max="4" width="18.875" style="32" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="32" customWidth="1"/>
-    <col min="6" max="6" width="16.625" style="32" customWidth="1"/>
-    <col min="7" max="7" width="47.375" style="32" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" style="32" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" style="32" customWidth="1"/>
+    <col min="3" max="3" width="25.36328125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="18.90625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" style="32" customWidth="1"/>
+    <col min="6" max="6" width="16.6328125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="47.36328125" style="32" customWidth="1"/>
     <col min="8" max="16384" width="11" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2377,25 +2536,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="76"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="33" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="67">
         <v>43638</v>
       </c>
       <c r="D4" s="35"/>
@@ -2407,14 +2566,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="61"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="13">
@@ -2422,7 +2581,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
@@ -2439,12 +2598,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="15"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="67">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -2454,12 +2613,12 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="38"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="13">
@@ -2467,14 +2626,14 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="39" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="67">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -2484,12 +2643,12 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="38"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="62"/>
+      <c r="C10" s="69"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="13">
@@ -2497,12 +2656,12 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="40"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="13">
@@ -2510,14 +2669,14 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="39" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="60">
+      <c r="C12" s="67">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -2525,58 +2684,58 @@
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="15"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="62"/>
+      <c r="C13" s="69"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="25"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="41"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="62"/>
+      <c r="C14" s="69"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="25"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="42"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="61"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="25"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="51" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="79"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="39" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="67">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -2584,25 +2743,25 @@
       <c r="F17" s="25"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="42"/>
       <c r="B18" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="61"/>
+      <c r="C18" s="68"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="39" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="67" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="12"/>
@@ -2610,23 +2769,23 @@
       <c r="F19" s="25"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="42"/>
       <c r="B20" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="61"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="25"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="42"/>
       <c r="B21" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="60">
+      <c r="C21" s="67">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -2634,25 +2793,25 @@
       <c r="F21" s="25"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="41"/>
       <c r="B22" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="61"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="25"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A23" s="39" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="70" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="12"/>
@@ -2660,36 +2819,36 @@
       <c r="F23" s="25"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="40"/>
       <c r="B24" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="69"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="25"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="40"/>
       <c r="B25" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="25"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="27" x14ac:dyDescent="0.45">
       <c r="A26" s="39" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="60">
+      <c r="C26" s="67">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -2697,34 +2856,34 @@
       <c r="F26" s="25"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="40"/>
       <c r="B27" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="62"/>
+      <c r="C27" s="69"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="25"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="42"/>
       <c r="B28" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="68"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="25"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="42"/>
       <c r="B29" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="60">
+      <c r="C29" s="67">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -2732,23 +2891,23 @@
       <c r="F29" s="25"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A30" s="15"/>
       <c r="B30" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="62"/>
+      <c r="C30" s="69"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="25"/>
       <c r="G30" s="43"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A31" s="35"/>
       <c r="B31" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="61"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
@@ -2756,12 +2915,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C28"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A16:G16"/>
@@ -2769,6 +2922,12 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C28"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -2776,36 +2935,36 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="31.625" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="7" max="7" width="90.75" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
+    <col min="2" max="2" width="31.6328125" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" customWidth="1"/>
+    <col min="7" max="7" width="90.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-    </row>
-    <row r="2" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
+    </row>
+    <row r="2" spans="1:7" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2828,25 +2987,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="76"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="67">
         <v>43638</v>
       </c>
       <c r="D4" s="11"/>
@@ -2860,14 +3019,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="61"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -2877,8 +3036,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="54" t="s">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="80" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -2896,12 +3055,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="55"/>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="81"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="67">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -2913,12 +3072,12 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="56"/>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="82"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12">
         <v>43641</v>
@@ -2930,14 +3089,14 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="57" t="s">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="64" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="67">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -2949,12 +3108,12 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="58"/>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="66"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="62"/>
+      <c r="C10" s="69"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12">
         <v>43641</v>
@@ -2964,12 +3123,12 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="65"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12">
         <v>43641</v>
@@ -2979,14 +3138,14 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="57" t="s">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="64" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="60">
+      <c r="C12" s="67">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -3000,12 +3159,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="58"/>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="66"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="62"/>
+      <c r="C13" s="69"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12">
         <v>43642</v>
@@ -3015,12 +3174,12 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="58"/>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="66"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="62"/>
+      <c r="C14" s="69"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12">
         <v>43642</v>
@@ -3030,12 +3189,12 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="59"/>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="65"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="61"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12">
         <v>43642</v>
@@ -3045,25 +3204,25 @@
       </c>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="51" t="s">
+    <row r="16" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="57" t="s">
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="79"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="64" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="67">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -3071,25 +3230,25 @@
       <c r="F17" s="25"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="59"/>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="65"/>
       <c r="B18" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="61"/>
+      <c r="C18" s="68"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="57" t="s">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="64" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="67" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="12"/>
@@ -3097,23 +3256,23 @@
       <c r="F19" s="25"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="58"/>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="66"/>
       <c r="B20" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="61"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="25"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="58"/>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="66"/>
       <c r="B21" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="60">
+      <c r="C21" s="67">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -3121,25 +3280,25 @@
       <c r="F21" s="25"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="59"/>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="65"/>
       <c r="B22" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="61"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="25"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="57" t="s">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="64" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="70" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="12"/>
@@ -3147,36 +3306,36 @@
       <c r="F23" s="25"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="58"/>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="66"/>
       <c r="B24" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="69"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="25"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="59"/>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="65"/>
       <c r="B25" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="25"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="57" t="s">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="64" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="60">
+      <c r="C26" s="67">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -3184,34 +3343,34 @@
       <c r="F26" s="25"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="58"/>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="66"/>
       <c r="B27" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="62"/>
+      <c r="C27" s="69"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="25"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="58"/>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="66"/>
       <c r="B28" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="68"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="25"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="58"/>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="66"/>
       <c r="B29" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="60">
+      <c r="C29" s="67">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -3219,23 +3378,23 @@
       <c r="F29" s="25"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="59"/>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="65"/>
       <c r="B30" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="62"/>
+      <c r="C30" s="69"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="25"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="61"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -3243,6 +3402,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -3257,12 +3422,6 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -3270,25 +3429,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
-    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" customWidth="1"/>
+    <col min="2" max="2" width="30.6328125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" customWidth="1"/>
     <col min="7" max="7" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -3299,7 +3458,7 @@
       <c r="F1" s="46"/>
       <c r="G1" s="47"/>
     </row>
-    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3322,7 +3481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>8</v>
       </c>
@@ -3333,7 +3492,7 @@
       <c r="F3" s="49"/>
       <c r="G3" s="50"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -3343,16 +3502,18 @@
       <c r="C4" s="60">
         <v>43638</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="83">
+        <v>43642</v>
+      </c>
       <c r="E4" s="12">
         <v>43640</v>
       </c>
       <c r="F4" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
@@ -3365,11 +3526,13 @@
         <v>43640</v>
       </c>
       <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="54" t="s">
         <v>14</v>
       </c>
@@ -3384,11 +3547,13 @@
         <v>43640</v>
       </c>
       <c r="F6" s="13">
-        <v>0</v>
-      </c>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="55"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
@@ -3397,22 +3562,32 @@
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E7" s="12">
+        <v>43641</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="56"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="61"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="25"/>
+      <c r="E8" s="12">
+        <v>43641</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.5</v>
+      </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="57" t="s">
         <v>18</v>
       </c>
@@ -3423,33 +3598,47 @@
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="25"/>
+      <c r="E9" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.2</v>
+      </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="58"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="62"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E10" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="59"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="61"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
+      <c r="E11" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.2</v>
+      </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="57" t="s">
         <v>22</v>
       </c>
@@ -3464,7 +3653,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="58"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
@@ -3475,7 +3664,7 @@
       <c r="F13" s="25"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="58"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
@@ -3486,7 +3675,7 @@
       <c r="F14" s="25"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="59"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
@@ -3497,7 +3686,7 @@
       <c r="F15" s="25"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="51" t="s">
         <v>27</v>
       </c>
@@ -3508,7 +3697,7 @@
       <c r="F16" s="52"/>
       <c r="G16" s="53"/>
     </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="57" t="s">
         <v>28</v>
       </c>
@@ -3518,27 +3707,35 @@
       <c r="C17" s="60">
         <v>43643</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="25"/>
+      <c r="D17" s="12">
+        <v>43643</v>
+      </c>
+      <c r="E17" s="12">
+        <v>43641</v>
+      </c>
+      <c r="F17" s="13">
+        <v>1</v>
+      </c>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="59"/>
       <c r="B18" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="61"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="E18" s="12">
+        <v>43641</v>
+      </c>
       <c r="F18" s="13">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="57" t="s">
         <v>31</v>
       </c>
@@ -3553,7 +3750,7 @@
       <c r="F19" s="25"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="58"/>
       <c r="B20" s="16" t="s">
         <v>34</v>
@@ -3564,7 +3761,7 @@
       <c r="F20" s="25"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="58"/>
       <c r="B21" s="16" t="s">
         <v>35</v>
@@ -3577,7 +3774,7 @@
       <c r="F21" s="25"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="59"/>
       <c r="B22" s="16" t="s">
         <v>36</v>
@@ -3588,7 +3785,7 @@
       <c r="F22" s="25"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A23" s="57" t="s">
         <v>37</v>
       </c>
@@ -3603,7 +3800,7 @@
       <c r="F23" s="25"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="58"/>
       <c r="B24" s="16" t="s">
         <v>40</v>
@@ -3614,7 +3811,7 @@
       <c r="F24" s="25"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="59"/>
       <c r="B25" s="16" t="s">
         <v>41</v>
@@ -3625,7 +3822,7 @@
       <c r="F25" s="25"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="57" t="s">
         <v>42</v>
       </c>
@@ -3640,7 +3837,7 @@
       <c r="F26" s="25"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="58"/>
       <c r="B27" s="16" t="s">
         <v>44</v>
@@ -3651,7 +3848,7 @@
       <c r="F27" s="25"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="58"/>
       <c r="B28" s="16" t="s">
         <v>45</v>
@@ -3662,7 +3859,7 @@
       <c r="F28" s="25"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="58"/>
       <c r="B29" s="16" t="s">
         <v>46</v>
@@ -3675,7 +3872,7 @@
       <c r="F29" s="25"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A30" s="59"/>
       <c r="B30" s="16" t="s">
         <v>47</v>
@@ -3686,7 +3883,7 @@
       <c r="F30" s="25"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>48</v>
@@ -3698,7 +3895,479 @@
       <c r="G31" s="31"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7265625" customWidth="1"/>
+    <col min="2" max="2" width="30.6328125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" customWidth="1"/>
+    <col min="7" max="7" width="90" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
+    </row>
+    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="76"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="67">
+        <v>43638</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12">
+        <v>43640</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="68"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12">
+        <v>43640</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="12">
+        <v>43639</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12">
+        <v>43640</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="81"/>
+      <c r="B7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="67">
+        <v>43640</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12">
+        <v>43641</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="82"/>
+      <c r="B8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12">
+        <v>43641</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="67">
+        <v>43641</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="66"/>
+      <c r="B10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="69"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1</v>
+      </c>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="65"/>
+      <c r="B11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="68"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="67">
+        <v>43642</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F12" s="13">
+        <v>1</v>
+      </c>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="66"/>
+      <c r="B13" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="69"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="66"/>
+      <c r="B14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="69"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="65"/>
+      <c r="B15" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="68"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="79"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="67">
+        <v>43643</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="65"/>
+      <c r="B18" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="68"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="66"/>
+      <c r="B20" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="68"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="66"/>
+      <c r="B21" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="67">
+        <v>43646</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="65"/>
+      <c r="B22" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="68"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="66"/>
+      <c r="B24" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="69"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="65"/>
+      <c r="B25" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="68"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="67">
+        <v>43650</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="66"/>
+      <c r="B27" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="69"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="66"/>
+      <c r="B28" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="68"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="66"/>
+      <c r="B29" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="67">
+        <v>43651</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="65"/>
+      <c r="B30" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="69"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="30"/>
+    </row>
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A31" s="11"/>
+      <c r="B31" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="68"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="31"/>
+    </row>
+  </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -3713,500 +4382,6 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
-  </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="2" max="2" width="30.625" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="90" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-    </row>
-    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="60">
-        <v>43638</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12">
-        <v>43640</v>
-      </c>
-      <c r="F4" s="13">
-        <v>0.6</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12">
-        <v>43640</v>
-      </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="12">
-        <v>43639</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12">
-        <v>43640</v>
-      </c>
-      <c r="F6" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="55"/>
-      <c r="B7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="60">
-        <v>43640</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12">
-        <v>43641</v>
-      </c>
-      <c r="F7" s="13">
-        <v>1</v>
-      </c>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="56"/>
-      <c r="B8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12">
-        <v>43641</v>
-      </c>
-      <c r="F8" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="60">
-        <v>43641</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12">
-        <v>43642</v>
-      </c>
-      <c r="F9" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="58"/>
-      <c r="B10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12">
-        <v>43642</v>
-      </c>
-      <c r="F10" s="13">
-        <v>1</v>
-      </c>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
-      <c r="B11" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12">
-        <v>43642</v>
-      </c>
-      <c r="F11" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="60">
-        <v>43642</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12">
-        <v>43642</v>
-      </c>
-      <c r="F12" s="13">
-        <v>1</v>
-      </c>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="58"/>
-      <c r="B13" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="58"/>
-      <c r="B14" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="59"/>
-      <c r="B15" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="60">
-        <v>43643</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="59"/>
-      <c r="B18" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="58"/>
-      <c r="B20" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="58"/>
-      <c r="B21" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="60">
-        <v>43646</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="59"/>
-      <c r="B22" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="58"/>
-      <c r="B24" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="62"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="59"/>
-      <c r="B25" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="60">
-        <v>43650</v>
-      </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="14"/>
-    </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="58"/>
-      <c r="B27" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="58"/>
-      <c r="B28" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="14"/>
-    </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="58"/>
-      <c r="B29" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="60">
-        <v>43651</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="14"/>
-    </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="59"/>
-      <c r="B30" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="30"/>
-    </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
-      <c r="B31" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="31"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/樊佩茹/项目进度控制表-樊佩茹 .xlsx
+++ b/樊佩茹/项目进度控制表-樊佩茹 .xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SDX\Desktop\hgkj_02\樊佩茹\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFDAEBF-9431-4D87-9E59-4A25FA5F8A23}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="樊佩茹" sheetId="1" r:id="rId1"/>
@@ -220,7 +214,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -658,13 +652,55 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -678,53 +714,11 @@
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -782,7 +776,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -815,26 +809,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -867,23 +844,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1059,33 +1019,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="29.7265625" customWidth="1"/>
-    <col min="3" max="6" width="15.6328125" customWidth="1"/>
-    <col min="7" max="7" width="84.6328125" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="29.75" customWidth="1"/>
+    <col min="3" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="84.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="73"/>
-    </row>
-    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="68"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1108,25 +1068,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="44" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
+    <row r="3" spans="1:7" s="44" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="76"/>
-    </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="67">
+      <c r="C4" s="81">
         <v>43638</v>
       </c>
       <c r="D4" s="11"/>
@@ -1140,14 +1100,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="68"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -1157,8 +1117,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="80" t="s">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="75" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -1178,12 +1138,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="81"/>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="76"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="67">
+      <c r="C7" s="81">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -1197,12 +1157,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="82"/>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="77"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="68"/>
+      <c r="C8" s="82"/>
       <c r="D8" s="12">
         <v>43641</v>
       </c>
@@ -1214,14 +1174,14 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="64" t="s">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="78" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="67">
+      <c r="C9" s="81">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -1233,12 +1193,12 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="66"/>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="79"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="69"/>
+      <c r="C10" s="83"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12">
         <v>43642</v>
@@ -1250,12 +1210,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="65"/>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="80"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="68"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12">
         <v>43642</v>
@@ -1265,14 +1225,14 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="64" t="s">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="78" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="67">
+      <c r="C12" s="81">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -1280,58 +1240,58 @@
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="66"/>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="79"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="69"/>
+      <c r="C13" s="83"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="25"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="66"/>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="79"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="69"/>
+      <c r="C14" s="83"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="25"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="65"/>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="80"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="68"/>
+      <c r="C15" s="82"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="25"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="77" t="s">
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="79"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="64" t="s">
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="74"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="78" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="67">
+      <c r="C17" s="81">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -1339,25 +1299,25 @@
       <c r="F17" s="25"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="65"/>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="80"/>
       <c r="B18" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="68"/>
+      <c r="C18" s="82"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="64" t="s">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="78" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="81" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="12"/>
@@ -1365,23 +1325,23 @@
       <c r="F19" s="25"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="66"/>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="79"/>
       <c r="B20" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="68"/>
+      <c r="C20" s="82"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="25"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="66"/>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="79"/>
       <c r="B21" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="67">
+      <c r="C21" s="81">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -1389,25 +1349,25 @@
       <c r="F21" s="25"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="65"/>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="80"/>
       <c r="B22" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="68"/>
+      <c r="C22" s="82"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="25"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="64" t="s">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="78" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="84" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="12"/>
@@ -1415,36 +1375,36 @@
       <c r="F23" s="25"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="66"/>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="79"/>
       <c r="B24" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="69"/>
+      <c r="C24" s="83"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="25"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="65"/>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="80"/>
       <c r="B25" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="68"/>
+      <c r="C25" s="82"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="25"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="64" t="s">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="78" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="67">
+      <c r="C26" s="81">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -1452,34 +1412,34 @@
       <c r="F26" s="25"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="66"/>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="79"/>
       <c r="B27" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="69"/>
+      <c r="C27" s="83"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="25"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="66"/>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="79"/>
       <c r="B28" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="68"/>
+      <c r="C28" s="82"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="25"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="66"/>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="79"/>
       <c r="B29" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="67">
+      <c r="C29" s="81">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -1487,23 +1447,23 @@
       <c r="F29" s="25"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="65"/>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="80"/>
       <c r="B30" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="69"/>
+      <c r="C30" s="83"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="25"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="68"/>
+      <c r="C31" s="82"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -1511,12 +1471,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -1531,6 +1485,12 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1539,36 +1499,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.90625" customWidth="1"/>
-    <col min="2" max="2" width="32.90625" customWidth="1"/>
-    <col min="3" max="3" width="15.08984375" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" customWidth="1"/>
-    <col min="5" max="5" width="14.90625" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" customWidth="1"/>
-    <col min="7" max="7" width="81.08984375" customWidth="1"/>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="32.875" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="81.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="73"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="68"/>
+    </row>
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1591,25 +1551,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
+    <row r="3" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="76"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="67">
+      <c r="C4" s="81">
         <v>43638</v>
       </c>
       <c r="D4" s="11"/>
@@ -1623,14 +1583,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="68"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -1640,8 +1600,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="80" t="s">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="75" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -1659,12 +1619,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="81"/>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="76"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="67">
+      <c r="C7" s="81">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -1678,25 +1638,25 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="82"/>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="77"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="68"/>
+      <c r="C8" s="82"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="25"/>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="64" t="s">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="78" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="67">
+      <c r="C9" s="81">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -1704,12 +1664,12 @@
       <c r="F9" s="25"/>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="66"/>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="79"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="69"/>
+      <c r="C10" s="83"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12">
         <v>43642</v>
@@ -1721,25 +1681,25 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="65"/>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="80"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="68"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="13"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="64" t="s">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="78" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="67">
+      <c r="C12" s="81">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -1747,12 +1707,12 @@
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="66"/>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="79"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="69"/>
+      <c r="C13" s="83"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12">
         <v>43642</v>
@@ -1764,12 +1724,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="66"/>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="79"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="69"/>
+      <c r="C14" s="83"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12">
         <v>43642</v>
@@ -1781,36 +1741,36 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="65"/>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="80"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="68"/>
+      <c r="C15" s="82"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="25"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="77" t="s">
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="79"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="64" t="s">
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="74"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="78" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="67">
+      <c r="C17" s="81">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -1818,25 +1778,25 @@
       <c r="F17" s="25"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="65"/>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="80"/>
       <c r="B18" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="68"/>
+      <c r="C18" s="82"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="64" t="s">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="78" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="81" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="12"/>
@@ -1844,23 +1804,23 @@
       <c r="F19" s="25"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="66"/>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="79"/>
       <c r="B20" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="68"/>
+      <c r="C20" s="82"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="25"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="66"/>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="79"/>
       <c r="B21" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="67">
+      <c r="C21" s="81">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -1868,25 +1828,25 @@
       <c r="F21" s="25"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="65"/>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="80"/>
       <c r="B22" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="68"/>
+      <c r="C22" s="82"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="25"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="64" t="s">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="78" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="84" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="12"/>
@@ -1894,36 +1854,36 @@
       <c r="F23" s="25"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="66"/>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="79"/>
       <c r="B24" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="69"/>
+      <c r="C24" s="83"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="25"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="65"/>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="80"/>
       <c r="B25" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="68"/>
+      <c r="C25" s="82"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="25"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="64" t="s">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="78" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="67">
+      <c r="C26" s="81">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -1931,34 +1891,34 @@
       <c r="F26" s="25"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="66"/>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="79"/>
       <c r="B27" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="69"/>
+      <c r="C27" s="83"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="25"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="66"/>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="79"/>
       <c r="B28" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="68"/>
+      <c r="C28" s="82"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="25"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="66"/>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="79"/>
       <c r="B29" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="67">
+      <c r="C29" s="81">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -1966,23 +1926,23 @@
       <c r="F29" s="25"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="65"/>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="80"/>
       <c r="B30" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="69"/>
+      <c r="C30" s="83"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="25"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="68"/>
+      <c r="C31" s="82"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -1990,12 +1950,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -2010,6 +1964,12 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2018,25 +1978,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.36328125" customWidth="1"/>
-    <col min="2" max="2" width="31.6328125" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="31.625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="87.6328125" customWidth="1"/>
+    <col min="7" max="7" width="87.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2047,7 +2007,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2070,7 +2030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2081,7 +2041,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -2102,7 +2062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
@@ -2119,7 +2079,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
@@ -2138,9 +2098,9 @@
       <c r="F6" s="13">
         <v>1</v>
       </c>
-      <c r="G6" s="84"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="G6" s="65"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
@@ -2157,11 +2117,11 @@
       <c r="F7" s="13">
         <v>0.8</v>
       </c>
-      <c r="G7" s="84" t="s">
+      <c r="G7" s="65" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="20"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
@@ -2176,7 +2136,7 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>18</v>
       </c>
@@ -2195,7 +2155,7 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="22"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
@@ -2208,11 +2168,11 @@
       <c r="F10" s="13">
         <v>0.8</v>
       </c>
-      <c r="G10" s="84" t="s">
+      <c r="G10" s="65" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
@@ -2223,7 +2183,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>22</v>
       </c>
@@ -2242,11 +2202,11 @@
       <c r="F12" s="13">
         <v>0.8</v>
       </c>
-      <c r="G12" s="84" t="s">
+      <c r="G12" s="65" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="22"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
@@ -2257,7 +2217,7 @@
       <c r="F13" s="25"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="22"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
@@ -2268,7 +2228,7 @@
       <c r="F14" s="25"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
@@ -2279,7 +2239,7 @@
       <c r="F15" s="25"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="26" t="s">
         <v>27</v>
       </c>
@@ -2290,7 +2250,7 @@
       <c r="F16" s="27"/>
       <c r="G16" s="28"/>
     </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>28</v>
       </c>
@@ -2305,7 +2265,7 @@
       <c r="F17" s="25"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
         <v>30</v>
@@ -2316,7 +2276,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>31</v>
       </c>
@@ -2331,7 +2291,7 @@
       <c r="F19" s="25"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="22"/>
       <c r="B20" s="16" t="s">
         <v>34</v>
@@ -2342,7 +2302,7 @@
       <c r="F20" s="25"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="22"/>
       <c r="B21" s="16" t="s">
         <v>35</v>
@@ -2355,7 +2315,7 @@
       <c r="F21" s="25"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="24"/>
       <c r="B22" s="16" t="s">
         <v>36</v>
@@ -2366,7 +2326,7 @@
       <c r="F22" s="25"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
         <v>37</v>
       </c>
@@ -2381,7 +2341,7 @@
       <c r="F23" s="25"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="22"/>
       <c r="B24" s="16" t="s">
         <v>40</v>
@@ -2392,7 +2352,7 @@
       <c r="F24" s="25"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="24"/>
       <c r="B25" s="16" t="s">
         <v>41</v>
@@ -2403,7 +2363,7 @@
       <c r="F25" s="25"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
         <v>42</v>
       </c>
@@ -2418,7 +2378,7 @@
       <c r="F26" s="25"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="22"/>
       <c r="B27" s="16" t="s">
         <v>44</v>
@@ -2429,7 +2389,7 @@
       <c r="F27" s="25"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="22"/>
       <c r="B28" s="16" t="s">
         <v>45</v>
@@ -2440,7 +2400,7 @@
       <c r="F28" s="25"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="22"/>
       <c r="B29" s="16" t="s">
         <v>46</v>
@@ -2453,7 +2413,7 @@
       <c r="F29" s="25"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="24"/>
       <c r="B30" s="16" t="s">
         <v>47</v>
@@ -2464,7 +2424,7 @@
       <c r="F30" s="25"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>48</v>
@@ -2483,37 +2443,37 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.453125" style="32" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" style="32" customWidth="1"/>
-    <col min="3" max="3" width="25.36328125" style="32" customWidth="1"/>
-    <col min="4" max="4" width="18.90625" style="32" customWidth="1"/>
-    <col min="5" max="5" width="18.453125" style="32" customWidth="1"/>
-    <col min="6" max="6" width="16.6328125" style="32" customWidth="1"/>
-    <col min="7" max="7" width="47.36328125" style="32" customWidth="1"/>
+    <col min="1" max="1" width="16.5" style="32" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="25.375" style="32" customWidth="1"/>
+    <col min="4" max="4" width="18.875" style="32" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="32" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="32" customWidth="1"/>
+    <col min="7" max="7" width="47.375" style="32" customWidth="1"/>
     <col min="8" max="16384" width="11" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="73"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="68"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2536,25 +2496,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="76"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="67">
+      <c r="C4" s="81">
         <v>43638</v>
       </c>
       <c r="D4" s="35"/>
@@ -2566,14 +2526,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="68"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="13">
@@ -2581,7 +2541,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
@@ -2598,12 +2558,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="67">
+      <c r="C7" s="81">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -2613,12 +2573,12 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="38"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="68"/>
+      <c r="C8" s="82"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="13">
@@ -2626,14 +2586,14 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="67">
+      <c r="C9" s="81">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -2643,12 +2603,12 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="38"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="69"/>
+      <c r="C10" s="83"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="13">
@@ -2656,12 +2616,12 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="40"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="68"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="13">
@@ -2669,14 +2629,14 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="67">
+      <c r="C12" s="81">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -2684,58 +2644,58 @@
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="69"/>
+      <c r="C13" s="83"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="25"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="41"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="69"/>
+      <c r="C14" s="83"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="25"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="42"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="68"/>
+      <c r="C15" s="82"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="25"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="77" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="79"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="74"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="39" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="67">
+      <c r="C17" s="81">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -2743,25 +2703,25 @@
       <c r="F17" s="25"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="42"/>
       <c r="B18" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="68"/>
+      <c r="C18" s="82"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="39" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="81" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="12"/>
@@ -2769,23 +2729,23 @@
       <c r="F19" s="25"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="42"/>
       <c r="B20" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="68"/>
+      <c r="C20" s="82"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="25"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="42"/>
       <c r="B21" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="67">
+      <c r="C21" s="81">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -2793,25 +2753,25 @@
       <c r="F21" s="25"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="41"/>
       <c r="B22" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="68"/>
+      <c r="C22" s="82"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="25"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="84" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="12"/>
@@ -2819,36 +2779,36 @@
       <c r="F23" s="25"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="69"/>
+      <c r="C24" s="83"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="25"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="68"/>
+      <c r="C25" s="82"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="25"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="27" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A26" s="39" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="67">
+      <c r="C26" s="81">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -2856,34 +2816,34 @@
       <c r="F26" s="25"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="69"/>
+      <c r="C27" s="83"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="25"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="42"/>
       <c r="B28" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="68"/>
+      <c r="C28" s="82"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="25"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="42"/>
       <c r="B29" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="67">
+      <c r="C29" s="81">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -2891,23 +2851,23 @@
       <c r="F29" s="25"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
       <c r="B30" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="69"/>
+      <c r="C30" s="83"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="25"/>
       <c r="G30" s="43"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="35"/>
       <c r="B31" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="68"/>
+      <c r="C31" s="82"/>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
@@ -2915,6 +2875,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C28"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A16:G16"/>
@@ -2922,12 +2888,6 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="C12:C15"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C28"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -2935,36 +2895,36 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.453125" customWidth="1"/>
-    <col min="2" max="2" width="31.6328125" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" customWidth="1"/>
-    <col min="4" max="4" width="13.6328125" customWidth="1"/>
-    <col min="5" max="5" width="15.6328125" customWidth="1"/>
-    <col min="6" max="6" width="14.90625" customWidth="1"/>
-    <col min="7" max="7" width="90.7265625" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="31.625" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="90.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="73"/>
-    </row>
-    <row r="2" spans="1:7" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="68"/>
+    </row>
+    <row r="2" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2987,25 +2947,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
+    <row r="3" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="76"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="67">
+      <c r="C4" s="81">
         <v>43638</v>
       </c>
       <c r="D4" s="11"/>
@@ -3019,14 +2979,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="68"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -3036,8 +2996,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="80" t="s">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="75" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -3046,21 +3006,23 @@
       <c r="C6" s="12">
         <v>43639</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="12">
+        <v>43643</v>
+      </c>
       <c r="E6" s="12">
         <v>43640</v>
       </c>
       <c r="F6" s="13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="81"/>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="76"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="67">
+      <c r="C7" s="81">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -3068,35 +3030,36 @@
         <v>43641</v>
       </c>
       <c r="F7" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="82"/>
+        <v>0.9</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="77"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="12"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="12">
+        <v>43643</v>
+      </c>
       <c r="E8" s="12">
         <v>43641</v>
       </c>
       <c r="F8" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="64" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="78" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="67">
+      <c r="C9" s="81">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -3108,44 +3071,44 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="66"/>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="79"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="69"/>
+      <c r="C10" s="83"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12">
         <v>43641</v>
       </c>
       <c r="F10" s="13">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="65"/>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="80"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="68"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12">
         <v>43641</v>
       </c>
       <c r="F11" s="13">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="64" t="s">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="78" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="67">
+      <c r="C12" s="81">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -3159,12 +3122,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="66"/>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="79"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="69"/>
+      <c r="C13" s="83"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12">
         <v>43642</v>
@@ -3174,12 +3137,12 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="66"/>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="79"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="69"/>
+      <c r="C14" s="83"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12">
         <v>43642</v>
@@ -3189,12 +3152,12 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="65"/>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="80"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="68"/>
+      <c r="C15" s="82"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12">
         <v>43642</v>
@@ -3204,25 +3167,25 @@
       </c>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="77" t="s">
+    <row r="16" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="79"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="64" t="s">
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="74"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="78" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="67">
+      <c r="C17" s="81">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -3230,25 +3193,25 @@
       <c r="F17" s="25"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="65"/>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="80"/>
       <c r="B18" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="68"/>
+      <c r="C18" s="82"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="64" t="s">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="78" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="81" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="12"/>
@@ -3256,23 +3219,23 @@
       <c r="F19" s="25"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="66"/>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="79"/>
       <c r="B20" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="68"/>
+      <c r="C20" s="82"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="25"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="66"/>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="79"/>
       <c r="B21" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="67">
+      <c r="C21" s="81">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -3280,25 +3243,25 @@
       <c r="F21" s="25"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="65"/>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="80"/>
       <c r="B22" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="68"/>
+      <c r="C22" s="82"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="25"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="64" t="s">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="78" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="84" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="12"/>
@@ -3306,36 +3269,36 @@
       <c r="F23" s="25"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="66"/>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="79"/>
       <c r="B24" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="69"/>
+      <c r="C24" s="83"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="25"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="65"/>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="80"/>
       <c r="B25" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="68"/>
+      <c r="C25" s="82"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="25"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="64" t="s">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="78" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="67">
+      <c r="C26" s="81">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -3343,34 +3306,34 @@
       <c r="F26" s="25"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="66"/>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="79"/>
       <c r="B27" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="69"/>
+      <c r="C27" s="83"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="25"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="66"/>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="79"/>
       <c r="B28" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="68"/>
+      <c r="C28" s="82"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="25"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="66"/>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="79"/>
       <c r="B29" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="67">
+      <c r="C29" s="81">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -3378,23 +3341,23 @@
       <c r="F29" s="25"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="65"/>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="80"/>
       <c r="B30" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="69"/>
+      <c r="C30" s="83"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="25"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="68"/>
+      <c r="C31" s="82"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -3402,12 +3365,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -3422,6 +3379,12 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -3429,25 +3392,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+    <sheetView topLeftCell="C3" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" customWidth="1"/>
-    <col min="2" max="2" width="30.6328125" customWidth="1"/>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
     <col min="7" max="7" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -3458,7 +3421,7 @@
       <c r="F1" s="46"/>
       <c r="G1" s="47"/>
     </row>
-    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3481,7 +3444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="48" t="s">
         <v>8</v>
       </c>
@@ -3492,7 +3455,7 @@
       <c r="F3" s="49"/>
       <c r="G3" s="50"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -3502,7 +3465,7 @@
       <c r="C4" s="60">
         <v>43638</v>
       </c>
-      <c r="D4" s="83">
+      <c r="D4" s="64">
         <v>43642</v>
       </c>
       <c r="E4" s="12">
@@ -3513,7 +3476,7 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
@@ -3532,7 +3495,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="54" t="s">
         <v>14</v>
       </c>
@@ -3553,7 +3516,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="55"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
@@ -3572,7 +3535,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="56"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
@@ -3587,7 +3550,7 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="57" t="s">
         <v>18</v>
       </c>
@@ -3606,7 +3569,7 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="58"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
@@ -3623,7 +3586,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="59"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
@@ -3638,7 +3601,7 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="57" t="s">
         <v>22</v>
       </c>
@@ -3653,7 +3616,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="58"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
@@ -3664,7 +3627,7 @@
       <c r="F13" s="25"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="58"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
@@ -3675,7 +3638,7 @@
       <c r="F14" s="25"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="59"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
@@ -3686,7 +3649,7 @@
       <c r="F15" s="25"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="51" t="s">
         <v>27</v>
       </c>
@@ -3697,7 +3660,7 @@
       <c r="F16" s="52"/>
       <c r="G16" s="53"/>
     </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="57" t="s">
         <v>28</v>
       </c>
@@ -3718,7 +3681,7 @@
       </c>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="59"/>
       <c r="B18" s="16" t="s">
         <v>30</v>
@@ -3735,7 +3698,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="57" t="s">
         <v>31</v>
       </c>
@@ -3750,7 +3713,7 @@
       <c r="F19" s="25"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="58"/>
       <c r="B20" s="16" t="s">
         <v>34</v>
@@ -3761,7 +3724,7 @@
       <c r="F20" s="25"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="58"/>
       <c r="B21" s="16" t="s">
         <v>35</v>
@@ -3774,7 +3737,7 @@
       <c r="F21" s="25"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="59"/>
       <c r="B22" s="16" t="s">
         <v>36</v>
@@ -3785,7 +3748,7 @@
       <c r="F22" s="25"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="57" t="s">
         <v>37</v>
       </c>
@@ -3800,7 +3763,7 @@
       <c r="F23" s="25"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="58"/>
       <c r="B24" s="16" t="s">
         <v>40</v>
@@ -3811,7 +3774,7 @@
       <c r="F24" s="25"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="59"/>
       <c r="B25" s="16" t="s">
         <v>41</v>
@@ -3822,7 +3785,7 @@
       <c r="F25" s="25"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="57" t="s">
         <v>42</v>
       </c>
@@ -3837,7 +3800,7 @@
       <c r="F26" s="25"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="58"/>
       <c r="B27" s="16" t="s">
         <v>44</v>
@@ -3848,7 +3811,7 @@
       <c r="F27" s="25"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="58"/>
       <c r="B28" s="16" t="s">
         <v>45</v>
@@ -3859,7 +3822,7 @@
       <c r="F28" s="25"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="58"/>
       <c r="B29" s="16" t="s">
         <v>46</v>
@@ -3872,7 +3835,7 @@
       <c r="F29" s="25"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="59"/>
       <c r="B30" s="16" t="s">
         <v>47</v>
@@ -3883,7 +3846,7 @@
       <c r="F30" s="25"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>48</v>
@@ -3901,36 +3864,36 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" customWidth="1"/>
-    <col min="2" max="2" width="30.6328125" customWidth="1"/>
+    <col min="1" max="1" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
     <col min="7" max="7" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="73"/>
-    </row>
-    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="68"/>
+    </row>
+    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3953,25 +3916,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
+    <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="76"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="67">
+      <c r="C4" s="81">
         <v>43638</v>
       </c>
       <c r="D4" s="11"/>
@@ -3985,14 +3948,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="68"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -4002,8 +3965,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="80" t="s">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="75" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -4023,12 +3986,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="81"/>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="76"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="67">
+      <c r="C7" s="81">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -4040,12 +4003,12 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="82"/>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="77"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="68"/>
+      <c r="C8" s="82"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12">
         <v>43641</v>
@@ -4057,14 +4020,14 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="64" t="s">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="78" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="67">
+      <c r="C9" s="81">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -4078,12 +4041,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="66"/>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="79"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="69"/>
+      <c r="C10" s="83"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12">
         <v>43642</v>
@@ -4093,12 +4056,12 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="65"/>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="80"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="68"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12">
         <v>43642</v>
@@ -4108,14 +4071,14 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="64" t="s">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="78" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="67">
+      <c r="C12" s="81">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -4127,58 +4090,58 @@
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="66"/>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="79"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="69"/>
+      <c r="C13" s="83"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="25"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="66"/>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="79"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="69"/>
+      <c r="C14" s="83"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="25"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="65"/>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="80"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="68"/>
+      <c r="C15" s="82"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="25"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="77" t="s">
+    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="79"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="64" t="s">
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="74"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="78" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="67">
+      <c r="C17" s="81">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -4186,12 +4149,12 @@
       <c r="F17" s="25"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="65"/>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="80"/>
       <c r="B18" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="68"/>
+      <c r="C18" s="82"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13">
@@ -4201,14 +4164,14 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="64" t="s">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="78" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="81" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="12"/>
@@ -4216,23 +4179,23 @@
       <c r="F19" s="25"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="66"/>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="79"/>
       <c r="B20" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="68"/>
+      <c r="C20" s="82"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="25"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="66"/>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="79"/>
       <c r="B21" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="67">
+      <c r="C21" s="81">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -4240,25 +4203,25 @@
       <c r="F21" s="25"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="65"/>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="80"/>
       <c r="B22" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="68"/>
+      <c r="C22" s="82"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="25"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="64" t="s">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="78" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="84" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="12"/>
@@ -4266,36 +4229,36 @@
       <c r="F23" s="25"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="66"/>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="79"/>
       <c r="B24" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="69"/>
+      <c r="C24" s="83"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="25"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="65"/>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="80"/>
       <c r="B25" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="68"/>
+      <c r="C25" s="82"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="25"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="64" t="s">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="78" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="67">
+      <c r="C26" s="81">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -4303,34 +4266,34 @@
       <c r="F26" s="25"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="66"/>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="79"/>
       <c r="B27" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="69"/>
+      <c r="C27" s="83"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="25"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="66"/>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="79"/>
       <c r="B28" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="68"/>
+      <c r="C28" s="82"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="25"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="66"/>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="79"/>
       <c r="B29" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="67">
+      <c r="C29" s="81">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -4338,23 +4301,23 @@
       <c r="F29" s="25"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="65"/>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="80"/>
       <c r="B30" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="69"/>
+      <c r="C30" s="83"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="25"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="68"/>
+      <c r="C31" s="82"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -4362,12 +4325,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -4382,6 +4339,12 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/樊佩茹/项目进度控制表-樊佩茹 .xlsx
+++ b/樊佩茹/项目进度控制表-樊佩茹 .xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SDX\Desktop\hgkj_02\樊佩茹\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFDAEBF-9431-4D87-9E59-4A25FA5F8A23}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="4"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="樊佩茹" sheetId="1" r:id="rId1"/>
@@ -214,7 +220,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -652,73 +658,73 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -776,7 +782,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -809,9 +815,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -844,6 +867,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1019,33 +1059,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="29.75" customWidth="1"/>
-    <col min="3" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="84.625" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" customWidth="1"/>
+    <col min="3" max="6" width="15.6328125" customWidth="1"/>
+    <col min="7" max="7" width="84.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="68"/>
-    </row>
-    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1068,25 +1108,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="44" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="69" t="s">
+    <row r="3" spans="1:7" s="44" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="71"/>
-    </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="76"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="81">
+      <c r="C4" s="67">
         <v>43638</v>
       </c>
       <c r="D4" s="11"/>
@@ -1100,14 +1140,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="82"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -1117,8 +1157,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="75" t="s">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="80" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -1138,12 +1178,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="76"/>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="81"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="81">
+      <c r="C7" s="67">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -1157,12 +1197,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="77"/>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="82"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="82"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="12">
         <v>43641</v>
       </c>
@@ -1174,14 +1214,14 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="78" t="s">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="64" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="81">
+      <c r="C9" s="67">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -1193,12 +1233,12 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="79"/>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="66"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="83"/>
+      <c r="C10" s="69"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12">
         <v>43642</v>
@@ -1210,12 +1250,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="80"/>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="65"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="82"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12">
         <v>43642</v>
@@ -1225,14 +1265,14 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="78" t="s">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="64" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="81">
+      <c r="C12" s="67">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -1240,58 +1280,58 @@
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="79"/>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="66"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="83"/>
+      <c r="C13" s="69"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="25"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="79"/>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="66"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="83"/>
+      <c r="C14" s="69"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="25"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="80"/>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="65"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="82"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="25"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="72" t="s">
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="74"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="78" t="s">
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="79"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="64" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="81">
+      <c r="C17" s="67">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -1299,25 +1339,25 @@
       <c r="F17" s="25"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="80"/>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="65"/>
       <c r="B18" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="82"/>
+      <c r="C18" s="68"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="78" t="s">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="64" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="81" t="s">
+      <c r="C19" s="67" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="12"/>
@@ -1325,23 +1365,23 @@
       <c r="F19" s="25"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="79"/>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="66"/>
       <c r="B20" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="82"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="25"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="79"/>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="66"/>
       <c r="B21" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="81">
+      <c r="C21" s="67">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -1349,25 +1389,25 @@
       <c r="F21" s="25"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="80"/>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="65"/>
       <c r="B22" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="82"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="25"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="78" t="s">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="64" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="84" t="s">
+      <c r="C23" s="70" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="12"/>
@@ -1375,36 +1415,36 @@
       <c r="F23" s="25"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="79"/>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="66"/>
       <c r="B24" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="83"/>
+      <c r="C24" s="69"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="25"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="80"/>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="65"/>
       <c r="B25" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="82"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="25"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="78" t="s">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="64" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="81">
+      <c r="C26" s="67">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -1412,34 +1452,34 @@
       <c r="F26" s="25"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="79"/>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="66"/>
       <c r="B27" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="83"/>
+      <c r="C27" s="69"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="25"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="79"/>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="66"/>
       <c r="B28" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="82"/>
+      <c r="C28" s="68"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="25"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="79"/>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="66"/>
       <c r="B29" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="81">
+      <c r="C29" s="67">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -1447,23 +1487,23 @@
       <c r="F29" s="25"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="80"/>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="65"/>
       <c r="B30" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="83"/>
+      <c r="C30" s="69"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="25"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="82"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -1471,6 +1511,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -1485,12 +1531,6 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1499,36 +1539,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.875" customWidth="1"/>
-    <col min="2" max="2" width="32.875" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="81.125" customWidth="1"/>
+    <col min="1" max="1" width="18.90625" customWidth="1"/>
+    <col min="2" max="2" width="32.90625" customWidth="1"/>
+    <col min="3" max="3" width="15.08984375" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" customWidth="1"/>
+    <col min="5" max="5" width="14.90625" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" customWidth="1"/>
+    <col min="7" max="7" width="81.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="68"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
+    </row>
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1551,25 +1591,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="69" t="s">
+    <row r="3" spans="1:7" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="71"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="76"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="81">
+      <c r="C4" s="67">
         <v>43638</v>
       </c>
       <c r="D4" s="11"/>
@@ -1583,14 +1623,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="82"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -1600,8 +1640,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="75" t="s">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="80" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -1619,12 +1659,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="76"/>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="81"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="81">
+      <c r="C7" s="67">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -1638,25 +1678,25 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="77"/>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="82"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="82"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="25"/>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="78" t="s">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="64" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="81">
+      <c r="C9" s="67">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -1664,12 +1704,12 @@
       <c r="F9" s="25"/>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="79"/>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="66"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="83"/>
+      <c r="C10" s="69"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12">
         <v>43642</v>
@@ -1681,25 +1721,25 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="80"/>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="65"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="82"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="13"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="78" t="s">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="64" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="81">
+      <c r="C12" s="67">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -1707,12 +1747,12 @@
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="79"/>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="66"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="83"/>
+      <c r="C13" s="69"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12">
         <v>43642</v>
@@ -1724,12 +1764,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="79"/>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="66"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="83"/>
+      <c r="C14" s="69"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12">
         <v>43642</v>
@@ -1741,36 +1781,36 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="80"/>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="65"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="82"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="25"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="72" t="s">
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="74"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="78" t="s">
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="79"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="64" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="81">
+      <c r="C17" s="67">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -1778,25 +1818,25 @@
       <c r="F17" s="25"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="80"/>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="65"/>
       <c r="B18" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="82"/>
+      <c r="C18" s="68"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="78" t="s">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="64" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="81" t="s">
+      <c r="C19" s="67" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="12"/>
@@ -1804,23 +1844,23 @@
       <c r="F19" s="25"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="79"/>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="66"/>
       <c r="B20" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="82"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="25"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="79"/>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="66"/>
       <c r="B21" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="81">
+      <c r="C21" s="67">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -1828,25 +1868,25 @@
       <c r="F21" s="25"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="80"/>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="65"/>
       <c r="B22" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="82"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="25"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="78" t="s">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="64" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="84" t="s">
+      <c r="C23" s="70" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="12"/>
@@ -1854,36 +1894,36 @@
       <c r="F23" s="25"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="79"/>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="66"/>
       <c r="B24" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="83"/>
+      <c r="C24" s="69"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="25"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="80"/>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="65"/>
       <c r="B25" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="82"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="25"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="78" t="s">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="64" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="81">
+      <c r="C26" s="67">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -1891,34 +1931,34 @@
       <c r="F26" s="25"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="79"/>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="66"/>
       <c r="B27" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="83"/>
+      <c r="C27" s="69"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="25"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="79"/>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="66"/>
       <c r="B28" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="82"/>
+      <c r="C28" s="68"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="25"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="79"/>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="66"/>
       <c r="B29" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="81">
+      <c r="C29" s="67">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -1926,23 +1966,23 @@
       <c r="F29" s="25"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="80"/>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="65"/>
       <c r="B30" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="83"/>
+      <c r="C30" s="69"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="25"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="82"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -1950,6 +1990,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -1964,12 +2010,6 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1978,25 +2018,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="31.625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="16.36328125" customWidth="1"/>
+    <col min="2" max="2" width="31.6328125" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="87.625" customWidth="1"/>
+    <col min="7" max="7" width="87.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2007,7 +2047,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2030,7 +2070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2041,7 +2081,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -2062,7 +2102,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
@@ -2079,7 +2119,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
@@ -2098,9 +2138,9 @@
       <c r="F6" s="13">
         <v>1</v>
       </c>
-      <c r="G6" s="65"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="G6" s="84"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="19"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
@@ -2117,11 +2157,11 @@
       <c r="F7" s="13">
         <v>0.8</v>
       </c>
-      <c r="G7" s="65" t="s">
+      <c r="G7" s="84" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="20"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
@@ -2136,7 +2176,7 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="21" t="s">
         <v>18</v>
       </c>
@@ -2155,7 +2195,7 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="22"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
@@ -2168,11 +2208,11 @@
       <c r="F10" s="13">
         <v>0.8</v>
       </c>
-      <c r="G10" s="65" t="s">
+      <c r="G10" s="84" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
@@ -2183,7 +2223,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="21" t="s">
         <v>22</v>
       </c>
@@ -2202,11 +2242,11 @@
       <c r="F12" s="13">
         <v>0.8</v>
       </c>
-      <c r="G12" s="65" t="s">
+      <c r="G12" s="84" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="22"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
@@ -2217,7 +2257,7 @@
       <c r="F13" s="25"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="22"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
@@ -2228,7 +2268,7 @@
       <c r="F14" s="25"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
@@ -2239,7 +2279,7 @@
       <c r="F15" s="25"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>27</v>
       </c>
@@ -2250,7 +2290,7 @@
       <c r="F16" s="27"/>
       <c r="G16" s="28"/>
     </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="21" t="s">
         <v>28</v>
       </c>
@@ -2265,7 +2305,7 @@
       <c r="F17" s="25"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
         <v>30</v>
@@ -2276,7 +2316,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="21" t="s">
         <v>31</v>
       </c>
@@ -2291,7 +2331,7 @@
       <c r="F19" s="25"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="22"/>
       <c r="B20" s="16" t="s">
         <v>34</v>
@@ -2302,7 +2342,7 @@
       <c r="F20" s="25"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="22"/>
       <c r="B21" s="16" t="s">
         <v>35</v>
@@ -2315,7 +2355,7 @@
       <c r="F21" s="25"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="24"/>
       <c r="B22" s="16" t="s">
         <v>36</v>
@@ -2326,7 +2366,7 @@
       <c r="F22" s="25"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.45">
       <c r="A23" s="21" t="s">
         <v>37</v>
       </c>
@@ -2341,7 +2381,7 @@
       <c r="F23" s="25"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="22"/>
       <c r="B24" s="16" t="s">
         <v>40</v>
@@ -2352,7 +2392,7 @@
       <c r="F24" s="25"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="24"/>
       <c r="B25" s="16" t="s">
         <v>41</v>
@@ -2363,7 +2403,7 @@
       <c r="F25" s="25"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="21" t="s">
         <v>42</v>
       </c>
@@ -2378,7 +2418,7 @@
       <c r="F26" s="25"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="22"/>
       <c r="B27" s="16" t="s">
         <v>44</v>
@@ -2389,7 +2429,7 @@
       <c r="F27" s="25"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="22"/>
       <c r="B28" s="16" t="s">
         <v>45</v>
@@ -2400,7 +2440,7 @@
       <c r="F28" s="25"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="22"/>
       <c r="B29" s="16" t="s">
         <v>46</v>
@@ -2413,7 +2453,7 @@
       <c r="F29" s="25"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A30" s="24"/>
       <c r="B30" s="16" t="s">
         <v>47</v>
@@ -2424,7 +2464,7 @@
       <c r="F30" s="25"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>48</v>
@@ -2443,37 +2483,37 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="32" customWidth="1"/>
-    <col min="2" max="2" width="18.625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="25.375" style="32" customWidth="1"/>
-    <col min="4" max="4" width="18.875" style="32" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="32" customWidth="1"/>
-    <col min="6" max="6" width="16.625" style="32" customWidth="1"/>
-    <col min="7" max="7" width="47.375" style="32" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" style="32" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" style="32" customWidth="1"/>
+    <col min="3" max="3" width="25.36328125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="18.90625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" style="32" customWidth="1"/>
+    <col min="6" max="6" width="16.6328125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="47.36328125" style="32" customWidth="1"/>
     <col min="8" max="16384" width="11" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="68"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2496,25 +2536,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="69" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="71"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="76"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="33" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="81">
+      <c r="C4" s="67">
         <v>43638</v>
       </c>
       <c r="D4" s="35"/>
@@ -2526,14 +2566,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="82"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="13">
@@ -2541,7 +2581,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
@@ -2558,12 +2598,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="15"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="81">
+      <c r="C7" s="67">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -2573,12 +2613,12 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="38"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="82"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="13">
@@ -2586,14 +2626,14 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="39" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="81">
+      <c r="C9" s="67">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -2603,12 +2643,12 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="38"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="83"/>
+      <c r="C10" s="69"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="13">
@@ -2616,12 +2656,12 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="40"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="82"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="13">
@@ -2629,14 +2669,14 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="39" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="81">
+      <c r="C12" s="67">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -2644,58 +2684,58 @@
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="15"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="83"/>
+      <c r="C13" s="69"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="25"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="41"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="83"/>
+      <c r="C14" s="69"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="25"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="42"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="82"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="25"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="72" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="74"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="79"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="39" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="81">
+      <c r="C17" s="67">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -2703,25 +2743,25 @@
       <c r="F17" s="25"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="42"/>
       <c r="B18" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="82"/>
+      <c r="C18" s="68"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="39" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="81" t="s">
+      <c r="C19" s="67" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="12"/>
@@ -2729,23 +2769,23 @@
       <c r="F19" s="25"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="42"/>
       <c r="B20" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="82"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="25"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="42"/>
       <c r="B21" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="81">
+      <c r="C21" s="67">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -2753,25 +2793,25 @@
       <c r="F21" s="25"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="41"/>
       <c r="B22" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="82"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="25"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A23" s="39" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="84" t="s">
+      <c r="C23" s="70" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="12"/>
@@ -2779,36 +2819,36 @@
       <c r="F23" s="25"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="40"/>
       <c r="B24" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="83"/>
+      <c r="C24" s="69"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="25"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="40"/>
       <c r="B25" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="82"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="25"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="27" x14ac:dyDescent="0.45">
       <c r="A26" s="39" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="81">
+      <c r="C26" s="67">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -2816,34 +2856,34 @@
       <c r="F26" s="25"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="40"/>
       <c r="B27" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="83"/>
+      <c r="C27" s="69"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="25"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="42"/>
       <c r="B28" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="82"/>
+      <c r="C28" s="68"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="25"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="42"/>
       <c r="B29" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="81">
+      <c r="C29" s="67">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -2851,23 +2891,23 @@
       <c r="F29" s="25"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A30" s="15"/>
       <c r="B30" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="83"/>
+      <c r="C30" s="69"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="25"/>
       <c r="G30" s="43"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A31" s="35"/>
       <c r="B31" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="82"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
@@ -2875,12 +2915,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C28"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A16:G16"/>
@@ -2888,6 +2922,12 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C28"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -2895,36 +2935,36 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="31.625" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="7" max="7" width="90.75" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
+    <col min="2" max="2" width="31.6328125" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" customWidth="1"/>
+    <col min="7" max="7" width="90.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="68"/>
-    </row>
-    <row r="2" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
+    </row>
+    <row r="2" spans="1:7" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2947,25 +2987,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="69" t="s">
+    <row r="3" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="71"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="76"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="81">
+      <c r="C4" s="67">
         <v>43638</v>
       </c>
       <c r="D4" s="11"/>
@@ -2979,14 +3019,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="82"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -2996,8 +3036,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="75" t="s">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="80" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -3006,23 +3046,21 @@
       <c r="C6" s="12">
         <v>43639</v>
       </c>
-      <c r="D6" s="12">
-        <v>43643</v>
-      </c>
+      <c r="D6" s="12"/>
       <c r="E6" s="12">
         <v>43640</v>
       </c>
       <c r="F6" s="13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="76"/>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="81"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="81">
+      <c r="C7" s="67">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -3030,36 +3068,35 @@
         <v>43641</v>
       </c>
       <c r="F7" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="77"/>
+        <v>0.8</v>
+      </c>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="82"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="12">
-        <v>43643</v>
-      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="12">
         <v>43641</v>
       </c>
       <c r="F8" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="78" t="s">
+        <v>0.9</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="64" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="81">
+      <c r="C9" s="67">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -3071,44 +3108,44 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="79"/>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="66"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="83"/>
+      <c r="C10" s="69"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12">
         <v>43641</v>
       </c>
       <c r="F10" s="13">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="80"/>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="65"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="82"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12">
         <v>43641</v>
       </c>
       <c r="F11" s="13">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="78" t="s">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="64" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="81">
+      <c r="C12" s="67">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -3122,12 +3159,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="79"/>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="66"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="83"/>
+      <c r="C13" s="69"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12">
         <v>43642</v>
@@ -3137,12 +3174,12 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="79"/>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="66"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="83"/>
+      <c r="C14" s="69"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12">
         <v>43642</v>
@@ -3152,12 +3189,12 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="80"/>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="65"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="82"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12">
         <v>43642</v>
@@ -3167,25 +3204,25 @@
       </c>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="72" t="s">
+    <row r="16" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="74"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="78" t="s">
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="79"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="64" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="81">
+      <c r="C17" s="67">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -3193,25 +3230,25 @@
       <c r="F17" s="25"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="80"/>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="65"/>
       <c r="B18" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="82"/>
+      <c r="C18" s="68"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="78" t="s">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="64" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="81" t="s">
+      <c r="C19" s="67" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="12"/>
@@ -3219,23 +3256,23 @@
       <c r="F19" s="25"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="79"/>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="66"/>
       <c r="B20" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="82"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="25"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="79"/>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="66"/>
       <c r="B21" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="81">
+      <c r="C21" s="67">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -3243,25 +3280,25 @@
       <c r="F21" s="25"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="80"/>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="65"/>
       <c r="B22" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="82"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="25"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="78" t="s">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="64" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="84" t="s">
+      <c r="C23" s="70" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="12"/>
@@ -3269,36 +3306,36 @@
       <c r="F23" s="25"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="79"/>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="66"/>
       <c r="B24" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="83"/>
+      <c r="C24" s="69"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="25"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="80"/>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="65"/>
       <c r="B25" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="82"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="25"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="78" t="s">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="64" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="81">
+      <c r="C26" s="67">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -3306,34 +3343,34 @@
       <c r="F26" s="25"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="79"/>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="66"/>
       <c r="B27" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="83"/>
+      <c r="C27" s="69"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="25"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="79"/>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="66"/>
       <c r="B28" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="82"/>
+      <c r="C28" s="68"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="25"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="79"/>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="66"/>
       <c r="B29" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="81">
+      <c r="C29" s="67">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -3341,23 +3378,23 @@
       <c r="F29" s="25"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="80"/>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="65"/>
       <c r="B30" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="83"/>
+      <c r="C30" s="69"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="25"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="82"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -3365,6 +3402,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -3379,12 +3422,6 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -3392,25 +3429,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
-    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" customWidth="1"/>
+    <col min="2" max="2" width="30.6328125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" customWidth="1"/>
     <col min="7" max="7" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -3421,7 +3458,7 @@
       <c r="F1" s="46"/>
       <c r="G1" s="47"/>
     </row>
-    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3444,7 +3481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>8</v>
       </c>
@@ -3455,7 +3492,7 @@
       <c r="F3" s="49"/>
       <c r="G3" s="50"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -3465,7 +3502,7 @@
       <c r="C4" s="60">
         <v>43638</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="83">
         <v>43642</v>
       </c>
       <c r="E4" s="12">
@@ -3476,7 +3513,7 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
@@ -3495,7 +3532,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="54" t="s">
         <v>14</v>
       </c>
@@ -3516,7 +3553,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="55"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
@@ -3535,7 +3572,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="56"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
@@ -3550,7 +3587,7 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="57" t="s">
         <v>18</v>
       </c>
@@ -3569,7 +3606,7 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="58"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
@@ -3586,7 +3623,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="59"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
@@ -3601,7 +3638,7 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="57" t="s">
         <v>22</v>
       </c>
@@ -3616,7 +3653,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="58"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
@@ -3627,7 +3664,7 @@
       <c r="F13" s="25"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="58"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
@@ -3638,7 +3675,7 @@
       <c r="F14" s="25"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="59"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
@@ -3649,7 +3686,7 @@
       <c r="F15" s="25"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="51" t="s">
         <v>27</v>
       </c>
@@ -3660,7 +3697,7 @@
       <c r="F16" s="52"/>
       <c r="G16" s="53"/>
     </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="57" t="s">
         <v>28</v>
       </c>
@@ -3681,7 +3718,7 @@
       </c>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="59"/>
       <c r="B18" s="16" t="s">
         <v>30</v>
@@ -3698,7 +3735,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="57" t="s">
         <v>31</v>
       </c>
@@ -3713,7 +3750,7 @@
       <c r="F19" s="25"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="58"/>
       <c r="B20" s="16" t="s">
         <v>34</v>
@@ -3724,7 +3761,7 @@
       <c r="F20" s="25"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="58"/>
       <c r="B21" s="16" t="s">
         <v>35</v>
@@ -3737,7 +3774,7 @@
       <c r="F21" s="25"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="59"/>
       <c r="B22" s="16" t="s">
         <v>36</v>
@@ -3748,7 +3785,7 @@
       <c r="F22" s="25"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A23" s="57" t="s">
         <v>37</v>
       </c>
@@ -3763,7 +3800,7 @@
       <c r="F23" s="25"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="58"/>
       <c r="B24" s="16" t="s">
         <v>40</v>
@@ -3774,7 +3811,7 @@
       <c r="F24" s="25"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="59"/>
       <c r="B25" s="16" t="s">
         <v>41</v>
@@ -3785,7 +3822,7 @@
       <c r="F25" s="25"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="57" t="s">
         <v>42</v>
       </c>
@@ -3800,7 +3837,7 @@
       <c r="F26" s="25"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="58"/>
       <c r="B27" s="16" t="s">
         <v>44</v>
@@ -3811,7 +3848,7 @@
       <c r="F27" s="25"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="58"/>
       <c r="B28" s="16" t="s">
         <v>45</v>
@@ -3822,7 +3859,7 @@
       <c r="F28" s="25"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="58"/>
       <c r="B29" s="16" t="s">
         <v>46</v>
@@ -3835,7 +3872,7 @@
       <c r="F29" s="25"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A30" s="59"/>
       <c r="B30" s="16" t="s">
         <v>47</v>
@@ -3846,7 +3883,7 @@
       <c r="F30" s="25"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>48</v>
@@ -3864,36 +3901,36 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" customWidth="1"/>
+    <col min="2" max="2" width="30.6328125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" customWidth="1"/>
     <col min="7" max="7" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="68"/>
-    </row>
-    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
+    </row>
+    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3916,25 +3953,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="69" t="s">
+    <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="71"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="76"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="81">
+      <c r="C4" s="67">
         <v>43638</v>
       </c>
       <c r="D4" s="11"/>
@@ -3948,14 +3985,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="82"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -3965,8 +4002,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="75" t="s">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="80" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -3986,12 +4023,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="76"/>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="81"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="81">
+      <c r="C7" s="67">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -4003,12 +4040,12 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="77"/>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="82"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="82"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12">
         <v>43641</v>
@@ -4020,14 +4057,14 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="78" t="s">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="64" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="81">
+      <c r="C9" s="67">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -4041,12 +4078,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="79"/>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="66"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="83"/>
+      <c r="C10" s="69"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12">
         <v>43642</v>
@@ -4056,12 +4093,12 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="80"/>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="65"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="82"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12">
         <v>43642</v>
@@ -4071,14 +4108,14 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="78" t="s">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="64" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="81">
+      <c r="C12" s="67">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -4090,58 +4127,58 @@
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="79"/>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="66"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="83"/>
+      <c r="C13" s="69"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="25"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="79"/>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="66"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="83"/>
+      <c r="C14" s="69"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="25"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="80"/>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="65"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="82"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="25"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="72" t="s">
+    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="74"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="78" t="s">
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="79"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="64" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="81">
+      <c r="C17" s="67">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -4149,12 +4186,12 @@
       <c r="F17" s="25"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="80"/>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="65"/>
       <c r="B18" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="82"/>
+      <c r="C18" s="68"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13">
@@ -4164,14 +4201,14 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="78" t="s">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="64" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="81" t="s">
+      <c r="C19" s="67" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="12"/>
@@ -4179,23 +4216,23 @@
       <c r="F19" s="25"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="79"/>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="66"/>
       <c r="B20" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="82"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="25"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="79"/>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="66"/>
       <c r="B21" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="81">
+      <c r="C21" s="67">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -4203,25 +4240,25 @@
       <c r="F21" s="25"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="80"/>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="65"/>
       <c r="B22" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="82"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="25"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="78" t="s">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="64" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="84" t="s">
+      <c r="C23" s="70" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="12"/>
@@ -4229,36 +4266,36 @@
       <c r="F23" s="25"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="79"/>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="66"/>
       <c r="B24" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="83"/>
+      <c r="C24" s="69"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="25"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="80"/>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="65"/>
       <c r="B25" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="82"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="25"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="78" t="s">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="64" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="81">
+      <c r="C26" s="67">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -4266,34 +4303,34 @@
       <c r="F26" s="25"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="79"/>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="66"/>
       <c r="B27" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="83"/>
+      <c r="C27" s="69"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="25"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="79"/>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="66"/>
       <c r="B28" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="82"/>
+      <c r="C28" s="68"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="25"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="79"/>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="66"/>
       <c r="B29" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="81">
+      <c r="C29" s="67">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -4301,23 +4338,23 @@
       <c r="F29" s="25"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="80"/>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="65"/>
       <c r="B30" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="83"/>
+      <c r="C30" s="69"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="25"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="82"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -4325,6 +4362,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -4339,12 +4382,6 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/樊佩茹/项目进度控制表-樊佩茹 .xlsx
+++ b/樊佩茹/项目进度控制表-樊佩茹 .xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SDX\Desktop\hgkj_02\樊佩茹\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFDAEBF-9431-4D87-9E59-4A25FA5F8A23}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21000" windowHeight="8484" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="樊佩茹" sheetId="1" r:id="rId1"/>
@@ -26,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="61">
   <si>
     <t>进度控制表-在线点餐的设计与实现</t>
   </si>
@@ -77,6 +71,9 @@
   </si>
   <si>
     <t>查看路线类型</t>
+  </si>
+  <si>
+    <t>分页未做</t>
   </si>
   <si>
     <t>修改路线类型</t>
@@ -179,49 +176,47 @@
     <t>js校验未做，验证码校验有问题</t>
   </si>
   <si>
-    <t>验证码校验没有写</t>
+    <t>分页没做</t>
   </si>
   <si>
     <t>js校验未做</t>
   </si>
   <si>
+    <t>直接退出</t>
+  </si>
+  <si>
+    <t>上传有问题</t>
+  </si>
+  <si>
+    <t>假分页</t>
+  </si>
+  <si>
+    <t>30天内自动登录未做</t>
+  </si>
+  <si>
+    <t>上传图片未做</t>
+  </si>
+  <si>
+    <t>未成功 获取不到对应元素</t>
+  </si>
+  <si>
+    <t>未成功</t>
+  </si>
+  <si>
     <t>校验未做，30天内自动登录未做</t>
-  </si>
-  <si>
-    <t>上传图片未做</t>
-  </si>
-  <si>
-    <t>未成功 获取不到对应元素</t>
-  </si>
-  <si>
-    <t>未成功</t>
-  </si>
-  <si>
-    <t>分页未做</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>直接退出</t>
-  </si>
-  <si>
-    <t>上传有问题</t>
-  </si>
-  <si>
-    <t>假分页</t>
-  </si>
-  <si>
-    <t>30天内自动登录未做</t>
-  </si>
-  <si>
-    <t>分页没做</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,25 +315,162 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,8 +483,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -458,16 +776,258 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -480,16 +1040,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -563,6 +1123,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -577,9 +1140,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -598,142 +1158,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -782,7 +1269,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -815,26 +1302,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -867,23 +1337,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1054,38 +1507,38 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="29.7265625" customWidth="1"/>
-    <col min="3" max="6" width="15.6328125" customWidth="1"/>
-    <col min="7" max="7" width="84.6328125" customWidth="1"/>
+    <col min="1" max="1" width="15.6296296296296" customWidth="1"/>
+    <col min="2" max="2" width="29.7222222222222" customWidth="1"/>
+    <col min="3" max="6" width="15.6296296296296" customWidth="1"/>
+    <col min="7" max="7" width="84.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+    <row r="1" ht="32.4" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="73"/>
-    </row>
-    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" ht="21" customHeight="1" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1108,25 +1561,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="44" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
+    <row r="3" s="45" customFormat="1" ht="23.15" customHeight="1" spans="1:7">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="76"/>
-    </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" ht="18" customHeight="1" spans="1:7">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="67">
+      <c r="C4" s="10">
         <v>43638</v>
       </c>
       <c r="D4" s="11"/>
@@ -1140,14 +1593,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" ht="15.6" spans="1:7">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="68"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -1157,8 +1610,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="80" t="s">
+    <row r="6" ht="15.6" spans="1:7">
+      <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -1178,12 +1631,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="81"/>
+    <row r="7" ht="15.6" spans="1:7">
+      <c r="A7" s="19"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="67">
+      <c r="C7" s="10">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -1194,15 +1647,15 @@
         <v>0.9</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="82"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" ht="15.6" spans="1:7">
+      <c r="A8" s="20"/>
       <c r="B8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="68"/>
+        <v>18</v>
+      </c>
+      <c r="C8" s="17"/>
       <c r="D8" s="12">
         <v>43641</v>
       </c>
@@ -1214,14 +1667,14 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="64" t="s">
-        <v>18</v>
+    <row r="9" ht="15.6" spans="1:7">
+      <c r="A9" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="67">
+        <v>20</v>
+      </c>
+      <c r="C9" s="10">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -1233,12 +1686,12 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="66"/>
+    <row r="10" ht="15.6" spans="1:7">
+      <c r="A10" s="22"/>
       <c r="B10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="69"/>
+        <v>21</v>
+      </c>
+      <c r="C10" s="23"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12">
         <v>43642</v>
@@ -1247,15 +1700,15 @@
         <v>0.9</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="65"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" ht="15.6" spans="1:7">
+      <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="68"/>
+        <v>22</v>
+      </c>
+      <c r="C11" s="17"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12">
         <v>43642</v>
@@ -1265,14 +1718,14 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="64" t="s">
-        <v>22</v>
+    <row r="12" ht="15.6" spans="1:7">
+      <c r="A12" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="67">
+        <v>24</v>
+      </c>
+      <c r="C12" s="10">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -1280,58 +1733,58 @@
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="66"/>
+    <row r="13" ht="15.6" spans="1:7">
+      <c r="A13" s="22"/>
       <c r="B13" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="69"/>
+        <v>25</v>
+      </c>
+      <c r="C13" s="23"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="25"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="66"/>
+    <row r="14" ht="15.6" spans="1:7">
+      <c r="A14" s="22"/>
       <c r="B14" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="69"/>
+        <v>26</v>
+      </c>
+      <c r="C14" s="23"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="25"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="65"/>
+    <row r="15" ht="15.6" spans="1:7">
+      <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="68"/>
+        <v>27</v>
+      </c>
+      <c r="C15" s="17"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="25"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="77" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="79"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="64" t="s">
+    <row r="16" ht="24" customHeight="1" spans="1:7">
+      <c r="A16" s="26" t="s">
         <v>28</v>
       </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+    </row>
+    <row r="17" ht="15.6" spans="1:7">
+      <c r="A17" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="B17" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="67">
+        <v>30</v>
+      </c>
+      <c r="C17" s="10">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -1339,49 +1792,49 @@
       <c r="F17" s="25"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="65"/>
+    <row r="18" ht="15.6" spans="1:7">
+      <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="68"/>
+        <v>31</v>
+      </c>
+      <c r="C18" s="17"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="64" t="s">
-        <v>31</v>
+    <row r="19" ht="15.6" spans="1:7">
+      <c r="A19" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="67" t="s">
         <v>33</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="25"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="66"/>
+    <row r="20" ht="15.6" spans="1:7">
+      <c r="A20" s="22"/>
       <c r="B20" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="68"/>
+        <v>35</v>
+      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="25"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="66"/>
+    <row r="21" ht="15.6" spans="1:7">
+      <c r="A21" s="22"/>
       <c r="B21" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="67">
+        <v>36</v>
+      </c>
+      <c r="C21" s="10">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -1389,62 +1842,62 @@
       <c r="F21" s="25"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="65"/>
+    <row r="22" ht="15.6" spans="1:7">
+      <c r="A22" s="24"/>
       <c r="B22" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="68"/>
+        <v>37</v>
+      </c>
+      <c r="C22" s="17"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="25"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="64" t="s">
-        <v>37</v>
+    <row r="23" ht="15.6" spans="1:7">
+      <c r="A23" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="70" t="s">
         <v>39</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>40</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="25"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="66"/>
+    <row r="24" ht="15.6" spans="1:7">
+      <c r="A24" s="22"/>
       <c r="B24" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="69"/>
+        <v>41</v>
+      </c>
+      <c r="C24" s="23"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="25"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="65"/>
+    <row r="25" ht="15.6" spans="1:7">
+      <c r="A25" s="24"/>
       <c r="B25" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="68"/>
+        <v>42</v>
+      </c>
+      <c r="C25" s="17"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="25"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="64" t="s">
-        <v>42</v>
+    <row r="26" ht="15.6" spans="1:7">
+      <c r="A26" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="67">
+        <v>44</v>
+      </c>
+      <c r="C26" s="10">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -1452,34 +1905,34 @@
       <c r="F26" s="25"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="66"/>
+    <row r="27" ht="15.6" spans="1:7">
+      <c r="A27" s="22"/>
       <c r="B27" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="69"/>
+        <v>45</v>
+      </c>
+      <c r="C27" s="23"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="25"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="66"/>
+    <row r="28" ht="15.6" spans="1:7">
+      <c r="A28" s="22"/>
       <c r="B28" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="68"/>
+        <v>46</v>
+      </c>
+      <c r="C28" s="17"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="25"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="66"/>
+    <row r="29" ht="15.6" spans="1:7">
+      <c r="A29" s="22"/>
       <c r="B29" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="67">
+        <v>47</v>
+      </c>
+      <c r="C29" s="10">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -1487,23 +1940,23 @@
       <c r="F29" s="25"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="65"/>
+    <row r="30" ht="15.6" spans="1:7">
+      <c r="A30" s="24"/>
       <c r="B30" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="69"/>
+        <v>48</v>
+      </c>
+      <c r="C30" s="23"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="25"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="31" ht="15.6" spans="1:7">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="68"/>
+        <v>49</v>
+      </c>
+      <c r="C31" s="17"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -1532,43 +1985,44 @@
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.90625" customWidth="1"/>
-    <col min="2" max="2" width="32.90625" customWidth="1"/>
-    <col min="3" max="3" width="15.08984375" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" customWidth="1"/>
-    <col min="5" max="5" width="14.90625" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" customWidth="1"/>
-    <col min="7" max="7" width="81.08984375" customWidth="1"/>
+    <col min="1" max="1" width="18.9074074074074" customWidth="1"/>
+    <col min="2" max="2" width="32.9074074074074" customWidth="1"/>
+    <col min="3" max="3" width="15.0925925925926" customWidth="1"/>
+    <col min="4" max="4" width="15.2685185185185" customWidth="1"/>
+    <col min="5" max="5" width="14.9074074074074" customWidth="1"/>
+    <col min="6" max="6" width="15.6296296296296" customWidth="1"/>
+    <col min="7" max="7" width="81.0925925925926" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+    <row r="1" ht="32.4" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="73"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" ht="18" customHeight="1" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1591,25 +2045,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
+    <row r="3" ht="23.15" customHeight="1" spans="1:7">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="76"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" ht="15.6" spans="1:7">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="67">
+      <c r="C4" s="10">
         <v>43638</v>
       </c>
       <c r="D4" s="11"/>
@@ -1620,17 +2074,17 @@
         <v>0.5</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" ht="15.6" spans="1:7">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="68"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -1640,8 +2094,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="80" t="s">
+    <row r="6" ht="15.6" spans="1:7">
+      <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -1659,12 +2113,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="81"/>
+    <row r="7" ht="15.6" spans="1:7">
+      <c r="A7" s="19"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="67">
+      <c r="C7" s="10">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -1675,28 +2129,28 @@
         <v>0.5</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="82"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" ht="15.6" spans="1:7">
+      <c r="A8" s="20"/>
       <c r="B8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="68"/>
+        <v>18</v>
+      </c>
+      <c r="C8" s="17"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="25"/>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="64" t="s">
-        <v>18</v>
+    <row r="9" ht="15.6" spans="1:7">
+      <c r="A9" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="67">
+        <v>20</v>
+      </c>
+      <c r="C9" s="10">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -1704,12 +2158,12 @@
       <c r="F9" s="25"/>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="66"/>
+    <row r="10" ht="15.6" spans="1:7">
+      <c r="A10" s="22"/>
       <c r="B10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="69"/>
+        <v>21</v>
+      </c>
+      <c r="C10" s="23"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12">
         <v>43642</v>
@@ -1718,28 +2172,28 @@
         <v>0.5</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="65"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" ht="15.6" spans="1:7">
+      <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="68"/>
+        <v>22</v>
+      </c>
+      <c r="C11" s="17"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="13"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="64" t="s">
-        <v>22</v>
+    <row r="12" ht="15.6" spans="1:7">
+      <c r="A12" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="67">
+        <v>24</v>
+      </c>
+      <c r="C12" s="10">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -1747,12 +2201,12 @@
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="66"/>
+    <row r="13" ht="15.6" spans="1:7">
+      <c r="A13" s="22"/>
       <c r="B13" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="69"/>
+        <v>25</v>
+      </c>
+      <c r="C13" s="23"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12">
         <v>43642</v>
@@ -1761,15 +2215,15 @@
         <v>0.5</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="66"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" ht="15.6" spans="1:7">
+      <c r="A14" s="22"/>
       <c r="B14" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="69"/>
+        <v>26</v>
+      </c>
+      <c r="C14" s="23"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12">
         <v>43642</v>
@@ -1778,39 +2232,39 @@
         <v>0.5</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="65"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" ht="15.6" spans="1:7">
+      <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="68"/>
+        <v>27</v>
+      </c>
+      <c r="C15" s="17"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="25"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="77" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="79"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="64" t="s">
+    <row r="16" ht="24" customHeight="1" spans="1:7">
+      <c r="A16" s="26" t="s">
         <v>28</v>
       </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+    </row>
+    <row r="17" ht="15.6" spans="1:7">
+      <c r="A17" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="B17" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="67">
+        <v>30</v>
+      </c>
+      <c r="C17" s="10">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -1818,49 +2272,49 @@
       <c r="F17" s="25"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="65"/>
+    <row r="18" ht="15.6" spans="1:7">
+      <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="68"/>
+        <v>31</v>
+      </c>
+      <c r="C18" s="17"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="64" t="s">
-        <v>31</v>
+    <row r="19" ht="15.6" spans="1:7">
+      <c r="A19" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="67" t="s">
         <v>33</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="25"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="66"/>
+    <row r="20" ht="15.6" spans="1:7">
+      <c r="A20" s="22"/>
       <c r="B20" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="68"/>
+        <v>35</v>
+      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="25"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="66"/>
+    <row r="21" ht="15.6" spans="1:7">
+      <c r="A21" s="22"/>
       <c r="B21" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="67">
+        <v>36</v>
+      </c>
+      <c r="C21" s="10">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -1868,62 +2322,62 @@
       <c r="F21" s="25"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="65"/>
+    <row r="22" ht="15.6" spans="1:7">
+      <c r="A22" s="24"/>
       <c r="B22" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="68"/>
+        <v>37</v>
+      </c>
+      <c r="C22" s="17"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="25"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="64" t="s">
-        <v>37</v>
+    <row r="23" ht="15.6" spans="1:7">
+      <c r="A23" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="70" t="s">
         <v>39</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>40</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="25"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="66"/>
+    <row r="24" ht="15.6" spans="1:7">
+      <c r="A24" s="22"/>
       <c r="B24" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="69"/>
+        <v>41</v>
+      </c>
+      <c r="C24" s="23"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="25"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="65"/>
+    <row r="25" ht="15.6" spans="1:7">
+      <c r="A25" s="24"/>
       <c r="B25" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="68"/>
+        <v>42</v>
+      </c>
+      <c r="C25" s="17"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="25"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="64" t="s">
-        <v>42</v>
+    <row r="26" ht="15.6" spans="1:7">
+      <c r="A26" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="67">
+        <v>44</v>
+      </c>
+      <c r="C26" s="10">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -1931,34 +2385,34 @@
       <c r="F26" s="25"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="66"/>
+    <row r="27" ht="15.6" spans="1:7">
+      <c r="A27" s="22"/>
       <c r="B27" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="69"/>
+        <v>45</v>
+      </c>
+      <c r="C27" s="23"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="25"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="66"/>
+    <row r="28" ht="15.6" spans="1:7">
+      <c r="A28" s="22"/>
       <c r="B28" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="68"/>
+        <v>46</v>
+      </c>
+      <c r="C28" s="17"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="25"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="66"/>
+    <row r="29" ht="15.6" spans="1:7">
+      <c r="A29" s="22"/>
       <c r="B29" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="67">
+        <v>47</v>
+      </c>
+      <c r="C29" s="10">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -1966,23 +2420,23 @@
       <c r="F29" s="25"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="65"/>
+    <row r="30" ht="15.6" spans="1:7">
+      <c r="A30" s="24"/>
       <c r="B30" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="69"/>
+        <v>48</v>
+      </c>
+      <c r="C30" s="23"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="25"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="31" ht="15.6" spans="1:7">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="68"/>
+        <v>49</v>
+      </c>
+      <c r="C31" s="17"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -2011,32 +2465,33 @@
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16.36328125" customWidth="1"/>
-    <col min="2" max="2" width="31.6328125" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" width="16.3611111111111" customWidth="1"/>
+    <col min="2" max="2" width="31.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="14.4537037037037" customWidth="1"/>
+    <col min="4" max="4" width="15.4537037037037" customWidth="1"/>
+    <col min="5" max="5" width="15.2685185185185" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="87.6328125" customWidth="1"/>
+    <col min="7" max="7" width="87.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+    <row r="1" ht="32.4" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2047,7 +2502,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="18" customHeight="1" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2070,7 +2525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="20.15" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2081,7 +2536,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="4" ht="15.6" spans="1:7">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -2102,7 +2557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" ht="15.6" spans="1:7">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
@@ -2119,7 +2574,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="6" ht="15.6" spans="1:7">
       <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
@@ -2138,9 +2593,9 @@
       <c r="F6" s="13">
         <v>1</v>
       </c>
-      <c r="G6" s="84"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="G6" s="44"/>
+    </row>
+    <row r="7" ht="15.6" spans="1:7">
       <c r="A7" s="19"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
@@ -2157,14 +2612,14 @@
       <c r="F7" s="13">
         <v>0.8</v>
       </c>
-      <c r="G7" s="84" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="G7" s="44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" ht="15.6" spans="1:7">
       <c r="A8" s="20"/>
       <c r="B8" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="12"/>
@@ -2176,12 +2631,12 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="9" ht="15.6" spans="1:7">
       <c r="A9" s="21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="10">
         <v>43641</v>
@@ -2195,10 +2650,10 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="10" ht="15.6" spans="1:7">
       <c r="A10" s="22"/>
       <c r="B10" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="12">
@@ -2208,14 +2663,14 @@
       <c r="F10" s="13">
         <v>0.8</v>
       </c>
-      <c r="G10" s="84" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="G10" s="44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" ht="15.6" spans="1:7">
       <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="12"/>
@@ -2223,12 +2678,12 @@
       <c r="F11" s="13"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="12" ht="15.6" spans="1:7">
       <c r="A12" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="10">
         <v>43642</v>
@@ -2242,14 +2697,14 @@
       <c r="F12" s="13">
         <v>0.8</v>
       </c>
-      <c r="G12" s="84" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="G12" s="44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" ht="15.6" spans="1:7">
       <c r="A13" s="22"/>
       <c r="B13" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="12"/>
@@ -2257,10 +2712,10 @@
       <c r="F13" s="25"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="14" ht="15.6" spans="1:7">
       <c r="A14" s="22"/>
       <c r="B14" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="12"/>
@@ -2268,10 +2723,10 @@
       <c r="F14" s="25"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="15" ht="15.6" spans="1:7">
       <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="12"/>
@@ -2279,9 +2734,9 @@
       <c r="F15" s="25"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" ht="24" customHeight="1" spans="1:7">
       <c r="A16" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
@@ -2290,12 +2745,12 @@
       <c r="F16" s="27"/>
       <c r="G16" s="28"/>
     </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="17" ht="15.6" spans="1:7">
       <c r="A17" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="10">
         <v>43643</v>
@@ -2305,10 +2760,10 @@
       <c r="F17" s="25"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="18" ht="15.6" spans="1:7">
       <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="12"/>
@@ -2316,25 +2771,25 @@
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="19" ht="15.6" spans="1:7">
       <c r="A19" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="25"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="20" ht="15.6" spans="1:7">
       <c r="A20" s="22"/>
       <c r="B20" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="12"/>
@@ -2342,10 +2797,10 @@
       <c r="F20" s="25"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="21" ht="15.6" spans="1:7">
       <c r="A21" s="22"/>
       <c r="B21" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="10">
         <v>43646</v>
@@ -2355,10 +2810,10 @@
       <c r="F21" s="25"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="22" ht="15.6" spans="1:7">
       <c r="A22" s="24"/>
       <c r="B22" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="12"/>
@@ -2366,25 +2821,25 @@
       <c r="F22" s="25"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.45">
+    <row r="23" ht="31.2" spans="1:7">
       <c r="A23" s="21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="25"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="24" ht="15.6" spans="1:7">
       <c r="A24" s="22"/>
       <c r="B24" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="12"/>
@@ -2392,10 +2847,10 @@
       <c r="F24" s="25"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="25" ht="15.6" spans="1:7">
       <c r="A25" s="24"/>
       <c r="B25" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="12"/>
@@ -2403,12 +2858,12 @@
       <c r="F25" s="25"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="26" ht="15.6" spans="1:7">
       <c r="A26" s="21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" s="10">
         <v>43650</v>
@@ -2418,10 +2873,10 @@
       <c r="F26" s="25"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="27" ht="15.6" spans="1:7">
       <c r="A27" s="22"/>
       <c r="B27" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="12"/>
@@ -2429,10 +2884,10 @@
       <c r="F27" s="25"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="28" ht="15.6" spans="1:7">
       <c r="A28" s="22"/>
       <c r="B28" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="12"/>
@@ -2440,10 +2895,10 @@
       <c r="F28" s="25"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="29" ht="15.6" spans="1:7">
       <c r="A29" s="22"/>
       <c r="B29" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29" s="10">
         <v>43651</v>
@@ -2453,10 +2908,10 @@
       <c r="F29" s="25"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="30" ht="15.6" spans="1:7">
       <c r="A30" s="24"/>
       <c r="B30" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="12"/>
@@ -2464,10 +2919,10 @@
       <c r="F30" s="25"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="31" ht="15.6" spans="1:7">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="11"/>
@@ -2476,44 +2931,45 @@
       <c r="G31" s="31"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16.453125" style="32" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" style="32" customWidth="1"/>
-    <col min="3" max="3" width="25.36328125" style="32" customWidth="1"/>
-    <col min="4" max="4" width="18.90625" style="32" customWidth="1"/>
-    <col min="5" max="5" width="18.453125" style="32" customWidth="1"/>
-    <col min="6" max="6" width="16.6328125" style="32" customWidth="1"/>
-    <col min="7" max="7" width="47.36328125" style="32" customWidth="1"/>
-    <col min="8" max="16384" width="11" style="32"/>
+    <col min="1" max="1" width="16.4537037037037" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.6296296296296" style="33" customWidth="1"/>
+    <col min="3" max="3" width="25.3611111111111" style="33" customWidth="1"/>
+    <col min="4" max="4" width="18.9074074074074" style="33" customWidth="1"/>
+    <col min="5" max="5" width="18.4537037037037" style="33" customWidth="1"/>
+    <col min="6" max="6" width="16.6296296296296" style="33" customWidth="1"/>
+    <col min="7" max="7" width="47.3611111111111" style="33" customWidth="1"/>
+    <col min="8" max="16384" width="11" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+    <row r="1" ht="32.4" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="73"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2536,44 +2992,42 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="76"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="33" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" ht="15.6" spans="1:7">
+      <c r="A4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="67">
+      <c r="C4" s="10">
         <v>43638</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37">
-        <v>0.8</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="13">
+        <v>1</v>
+      </c>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" ht="15.6" spans="1:7">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="68"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="13">
@@ -2581,7 +3035,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="6" ht="15.6" spans="1:7">
       <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
@@ -2598,12 +3052,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="7" ht="15.6" spans="1:7">
       <c r="A7" s="15"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="67">
+      <c r="C7" s="10">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -2613,12 +3067,12 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="8" ht="15.6" spans="1:7">
       <c r="A8" s="38"/>
       <c r="B8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="68"/>
+        <v>18</v>
+      </c>
+      <c r="C8" s="17"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="13">
@@ -2626,14 +3080,14 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="9" ht="15.6" spans="1:7">
       <c r="A9" s="39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="67">
+        <v>20</v>
+      </c>
+      <c r="C9" s="10">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -2643,12 +3097,12 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="10" ht="15.6" spans="1:7">
       <c r="A10" s="38"/>
       <c r="B10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="69"/>
+        <v>21</v>
+      </c>
+      <c r="C10" s="23"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="13">
@@ -2656,12 +3110,12 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="11" ht="15.6" spans="1:7">
       <c r="A11" s="40"/>
       <c r="B11" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="68"/>
+        <v>22</v>
+      </c>
+      <c r="C11" s="17"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="13">
@@ -2669,73 +3123,81 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="12" ht="15.6" spans="1:7">
       <c r="A12" s="39" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="67">
+        <v>24</v>
+      </c>
+      <c r="C12" s="10">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
+      <c r="F12" s="13">
+        <v>0.2</v>
+      </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="13" ht="15.6" spans="1:7">
       <c r="A13" s="15"/>
       <c r="B13" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="69"/>
+        <v>25</v>
+      </c>
+      <c r="C13" s="23"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="25"/>
+      <c r="F13" s="13">
+        <v>0.3</v>
+      </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="14" ht="15.6" spans="1:7">
       <c r="A14" s="41"/>
       <c r="B14" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="69"/>
+        <v>26</v>
+      </c>
+      <c r="C14" s="23"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="25"/>
+      <c r="F14" s="13">
+        <v>0.3</v>
+      </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="15" ht="15.6" spans="1:7">
       <c r="A15" s="42"/>
       <c r="B15" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="68"/>
+        <v>27</v>
+      </c>
+      <c r="C15" s="17"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="25"/>
+      <c r="F15" s="13">
+        <v>0.3</v>
+      </c>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="77" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="79"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7">
+      <c r="A16" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+    </row>
+    <row r="17" ht="15.6" spans="1:7">
       <c r="A17" s="39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="67">
+        <v>30</v>
+      </c>
+      <c r="C17" s="10">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -2743,49 +3205,49 @@
       <c r="F17" s="25"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="18" ht="15.6" spans="1:7">
       <c r="A18" s="42"/>
       <c r="B18" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="68"/>
+        <v>31</v>
+      </c>
+      <c r="C18" s="17"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="19" ht="15.6" spans="1:7">
       <c r="A19" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="67" t="s">
         <v>33</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="25"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="20" ht="15.6" spans="1:7">
       <c r="A20" s="42"/>
       <c r="B20" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="68"/>
+        <v>35</v>
+      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="25"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="21" ht="15.6" spans="1:7">
       <c r="A21" s="42"/>
       <c r="B21" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="67">
+        <v>36</v>
+      </c>
+      <c r="C21" s="10">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -2793,62 +3255,62 @@
       <c r="F21" s="25"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="22" ht="15.6" spans="1:7">
       <c r="A22" s="41"/>
       <c r="B22" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="68"/>
+        <v>37</v>
+      </c>
+      <c r="C22" s="17"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="25"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="23" ht="15.6" spans="1:7">
       <c r="A23" s="39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="70" t="s">
         <v>39</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>40</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="25"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="24" ht="15.6" spans="1:7">
       <c r="A24" s="40"/>
       <c r="B24" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="69"/>
+        <v>41</v>
+      </c>
+      <c r="C24" s="23"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="25"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="25" ht="15.6" spans="1:7">
       <c r="A25" s="40"/>
       <c r="B25" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="68"/>
+        <v>42</v>
+      </c>
+      <c r="C25" s="17"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="25"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="27" x14ac:dyDescent="0.45">
+    <row r="26" ht="28.8" spans="1:7">
       <c r="A26" s="39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="67">
+        <v>44</v>
+      </c>
+      <c r="C26" s="10">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -2856,34 +3318,34 @@
       <c r="F26" s="25"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="27" ht="15.6" spans="1:7">
       <c r="A27" s="40"/>
       <c r="B27" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="69"/>
+        <v>45</v>
+      </c>
+      <c r="C27" s="23"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="25"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="28" ht="15.6" spans="1:7">
       <c r="A28" s="42"/>
       <c r="B28" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="68"/>
+        <v>46</v>
+      </c>
+      <c r="C28" s="17"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="25"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="29" ht="15.6" spans="1:7">
       <c r="A29" s="42"/>
       <c r="B29" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="67">
+        <v>47</v>
+      </c>
+      <c r="C29" s="10">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -2891,26 +3353,26 @@
       <c r="F29" s="25"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="30" ht="15.6" spans="1:7">
       <c r="A30" s="15"/>
       <c r="B30" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="69"/>
+        <v>48</v>
+      </c>
+      <c r="C30" s="23"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="25"/>
       <c r="G30" s="43"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="35"/>
-      <c r="B31" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="68"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
+    <row r="31" ht="15.6" spans="1:7">
+      <c r="A31" s="36"/>
+      <c r="B31" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="17"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
       <c r="G31" s="31"/>
     </row>
   </sheetData>
@@ -2922,49 +3384,50 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="C12:C15"/>
-    <mergeCell ref="C29:C31"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C31"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C4" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16.453125" customWidth="1"/>
-    <col min="2" max="2" width="31.6328125" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" customWidth="1"/>
-    <col min="4" max="4" width="13.6328125" customWidth="1"/>
-    <col min="5" max="5" width="15.6328125" customWidth="1"/>
-    <col min="6" max="6" width="14.90625" customWidth="1"/>
-    <col min="7" max="7" width="90.7265625" customWidth="1"/>
+    <col min="1" max="1" width="16.4537037037037" customWidth="1"/>
+    <col min="2" max="2" width="31.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="14.7222222222222" customWidth="1"/>
+    <col min="4" max="4" width="13.6296296296296" customWidth="1"/>
+    <col min="5" max="5" width="15.6296296296296" customWidth="1"/>
+    <col min="6" max="6" width="14.9074074074074" customWidth="1"/>
+    <col min="7" max="7" width="90.7222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+    <row r="1" ht="32.4" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="73"/>
-    </row>
-    <row r="2" spans="1:7" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" ht="23.15" customHeight="1" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2987,25 +3450,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
+    <row r="3" ht="22" customHeight="1" spans="1:7">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="76"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" ht="15.6" spans="1:7">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="67">
+      <c r="C4" s="10">
         <v>43638</v>
       </c>
       <c r="D4" s="11"/>
@@ -3016,17 +3479,17 @@
         <v>0.8</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" ht="15.6" spans="1:7">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="68"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -3036,8 +3499,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="80" t="s">
+    <row r="6" ht="15.6" spans="1:7">
+      <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -3055,12 +3518,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="81"/>
+    <row r="7" ht="15.6" spans="1:7">
+      <c r="A7" s="19"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="67">
+      <c r="C7" s="10">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -3072,12 +3535,12 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="82"/>
+    <row r="8" ht="15.6" spans="1:7">
+      <c r="A8" s="20"/>
       <c r="B8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="68"/>
+        <v>18</v>
+      </c>
+      <c r="C8" s="17"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12">
         <v>43641</v>
@@ -3086,17 +3549,17 @@
         <v>0.9</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="64" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" ht="15.6" spans="1:7">
+      <c r="A9" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="67">
+        <v>20</v>
+      </c>
+      <c r="C9" s="10">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -3108,12 +3571,12 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="66"/>
+    <row r="10" ht="15.6" spans="1:7">
+      <c r="A10" s="22"/>
       <c r="B10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="69"/>
+        <v>21</v>
+      </c>
+      <c r="C10" s="23"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12">
         <v>43641</v>
@@ -3123,12 +3586,12 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="65"/>
+    <row r="11" ht="15.6" spans="1:7">
+      <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="68"/>
+        <v>22</v>
+      </c>
+      <c r="C11" s="17"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12">
         <v>43641</v>
@@ -3138,14 +3601,14 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="64" t="s">
-        <v>22</v>
+    <row r="12" ht="15.6" spans="1:7">
+      <c r="A12" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="67">
+        <v>24</v>
+      </c>
+      <c r="C12" s="10">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -3156,15 +3619,15 @@
         <v>0.9</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="66"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" ht="15.6" spans="1:7">
+      <c r="A13" s="22"/>
       <c r="B13" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="69"/>
+        <v>25</v>
+      </c>
+      <c r="C13" s="23"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12">
         <v>43642</v>
@@ -3174,12 +3637,12 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="66"/>
+    <row r="14" ht="15.6" spans="1:7">
+      <c r="A14" s="22"/>
       <c r="B14" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="69"/>
+        <v>26</v>
+      </c>
+      <c r="C14" s="23"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12">
         <v>43642</v>
@@ -3189,12 +3652,12 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="65"/>
+    <row r="15" ht="15.6" spans="1:7">
+      <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="68"/>
+        <v>27</v>
+      </c>
+      <c r="C15" s="17"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12">
         <v>43642</v>
@@ -3204,25 +3667,25 @@
       </c>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="77" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="79"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="64" t="s">
+    <row r="16" ht="22" customHeight="1" spans="1:7">
+      <c r="A16" s="26" t="s">
         <v>28</v>
       </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+    </row>
+    <row r="17" ht="15.6" spans="1:7">
+      <c r="A17" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="B17" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="67">
+        <v>30</v>
+      </c>
+      <c r="C17" s="10">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -3230,49 +3693,49 @@
       <c r="F17" s="25"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="65"/>
+    <row r="18" ht="15.6" spans="1:7">
+      <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="68"/>
+        <v>31</v>
+      </c>
+      <c r="C18" s="17"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="64" t="s">
-        <v>31</v>
+    <row r="19" ht="15.6" spans="1:7">
+      <c r="A19" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="67" t="s">
         <v>33</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="25"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="66"/>
+    <row r="20" ht="15.6" spans="1:7">
+      <c r="A20" s="22"/>
       <c r="B20" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="68"/>
+        <v>35</v>
+      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="25"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="66"/>
+    <row r="21" ht="15.6" spans="1:7">
+      <c r="A21" s="22"/>
       <c r="B21" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="67">
+        <v>36</v>
+      </c>
+      <c r="C21" s="10">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -3280,62 +3743,62 @@
       <c r="F21" s="25"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="65"/>
+    <row r="22" ht="15.6" spans="1:7">
+      <c r="A22" s="24"/>
       <c r="B22" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="68"/>
+        <v>37</v>
+      </c>
+      <c r="C22" s="17"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="25"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="64" t="s">
-        <v>37</v>
+    <row r="23" ht="15.6" spans="1:7">
+      <c r="A23" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="70" t="s">
         <v>39</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>40</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="25"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="66"/>
+    <row r="24" ht="15.6" spans="1:7">
+      <c r="A24" s="22"/>
       <c r="B24" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="69"/>
+        <v>41</v>
+      </c>
+      <c r="C24" s="23"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="25"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="65"/>
+    <row r="25" ht="15.6" spans="1:7">
+      <c r="A25" s="24"/>
       <c r="B25" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="68"/>
+        <v>42</v>
+      </c>
+      <c r="C25" s="17"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="25"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="64" t="s">
-        <v>42</v>
+    <row r="26" ht="15.6" spans="1:7">
+      <c r="A26" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="67">
+        <v>44</v>
+      </c>
+      <c r="C26" s="10">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -3343,34 +3806,34 @@
       <c r="F26" s="25"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="66"/>
+    <row r="27" ht="15.6" spans="1:7">
+      <c r="A27" s="22"/>
       <c r="B27" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="69"/>
+        <v>45</v>
+      </c>
+      <c r="C27" s="23"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="25"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="66"/>
+    <row r="28" ht="15.6" spans="1:7">
+      <c r="A28" s="22"/>
       <c r="B28" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="68"/>
+        <v>46</v>
+      </c>
+      <c r="C28" s="17"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="25"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="66"/>
+    <row r="29" ht="15.6" spans="1:7">
+      <c r="A29" s="22"/>
       <c r="B29" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="67">
+        <v>47</v>
+      </c>
+      <c r="C29" s="10">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -3378,23 +3841,23 @@
       <c r="F29" s="25"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="65"/>
+    <row r="30" ht="15.6" spans="1:7">
+      <c r="A30" s="24"/>
       <c r="B30" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="69"/>
+        <v>48</v>
+      </c>
+      <c r="C30" s="23"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="25"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="31" ht="15.6" spans="1:7">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="68"/>
+        <v>49</v>
+      </c>
+      <c r="C31" s="17"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -3423,42 +3886,43 @@
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+    <sheetView topLeftCell="C3" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" customWidth="1"/>
-    <col min="2" max="2" width="30.6328125" customWidth="1"/>
+    <col min="1" max="1" width="14.7222222222222" customWidth="1"/>
+    <col min="2" max="2" width="30.6296296296296" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.0925925925926" customWidth="1"/>
+    <col min="5" max="5" width="13.2685185185185" customWidth="1"/>
+    <col min="6" max="6" width="14.4537037037037" customWidth="1"/>
     <col min="7" max="7" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" ht="32.4" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-    </row>
-    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" ht="21" customHeight="1" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3481,28 +3945,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+    <row r="3" ht="23.15" customHeight="1" spans="1:7">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" ht="15.6" spans="1:7">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="10">
         <v>43638</v>
       </c>
-      <c r="D4" s="83">
+      <c r="D4" s="32">
         <v>43642</v>
       </c>
       <c r="E4" s="12">
@@ -3513,14 +3977,14 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" ht="15.6" spans="1:7">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="61"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -3529,11 +3993,11 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" ht="15.6" spans="1:7">
+      <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -3550,15 +4014,15 @@
         <v>0.5</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="55"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" ht="15.6" spans="1:7">
+      <c r="A7" s="19"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="10">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -3569,15 +4033,15 @@
         <v>0.8</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="56"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" ht="15.6" spans="1:7">
+      <c r="A8" s="20"/>
       <c r="B8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="61"/>
+        <v>18</v>
+      </c>
+      <c r="C8" s="17"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12">
         <v>43641</v>
@@ -3587,14 +4051,14 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="57" t="s">
-        <v>18</v>
+    <row r="9" ht="15.6" spans="1:7">
+      <c r="A9" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="60">
+        <v>20</v>
+      </c>
+      <c r="C9" s="10">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -3606,12 +4070,12 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="58"/>
+    <row r="10" ht="15.6" spans="1:7">
+      <c r="A10" s="22"/>
       <c r="B10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="62"/>
+        <v>21</v>
+      </c>
+      <c r="C10" s="23"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12">
         <v>43642</v>
@@ -3620,15 +4084,15 @@
         <v>0.7</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="59"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" ht="15.6" spans="1:7">
+      <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="61"/>
+        <v>22</v>
+      </c>
+      <c r="C11" s="17"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12">
         <v>43642</v>
@@ -3638,14 +4102,14 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="57" t="s">
-        <v>22</v>
+    <row r="12" ht="15.6" spans="1:7">
+      <c r="A12" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="60">
+        <v>24</v>
+      </c>
+      <c r="C12" s="10">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -3653,58 +4117,58 @@
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="58"/>
+    <row r="13" ht="15.6" spans="1:7">
+      <c r="A13" s="22"/>
       <c r="B13" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="62"/>
+        <v>25</v>
+      </c>
+      <c r="C13" s="23"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="25"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="58"/>
+    <row r="14" ht="15.6" spans="1:7">
+      <c r="A14" s="22"/>
       <c r="B14" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="62"/>
+        <v>26</v>
+      </c>
+      <c r="C14" s="23"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="25"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="59"/>
+    <row r="15" ht="15.6" spans="1:7">
+      <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="61"/>
+        <v>27</v>
+      </c>
+      <c r="C15" s="17"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="25"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="57" t="s">
+    <row r="16" ht="24" customHeight="1" spans="1:7">
+      <c r="A16" s="26" t="s">
         <v>28</v>
       </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+    </row>
+    <row r="17" ht="15.6" spans="1:7">
+      <c r="A17" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="B17" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="60">
+        <v>30</v>
+      </c>
+      <c r="C17" s="10">
         <v>43643</v>
       </c>
       <c r="D17" s="12">
@@ -3718,12 +4182,12 @@
       </c>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="59"/>
+    <row r="18" ht="15.6" spans="1:7">
+      <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="61"/>
+        <v>31</v>
+      </c>
+      <c r="C18" s="17"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12">
         <v>43641</v>
@@ -3732,41 +4196,41 @@
         <v>0.7</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="57" t="s">
-        <v>31</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" ht="15.6" spans="1:7">
+      <c r="A19" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="60" t="s">
         <v>33</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="25"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="58"/>
+    <row r="20" ht="15.6" spans="1:7">
+      <c r="A20" s="22"/>
       <c r="B20" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="61"/>
+        <v>35</v>
+      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="25"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="58"/>
+    <row r="21" ht="15.6" spans="1:7">
+      <c r="A21" s="22"/>
       <c r="B21" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="60">
+        <v>36</v>
+      </c>
+      <c r="C21" s="10">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -3774,62 +4238,62 @@
       <c r="F21" s="25"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="59"/>
+    <row r="22" ht="15.6" spans="1:7">
+      <c r="A22" s="24"/>
       <c r="B22" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="61"/>
+        <v>37</v>
+      </c>
+      <c r="C22" s="17"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="25"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="57" t="s">
-        <v>37</v>
+    <row r="23" ht="31.2" spans="1:7">
+      <c r="A23" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="63" t="s">
         <v>39</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>40</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="25"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="58"/>
+    <row r="24" ht="15.6" spans="1:7">
+      <c r="A24" s="22"/>
       <c r="B24" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="62"/>
+        <v>41</v>
+      </c>
+      <c r="C24" s="23"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="25"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="59"/>
+    <row r="25" ht="15.6" spans="1:7">
+      <c r="A25" s="24"/>
       <c r="B25" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="61"/>
+        <v>42</v>
+      </c>
+      <c r="C25" s="17"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="25"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="57" t="s">
-        <v>42</v>
+    <row r="26" ht="15.6" spans="1:7">
+      <c r="A26" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="60">
+        <v>44</v>
+      </c>
+      <c r="C26" s="10">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -3837,34 +4301,34 @@
       <c r="F26" s="25"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="58"/>
+    <row r="27" ht="15.6" spans="1:7">
+      <c r="A27" s="22"/>
       <c r="B27" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="62"/>
+        <v>45</v>
+      </c>
+      <c r="C27" s="23"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="25"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="58"/>
+    <row r="28" ht="15.6" spans="1:7">
+      <c r="A28" s="22"/>
       <c r="B28" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="61"/>
+        <v>46</v>
+      </c>
+      <c r="C28" s="17"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="25"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="58"/>
+    <row r="29" ht="15.6" spans="1:7">
+      <c r="A29" s="22"/>
       <c r="B29" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="60">
+        <v>47</v>
+      </c>
+      <c r="C29" s="10">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -3872,65 +4336,66 @@
       <c r="F29" s="25"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="59"/>
+    <row r="30" ht="15.6" spans="1:7">
+      <c r="A30" s="24"/>
       <c r="B30" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="62"/>
+        <v>48</v>
+      </c>
+      <c r="C30" s="23"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="25"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="31" ht="15.6" spans="1:7">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="61"/>
+        <v>49</v>
+      </c>
+      <c r="C31" s="17"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="31"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" customWidth="1"/>
-    <col min="2" max="2" width="30.6328125" customWidth="1"/>
+    <col min="1" max="1" width="16.7222222222222" customWidth="1"/>
+    <col min="2" max="2" width="30.6296296296296" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.0925925925926" customWidth="1"/>
+    <col min="5" max="5" width="13.2685185185185" customWidth="1"/>
+    <col min="6" max="6" width="14.4537037037037" customWidth="1"/>
     <col min="7" max="7" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+    <row r="1" ht="32.4" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="73"/>
-    </row>
-    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" ht="24" customHeight="1" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3953,25 +4418,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
+    <row r="3" ht="21" customHeight="1" spans="1:7">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="76"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" ht="15.6" spans="1:7">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="67">
+      <c r="C4" s="10">
         <v>43638</v>
       </c>
       <c r="D4" s="11"/>
@@ -3982,17 +4447,17 @@
         <v>0.6</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" ht="15.6" spans="1:7">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="68"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -4002,8 +4467,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="80" t="s">
+    <row r="6" ht="15.6" spans="1:7">
+      <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -4020,15 +4485,15 @@
         <v>0.5</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="81"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" ht="15.6" spans="1:7">
+      <c r="A7" s="19"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="67">
+      <c r="C7" s="10">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -4040,12 +4505,12 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="82"/>
+    <row r="8" ht="15.6" spans="1:7">
+      <c r="A8" s="20"/>
       <c r="B8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="68"/>
+        <v>18</v>
+      </c>
+      <c r="C8" s="17"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12">
         <v>43641</v>
@@ -4054,17 +4519,17 @@
         <v>0.5</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="64" t="s">
-        <v>18</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" ht="15.6" spans="1:7">
+      <c r="A9" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="67">
+        <v>20</v>
+      </c>
+      <c r="C9" s="10">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -4075,15 +4540,15 @@
         <v>0.5</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="66"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" ht="15.6" spans="1:7">
+      <c r="A10" s="22"/>
       <c r="B10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="69"/>
+        <v>21</v>
+      </c>
+      <c r="C10" s="23"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12">
         <v>43642</v>
@@ -4093,12 +4558,12 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="65"/>
+    <row r="11" ht="15.6" spans="1:7">
+      <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="68"/>
+        <v>22</v>
+      </c>
+      <c r="C11" s="17"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12">
         <v>43642</v>
@@ -4108,14 +4573,14 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="64" t="s">
-        <v>22</v>
+    <row r="12" ht="15.6" spans="1:7">
+      <c r="A12" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="67">
+        <v>24</v>
+      </c>
+      <c r="C12" s="10">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -4127,58 +4592,58 @@
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="66"/>
+    <row r="13" ht="15.6" spans="1:7">
+      <c r="A13" s="22"/>
       <c r="B13" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="69"/>
+        <v>25</v>
+      </c>
+      <c r="C13" s="23"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="25"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="66"/>
+    <row r="14" ht="15.6" spans="1:7">
+      <c r="A14" s="22"/>
       <c r="B14" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="69"/>
+        <v>26</v>
+      </c>
+      <c r="C14" s="23"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="25"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="65"/>
+    <row r="15" ht="15.6" spans="1:7">
+      <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="68"/>
+        <v>27</v>
+      </c>
+      <c r="C15" s="17"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="25"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="77" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="79"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="64" t="s">
+    <row r="16" ht="21" customHeight="1" spans="1:7">
+      <c r="A16" s="26" t="s">
         <v>28</v>
       </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+    </row>
+    <row r="17" ht="15.6" spans="1:7">
+      <c r="A17" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="B17" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="67">
+        <v>30</v>
+      </c>
+      <c r="C17" s="10">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -4186,53 +4651,53 @@
       <c r="F17" s="25"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="65"/>
+    <row r="18" ht="15.6" spans="1:7">
+      <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="68"/>
+        <v>31</v>
+      </c>
+      <c r="C18" s="17"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13">
         <v>0.4</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="64" t="s">
-        <v>31</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" ht="15.6" spans="1:7">
+      <c r="A19" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="67" t="s">
         <v>33</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="25"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="66"/>
+    <row r="20" ht="15.6" spans="1:7">
+      <c r="A20" s="22"/>
       <c r="B20" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="68"/>
+        <v>35</v>
+      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="25"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="66"/>
+    <row r="21" ht="15.6" spans="1:7">
+      <c r="A21" s="22"/>
       <c r="B21" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="67">
+        <v>36</v>
+      </c>
+      <c r="C21" s="10">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -4240,62 +4705,62 @@
       <c r="F21" s="25"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="65"/>
+    <row r="22" ht="15.6" spans="1:7">
+      <c r="A22" s="24"/>
       <c r="B22" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="68"/>
+        <v>37</v>
+      </c>
+      <c r="C22" s="17"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="25"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="64" t="s">
-        <v>37</v>
+    <row r="23" ht="15.6" spans="1:7">
+      <c r="A23" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="70" t="s">
         <v>39</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>40</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="25"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="66"/>
+    <row r="24" ht="15.6" spans="1:7">
+      <c r="A24" s="22"/>
       <c r="B24" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="69"/>
+        <v>41</v>
+      </c>
+      <c r="C24" s="23"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="25"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="65"/>
+    <row r="25" ht="15.6" spans="1:7">
+      <c r="A25" s="24"/>
       <c r="B25" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="68"/>
+        <v>42</v>
+      </c>
+      <c r="C25" s="17"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="25"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="64" t="s">
-        <v>42</v>
+    <row r="26" ht="15.6" spans="1:7">
+      <c r="A26" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="67">
+        <v>44</v>
+      </c>
+      <c r="C26" s="10">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -4303,34 +4768,34 @@
       <c r="F26" s="25"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="66"/>
+    <row r="27" ht="15.6" spans="1:7">
+      <c r="A27" s="22"/>
       <c r="B27" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="69"/>
+        <v>45</v>
+      </c>
+      <c r="C27" s="23"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="25"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="66"/>
+    <row r="28" ht="15.6" spans="1:7">
+      <c r="A28" s="22"/>
       <c r="B28" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="68"/>
+        <v>46</v>
+      </c>
+      <c r="C28" s="17"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="25"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="66"/>
+    <row r="29" ht="15.6" spans="1:7">
+      <c r="A29" s="22"/>
       <c r="B29" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="67">
+        <v>47</v>
+      </c>
+      <c r="C29" s="10">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -4338,23 +4803,23 @@
       <c r="F29" s="25"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="65"/>
+    <row r="30" ht="15.6" spans="1:7">
+      <c r="A30" s="24"/>
       <c r="B30" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="69"/>
+        <v>48</v>
+      </c>
+      <c r="C30" s="23"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="25"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="31" ht="15.6" spans="1:7">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="68"/>
+        <v>49</v>
+      </c>
+      <c r="C31" s="17"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -4383,7 +4848,7 @@
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/樊佩茹/项目进度控制表-樊佩茹 .xlsx
+++ b/樊佩茹/项目进度控制表-樊佩茹 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8484" activeTab="3"/>
+    <workbookView windowWidth="24345" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="樊佩茹" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>进度控制表-在线点餐的设计与实现</t>
   </si>
@@ -192,9 +192,6 @@
   </si>
   <si>
     <t>30天内自动登录未做</t>
-  </si>
-  <si>
-    <t>上传图片未做</t>
   </si>
   <si>
     <t>未成功 获取不到对应元素</t>
@@ -213,10 +210,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,9 +313,41 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -329,11 +358,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -346,10 +397,33 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -368,14 +442,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -384,82 +450,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,7 +476,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,19 +518,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,19 +530,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,13 +566,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,55 +584,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,7 +608,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,31 +656,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,11 +768,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,30 +788,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -860,17 +833,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -882,10 +873,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -894,140 +885,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1103,17 +1094,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1157,9 +1148,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -1515,19 +1503,19 @@
   <sheetPr/>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="15.6296296296296" customWidth="1"/>
-    <col min="2" max="2" width="29.7222222222222" customWidth="1"/>
-    <col min="3" max="6" width="15.6296296296296" customWidth="1"/>
-    <col min="7" max="7" width="84.6296296296296" customWidth="1"/>
+    <col min="1" max="1" width="15.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="29.725" customWidth="1"/>
+    <col min="3" max="6" width="15.6333333333333" customWidth="1"/>
+    <col min="7" max="7" width="84.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.4" spans="1:7">
+    <row r="1" ht="33.75" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1561,7 +1549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="45" customFormat="1" ht="23.15" customHeight="1" spans="1:7">
+    <row r="3" s="44" customFormat="1" ht="23.15" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1593,7 +1581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:7">
+    <row r="5" ht="16.5" spans="1:7">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
@@ -1610,7 +1598,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" ht="15.6" spans="1:7">
+    <row r="6" ht="16.5" spans="1:7">
       <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
@@ -1631,7 +1619,7 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" ht="15.6" spans="1:7">
+    <row r="7" ht="16.5" spans="1:7">
       <c r="A7" s="19"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
@@ -1650,7 +1638,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="1:7">
+    <row r="8" ht="16.5" spans="1:7">
       <c r="A8" s="20"/>
       <c r="B8" s="16" t="s">
         <v>18</v>
@@ -1667,7 +1655,7 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" ht="15.6" spans="1:7">
+    <row r="9" ht="16.5" spans="1:7">
       <c r="A9" s="21" t="s">
         <v>19</v>
       </c>
@@ -1686,7 +1674,7 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" ht="15.6" spans="1:7">
+    <row r="10" ht="16.5" spans="1:7">
       <c r="A10" s="22"/>
       <c r="B10" s="16" t="s">
         <v>21</v>
@@ -1703,7 +1691,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="1:7">
+    <row r="11" ht="16.5" spans="1:7">
       <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
         <v>22</v>
@@ -1718,7 +1706,7 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" ht="15.6" spans="1:7">
+    <row r="12" ht="16.5" spans="1:7">
       <c r="A12" s="21" t="s">
         <v>23</v>
       </c>
@@ -1729,55 +1717,73 @@
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" ht="15.6" spans="1:7">
+      <c r="E12" s="12">
+        <v>43643</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:7">
       <c r="A13" s="22"/>
       <c r="B13" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="25"/>
+      <c r="E13" s="12">
+        <v>43643</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0</v>
+      </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" ht="15.6" spans="1:7">
+    <row r="14" ht="16.5" spans="1:7">
       <c r="A14" s="22"/>
       <c r="B14" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="25"/>
+      <c r="E14" s="12">
+        <v>43643</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0</v>
+      </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" ht="15.6" spans="1:7">
+    <row r="15" ht="16.5" spans="1:7">
       <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="25"/>
+      <c r="E15" s="12">
+        <v>43643</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
       <c r="G15" s="14"/>
     </row>
     <row r="16" ht="24" customHeight="1" spans="1:7">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
-    </row>
-    <row r="17" ht="15.6" spans="1:7">
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:7">
       <c r="A17" s="21" t="s">
         <v>29</v>
       </c>
@@ -1789,10 +1795,10 @@
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="25"/>
+      <c r="F17" s="28"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" ht="15.6" spans="1:7">
+    <row r="18" ht="16.5" spans="1:7">
       <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
@@ -1803,7 +1809,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" ht="15.6" spans="1:7">
+    <row r="19" ht="16.5" spans="1:7">
       <c r="A19" s="21" t="s">
         <v>32</v>
       </c>
@@ -1815,10 +1821,10 @@
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
-      <c r="F19" s="25"/>
+      <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" ht="15.6" spans="1:7">
+    <row r="20" ht="16.5" spans="1:7">
       <c r="A20" s="22"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
@@ -1826,10 +1832,10 @@
       <c r="C20" s="17"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
-      <c r="F20" s="25"/>
+      <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" ht="15.6" spans="1:7">
+    <row r="21" ht="16.5" spans="1:7">
       <c r="A21" s="22"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
@@ -1839,10 +1845,10 @@
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
-      <c r="F21" s="25"/>
+      <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" ht="15.6" spans="1:7">
+    <row r="22" ht="16.5" spans="1:7">
       <c r="A22" s="24"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
@@ -1850,10 +1856,10 @@
       <c r="C22" s="17"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="25"/>
+      <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" ht="15.6" spans="1:7">
+    <row r="23" ht="16.5" spans="1:7">
       <c r="A23" s="21" t="s">
         <v>38</v>
       </c>
@@ -1865,10 +1871,10 @@
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
-      <c r="F23" s="25"/>
+      <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" ht="15.6" spans="1:7">
+    <row r="24" ht="16.5" spans="1:7">
       <c r="A24" s="22"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
@@ -1876,10 +1882,10 @@
       <c r="C24" s="23"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="25"/>
+      <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" ht="15.6" spans="1:7">
+    <row r="25" ht="16.5" spans="1:7">
       <c r="A25" s="24"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
@@ -1887,10 +1893,10 @@
       <c r="C25" s="17"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
-      <c r="F25" s="25"/>
+      <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" ht="15.6" spans="1:7">
+    <row r="26" ht="16.5" spans="1:7">
       <c r="A26" s="21" t="s">
         <v>43</v>
       </c>
@@ -1902,10 +1908,10 @@
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
-      <c r="F26" s="25"/>
+      <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" ht="15.6" spans="1:7">
+    <row r="27" ht="16.5" spans="1:7">
       <c r="A27" s="22"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
@@ -1913,10 +1919,10 @@
       <c r="C27" s="23"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
-      <c r="F27" s="25"/>
+      <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" ht="15.6" spans="1:7">
+    <row r="28" ht="16.5" spans="1:7">
       <c r="A28" s="22"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
@@ -1924,10 +1930,10 @@
       <c r="C28" s="17"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
-      <c r="F28" s="25"/>
+      <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" ht="15.6" spans="1:7">
+    <row r="29" ht="16.5" spans="1:7">
       <c r="A29" s="22"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
@@ -1937,10 +1943,10 @@
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="25"/>
+      <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" ht="15.6" spans="1:7">
+    <row r="30" ht="16.5" spans="1:7">
       <c r="A30" s="24"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
@@ -1948,10 +1954,10 @@
       <c r="C30" s="23"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
-      <c r="F30" s="25"/>
+      <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" ht="15.6" spans="1:7">
+    <row r="31" ht="16.5" spans="1:7">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
@@ -2000,18 +2006,18 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.9074074074074" customWidth="1"/>
-    <col min="2" max="2" width="32.9074074074074" customWidth="1"/>
-    <col min="3" max="3" width="15.0925925925926" customWidth="1"/>
-    <col min="4" max="4" width="15.2685185185185" customWidth="1"/>
-    <col min="5" max="5" width="14.9074074074074" customWidth="1"/>
-    <col min="6" max="6" width="15.6296296296296" customWidth="1"/>
-    <col min="7" max="7" width="81.0925925925926" customWidth="1"/>
+    <col min="1" max="1" width="18.9083333333333" customWidth="1"/>
+    <col min="2" max="2" width="32.9083333333333" customWidth="1"/>
+    <col min="3" max="3" width="15.0916666666667" customWidth="1"/>
+    <col min="4" max="4" width="15.2666666666667" customWidth="1"/>
+    <col min="5" max="5" width="14.9083333333333" customWidth="1"/>
+    <col min="6" max="6" width="15.6333333333333" customWidth="1"/>
+    <col min="7" max="7" width="81.0916666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.4" spans="1:7">
+    <row r="1" ht="33.75" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2056,7 +2062,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" ht="15.6" spans="1:7">
+    <row r="4" ht="16.5" spans="1:7">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -2077,7 +2083,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:7">
+    <row r="5" ht="16.5" spans="1:7">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
@@ -2094,7 +2100,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" ht="15.6" spans="1:7">
+    <row r="6" ht="16.5" spans="1:7">
       <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
@@ -2113,7 +2119,7 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" ht="15.6" spans="1:7">
+    <row r="7" ht="16.5" spans="1:7">
       <c r="A7" s="19"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
@@ -2132,7 +2138,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="1:7">
+    <row r="8" ht="16.5" spans="1:7">
       <c r="A8" s="20"/>
       <c r="B8" s="16" t="s">
         <v>18</v>
@@ -2140,10 +2146,10 @@
       <c r="C8" s="17"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="25"/>
+      <c r="F8" s="28"/>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" ht="15.6" spans="1:7">
+    <row r="9" ht="16.5" spans="1:7">
       <c r="A9" s="21" t="s">
         <v>19</v>
       </c>
@@ -2155,10 +2161,10 @@
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="25"/>
+      <c r="F9" s="28"/>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" ht="15.6" spans="1:7">
+    <row r="10" ht="16.5" spans="1:7">
       <c r="A10" s="22"/>
       <c r="B10" s="16" t="s">
         <v>21</v>
@@ -2175,7 +2181,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="1:7">
+    <row r="11" ht="16.5" spans="1:7">
       <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
         <v>22</v>
@@ -2186,7 +2192,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" ht="15.6" spans="1:7">
+    <row r="12" ht="16.5" spans="1:7">
       <c r="A12" s="21" t="s">
         <v>23</v>
       </c>
@@ -2201,7 +2207,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" ht="15.6" spans="1:7">
+    <row r="13" ht="16.5" spans="1:7">
       <c r="A13" s="22"/>
       <c r="B13" s="16" t="s">
         <v>25</v>
@@ -2218,7 +2224,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" ht="15.6" spans="1:7">
+    <row r="14" ht="16.5" spans="1:7">
       <c r="A14" s="22"/>
       <c r="B14" s="16" t="s">
         <v>26</v>
@@ -2235,7 +2241,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" ht="15.6" spans="1:7">
+    <row r="15" ht="16.5" spans="1:7">
       <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
         <v>27</v>
@@ -2243,21 +2249,21 @@
       <c r="C15" s="17"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="25"/>
+      <c r="F15" s="28"/>
       <c r="G15" s="14"/>
     </row>
     <row r="16" ht="24" customHeight="1" spans="1:7">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
-    </row>
-    <row r="17" ht="15.6" spans="1:7">
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:7">
       <c r="A17" s="21" t="s">
         <v>29</v>
       </c>
@@ -2269,10 +2275,10 @@
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="25"/>
+      <c r="F17" s="28"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" ht="15.6" spans="1:7">
+    <row r="18" ht="16.5" spans="1:7">
       <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
@@ -2283,7 +2289,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" ht="15.6" spans="1:7">
+    <row r="19" ht="16.5" spans="1:7">
       <c r="A19" s="21" t="s">
         <v>32</v>
       </c>
@@ -2295,10 +2301,10 @@
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
-      <c r="F19" s="25"/>
+      <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" ht="15.6" spans="1:7">
+    <row r="20" ht="16.5" spans="1:7">
       <c r="A20" s="22"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
@@ -2306,10 +2312,10 @@
       <c r="C20" s="17"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
-      <c r="F20" s="25"/>
+      <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" ht="15.6" spans="1:7">
+    <row r="21" ht="16.5" spans="1:7">
       <c r="A21" s="22"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
@@ -2319,10 +2325,10 @@
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
-      <c r="F21" s="25"/>
+      <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" ht="15.6" spans="1:7">
+    <row r="22" ht="16.5" spans="1:7">
       <c r="A22" s="24"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
@@ -2330,10 +2336,10 @@
       <c r="C22" s="17"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="25"/>
+      <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" ht="15.6" spans="1:7">
+    <row r="23" ht="16.5" spans="1:7">
       <c r="A23" s="21" t="s">
         <v>38</v>
       </c>
@@ -2345,10 +2351,10 @@
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
-      <c r="F23" s="25"/>
+      <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" ht="15.6" spans="1:7">
+    <row r="24" ht="16.5" spans="1:7">
       <c r="A24" s="22"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
@@ -2356,10 +2362,10 @@
       <c r="C24" s="23"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="25"/>
+      <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" ht="15.6" spans="1:7">
+    <row r="25" ht="16.5" spans="1:7">
       <c r="A25" s="24"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
@@ -2367,10 +2373,10 @@
       <c r="C25" s="17"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
-      <c r="F25" s="25"/>
+      <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" ht="15.6" spans="1:7">
+    <row r="26" ht="16.5" spans="1:7">
       <c r="A26" s="21" t="s">
         <v>43</v>
       </c>
@@ -2382,10 +2388,10 @@
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
-      <c r="F26" s="25"/>
+      <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" ht="15.6" spans="1:7">
+    <row r="27" ht="16.5" spans="1:7">
       <c r="A27" s="22"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
@@ -2393,10 +2399,10 @@
       <c r="C27" s="23"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
-      <c r="F27" s="25"/>
+      <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" ht="15.6" spans="1:7">
+    <row r="28" ht="16.5" spans="1:7">
       <c r="A28" s="22"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
@@ -2404,10 +2410,10 @@
       <c r="C28" s="17"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
-      <c r="F28" s="25"/>
+      <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" ht="15.6" spans="1:7">
+    <row r="29" ht="16.5" spans="1:7">
       <c r="A29" s="22"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
@@ -2417,10 +2423,10 @@
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="25"/>
+      <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" ht="15.6" spans="1:7">
+    <row r="30" ht="16.5" spans="1:7">
       <c r="A30" s="24"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
@@ -2428,10 +2434,10 @@
       <c r="C30" s="23"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
-      <c r="F30" s="25"/>
+      <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" ht="15.6" spans="1:7">
+    <row r="31" ht="16.5" spans="1:7">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
@@ -2480,18 +2486,18 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16.3611111111111" customWidth="1"/>
-    <col min="2" max="2" width="31.6296296296296" customWidth="1"/>
-    <col min="3" max="3" width="14.4537037037037" customWidth="1"/>
-    <col min="4" max="4" width="15.4537037037037" customWidth="1"/>
-    <col min="5" max="5" width="15.2685185185185" customWidth="1"/>
+    <col min="1" max="1" width="16.3583333333333" customWidth="1"/>
+    <col min="2" max="2" width="31.6333333333333" customWidth="1"/>
+    <col min="3" max="3" width="14.45" customWidth="1"/>
+    <col min="4" max="4" width="15.45" customWidth="1"/>
+    <col min="5" max="5" width="15.2666666666667" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="87.6296296296296" customWidth="1"/>
+    <col min="7" max="7" width="87.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.4" spans="1:7">
+    <row r="1" ht="33.75" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2536,7 +2542,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" ht="15.6" spans="1:7">
+    <row r="4" ht="16.5" spans="1:7">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -2557,7 +2563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:7">
+    <row r="5" ht="16.5" spans="1:7">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
@@ -2574,7 +2580,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" ht="15.6" spans="1:7">
+    <row r="6" ht="16.5" spans="1:7">
       <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
@@ -2593,9 +2599,9 @@
       <c r="F6" s="13">
         <v>1</v>
       </c>
-      <c r="G6" s="44"/>
-    </row>
-    <row r="7" ht="15.6" spans="1:7">
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:7">
       <c r="A7" s="19"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
@@ -2612,11 +2618,11 @@
       <c r="F7" s="13">
         <v>0.8</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="1:7">
+    <row r="8" ht="16.5" spans="1:7">
       <c r="A8" s="20"/>
       <c r="B8" s="16" t="s">
         <v>18</v>
@@ -2631,7 +2637,7 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" ht="15.6" spans="1:7">
+    <row r="9" ht="16.5" spans="1:7">
       <c r="A9" s="21" t="s">
         <v>19</v>
       </c>
@@ -2650,7 +2656,7 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" ht="15.6" spans="1:7">
+    <row r="10" ht="16.5" spans="1:7">
       <c r="A10" s="22"/>
       <c r="B10" s="16" t="s">
         <v>21</v>
@@ -2663,11 +2669,11 @@
       <c r="F10" s="13">
         <v>0.8</v>
       </c>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="1:7">
+    <row r="11" ht="16.5" spans="1:7">
       <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
         <v>22</v>
@@ -2678,7 +2684,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" ht="15.6" spans="1:7">
+    <row r="12" ht="16.5" spans="1:7">
       <c r="A12" s="21" t="s">
         <v>23</v>
       </c>
@@ -2697,11 +2703,11 @@
       <c r="F12" s="13">
         <v>0.8</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" ht="15.6" spans="1:7">
+    <row r="13" ht="16.5" spans="1:7">
       <c r="A13" s="22"/>
       <c r="B13" s="16" t="s">
         <v>25</v>
@@ -2709,10 +2715,10 @@
       <c r="C13" s="23"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="25"/>
+      <c r="F13" s="28"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" ht="15.6" spans="1:7">
+    <row r="14" ht="16.5" spans="1:7">
       <c r="A14" s="22"/>
       <c r="B14" s="16" t="s">
         <v>26</v>
@@ -2720,10 +2726,10 @@
       <c r="C14" s="23"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="25"/>
+      <c r="F14" s="28"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" ht="15.6" spans="1:7">
+    <row r="15" ht="16.5" spans="1:7">
       <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
         <v>27</v>
@@ -2731,21 +2737,21 @@
       <c r="C15" s="17"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="25"/>
+      <c r="F15" s="28"/>
       <c r="G15" s="14"/>
     </row>
     <row r="16" ht="24" customHeight="1" spans="1:7">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
-    </row>
-    <row r="17" ht="15.6" spans="1:7">
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:7">
       <c r="A17" s="21" t="s">
         <v>29</v>
       </c>
@@ -2757,10 +2763,10 @@
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="25"/>
+      <c r="F17" s="28"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" ht="15.6" spans="1:7">
+    <row r="18" ht="16.5" spans="1:7">
       <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
@@ -2771,7 +2777,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" ht="15.6" spans="1:7">
+    <row r="19" ht="16.5" spans="1:7">
       <c r="A19" s="21" t="s">
         <v>32</v>
       </c>
@@ -2783,10 +2789,10 @@
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
-      <c r="F19" s="25"/>
+      <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" ht="15.6" spans="1:7">
+    <row r="20" ht="16.5" spans="1:7">
       <c r="A20" s="22"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
@@ -2794,10 +2800,10 @@
       <c r="C20" s="17"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
-      <c r="F20" s="25"/>
+      <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" ht="15.6" spans="1:7">
+    <row r="21" ht="16.5" spans="1:7">
       <c r="A21" s="22"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
@@ -2807,10 +2813,10 @@
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
-      <c r="F21" s="25"/>
+      <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" ht="15.6" spans="1:7">
+    <row r="22" ht="16.5" spans="1:7">
       <c r="A22" s="24"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
@@ -2818,10 +2824,10 @@
       <c r="C22" s="17"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="25"/>
+      <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" ht="31.2" spans="1:7">
+    <row r="23" ht="33" spans="1:7">
       <c r="A23" s="21" t="s">
         <v>38</v>
       </c>
@@ -2833,10 +2839,10 @@
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
-      <c r="F23" s="25"/>
+      <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" ht="15.6" spans="1:7">
+    <row r="24" ht="16.5" spans="1:7">
       <c r="A24" s="22"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
@@ -2844,10 +2850,10 @@
       <c r="C24" s="23"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="25"/>
+      <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" ht="15.6" spans="1:7">
+    <row r="25" ht="16.5" spans="1:7">
       <c r="A25" s="24"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
@@ -2855,10 +2861,10 @@
       <c r="C25" s="17"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
-      <c r="F25" s="25"/>
+      <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" ht="15.6" spans="1:7">
+    <row r="26" ht="16.5" spans="1:7">
       <c r="A26" s="21" t="s">
         <v>43</v>
       </c>
@@ -2870,10 +2876,10 @@
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
-      <c r="F26" s="25"/>
+      <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" ht="15.6" spans="1:7">
+    <row r="27" ht="16.5" spans="1:7">
       <c r="A27" s="22"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
@@ -2881,10 +2887,10 @@
       <c r="C27" s="23"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
-      <c r="F27" s="25"/>
+      <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" ht="15.6" spans="1:7">
+    <row r="28" ht="16.5" spans="1:7">
       <c r="A28" s="22"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
@@ -2892,10 +2898,10 @@
       <c r="C28" s="17"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
-      <c r="F28" s="25"/>
+      <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" ht="15.6" spans="1:7">
+    <row r="29" ht="16.5" spans="1:7">
       <c r="A29" s="22"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
@@ -2905,10 +2911,10 @@
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="25"/>
+      <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" ht="15.6" spans="1:7">
+    <row r="30" ht="16.5" spans="1:7">
       <c r="A30" s="24"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
@@ -2916,10 +2922,10 @@
       <c r="C30" s="23"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
-      <c r="F30" s="25"/>
+      <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" ht="15.6" spans="1:7">
+    <row r="31" ht="16.5" spans="1:7">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
@@ -2942,23 +2948,23 @@
   <sheetPr/>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16.4537037037037" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.6296296296296" style="33" customWidth="1"/>
-    <col min="3" max="3" width="25.3611111111111" style="33" customWidth="1"/>
-    <col min="4" max="4" width="18.9074074074074" style="33" customWidth="1"/>
-    <col min="5" max="5" width="18.4537037037037" style="33" customWidth="1"/>
-    <col min="6" max="6" width="16.6296296296296" style="33" customWidth="1"/>
-    <col min="7" max="7" width="47.3611111111111" style="33" customWidth="1"/>
+    <col min="1" max="1" width="16.45" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.6333333333333" style="33" customWidth="1"/>
+    <col min="3" max="3" width="25.3583333333333" style="33" customWidth="1"/>
+    <col min="4" max="4" width="18.9083333333333" style="33" customWidth="1"/>
+    <col min="5" max="5" width="18.45" style="33" customWidth="1"/>
+    <col min="6" max="6" width="16.6333333333333" style="33" customWidth="1"/>
+    <col min="7" max="7" width="47.3583333333333" style="33" customWidth="1"/>
     <col min="8" max="16384" width="11" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.4" spans="1:7">
+    <row r="1" ht="33.75" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3003,7 +3009,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" ht="15.6" spans="1:7">
+    <row r="4" ht="16.5" spans="1:7">
       <c r="A4" s="34" t="s">
         <v>9</v>
       </c>
@@ -3020,7 +3026,7 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" ht="15.6" spans="1:7">
+    <row r="5" ht="16.5" spans="1:7">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
@@ -3035,7 +3041,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" ht="15.6" spans="1:7">
+    <row r="6" ht="16.5" spans="1:7">
       <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
@@ -3052,7 +3058,7 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" ht="15.6" spans="1:7">
+    <row r="7" ht="16.5" spans="1:7">
       <c r="A7" s="15"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
@@ -3067,7 +3073,7 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" ht="15.6" spans="1:7">
+    <row r="8" ht="16.5" spans="1:7">
       <c r="A8" s="38"/>
       <c r="B8" s="16" t="s">
         <v>18</v>
@@ -3080,7 +3086,7 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" ht="15.6" spans="1:7">
+    <row r="9" ht="16.5" spans="1:7">
       <c r="A9" s="39" t="s">
         <v>19</v>
       </c>
@@ -3097,7 +3103,7 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" ht="15.6" spans="1:7">
+    <row r="10" ht="16.5" spans="1:7">
       <c r="A10" s="38"/>
       <c r="B10" s="16" t="s">
         <v>21</v>
@@ -3110,7 +3116,7 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" ht="15.6" spans="1:7">
+    <row r="11" ht="16.5" spans="1:7">
       <c r="A11" s="40"/>
       <c r="B11" s="16" t="s">
         <v>22</v>
@@ -3123,7 +3129,7 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" ht="15.6" spans="1:7">
+    <row r="12" ht="16.5" spans="1:7">
       <c r="A12" s="39" t="s">
         <v>23</v>
       </c>
@@ -3140,7 +3146,7 @@
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" ht="15.6" spans="1:7">
+    <row r="13" ht="16.5" spans="1:7">
       <c r="A13" s="15"/>
       <c r="B13" s="16" t="s">
         <v>25</v>
@@ -3153,7 +3159,7 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" ht="15.6" spans="1:7">
+    <row r="14" ht="16.5" spans="1:7">
       <c r="A14" s="41"/>
       <c r="B14" s="16" t="s">
         <v>26</v>
@@ -3166,7 +3172,7 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" ht="15.6" spans="1:7">
+    <row r="15" ht="16.5" spans="1:7">
       <c r="A15" s="42"/>
       <c r="B15" s="16" t="s">
         <v>27</v>
@@ -3180,17 +3186,17 @@
       <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
-    </row>
-    <row r="17" ht="15.6" spans="1:7">
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:7">
       <c r="A17" s="39" t="s">
         <v>29</v>
       </c>
@@ -3202,10 +3208,10 @@
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="25"/>
+      <c r="F17" s="28"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" ht="15.6" spans="1:7">
+    <row r="18" ht="16.5" spans="1:7">
       <c r="A18" s="42"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
@@ -3216,7 +3222,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" ht="15.6" spans="1:7">
+    <row r="19" ht="16.5" spans="1:7">
       <c r="A19" s="39" t="s">
         <v>32</v>
       </c>
@@ -3228,10 +3234,10 @@
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
-      <c r="F19" s="25"/>
+      <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" ht="15.6" spans="1:7">
+    <row r="20" ht="16.5" spans="1:7">
       <c r="A20" s="42"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
@@ -3239,10 +3245,10 @@
       <c r="C20" s="17"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
-      <c r="F20" s="25"/>
+      <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" ht="15.6" spans="1:7">
+    <row r="21" ht="16.5" spans="1:7">
       <c r="A21" s="42"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
@@ -3252,10 +3258,10 @@
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
-      <c r="F21" s="25"/>
+      <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" ht="15.6" spans="1:7">
+    <row r="22" ht="16.5" spans="1:7">
       <c r="A22" s="41"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
@@ -3263,10 +3269,10 @@
       <c r="C22" s="17"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="25"/>
+      <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" ht="15.6" spans="1:7">
+    <row r="23" ht="16.5" spans="1:7">
       <c r="A23" s="39" t="s">
         <v>38</v>
       </c>
@@ -3278,10 +3284,10 @@
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
-      <c r="F23" s="25"/>
+      <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" ht="15.6" spans="1:7">
+    <row r="24" ht="16.5" spans="1:7">
       <c r="A24" s="40"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
@@ -3289,10 +3295,10 @@
       <c r="C24" s="23"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="25"/>
+      <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" ht="15.6" spans="1:7">
+    <row r="25" ht="16.5" spans="1:7">
       <c r="A25" s="40"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
@@ -3300,10 +3306,10 @@
       <c r="C25" s="17"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
-      <c r="F25" s="25"/>
+      <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" ht="28.8" spans="1:7">
+    <row r="26" ht="25.5" spans="1:7">
       <c r="A26" s="39" t="s">
         <v>43</v>
       </c>
@@ -3315,10 +3321,10 @@
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
-      <c r="F26" s="25"/>
+      <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" ht="15.6" spans="1:7">
+    <row r="27" ht="16.5" spans="1:7">
       <c r="A27" s="40"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
@@ -3326,10 +3332,10 @@
       <c r="C27" s="23"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
-      <c r="F27" s="25"/>
+      <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" ht="15.6" spans="1:7">
+    <row r="28" ht="16.5" spans="1:7">
       <c r="A28" s="42"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
@@ -3337,10 +3343,10 @@
       <c r="C28" s="17"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
-      <c r="F28" s="25"/>
+      <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" ht="15.6" spans="1:7">
+    <row r="29" ht="16.5" spans="1:7">
       <c r="A29" s="42"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
@@ -3350,10 +3356,10 @@
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="25"/>
+      <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" ht="15.6" spans="1:7">
+    <row r="30" ht="16.5" spans="1:7">
       <c r="A30" s="15"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
@@ -3361,10 +3367,10 @@
       <c r="C30" s="23"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
-      <c r="F30" s="25"/>
+      <c r="F30" s="28"/>
       <c r="G30" s="43"/>
     </row>
-    <row r="31" ht="15.6" spans="1:7">
+    <row r="31" ht="16.5" spans="1:7">
       <c r="A31" s="36"/>
       <c r="B31" s="35" t="s">
         <v>49</v>
@@ -3405,18 +3411,18 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16.4537037037037" customWidth="1"/>
-    <col min="2" max="2" width="31.6296296296296" customWidth="1"/>
-    <col min="3" max="3" width="14.7222222222222" customWidth="1"/>
-    <col min="4" max="4" width="13.6296296296296" customWidth="1"/>
-    <col min="5" max="5" width="15.6296296296296" customWidth="1"/>
-    <col min="6" max="6" width="14.9074074074074" customWidth="1"/>
-    <col min="7" max="7" width="90.7222222222222" customWidth="1"/>
+    <col min="1" max="1" width="16.45" customWidth="1"/>
+    <col min="2" max="2" width="31.6333333333333" customWidth="1"/>
+    <col min="3" max="3" width="14.725" customWidth="1"/>
+    <col min="4" max="4" width="13.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="15.6333333333333" customWidth="1"/>
+    <col min="6" max="6" width="14.9083333333333" customWidth="1"/>
+    <col min="7" max="7" width="90.725" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.4" spans="1:7">
+    <row r="1" ht="33.75" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3461,7 +3467,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" ht="15.6" spans="1:7">
+    <row r="4" ht="16.5" spans="1:7">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -3482,7 +3488,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:7">
+    <row r="5" ht="16.5" spans="1:7">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
@@ -3499,7 +3505,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" ht="15.6" spans="1:7">
+    <row r="6" ht="16.5" spans="1:7">
       <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
@@ -3518,7 +3524,7 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" ht="15.6" spans="1:7">
+    <row r="7" ht="16.5" spans="1:7">
       <c r="A7" s="19"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
@@ -3535,7 +3541,7 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" ht="15.6" spans="1:7">
+    <row r="8" ht="16.5" spans="1:7">
       <c r="A8" s="20"/>
       <c r="B8" s="16" t="s">
         <v>18</v>
@@ -3552,7 +3558,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="1:7">
+    <row r="9" ht="16.5" spans="1:7">
       <c r="A9" s="21" t="s">
         <v>19</v>
       </c>
@@ -3571,7 +3577,7 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" ht="15.6" spans="1:7">
+    <row r="10" ht="16.5" spans="1:7">
       <c r="A10" s="22"/>
       <c r="B10" s="16" t="s">
         <v>21</v>
@@ -3586,7 +3592,7 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" ht="15.6" spans="1:7">
+    <row r="11" ht="16.5" spans="1:7">
       <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
         <v>22</v>
@@ -3601,7 +3607,7 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" ht="15.6" spans="1:7">
+    <row r="12" ht="16.5" spans="1:7">
       <c r="A12" s="21" t="s">
         <v>23</v>
       </c>
@@ -3622,7 +3628,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" ht="15.6" spans="1:7">
+    <row r="13" ht="16.5" spans="1:7">
       <c r="A13" s="22"/>
       <c r="B13" s="16" t="s">
         <v>25</v>
@@ -3637,7 +3643,7 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" ht="15.6" spans="1:7">
+    <row r="14" ht="16.5" spans="1:7">
       <c r="A14" s="22"/>
       <c r="B14" s="16" t="s">
         <v>26</v>
@@ -3652,7 +3658,7 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" ht="15.6" spans="1:7">
+    <row r="15" ht="16.5" spans="1:7">
       <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
         <v>27</v>
@@ -3668,17 +3674,17 @@
       <c r="G15" s="14"/>
     </row>
     <row r="16" ht="22" customHeight="1" spans="1:7">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
-    </row>
-    <row r="17" ht="15.6" spans="1:7">
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:7">
       <c r="A17" s="21" t="s">
         <v>29</v>
       </c>
@@ -3690,10 +3696,10 @@
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="25"/>
+      <c r="F17" s="28"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" ht="15.6" spans="1:7">
+    <row r="18" ht="16.5" spans="1:7">
       <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
@@ -3704,7 +3710,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" ht="15.6" spans="1:7">
+    <row r="19" ht="16.5" spans="1:7">
       <c r="A19" s="21" t="s">
         <v>32</v>
       </c>
@@ -3716,10 +3722,10 @@
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
-      <c r="F19" s="25"/>
+      <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" ht="15.6" spans="1:7">
+    <row r="20" ht="16.5" spans="1:7">
       <c r="A20" s="22"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
@@ -3727,10 +3733,10 @@
       <c r="C20" s="17"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
-      <c r="F20" s="25"/>
+      <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" ht="15.6" spans="1:7">
+    <row r="21" ht="16.5" spans="1:7">
       <c r="A21" s="22"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
@@ -3740,10 +3746,10 @@
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
-      <c r="F21" s="25"/>
+      <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" ht="15.6" spans="1:7">
+    <row r="22" ht="16.5" spans="1:7">
       <c r="A22" s="24"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
@@ -3751,10 +3757,10 @@
       <c r="C22" s="17"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="25"/>
+      <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" ht="15.6" spans="1:7">
+    <row r="23" ht="16.5" spans="1:7">
       <c r="A23" s="21" t="s">
         <v>38</v>
       </c>
@@ -3766,10 +3772,10 @@
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
-      <c r="F23" s="25"/>
+      <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" ht="15.6" spans="1:7">
+    <row r="24" ht="16.5" spans="1:7">
       <c r="A24" s="22"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
@@ -3777,10 +3783,10 @@
       <c r="C24" s="23"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="25"/>
+      <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" ht="15.6" spans="1:7">
+    <row r="25" ht="16.5" spans="1:7">
       <c r="A25" s="24"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
@@ -3788,10 +3794,10 @@
       <c r="C25" s="17"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
-      <c r="F25" s="25"/>
+      <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" ht="15.6" spans="1:7">
+    <row r="26" ht="16.5" spans="1:7">
       <c r="A26" s="21" t="s">
         <v>43</v>
       </c>
@@ -3803,10 +3809,10 @@
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
-      <c r="F26" s="25"/>
+      <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" ht="15.6" spans="1:7">
+    <row r="27" ht="16.5" spans="1:7">
       <c r="A27" s="22"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
@@ -3814,10 +3820,10 @@
       <c r="C27" s="23"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
-      <c r="F27" s="25"/>
+      <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" ht="15.6" spans="1:7">
+    <row r="28" ht="16.5" spans="1:7">
       <c r="A28" s="22"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
@@ -3825,10 +3831,10 @@
       <c r="C28" s="17"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
-      <c r="F28" s="25"/>
+      <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" ht="15.6" spans="1:7">
+    <row r="29" ht="16.5" spans="1:7">
       <c r="A29" s="22"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
@@ -3838,10 +3844,10 @@
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="25"/>
+      <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" ht="15.6" spans="1:7">
+    <row r="30" ht="16.5" spans="1:7">
       <c r="A30" s="24"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
@@ -3849,10 +3855,10 @@
       <c r="C30" s="23"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
-      <c r="F30" s="25"/>
+      <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" ht="15.6" spans="1:7">
+    <row r="31" ht="16.5" spans="1:7">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
@@ -3900,18 +3906,18 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="14.7222222222222" customWidth="1"/>
-    <col min="2" max="2" width="30.6296296296296" customWidth="1"/>
+    <col min="1" max="1" width="14.725" customWidth="1"/>
+    <col min="2" max="2" width="30.6333333333333" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.0925925925926" customWidth="1"/>
-    <col min="5" max="5" width="13.2685185185185" customWidth="1"/>
-    <col min="6" max="6" width="14.4537037037037" customWidth="1"/>
+    <col min="4" max="4" width="14.0916666666667" customWidth="1"/>
+    <col min="5" max="5" width="13.2666666666667" customWidth="1"/>
+    <col min="6" max="6" width="14.45" customWidth="1"/>
     <col min="7" max="7" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.4" spans="1:7">
+    <row r="1" ht="33.75" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3956,7 +3962,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" ht="15.6" spans="1:7">
+    <row r="4" ht="16.5" spans="1:7">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -3977,7 +3983,7 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" ht="15.6" spans="1:7">
+    <row r="5" ht="16.5" spans="1:7">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
@@ -3996,7 +4002,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="1:7">
+    <row r="6" ht="16.5" spans="1:7">
       <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
@@ -4017,7 +4023,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="1:7">
+    <row r="7" ht="16.5" spans="1:7">
       <c r="A7" s="19"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
@@ -4036,7 +4042,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="1:7">
+    <row r="8" ht="16.5" spans="1:7">
       <c r="A8" s="20"/>
       <c r="B8" s="16" t="s">
         <v>18</v>
@@ -4051,7 +4057,7 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" ht="15.6" spans="1:7">
+    <row r="9" ht="16.5" spans="1:7">
       <c r="A9" s="21" t="s">
         <v>19</v>
       </c>
@@ -4070,7 +4076,7 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" ht="15.6" spans="1:7">
+    <row r="10" ht="16.5" spans="1:7">
       <c r="A10" s="22"/>
       <c r="B10" s="16" t="s">
         <v>21</v>
@@ -4087,7 +4093,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="1:7">
+    <row r="11" ht="16.5" spans="1:7">
       <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
         <v>22</v>
@@ -4102,7 +4108,7 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" ht="15.6" spans="1:7">
+    <row r="12" ht="16.5" spans="1:7">
       <c r="A12" s="21" t="s">
         <v>23</v>
       </c>
@@ -4117,7 +4123,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" ht="15.6" spans="1:7">
+    <row r="13" ht="16.5" spans="1:7">
       <c r="A13" s="22"/>
       <c r="B13" s="16" t="s">
         <v>25</v>
@@ -4125,10 +4131,10 @@
       <c r="C13" s="23"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="25"/>
+      <c r="F13" s="28"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" ht="15.6" spans="1:7">
+    <row r="14" ht="16.5" spans="1:7">
       <c r="A14" s="22"/>
       <c r="B14" s="16" t="s">
         <v>26</v>
@@ -4136,10 +4142,10 @@
       <c r="C14" s="23"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="25"/>
+      <c r="F14" s="28"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" ht="15.6" spans="1:7">
+    <row r="15" ht="16.5" spans="1:7">
       <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
         <v>27</v>
@@ -4147,21 +4153,21 @@
       <c r="C15" s="17"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="25"/>
+      <c r="F15" s="28"/>
       <c r="G15" s="14"/>
     </row>
     <row r="16" ht="24" customHeight="1" spans="1:7">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
-    </row>
-    <row r="17" ht="15.6" spans="1:7">
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:7">
       <c r="A17" s="21" t="s">
         <v>29</v>
       </c>
@@ -4182,7 +4188,7 @@
       </c>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" ht="15.6" spans="1:7">
+    <row r="18" ht="16.5" spans="1:7">
       <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
@@ -4199,7 +4205,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" ht="15.6" spans="1:7">
+    <row r="19" ht="16.5" spans="1:7">
       <c r="A19" s="21" t="s">
         <v>32</v>
       </c>
@@ -4211,10 +4217,10 @@
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
-      <c r="F19" s="25"/>
+      <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" ht="15.6" spans="1:7">
+    <row r="20" ht="16.5" spans="1:7">
       <c r="A20" s="22"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
@@ -4222,10 +4228,10 @@
       <c r="C20" s="17"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
-      <c r="F20" s="25"/>
+      <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" ht="15.6" spans="1:7">
+    <row r="21" ht="16.5" spans="1:7">
       <c r="A21" s="22"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
@@ -4235,10 +4241,10 @@
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
-      <c r="F21" s="25"/>
+      <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" ht="15.6" spans="1:7">
+    <row r="22" ht="16.5" spans="1:7">
       <c r="A22" s="24"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
@@ -4246,10 +4252,10 @@
       <c r="C22" s="17"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="25"/>
+      <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" ht="31.2" spans="1:7">
+    <row r="23" ht="33" spans="1:7">
       <c r="A23" s="21" t="s">
         <v>38</v>
       </c>
@@ -4261,10 +4267,10 @@
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
-      <c r="F23" s="25"/>
+      <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" ht="15.6" spans="1:7">
+    <row r="24" ht="16.5" spans="1:7">
       <c r="A24" s="22"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
@@ -4272,10 +4278,10 @@
       <c r="C24" s="23"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="25"/>
+      <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" ht="15.6" spans="1:7">
+    <row r="25" ht="16.5" spans="1:7">
       <c r="A25" s="24"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
@@ -4283,10 +4289,10 @@
       <c r="C25" s="17"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
-      <c r="F25" s="25"/>
+      <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" ht="15.6" spans="1:7">
+    <row r="26" ht="16.5" spans="1:7">
       <c r="A26" s="21" t="s">
         <v>43</v>
       </c>
@@ -4298,10 +4304,10 @@
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
-      <c r="F26" s="25"/>
+      <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" ht="15.6" spans="1:7">
+    <row r="27" ht="16.5" spans="1:7">
       <c r="A27" s="22"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
@@ -4309,10 +4315,10 @@
       <c r="C27" s="23"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
-      <c r="F27" s="25"/>
+      <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" ht="15.6" spans="1:7">
+    <row r="28" ht="16.5" spans="1:7">
       <c r="A28" s="22"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
@@ -4320,10 +4326,10 @@
       <c r="C28" s="17"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
-      <c r="F28" s="25"/>
+      <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" ht="15.6" spans="1:7">
+    <row r="29" ht="16.5" spans="1:7">
       <c r="A29" s="22"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
@@ -4333,10 +4339,10 @@
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="25"/>
+      <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" ht="15.6" spans="1:7">
+    <row r="30" ht="16.5" spans="1:7">
       <c r="A30" s="24"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
@@ -4344,10 +4350,10 @@
       <c r="C30" s="23"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
-      <c r="F30" s="25"/>
+      <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" ht="15.6" spans="1:7">
+    <row r="31" ht="16.5" spans="1:7">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
@@ -4369,22 +4375,22 @@
   <sheetPr/>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16.7222222222222" customWidth="1"/>
-    <col min="2" max="2" width="30.6296296296296" customWidth="1"/>
+    <col min="1" max="1" width="16.725" customWidth="1"/>
+    <col min="2" max="2" width="30.6333333333333" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.0925925925926" customWidth="1"/>
-    <col min="5" max="5" width="13.2685185185185" customWidth="1"/>
-    <col min="6" max="6" width="14.4537037037037" customWidth="1"/>
+    <col min="4" max="4" width="14.0916666666667" customWidth="1"/>
+    <col min="5" max="5" width="13.2666666666667" customWidth="1"/>
+    <col min="6" max="6" width="14.45" customWidth="1"/>
     <col min="7" max="7" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.4" spans="1:7">
+    <row r="1" ht="33.75" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4429,7 +4435,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" ht="15.6" spans="1:7">
+    <row r="4" ht="16.5" spans="1:7">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -4450,7 +4456,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:7">
+    <row r="5" ht="16.5" spans="1:7">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
@@ -4467,7 +4473,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" ht="15.6" spans="1:7">
+    <row r="6" ht="16.5" spans="1:7">
       <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
@@ -4482,13 +4488,11 @@
         <v>43640</v>
       </c>
       <c r="F6" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" ht="15.6" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:7">
       <c r="A7" s="19"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
@@ -4501,11 +4505,13 @@
         <v>43641</v>
       </c>
       <c r="F7" s="13">
-        <v>1</v>
-      </c>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" ht="15.6" spans="1:7">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:7">
       <c r="A8" s="20"/>
       <c r="B8" s="16" t="s">
         <v>18</v>
@@ -4519,10 +4525,10 @@
         <v>0.5</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" ht="15.6" spans="1:7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="1:7">
       <c r="A9" s="21" t="s">
         <v>19</v>
       </c>
@@ -4540,10 +4546,10 @@
         <v>0.5</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" ht="15.6" spans="1:7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="1:7">
       <c r="A10" s="22"/>
       <c r="B10" s="16" t="s">
         <v>21</v>
@@ -4554,11 +4560,13 @@
         <v>43642</v>
       </c>
       <c r="F10" s="13">
-        <v>1</v>
-      </c>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" ht="15.6" spans="1:7">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:7">
       <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
         <v>22</v>
@@ -4569,11 +4577,11 @@
         <v>43642</v>
       </c>
       <c r="F11" s="13">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" ht="15.6" spans="1:7">
+    <row r="12" ht="16.5" spans="1:7">
       <c r="A12" s="21" t="s">
         <v>23</v>
       </c>
@@ -4588,55 +4596,69 @@
         <v>43642</v>
       </c>
       <c r="F12" s="13">
-        <v>1</v>
-      </c>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" ht="15.6" spans="1:7">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:7">
       <c r="A13" s="22"/>
       <c r="B13" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="25"/>
+      <c r="E13" s="12">
+        <v>43643</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0</v>
+      </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" ht="15.6" spans="1:7">
+    <row r="14" ht="16.5" spans="1:7">
       <c r="A14" s="22"/>
       <c r="B14" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="25"/>
+      <c r="E14" s="12">
+        <v>43643</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0</v>
+      </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" ht="15.6" spans="1:7">
+    <row r="15" ht="16.5" spans="1:7">
       <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="25"/>
+      <c r="E15" s="12">
+        <v>43643</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
       <c r="G15" s="14"/>
     </row>
     <row r="16" ht="21" customHeight="1" spans="1:7">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
-    </row>
-    <row r="17" ht="15.6" spans="1:7">
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:7">
       <c r="A17" s="21" t="s">
         <v>29</v>
       </c>
@@ -4648,10 +4670,10 @@
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="25"/>
+      <c r="F17" s="28"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" ht="15.6" spans="1:7">
+    <row r="18" ht="16.5" spans="1:7">
       <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
@@ -4663,10 +4685,10 @@
         <v>0.4</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" ht="15.6" spans="1:7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="1:7">
       <c r="A19" s="21" t="s">
         <v>32</v>
       </c>
@@ -4678,10 +4700,10 @@
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
-      <c r="F19" s="25"/>
+      <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" ht="15.6" spans="1:7">
+    <row r="20" ht="16.5" spans="1:7">
       <c r="A20" s="22"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
@@ -4689,10 +4711,10 @@
       <c r="C20" s="17"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
-      <c r="F20" s="25"/>
+      <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" ht="15.6" spans="1:7">
+    <row r="21" ht="16.5" spans="1:7">
       <c r="A21" s="22"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
@@ -4702,10 +4724,10 @@
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
-      <c r="F21" s="25"/>
+      <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" ht="15.6" spans="1:7">
+    <row r="22" ht="16.5" spans="1:7">
       <c r="A22" s="24"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
@@ -4713,10 +4735,10 @@
       <c r="C22" s="17"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="25"/>
+      <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" ht="15.6" spans="1:7">
+    <row r="23" ht="16.5" spans="1:7">
       <c r="A23" s="21" t="s">
         <v>38</v>
       </c>
@@ -4728,10 +4750,10 @@
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
-      <c r="F23" s="25"/>
+      <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" ht="15.6" spans="1:7">
+    <row r="24" ht="16.5" spans="1:7">
       <c r="A24" s="22"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
@@ -4739,10 +4761,10 @@
       <c r="C24" s="23"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="25"/>
+      <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" ht="15.6" spans="1:7">
+    <row r="25" ht="16.5" spans="1:7">
       <c r="A25" s="24"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
@@ -4750,10 +4772,10 @@
       <c r="C25" s="17"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
-      <c r="F25" s="25"/>
+      <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" ht="15.6" spans="1:7">
+    <row r="26" ht="16.5" spans="1:7">
       <c r="A26" s="21" t="s">
         <v>43</v>
       </c>
@@ -4765,10 +4787,10 @@
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
-      <c r="F26" s="25"/>
+      <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" ht="15.6" spans="1:7">
+    <row r="27" ht="16.5" spans="1:7">
       <c r="A27" s="22"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
@@ -4776,10 +4798,10 @@
       <c r="C27" s="23"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
-      <c r="F27" s="25"/>
+      <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" ht="15.6" spans="1:7">
+    <row r="28" ht="16.5" spans="1:7">
       <c r="A28" s="22"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
@@ -4787,10 +4809,10 @@
       <c r="C28" s="17"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
-      <c r="F28" s="25"/>
+      <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" ht="15.6" spans="1:7">
+    <row r="29" ht="16.5" spans="1:7">
       <c r="A29" s="22"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
@@ -4800,10 +4822,10 @@
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="25"/>
+      <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" ht="15.6" spans="1:7">
+    <row r="30" ht="16.5" spans="1:7">
       <c r="A30" s="24"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
@@ -4811,10 +4833,10 @@
       <c r="C30" s="23"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
-      <c r="F30" s="25"/>
+      <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" ht="15.6" spans="1:7">
+    <row r="31" ht="16.5" spans="1:7">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>

--- a/樊佩茹/项目进度控制表-樊佩茹 .xlsx
+++ b/樊佩茹/项目进度控制表-樊佩茹 .xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>进度控制表-在线点餐的设计与实现</t>
   </si>
@@ -55,7 +55,7 @@
     <t>管理员登录</t>
   </si>
   <si>
-    <t>js校验有问题，验证码校验有问题</t>
+    <t>js校验有问题</t>
   </si>
   <si>
     <t>管理员退出系统</t>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>分页没做</t>
+  </si>
+  <si>
+    <t>js校验有问题，验证码校验有问题</t>
   </si>
   <si>
     <t>js校验未做</t>
@@ -373,6 +376,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -434,9 +442,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,16 +456,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -471,6 +474,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,7 +509,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,7 +563,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,19 +599,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,24 +629,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -591,6 +636,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,55 +659,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,10 +876,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -885,136 +888,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1504,7 +1507,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1697,12 +1700,14 @@
         <v>22</v>
       </c>
       <c r="C11" s="17"/>
-      <c r="D11" s="12"/>
+      <c r="D11" s="12">
+        <v>43643</v>
+      </c>
       <c r="E11" s="12">
         <v>43642</v>
       </c>
       <c r="F11" s="13">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G11" s="14"/>
     </row>
@@ -1733,12 +1738,14 @@
         <v>25</v>
       </c>
       <c r="C13" s="23"/>
-      <c r="D13" s="12"/>
+      <c r="D13" s="12">
+        <v>43643</v>
+      </c>
       <c r="E13" s="12">
         <v>43643</v>
       </c>
       <c r="F13" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="14"/>
     </row>
@@ -1748,12 +1755,14 @@
         <v>26</v>
       </c>
       <c r="C14" s="23"/>
-      <c r="D14" s="12"/>
+      <c r="D14" s="12">
+        <v>43643</v>
+      </c>
       <c r="E14" s="12">
         <v>43643</v>
       </c>
       <c r="F14" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="14"/>
     </row>
@@ -1763,12 +1772,14 @@
         <v>27</v>
       </c>
       <c r="C15" s="17"/>
-      <c r="D15" s="12"/>
+      <c r="D15" s="12">
+        <v>43643</v>
+      </c>
       <c r="E15" s="12">
         <v>43643</v>
       </c>
       <c r="F15" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="14"/>
     </row>
@@ -2560,7 +2571,7 @@
         <v>0.8</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:7">
@@ -3485,7 +3496,7 @@
         <v>0.8</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:7">
@@ -3999,7 +4010,7 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:7">
@@ -4020,7 +4031,7 @@
         <v>0.5</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:7">
@@ -4039,7 +4050,7 @@
         <v>0.8</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:7">
@@ -4090,7 +4101,7 @@
         <v>0.7</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:7">
@@ -4202,7 +4213,7 @@
         <v>0.7</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="1:7">
@@ -4525,7 +4536,7 @@
         <v>0.5</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:7">
@@ -4546,7 +4557,7 @@
         <v>0.5</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:7">
@@ -4685,7 +4696,7 @@
         <v>0.4</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="1:7">

--- a/樊佩茹/项目进度控制表-樊佩茹 .xlsx
+++ b/樊佩茹/项目进度控制表-樊佩茹 .xlsx
@@ -1507,7 +1507,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1805,8 +1805,12 @@
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="28"/>
+      <c r="E17" s="12">
+        <v>43644</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0</v>
+      </c>
       <c r="G17" s="14"/>
     </row>
     <row r="18" ht="16.5" spans="1:7">
@@ -1816,8 +1820,12 @@
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
+      <c r="E18" s="12">
+        <v>43644</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0</v>
+      </c>
       <c r="G18" s="14"/>
     </row>
     <row r="19" ht="16.5" spans="1:7">

--- a/樊佩茹/项目进度控制表-樊佩茹 .xlsx
+++ b/樊佩茹/项目进度控制表-樊佩茹 .xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="樊佩茹" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="62">
   <si>
     <t>进度控制表-在线点餐的设计与实现</t>
   </si>
@@ -182,41 +182,40 @@
     <t>js校验有问题，验证码校验有问题</t>
   </si>
   <si>
+    <t>直接退出</t>
+  </si>
+  <si>
+    <t>上传有问题</t>
+  </si>
+  <si>
+    <t>假分页</t>
+  </si>
+  <si>
+    <t>30天内自动登录未做</t>
+  </si>
+  <si>
+    <t>未成功 获取不到对应元素</t>
+  </si>
+  <si>
+    <t>未成功</t>
+  </si>
+  <si>
+    <t>校验未做，30天内自动登录未做</t>
+  </si>
+  <si>
+    <t>分页未做</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
     <t>js校验未做</t>
-  </si>
-  <si>
-    <t>直接退出</t>
-  </si>
-  <si>
-    <t>上传有问题</t>
-  </si>
-  <si>
-    <t>假分页</t>
-  </si>
-  <si>
-    <t>30天内自动登录未做</t>
-  </si>
-  <si>
-    <t>未成功 获取不到对应元素</t>
-  </si>
-  <si>
-    <t>未成功</t>
-  </si>
-  <si>
-    <t>校验未做，30天内自动登录未做</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="35">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,156 +314,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -477,194 +338,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -770,258 +445,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1034,16 +467,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1155,59 +588,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1498,38 +941,38 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.6333333333333" customWidth="1"/>
-    <col min="2" max="2" width="29.725" customWidth="1"/>
-    <col min="3" max="6" width="15.6333333333333" customWidth="1"/>
-    <col min="7" max="7" width="84.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="29.75" customWidth="1"/>
+    <col min="3" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="84.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.75" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" ht="21" customHeight="1" spans="1:7">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1552,25 +995,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="44" customFormat="1" ht="23.15" customHeight="1" spans="1:7">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:7" s="44" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" ht="18" customHeight="1" spans="1:7">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="60">
         <v>43638</v>
       </c>
       <c r="D4" s="11"/>
@@ -1584,14 +1027,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:7">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -1601,8 +1044,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" ht="16.5" spans="1:7">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="54" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -1622,12 +1065,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" ht="16.5" spans="1:7">
-      <c r="A7" s="19"/>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="55"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="60">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -1641,12 +1084,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:7">
-      <c r="A8" s="20"/>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="56"/>
       <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="12">
         <v>43641</v>
       </c>
@@ -1658,14 +1101,14 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" ht="16.5" spans="1:7">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="57" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="60">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -1677,12 +1120,12 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" ht="16.5" spans="1:7">
-      <c r="A10" s="22"/>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="58"/>
       <c r="B10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="23"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12">
         <v>43642</v>
@@ -1694,12 +1137,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:7">
-      <c r="A11" s="24"/>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="59"/>
       <c r="B11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="12">
         <v>43643</v>
       </c>
@@ -1711,14 +1154,14 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" ht="16.5" spans="1:7">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="57" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="60">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -1732,12 +1175,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:7">
-      <c r="A13" s="22"/>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="58"/>
       <c r="B13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="12">
         <v>43643</v>
       </c>
@@ -1749,12 +1192,12 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" ht="16.5" spans="1:7">
-      <c r="A14" s="22"/>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="58"/>
       <c r="B14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="23"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="12">
         <v>43643</v>
       </c>
@@ -1766,12 +1209,12 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" ht="16.5" spans="1:7">
-      <c r="A15" s="24"/>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="59"/>
       <c r="B15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="12">
         <v>43643</v>
       </c>
@@ -1783,25 +1226,25 @@
       </c>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" ht="24" customHeight="1" spans="1:7">
-      <c r="A16" s="25" t="s">
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
-    </row>
-    <row r="17" ht="16.5" spans="1:7">
-      <c r="A17" s="21" t="s">
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="57" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="60">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -1809,25 +1252,25 @@
       <c r="F17" s="28"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" ht="16.5" spans="1:7">
-      <c r="A18" s="24"/>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="59"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" ht="16.5" spans="1:7">
-      <c r="A19" s="21" t="s">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="57" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="60" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="12"/>
@@ -1835,23 +1278,23 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" ht="16.5" spans="1:7">
-      <c r="A20" s="22"/>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="58"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" ht="16.5" spans="1:7">
-      <c r="A21" s="22"/>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="58"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="60">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -1859,25 +1302,25 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" ht="16.5" spans="1:7">
-      <c r="A22" s="24"/>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="59"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="17"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" ht="16.5" spans="1:7">
-      <c r="A23" s="21" t="s">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="57" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="63" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="12"/>
@@ -1885,36 +1328,36 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" ht="16.5" spans="1:7">
-      <c r="A24" s="22"/>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="58"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="23"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" ht="16.5" spans="1:7">
-      <c r="A25" s="24"/>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="59"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" ht="16.5" spans="1:7">
-      <c r="A26" s="21" t="s">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="57" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="60">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -1922,34 +1365,34 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" ht="16.5" spans="1:7">
-      <c r="A27" s="22"/>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="58"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="23"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" ht="16.5" spans="1:7">
-      <c r="A28" s="22"/>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="58"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" ht="16.5" spans="1:7">
-      <c r="A29" s="22"/>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="58"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="60">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -1957,23 +1400,23 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" ht="16.5" spans="1:7">
-      <c r="A30" s="24"/>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="59"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="23"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" ht="16.5" spans="1:7">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="17"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -1981,12 +1424,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -2001,45 +1438,50 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.9083333333333" customWidth="1"/>
-    <col min="2" max="2" width="32.9083333333333" customWidth="1"/>
-    <col min="3" max="3" width="15.0916666666667" customWidth="1"/>
-    <col min="4" max="4" width="15.2666666666667" customWidth="1"/>
-    <col min="5" max="5" width="14.9083333333333" customWidth="1"/>
-    <col min="6" max="6" width="15.6333333333333" customWidth="1"/>
-    <col min="7" max="7" width="81.0916666666667" customWidth="1"/>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="32.875" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="81.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.75" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" ht="18" customHeight="1" spans="1:7">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2062,25 +1504,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="23.15" customHeight="1" spans="1:7">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" ht="16.5" spans="1:7">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="60">
         <v>43638</v>
       </c>
       <c r="D4" s="11"/>
@@ -2094,14 +1536,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:7">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -2111,8 +1553,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" ht="16.5" spans="1:7">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="54" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -2130,12 +1572,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" ht="16.5" spans="1:7">
-      <c r="A7" s="19"/>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="55"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="60">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -2149,25 +1591,25 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:7">
-      <c r="A8" s="20"/>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="56"/>
       <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="28"/>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" ht="16.5" spans="1:7">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="57" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="60">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -2175,12 +1617,12 @@
       <c r="F9" s="28"/>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" ht="16.5" spans="1:7">
-      <c r="A10" s="22"/>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="58"/>
       <c r="B10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="23"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12">
         <v>43642</v>
@@ -2192,25 +1634,25 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:7">
-      <c r="A11" s="24"/>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="59"/>
       <c r="B11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="13"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" ht="16.5" spans="1:7">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="57" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="60">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -2218,12 +1660,12 @@
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" ht="16.5" spans="1:7">
-      <c r="A13" s="22"/>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="58"/>
       <c r="B13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12">
         <v>43642</v>
@@ -2235,12 +1677,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:7">
-      <c r="A14" s="22"/>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="58"/>
       <c r="B14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="23"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12">
         <v>43642</v>
@@ -2252,36 +1694,36 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:7">
-      <c r="A15" s="24"/>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="59"/>
       <c r="B15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="28"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" ht="24" customHeight="1" spans="1:7">
-      <c r="A16" s="25" t="s">
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
-    </row>
-    <row r="17" ht="16.5" spans="1:7">
-      <c r="A17" s="21" t="s">
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="57" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="60">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -2289,25 +1731,25 @@
       <c r="F17" s="28"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" ht="16.5" spans="1:7">
-      <c r="A18" s="24"/>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="59"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" ht="16.5" spans="1:7">
-      <c r="A19" s="21" t="s">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="57" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="60" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="12"/>
@@ -2315,23 +1757,23 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" ht="16.5" spans="1:7">
-      <c r="A20" s="22"/>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="58"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" ht="16.5" spans="1:7">
-      <c r="A21" s="22"/>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="58"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="60">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -2339,25 +1781,25 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" ht="16.5" spans="1:7">
-      <c r="A22" s="24"/>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="59"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="17"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" ht="16.5" spans="1:7">
-      <c r="A23" s="21" t="s">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="57" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="63" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="12"/>
@@ -2365,36 +1807,36 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" ht="16.5" spans="1:7">
-      <c r="A24" s="22"/>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="58"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="23"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" ht="16.5" spans="1:7">
-      <c r="A25" s="24"/>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="59"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" ht="16.5" spans="1:7">
-      <c r="A26" s="21" t="s">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="57" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="60">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -2402,34 +1844,34 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" ht="16.5" spans="1:7">
-      <c r="A27" s="22"/>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="58"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="23"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" ht="16.5" spans="1:7">
-      <c r="A28" s="22"/>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="58"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" ht="16.5" spans="1:7">
-      <c r="A29" s="22"/>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="58"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="60">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -2437,23 +1879,23 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" ht="16.5" spans="1:7">
-      <c r="A30" s="24"/>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="59"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="23"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" ht="16.5" spans="1:7">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="17"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -2461,12 +1903,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -2481,34 +1917,39 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.3583333333333" customWidth="1"/>
-    <col min="2" max="2" width="31.6333333333333" customWidth="1"/>
-    <col min="3" max="3" width="14.45" customWidth="1"/>
-    <col min="4" max="4" width="15.45" customWidth="1"/>
-    <col min="5" max="5" width="15.2666666666667" customWidth="1"/>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="31.625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="87.6333333333333" customWidth="1"/>
+    <col min="7" max="7" width="87.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.75" spans="1:7">
+    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2519,7 +1960,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="18" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2542,7 +1983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="20.15" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2553,7 +1994,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" ht="16.5" spans="1:7">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -2574,7 +2015,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:7">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
@@ -2591,7 +2032,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" ht="16.5" spans="1:7">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
@@ -2612,7 +2053,7 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" ht="16.5" spans="1:7">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
@@ -2633,7 +2074,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:7">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="20"/>
       <c r="B8" s="16" t="s">
         <v>18</v>
@@ -2648,7 +2089,7 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" ht="16.5" spans="1:7">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>19</v>
       </c>
@@ -2667,7 +2108,7 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" ht="16.5" spans="1:7">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="22"/>
       <c r="B10" s="16" t="s">
         <v>21</v>
@@ -2684,7 +2125,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:7">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
         <v>22</v>
@@ -2695,7 +2136,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" ht="16.5" spans="1:7">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>23</v>
       </c>
@@ -2718,7 +2159,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:7">
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="22"/>
       <c r="B13" s="16" t="s">
         <v>25</v>
@@ -2729,7 +2170,7 @@
       <c r="F13" s="28"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" ht="16.5" spans="1:7">
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="22"/>
       <c r="B14" s="16" t="s">
         <v>26</v>
@@ -2740,7 +2181,7 @@
       <c r="F14" s="28"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" ht="16.5" spans="1:7">
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
         <v>27</v>
@@ -2751,7 +2192,7 @@
       <c r="F15" s="28"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" ht="24" customHeight="1" spans="1:7">
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="25" t="s">
         <v>28</v>
       </c>
@@ -2762,7 +2203,7 @@
       <c r="F16" s="26"/>
       <c r="G16" s="27"/>
     </row>
-    <row r="17" ht="16.5" spans="1:7">
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>29</v>
       </c>
@@ -2777,7 +2218,7 @@
       <c r="F17" s="28"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" ht="16.5" spans="1:7">
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
@@ -2788,7 +2229,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" ht="16.5" spans="1:7">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>32</v>
       </c>
@@ -2803,7 +2244,7 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" ht="16.5" spans="1:7">
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="22"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
@@ -2814,7 +2255,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" ht="16.5" spans="1:7">
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="22"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
@@ -2827,7 +2268,7 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" ht="16.5" spans="1:7">
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="24"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
@@ -2838,7 +2279,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" ht="33" spans="1:7">
+    <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
         <v>38</v>
       </c>
@@ -2853,7 +2294,7 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" ht="16.5" spans="1:7">
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="22"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
@@ -2864,7 +2305,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" ht="16.5" spans="1:7">
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="24"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
@@ -2875,7 +2316,7 @@
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" ht="16.5" spans="1:7">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
         <v>43</v>
       </c>
@@ -2890,7 +2331,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" ht="16.5" spans="1:7">
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="22"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
@@ -2901,7 +2342,7 @@
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" ht="16.5" spans="1:7">
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="22"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
@@ -2912,7 +2353,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" ht="16.5" spans="1:7">
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="22"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
@@ -2925,7 +2366,7 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" ht="16.5" spans="1:7">
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="24"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
@@ -2936,7 +2377,7 @@
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" ht="16.5" spans="1:7">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
@@ -2948,45 +2389,44 @@
       <c r="G31" s="31"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.45" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.6333333333333" style="33" customWidth="1"/>
-    <col min="3" max="3" width="25.3583333333333" style="33" customWidth="1"/>
-    <col min="4" max="4" width="18.9083333333333" style="33" customWidth="1"/>
-    <col min="5" max="5" width="18.45" style="33" customWidth="1"/>
-    <col min="6" max="6" width="16.6333333333333" style="33" customWidth="1"/>
-    <col min="7" max="7" width="47.3583333333333" style="33" customWidth="1"/>
+    <col min="1" max="1" width="16.5" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="25.375" style="33" customWidth="1"/>
+    <col min="4" max="4" width="18.875" style="33" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="33" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="47.375" style="33" customWidth="1"/>
     <col min="8" max="16384" width="11" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.75" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3009,25 +2449,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" ht="16.5" spans="1:7">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="60">
         <v>43638</v>
       </c>
       <c r="D4" s="36"/>
@@ -3037,14 +2477,14 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" ht="16.5" spans="1:7">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="13">
@@ -3052,7 +2492,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" ht="16.5" spans="1:7">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
@@ -3069,12 +2509,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" ht="16.5" spans="1:7">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="60">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -3084,12 +2524,12 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" ht="16.5" spans="1:7">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="38"/>
       <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="13">
@@ -3097,14 +2537,14 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" ht="16.5" spans="1:7">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="60">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -3114,12 +2554,12 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" ht="16.5" spans="1:7">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="38"/>
       <c r="B10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="23"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="13">
@@ -3127,12 +2567,12 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" ht="16.5" spans="1:7">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="40"/>
       <c r="B11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="13">
@@ -3140,14 +2580,14 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" ht="16.5" spans="1:7">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="60">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -3157,12 +2597,12 @@
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" ht="16.5" spans="1:7">
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="13">
@@ -3170,12 +2610,12 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" ht="16.5" spans="1:7">
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="41"/>
       <c r="B14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="23"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="13">
@@ -3183,12 +2623,12 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" ht="16.5" spans="1:7">
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="42"/>
       <c r="B15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="13">
@@ -3196,25 +2636,25 @@
       </c>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="25" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
-    </row>
-    <row r="17" ht="16.5" spans="1:7">
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="39" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="60">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -3222,25 +2662,25 @@
       <c r="F17" s="28"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" ht="16.5" spans="1:7">
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="42"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" ht="16.5" spans="1:7">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="39" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="60" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="12"/>
@@ -3248,23 +2688,23 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" ht="16.5" spans="1:7">
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="42"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" ht="16.5" spans="1:7">
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="42"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="60">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -3272,25 +2712,25 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" ht="16.5" spans="1:7">
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="41"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="17"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" ht="16.5" spans="1:7">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="63" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="12"/>
@@ -3298,36 +2738,36 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" ht="16.5" spans="1:7">
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="23"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" ht="16.5" spans="1:7">
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" ht="25.5" spans="1:7">
+    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A26" s="39" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="60">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -3335,34 +2775,34 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" ht="16.5" spans="1:7">
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="23"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" ht="16.5" spans="1:7">
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="42"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" ht="16.5" spans="1:7">
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="42"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="60">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -3370,23 +2810,23 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" ht="16.5" spans="1:7">
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="23"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="28"/>
       <c r="G30" s="43"/>
     </row>
-    <row r="31" ht="16.5" spans="1:7">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="36"/>
       <c r="B31" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="17"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="36"/>
       <c r="E31" s="36"/>
       <c r="F31" s="36"/>
@@ -3394,6 +2834,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C28"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A16:G16"/>
@@ -3401,50 +2847,43 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="C12:C15"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C31"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.45" customWidth="1"/>
-    <col min="2" max="2" width="31.6333333333333" customWidth="1"/>
-    <col min="3" max="3" width="14.725" customWidth="1"/>
-    <col min="4" max="4" width="13.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="15.6333333333333" customWidth="1"/>
-    <col min="6" max="6" width="14.9083333333333" customWidth="1"/>
-    <col min="7" max="7" width="90.725" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="31.625" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="90.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.75" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" ht="23.15" customHeight="1" spans="1:7">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3467,46 +2906,46 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="22" customHeight="1" spans="1:7">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" ht="16.5" spans="1:7">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="60">
         <v>43638</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="32">
+        <v>43644</v>
+      </c>
       <c r="E4" s="12">
         <v>43640</v>
       </c>
       <c r="F4" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -3516,8 +2955,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" ht="16.5" spans="1:7">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="54" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -3526,21 +2965,23 @@
       <c r="C6" s="12">
         <v>43639</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="12">
+        <v>43642</v>
+      </c>
       <c r="E6" s="12">
         <v>43640</v>
       </c>
       <c r="F6" s="13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" ht="16.5" spans="1:7">
-      <c r="A7" s="19"/>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="55"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="60">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -3548,84 +2989,90 @@
         <v>43641</v>
       </c>
       <c r="F7" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:7">
-      <c r="A8" s="20"/>
+        <v>0.9</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="56"/>
       <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="12"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="12">
+        <v>43643</v>
+      </c>
       <c r="E8" s="12">
         <v>43641</v>
       </c>
       <c r="F8" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" ht="16.5" spans="1:7">
-      <c r="A9" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="57" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="60">
         <v>43641</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="12">
+        <v>43644</v>
+      </c>
       <c r="E9" s="12">
         <v>43641</v>
       </c>
       <c r="F9" s="13">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" ht="16.5" spans="1:7">
-      <c r="A10" s="22"/>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="58"/>
       <c r="B10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="23"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12">
         <v>43641</v>
       </c>
       <c r="F10" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" ht="16.5" spans="1:7">
-      <c r="A11" s="24"/>
+        <v>0.9</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="59"/>
       <c r="B11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12">
         <v>43641</v>
       </c>
       <c r="F11" s="13">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" ht="16.5" spans="1:7">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="57" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="60">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -3639,12 +3086,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:7">
-      <c r="A13" s="22"/>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="58"/>
       <c r="B13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12">
         <v>43642</v>
@@ -3654,27 +3101,29 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" ht="16.5" spans="1:7">
-      <c r="A14" s="22"/>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="58"/>
       <c r="B14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="23"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12">
         <v>43642</v>
       </c>
       <c r="F14" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" ht="16.5" spans="1:7">
-      <c r="A15" s="24"/>
+        <v>0.9</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="59"/>
       <c r="B15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12">
         <v>43642</v>
@@ -3684,51 +3133,62 @@
       </c>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" ht="22" customHeight="1" spans="1:7">
-      <c r="A16" s="25" t="s">
+    <row r="16" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
-    </row>
-    <row r="17" ht="16.5" spans="1:7">
-      <c r="A17" s="21" t="s">
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="57" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="60">
         <v>43643</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" ht="16.5" spans="1:7">
-      <c r="A18" s="24"/>
+      <c r="D17" s="12">
+        <v>43643</v>
+      </c>
+      <c r="E17" s="12">
+        <v>43643</v>
+      </c>
+      <c r="F17" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="59"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" ht="16.5" spans="1:7">
-      <c r="A19" s="21" t="s">
+      <c r="E18" s="12">
+        <v>43643</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="57" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="60" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="12"/>
@@ -3736,23 +3196,23 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" ht="16.5" spans="1:7">
-      <c r="A20" s="22"/>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="58"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" ht="16.5" spans="1:7">
-      <c r="A21" s="22"/>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="58"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="60">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -3760,25 +3220,25 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" ht="16.5" spans="1:7">
-      <c r="A22" s="24"/>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="59"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="17"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" ht="16.5" spans="1:7">
-      <c r="A23" s="21" t="s">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="57" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="63" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="12"/>
@@ -3786,36 +3246,36 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" ht="16.5" spans="1:7">
-      <c r="A24" s="22"/>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="58"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="23"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" ht="16.5" spans="1:7">
-      <c r="A25" s="24"/>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="59"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" ht="16.5" spans="1:7">
-      <c r="A26" s="21" t="s">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="57" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="60">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -3823,34 +3283,34 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" ht="16.5" spans="1:7">
-      <c r="A27" s="22"/>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="58"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="23"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" ht="16.5" spans="1:7">
-      <c r="A28" s="22"/>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="58"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" ht="16.5" spans="1:7">
-      <c r="A29" s="22"/>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="58"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="60">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -3858,23 +3318,23 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" ht="16.5" spans="1:7">
-      <c r="A30" s="24"/>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="59"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="23"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" ht="16.5" spans="1:7">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="17"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -3882,12 +3342,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -3902,33 +3356,38 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView topLeftCell="C3" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.725" customWidth="1"/>
-    <col min="2" max="2" width="30.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.0916666666667" customWidth="1"/>
-    <col min="5" max="5" width="13.2666666666667" customWidth="1"/>
-    <col min="6" max="6" width="14.45" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
     <col min="7" max="7" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.75" spans="1:7">
+    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3939,7 +3398,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="21" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3962,7 +3421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="23.15" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -3973,7 +3432,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" ht="16.5" spans="1:7">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -3994,7 +3453,7 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" ht="16.5" spans="1:7">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
@@ -4010,10 +3469,10 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" spans="1:7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
@@ -4031,10 +3490,10 @@
         <v>0.5</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
@@ -4050,10 +3509,10 @@
         <v>0.8</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" spans="1:7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="20"/>
       <c r="B8" s="16" t="s">
         <v>18</v>
@@ -4068,7 +3527,7 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" ht="16.5" spans="1:7">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>19</v>
       </c>
@@ -4087,7 +3546,7 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" ht="16.5" spans="1:7">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="22"/>
       <c r="B10" s="16" t="s">
         <v>21</v>
@@ -4101,10 +3560,10 @@
         <v>0.7</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" ht="16.5" spans="1:7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
         <v>22</v>
@@ -4119,7 +3578,7 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" ht="16.5" spans="1:7">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>23</v>
       </c>
@@ -4134,7 +3593,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" ht="16.5" spans="1:7">
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="22"/>
       <c r="B13" s="16" t="s">
         <v>25</v>
@@ -4145,7 +3604,7 @@
       <c r="F13" s="28"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" ht="16.5" spans="1:7">
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="22"/>
       <c r="B14" s="16" t="s">
         <v>26</v>
@@ -4156,7 +3615,7 @@
       <c r="F14" s="28"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" ht="16.5" spans="1:7">
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
         <v>27</v>
@@ -4167,7 +3626,7 @@
       <c r="F15" s="28"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" ht="24" customHeight="1" spans="1:7">
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="25" t="s">
         <v>28</v>
       </c>
@@ -4178,7 +3637,7 @@
       <c r="F16" s="26"/>
       <c r="G16" s="27"/>
     </row>
-    <row r="17" ht="16.5" spans="1:7">
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>29</v>
       </c>
@@ -4199,7 +3658,7 @@
       </c>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" ht="16.5" spans="1:7">
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
@@ -4213,10 +3672,10 @@
         <v>0.7</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" ht="16.5" spans="1:7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>32</v>
       </c>
@@ -4231,7 +3690,7 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" ht="16.5" spans="1:7">
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="22"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
@@ -4242,7 +3701,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" ht="16.5" spans="1:7">
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="22"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
@@ -4255,7 +3714,7 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" ht="16.5" spans="1:7">
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="24"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
@@ -4266,7 +3725,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" ht="33" spans="1:7">
+    <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
         <v>38</v>
       </c>
@@ -4281,7 +3740,7 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" ht="16.5" spans="1:7">
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="22"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
@@ -4292,7 +3751,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" ht="16.5" spans="1:7">
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="24"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
@@ -4303,7 +3762,7 @@
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" ht="16.5" spans="1:7">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
         <v>43</v>
       </c>
@@ -4318,7 +3777,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" ht="16.5" spans="1:7">
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="22"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
@@ -4329,7 +3788,7 @@
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" ht="16.5" spans="1:7">
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="22"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
@@ -4340,7 +3799,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" ht="16.5" spans="1:7">
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="22"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
@@ -4353,7 +3812,7 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" ht="16.5" spans="1:7">
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="24"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
@@ -4364,7 +3823,7 @@
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" ht="16.5" spans="1:7">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
@@ -4376,43 +3835,42 @@
       <c r="G31" s="31"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.725" customWidth="1"/>
-    <col min="2" max="2" width="30.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.0916666666667" customWidth="1"/>
-    <col min="5" max="5" width="13.2666666666667" customWidth="1"/>
-    <col min="6" max="6" width="14.45" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
     <col min="7" max="7" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.75" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" ht="24" customHeight="1" spans="1:7">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -4435,25 +3893,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="21" customHeight="1" spans="1:7">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" ht="16.5" spans="1:7">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="60">
         <v>43638</v>
       </c>
       <c r="D4" s="11"/>
@@ -4467,14 +3925,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:7">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -4484,8 +3942,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" ht="16.5" spans="1:7">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="54" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -4503,12 +3961,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" ht="16.5" spans="1:7">
-      <c r="A7" s="19"/>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="55"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="60">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -4522,12 +3980,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:7">
-      <c r="A8" s="20"/>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="56"/>
       <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12">
         <v>43641</v>
@@ -4536,17 +3994,17 @@
         <v>0.5</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" ht="16.5" spans="1:7">
-      <c r="A9" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="57" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="60">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -4557,15 +4015,15 @@
         <v>0.5</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" spans="1:7">
-      <c r="A10" s="22"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="58"/>
       <c r="B10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="23"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12">
         <v>43642</v>
@@ -4577,12 +4035,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:7">
-      <c r="A11" s="24"/>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="59"/>
       <c r="B11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12">
         <v>43642</v>
@@ -4592,14 +4050,14 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" ht="16.5" spans="1:7">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="57" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="60">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -4613,12 +4071,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:7">
-      <c r="A13" s="22"/>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="58"/>
       <c r="B13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12">
         <v>43643</v>
@@ -4628,12 +4086,12 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" ht="16.5" spans="1:7">
-      <c r="A14" s="22"/>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="58"/>
       <c r="B14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="23"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12">
         <v>43643</v>
@@ -4643,12 +4101,12 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" ht="16.5" spans="1:7">
-      <c r="A15" s="24"/>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="59"/>
       <c r="B15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12">
         <v>43643</v>
@@ -4658,25 +4116,25 @@
       </c>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" ht="21" customHeight="1" spans="1:7">
-      <c r="A16" s="25" t="s">
+    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
-    </row>
-    <row r="17" ht="16.5" spans="1:7">
-      <c r="A17" s="21" t="s">
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="57" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="60">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -4684,29 +4142,29 @@
       <c r="F17" s="28"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" ht="16.5" spans="1:7">
-      <c r="A18" s="24"/>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="59"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13">
         <v>0.4</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" ht="16.5" spans="1:7">
-      <c r="A19" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="57" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="60" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="12"/>
@@ -4714,23 +4172,23 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" ht="16.5" spans="1:7">
-      <c r="A20" s="22"/>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="58"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" ht="16.5" spans="1:7">
-      <c r="A21" s="22"/>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="58"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="60">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -4738,25 +4196,25 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" ht="16.5" spans="1:7">
-      <c r="A22" s="24"/>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="59"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="17"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" ht="16.5" spans="1:7">
-      <c r="A23" s="21" t="s">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="57" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="63" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="12"/>
@@ -4764,36 +4222,36 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" ht="16.5" spans="1:7">
-      <c r="A24" s="22"/>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="58"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="23"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" ht="16.5" spans="1:7">
-      <c r="A25" s="24"/>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="59"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" ht="16.5" spans="1:7">
-      <c r="A26" s="21" t="s">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="57" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="60">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -4801,34 +4259,34 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" ht="16.5" spans="1:7">
-      <c r="A27" s="22"/>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="58"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="23"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" ht="16.5" spans="1:7">
-      <c r="A28" s="22"/>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="58"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" ht="16.5" spans="1:7">
-      <c r="A29" s="22"/>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="58"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="60">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -4836,23 +4294,23 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" ht="16.5" spans="1:7">
-      <c r="A30" s="24"/>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="59"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="23"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" ht="16.5" spans="1:7">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="17"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -4860,12 +4318,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -4880,8 +4332,14 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/樊佩茹/项目进度控制表-樊佩茹 .xlsx
+++ b/樊佩茹/项目进度控制表-樊佩茹 .xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT-depository\git\hgkj_02\樊佩茹\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED860108-9585-4AD6-BDFE-0BD8698978D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="1515" yWindow="2640" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="樊佩茹" sheetId="1" r:id="rId1"/>
@@ -182,12 +188,6 @@
     <t>js校验有问题，验证码校验有问题</t>
   </si>
   <si>
-    <t>直接退出</t>
-  </si>
-  <si>
-    <t>上传有问题</t>
-  </si>
-  <si>
     <t>假分页</t>
   </si>
   <si>
@@ -208,14 +208,22 @@
   </si>
   <si>
     <t>js校验未做</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>假分页</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接退出</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +243,7 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -242,12 +251,14 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -255,6 +266,7 @@
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -262,30 +274,35 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -293,34 +310,40 @@
       <sz val="11"/>
       <color indexed="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF002060"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -588,6 +611,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -623,38 +667,20 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -703,7 +729,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -736,9 +762,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -771,6 +814,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -946,14 +1006,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="2" max="2" width="29.75" customWidth="1"/>
@@ -961,18 +1021,18 @@
     <col min="7" max="7" width="84.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:7" ht="33.75">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-    </row>
-    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -995,25 +1055,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="44" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:7" s="44" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-    </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="48">
         <v>43638</v>
       </c>
       <c r="D4" s="11"/>
@@ -1027,14 +1087,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.5">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="61"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -1044,8 +1104,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="54" t="s">
+    <row r="6" spans="1:7" ht="16.5">
+      <c r="A6" s="61" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -1065,12 +1125,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="55"/>
+    <row r="7" spans="1:7" ht="16.5">
+      <c r="A7" s="62"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="48">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -1084,12 +1144,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="56"/>
+    <row r="8" spans="1:7" ht="16.5">
+      <c r="A8" s="63"/>
       <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="12">
         <v>43641</v>
       </c>
@@ -1101,14 +1161,14 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="57" t="s">
+    <row r="9" spans="1:7" ht="16.5">
+      <c r="A9" s="45" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="48">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -1120,12 +1180,12 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="58"/>
+    <row r="10" spans="1:7" ht="16.5">
+      <c r="A10" s="47"/>
       <c r="B10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="62"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12">
         <v>43642</v>
@@ -1137,12 +1197,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
+    <row r="11" spans="1:7" ht="16.5">
+      <c r="A11" s="46"/>
       <c r="B11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="12">
         <v>43643</v>
       </c>
@@ -1154,14 +1214,14 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="57" t="s">
+    <row r="12" spans="1:7" ht="16.5">
+      <c r="A12" s="45" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="60">
+      <c r="C12" s="48">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -1175,12 +1235,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="58"/>
+    <row r="13" spans="1:7" ht="16.5">
+      <c r="A13" s="47"/>
       <c r="B13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="62"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="12">
         <v>43643</v>
       </c>
@@ -1192,12 +1252,12 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="58"/>
+    <row r="14" spans="1:7" ht="16.5">
+      <c r="A14" s="47"/>
       <c r="B14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="62"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="12">
         <v>43643</v>
       </c>
@@ -1209,12 +1269,12 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="59"/>
+    <row r="15" spans="1:7" ht="16.5">
+      <c r="A15" s="46"/>
       <c r="B15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="61"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="12">
         <v>43643</v>
       </c>
@@ -1226,25 +1286,25 @@
       </c>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="51" t="s">
+    <row r="16" spans="1:7" ht="24" customHeight="1">
+      <c r="A16" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="57" t="s">
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5">
+      <c r="A17" s="45" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="48">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -1252,25 +1312,25 @@
       <c r="F17" s="28"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="59"/>
+    <row r="18" spans="1:7" ht="16.5">
+      <c r="A18" s="46"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="61"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="57" t="s">
+    <row r="19" spans="1:7" ht="16.5">
+      <c r="A19" s="45" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="48" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="12"/>
@@ -1278,23 +1338,23 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="58"/>
+    <row r="20" spans="1:7" ht="16.5">
+      <c r="A20" s="47"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="61"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="58"/>
+    <row r="21" spans="1:7" ht="16.5">
+      <c r="A21" s="47"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="60">
+      <c r="C21" s="48">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -1302,25 +1362,25 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="59"/>
+    <row r="22" spans="1:7" ht="16.5">
+      <c r="A22" s="46"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="61"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="57" t="s">
+    <row r="23" spans="1:7" ht="16.5">
+      <c r="A23" s="45" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="51" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="12"/>
@@ -1328,36 +1388,36 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="58"/>
+    <row r="24" spans="1:7" ht="16.5">
+      <c r="A24" s="47"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="50"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="59"/>
+    <row r="25" spans="1:7" ht="16.5">
+      <c r="A25" s="46"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="57" t="s">
+    <row r="26" spans="1:7" ht="16.5">
+      <c r="A26" s="45" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="60">
+      <c r="C26" s="48">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -1365,34 +1425,34 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="58"/>
+    <row r="27" spans="1:7" ht="16.5">
+      <c r="A27" s="47"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="62"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="58"/>
+    <row r="28" spans="1:7" ht="16.5">
+      <c r="A28" s="47"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="58"/>
+    <row r="29" spans="1:7" ht="16.5">
+      <c r="A29" s="47"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="60">
+      <c r="C29" s="48">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -1400,23 +1460,23 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="59"/>
+    <row r="30" spans="1:7" ht="16.5">
+      <c r="A30" s="46"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="62"/>
+      <c r="C30" s="50"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="16.5">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="61"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -1424,6 +1484,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -1438,12 +1504,6 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1452,14 +1512,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.875" customWidth="1"/>
     <col min="2" max="2" width="32.875" customWidth="1"/>
@@ -1470,18 +1530,18 @@
     <col min="7" max="7" width="81.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:7" ht="33.75">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
+    </row>
+    <row r="2" spans="1:7" ht="18" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1504,25 +1564,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:7" ht="23.1" customHeight="1">
+      <c r="A3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="48">
         <v>43638</v>
       </c>
       <c r="D4" s="11"/>
@@ -1536,14 +1596,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.5">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="61"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -1553,8 +1613,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="54" t="s">
+    <row r="6" spans="1:7" ht="16.5">
+      <c r="A6" s="61" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -1572,12 +1632,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="55"/>
+    <row r="7" spans="1:7" ht="16.5">
+      <c r="A7" s="62"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="48">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -1591,25 +1651,25 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="56"/>
+    <row r="8" spans="1:7" ht="16.5">
+      <c r="A8" s="63"/>
       <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="28"/>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="57" t="s">
+    <row r="9" spans="1:7" ht="16.5">
+      <c r="A9" s="45" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="48">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -1617,12 +1677,12 @@
       <c r="F9" s="28"/>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="58"/>
+    <row r="10" spans="1:7" ht="16.5">
+      <c r="A10" s="47"/>
       <c r="B10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="62"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12">
         <v>43642</v>
@@ -1634,25 +1694,25 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
+    <row r="11" spans="1:7" ht="16.5">
+      <c r="A11" s="46"/>
       <c r="B11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="13"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="57" t="s">
+    <row r="12" spans="1:7" ht="16.5">
+      <c r="A12" s="45" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="60">
+      <c r="C12" s="48">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -1660,12 +1720,12 @@
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="58"/>
+    <row r="13" spans="1:7" ht="16.5">
+      <c r="A13" s="47"/>
       <c r="B13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="62"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12">
         <v>43642</v>
@@ -1677,12 +1737,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="58"/>
+    <row r="14" spans="1:7" ht="16.5">
+      <c r="A14" s="47"/>
       <c r="B14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="62"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12">
         <v>43642</v>
@@ -1694,36 +1754,36 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="59"/>
+    <row r="15" spans="1:7" ht="16.5">
+      <c r="A15" s="46"/>
       <c r="B15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="61"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="28"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="51" t="s">
+    <row r="16" spans="1:7" ht="24" customHeight="1">
+      <c r="A16" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="57" t="s">
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5">
+      <c r="A17" s="45" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="48">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -1731,25 +1791,25 @@
       <c r="F17" s="28"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="59"/>
+    <row r="18" spans="1:7" ht="16.5">
+      <c r="A18" s="46"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="61"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="57" t="s">
+    <row r="19" spans="1:7" ht="16.5">
+      <c r="A19" s="45" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="48" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="12"/>
@@ -1757,23 +1817,23 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="58"/>
+    <row r="20" spans="1:7" ht="16.5">
+      <c r="A20" s="47"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="61"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="58"/>
+    <row r="21" spans="1:7" ht="16.5">
+      <c r="A21" s="47"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="60">
+      <c r="C21" s="48">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -1781,25 +1841,25 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="59"/>
+    <row r="22" spans="1:7" ht="16.5">
+      <c r="A22" s="46"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="61"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="57" t="s">
+    <row r="23" spans="1:7" ht="16.5">
+      <c r="A23" s="45" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="51" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="12"/>
@@ -1807,36 +1867,36 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="58"/>
+    <row r="24" spans="1:7" ht="16.5">
+      <c r="A24" s="47"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="50"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="59"/>
+    <row r="25" spans="1:7" ht="16.5">
+      <c r="A25" s="46"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="57" t="s">
+    <row r="26" spans="1:7" ht="16.5">
+      <c r="A26" s="45" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="60">
+      <c r="C26" s="48">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -1844,34 +1904,34 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="58"/>
+    <row r="27" spans="1:7" ht="16.5">
+      <c r="A27" s="47"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="62"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="58"/>
+    <row r="28" spans="1:7" ht="16.5">
+      <c r="A28" s="47"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="58"/>
+    <row r="29" spans="1:7" ht="16.5">
+      <c r="A29" s="47"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="60">
+      <c r="C29" s="48">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -1879,23 +1939,23 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="59"/>
+    <row r="30" spans="1:7" ht="16.5">
+      <c r="A30" s="46"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="62"/>
+      <c r="C30" s="50"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="16.5">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="61"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -1903,6 +1963,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -1917,12 +1983,6 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1931,14 +1991,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="31.625" customWidth="1"/>
@@ -1949,7 +2009,7 @@
     <col min="7" max="7" width="87.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="33.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1960,7 +2020,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="18" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1983,7 +2043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1994,7 +2054,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16.5">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -2015,7 +2075,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.5">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
@@ -2032,7 +2092,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16.5">
       <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
@@ -2053,7 +2113,7 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="16.5">
       <c r="A7" s="19"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
@@ -2074,7 +2134,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="16.5">
       <c r="A8" s="20"/>
       <c r="B8" s="16" t="s">
         <v>18</v>
@@ -2089,7 +2149,7 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="16.5">
       <c r="A9" s="21" t="s">
         <v>19</v>
       </c>
@@ -2108,7 +2168,7 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="16.5">
       <c r="A10" s="22"/>
       <c r="B10" s="16" t="s">
         <v>21</v>
@@ -2125,7 +2185,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="16.5">
       <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
         <v>22</v>
@@ -2136,7 +2196,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="16.5">
       <c r="A12" s="21" t="s">
         <v>23</v>
       </c>
@@ -2159,7 +2219,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="16.5">
       <c r="A13" s="22"/>
       <c r="B13" s="16" t="s">
         <v>25</v>
@@ -2170,7 +2230,7 @@
       <c r="F13" s="28"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="16.5">
       <c r="A14" s="22"/>
       <c r="B14" s="16" t="s">
         <v>26</v>
@@ -2181,7 +2241,7 @@
       <c r="F14" s="28"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="16.5">
       <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
         <v>27</v>
@@ -2192,7 +2252,7 @@
       <c r="F15" s="28"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="24" customHeight="1">
       <c r="A16" s="25" t="s">
         <v>28</v>
       </c>
@@ -2203,7 +2263,7 @@
       <c r="F16" s="26"/>
       <c r="G16" s="27"/>
     </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="16.5">
       <c r="A17" s="21" t="s">
         <v>29</v>
       </c>
@@ -2218,7 +2278,7 @@
       <c r="F17" s="28"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="16.5">
       <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
@@ -2229,7 +2289,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="16.5">
       <c r="A19" s="21" t="s">
         <v>32</v>
       </c>
@@ -2244,7 +2304,7 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="16.5">
       <c r="A20" s="22"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
@@ -2255,7 +2315,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="16.5">
       <c r="A21" s="22"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
@@ -2268,7 +2328,7 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="16.5">
       <c r="A22" s="24"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
@@ -2279,7 +2339,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="33">
       <c r="A23" s="21" t="s">
         <v>38</v>
       </c>
@@ -2294,7 +2354,7 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="16.5">
       <c r="A24" s="22"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
@@ -2305,7 +2365,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="16.5">
       <c r="A25" s="24"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
@@ -2316,7 +2376,7 @@
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="16.5">
       <c r="A26" s="21" t="s">
         <v>43</v>
       </c>
@@ -2331,7 +2391,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="16.5">
       <c r="A27" s="22"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
@@ -2342,7 +2402,7 @@
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="16.5">
       <c r="A28" s="22"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
@@ -2353,7 +2413,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="16.5">
       <c r="A29" s="22"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
@@ -2366,7 +2426,7 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="16.5">
       <c r="A30" s="24"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
@@ -2377,7 +2437,7 @@
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="16.5">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
@@ -2396,14 +2456,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.5" style="33" customWidth="1"/>
     <col min="2" max="2" width="18.625" style="33" customWidth="1"/>
@@ -2415,18 +2475,18 @@
     <col min="8" max="16384" width="11" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:7" ht="33.75">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2449,25 +2509,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5">
       <c r="A4" s="34" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="48">
         <v>43638</v>
       </c>
       <c r="D4" s="36"/>
@@ -2477,14 +2537,14 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.5">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="61"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="13">
@@ -2492,7 +2552,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16.5">
       <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
@@ -2509,12 +2569,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="16.5">
       <c r="A7" s="15"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="48">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -2524,12 +2584,12 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="16.5">
       <c r="A8" s="38"/>
       <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="13">
@@ -2537,14 +2597,14 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="16.5">
       <c r="A9" s="39" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="48">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -2554,12 +2614,12 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="16.5">
       <c r="A10" s="38"/>
       <c r="B10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="62"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="13">
@@ -2567,12 +2627,12 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="16.5">
       <c r="A11" s="40"/>
       <c r="B11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="13">
@@ -2580,14 +2640,14 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="16.5">
       <c r="A12" s="39" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="60">
+      <c r="C12" s="48">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -2597,12 +2657,12 @@
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="16.5">
       <c r="A13" s="15"/>
       <c r="B13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="62"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="13">
@@ -2610,12 +2670,12 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="16.5">
       <c r="A14" s="41"/>
       <c r="B14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="62"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="13">
@@ -2623,12 +2683,12 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="16.5">
       <c r="A15" s="42"/>
       <c r="B15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="61"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="13">
@@ -2636,25 +2696,25 @@
       </c>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="51" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5">
       <c r="A17" s="39" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="48">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -2662,25 +2722,25 @@
       <c r="F17" s="28"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="16.5">
       <c r="A18" s="42"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="61"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="16.5">
       <c r="A19" s="39" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="48" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="12"/>
@@ -2688,23 +2748,23 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="16.5">
       <c r="A20" s="42"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="61"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="16.5">
       <c r="A21" s="42"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="60">
+      <c r="C21" s="48">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -2712,25 +2772,25 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="16.5">
       <c r="A22" s="41"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="61"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="16.5">
       <c r="A23" s="39" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="51" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="12"/>
@@ -2738,36 +2798,36 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="16.5">
       <c r="A24" s="40"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="50"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="16.5">
       <c r="A25" s="40"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="25.5">
       <c r="A26" s="39" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="60">
+      <c r="C26" s="48">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -2775,34 +2835,34 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="16.5">
       <c r="A27" s="40"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="62"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="16.5">
       <c r="A28" s="42"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="16.5">
       <c r="A29" s="42"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="60">
+      <c r="C29" s="48">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -2810,23 +2870,23 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="16.5">
       <c r="A30" s="15"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="62"/>
+      <c r="C30" s="50"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="28"/>
       <c r="G30" s="43"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="16.5">
       <c r="A31" s="36"/>
       <c r="B31" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="61"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="36"/>
       <c r="E31" s="36"/>
       <c r="F31" s="36"/>
@@ -2834,12 +2894,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C28"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A16:G16"/>
@@ -2847,6 +2901,12 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C28"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -2854,14 +2914,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="31.625" customWidth="1"/>
@@ -2872,18 +2932,18 @@
     <col min="7" max="7" width="90.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:7" ht="33.75">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-    </row>
-    <row r="2" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
+    </row>
+    <row r="2" spans="1:7" ht="23.1" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2906,25 +2966,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:7" ht="21.95" customHeight="1">
+      <c r="A3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="48">
         <v>43638</v>
       </c>
       <c r="D4" s="32">
@@ -2938,14 +2998,14 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.5">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="61"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -2955,8 +3015,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="54" t="s">
+    <row r="6" spans="1:7" ht="16.5">
+      <c r="A6" s="61" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -2976,12 +3036,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="55"/>
+    <row r="7" spans="1:7" ht="16.5">
+      <c r="A7" s="62"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="48">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -2995,12 +3055,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="56"/>
+    <row r="8" spans="1:7" ht="16.5">
+      <c r="A8" s="63"/>
       <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="12">
         <v>43643</v>
       </c>
@@ -3012,14 +3072,14 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="57" t="s">
+    <row r="9" spans="1:7" ht="16.5">
+      <c r="A9" s="45" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="48">
         <v>43641</v>
       </c>
       <c r="D9" s="12">
@@ -3033,12 +3093,12 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="58"/>
+    <row r="10" spans="1:7" ht="16.5">
+      <c r="A10" s="47"/>
       <c r="B10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="62"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12">
         <v>43641</v>
@@ -3047,15 +3107,15 @@
         <v>0.9</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5">
+      <c r="A11" s="46"/>
       <c r="B11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12">
         <v>43641</v>
@@ -3065,14 +3125,14 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="57" t="s">
+    <row r="12" spans="1:7" ht="16.5">
+      <c r="A12" s="45" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="60">
+      <c r="C12" s="48">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -3086,12 +3146,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="58"/>
+    <row r="13" spans="1:7" ht="16.5">
+      <c r="A13" s="47"/>
       <c r="B13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="62"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12">
         <v>43642</v>
@@ -3101,12 +3161,12 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="58"/>
+    <row r="14" spans="1:7" ht="16.5">
+      <c r="A14" s="47"/>
       <c r="B14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="62"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12">
         <v>43642</v>
@@ -3115,15 +3175,15 @@
         <v>0.9</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="59"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.5">
+      <c r="A15" s="46"/>
       <c r="B15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="61"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12">
         <v>43642</v>
@@ -3133,25 +3193,25 @@
       </c>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="51" t="s">
+    <row r="16" spans="1:7" ht="21.95" customHeight="1">
+      <c r="A16" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="57" t="s">
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5">
+      <c r="A17" s="45" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="48">
         <v>43643</v>
       </c>
       <c r="D17" s="12">
@@ -3164,12 +3224,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="59"/>
+    <row r="18" spans="1:7" ht="16.5">
+      <c r="A18" s="46"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="61"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12">
         <v>43643</v>
@@ -3178,17 +3238,17 @@
         <v>0.9</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.5">
+      <c r="A19" s="45" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="48" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="12"/>
@@ -3196,23 +3256,23 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="58"/>
+    <row r="20" spans="1:7" ht="16.5">
+      <c r="A20" s="47"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="61"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="58"/>
+    <row r="21" spans="1:7" ht="16.5">
+      <c r="A21" s="47"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="60">
+      <c r="C21" s="48">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -3220,25 +3280,25 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="59"/>
+    <row r="22" spans="1:7" ht="16.5">
+      <c r="A22" s="46"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="61"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="57" t="s">
+    <row r="23" spans="1:7" ht="16.5">
+      <c r="A23" s="45" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="51" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="12"/>
@@ -3246,36 +3306,36 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="58"/>
+    <row r="24" spans="1:7" ht="16.5">
+      <c r="A24" s="47"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="50"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="59"/>
+    <row r="25" spans="1:7" ht="16.5">
+      <c r="A25" s="46"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="57" t="s">
+    <row r="26" spans="1:7" ht="16.5">
+      <c r="A26" s="45" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="60">
+      <c r="C26" s="48">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -3283,34 +3343,34 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="58"/>
+    <row r="27" spans="1:7" ht="16.5">
+      <c r="A27" s="47"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="62"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="58"/>
+    <row r="28" spans="1:7" ht="16.5">
+      <c r="A28" s="47"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="58"/>
+    <row r="29" spans="1:7" ht="16.5">
+      <c r="A29" s="47"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="60">
+      <c r="C29" s="48">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -3318,23 +3378,23 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="59"/>
+    <row r="30" spans="1:7" ht="16.5">
+      <c r="A30" s="46"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="62"/>
+      <c r="C30" s="50"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="16.5">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="61"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -3342,6 +3402,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -3356,12 +3422,6 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -3369,14 +3429,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.75" customWidth="1"/>
     <col min="2" max="2" width="30.625" customWidth="1"/>
@@ -3387,7 +3447,7 @@
     <col min="7" max="7" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="33.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3398,7 +3458,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="21" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3421,7 +3481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="23.1" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -3432,7 +3492,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16.5">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -3453,7 +3513,7 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.5">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
@@ -3469,10 +3529,10 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5">
       <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
@@ -3482,18 +3542,18 @@
       <c r="C6" s="12">
         <v>43639</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="12">
+        <v>43643</v>
+      </c>
       <c r="E6" s="12">
         <v>43640</v>
       </c>
       <c r="F6" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.5">
       <c r="A7" s="19"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
@@ -3509,25 +3569,27 @@
         <v>0.8</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5">
       <c r="A8" s="20"/>
       <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="17"/>
-      <c r="D8" s="12"/>
+      <c r="D8" s="12">
+        <v>43643</v>
+      </c>
       <c r="E8" s="12">
         <v>43641</v>
       </c>
       <c r="F8" s="13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="16.5">
       <c r="A9" s="21" t="s">
         <v>19</v>
       </c>
@@ -3537,16 +3599,18 @@
       <c r="C9" s="10">
         <v>43641</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="12">
+        <v>43643</v>
+      </c>
       <c r="E9" s="12">
         <v>43642</v>
       </c>
       <c r="F9" s="13">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="16.5">
       <c r="A10" s="22"/>
       <c r="B10" s="16" t="s">
         <v>21</v>
@@ -3557,28 +3621,30 @@
         <v>43642</v>
       </c>
       <c r="F10" s="13">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5">
       <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="17"/>
-      <c r="D11" s="12"/>
+      <c r="D11" s="12">
+        <v>43643</v>
+      </c>
       <c r="E11" s="12">
         <v>43642</v>
       </c>
       <c r="F11" s="13">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="16.5">
       <c r="A12" s="21" t="s">
         <v>23</v>
       </c>
@@ -3589,11 +3655,17 @@
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E12" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5">
       <c r="A13" s="22"/>
       <c r="B13" s="16" t="s">
         <v>25</v>
@@ -3604,7 +3676,7 @@
       <c r="F13" s="28"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="16.5">
       <c r="A14" s="22"/>
       <c r="B14" s="16" t="s">
         <v>26</v>
@@ -3615,7 +3687,7 @@
       <c r="F14" s="28"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="16.5">
       <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
         <v>27</v>
@@ -3626,7 +3698,7 @@
       <c r="F15" s="28"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="24" customHeight="1">
       <c r="A16" s="25" t="s">
         <v>28</v>
       </c>
@@ -3637,7 +3709,7 @@
       <c r="F16" s="26"/>
       <c r="G16" s="27"/>
     </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="16.5">
       <c r="A17" s="21" t="s">
         <v>29</v>
       </c>
@@ -3658,7 +3730,7 @@
       </c>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="16.5">
       <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
@@ -3672,10 +3744,10 @@
         <v>0.7</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.5">
       <c r="A19" s="21" t="s">
         <v>32</v>
       </c>
@@ -3690,7 +3762,7 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="16.5">
       <c r="A20" s="22"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
@@ -3701,7 +3773,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="16.5">
       <c r="A21" s="22"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
@@ -3714,7 +3786,7 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="16.5">
       <c r="A22" s="24"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
@@ -3725,7 +3797,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="33">
       <c r="A23" s="21" t="s">
         <v>38</v>
       </c>
@@ -3740,7 +3812,7 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="16.5">
       <c r="A24" s="22"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
@@ -3751,7 +3823,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="16.5">
       <c r="A25" s="24"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
@@ -3762,7 +3834,7 @@
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="16.5">
       <c r="A26" s="21" t="s">
         <v>43</v>
       </c>
@@ -3777,7 +3849,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="16.5">
       <c r="A27" s="22"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
@@ -3788,7 +3860,7 @@
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="16.5">
       <c r="A28" s="22"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
@@ -3799,7 +3871,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="16.5">
       <c r="A29" s="22"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
@@ -3812,7 +3884,7 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="16.5">
       <c r="A30" s="24"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
@@ -3823,7 +3895,7 @@
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="16.5">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
@@ -3841,14 +3913,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.75" customWidth="1"/>
     <col min="2" max="2" width="30.625" customWidth="1"/>
@@ -3859,18 +3931,18 @@
     <col min="7" max="7" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:7" ht="33.75">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-    </row>
-    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
+    </row>
+    <row r="2" spans="1:7" ht="24" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3893,25 +3965,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:7" ht="21" customHeight="1">
+      <c r="A3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="48">
         <v>43638</v>
       </c>
       <c r="D4" s="11"/>
@@ -3925,14 +3997,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.5">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="61"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -3942,8 +4014,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="54" t="s">
+    <row r="6" spans="1:7" ht="16.5">
+      <c r="A6" s="61" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -3961,12 +4033,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="55"/>
+    <row r="7" spans="1:7" ht="16.5">
+      <c r="A7" s="62"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="48">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -3980,12 +4052,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="56"/>
+    <row r="8" spans="1:7" ht="16.5">
+      <c r="A8" s="63"/>
       <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12">
         <v>43641</v>
@@ -3994,17 +4066,17 @@
         <v>0.5</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5">
+      <c r="A9" s="45" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="48">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -4015,15 +4087,15 @@
         <v>0.5</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="58"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5">
+      <c r="A10" s="47"/>
       <c r="B10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="62"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12">
         <v>43642</v>
@@ -4035,12 +4107,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
+    <row r="11" spans="1:7" ht="16.5">
+      <c r="A11" s="46"/>
       <c r="B11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12">
         <v>43642</v>
@@ -4050,14 +4122,14 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="57" t="s">
+    <row r="12" spans="1:7" ht="16.5">
+      <c r="A12" s="45" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="60">
+      <c r="C12" s="48">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -4071,12 +4143,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="58"/>
+    <row r="13" spans="1:7" ht="16.5">
+      <c r="A13" s="47"/>
       <c r="B13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="62"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12">
         <v>43643</v>
@@ -4086,12 +4158,12 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="58"/>
+    <row r="14" spans="1:7" ht="16.5">
+      <c r="A14" s="47"/>
       <c r="B14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="62"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12">
         <v>43643</v>
@@ -4101,12 +4173,12 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="59"/>
+    <row r="15" spans="1:7" ht="16.5">
+      <c r="A15" s="46"/>
       <c r="B15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="61"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12">
         <v>43643</v>
@@ -4116,25 +4188,25 @@
       </c>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="51" t="s">
+    <row r="16" spans="1:7" ht="21" customHeight="1">
+      <c r="A16" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="57" t="s">
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5">
+      <c r="A17" s="45" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="48">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -4142,29 +4214,29 @@
       <c r="F17" s="28"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="59"/>
+    <row r="18" spans="1:7" ht="16.5">
+      <c r="A18" s="46"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="61"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13">
         <v>0.4</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.5">
+      <c r="A19" s="45" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="48" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="12"/>
@@ -4172,23 +4244,23 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="58"/>
+    <row r="20" spans="1:7" ht="16.5">
+      <c r="A20" s="47"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="61"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="58"/>
+    <row r="21" spans="1:7" ht="16.5">
+      <c r="A21" s="47"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="60">
+      <c r="C21" s="48">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -4196,25 +4268,25 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="59"/>
+    <row r="22" spans="1:7" ht="16.5">
+      <c r="A22" s="46"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="61"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="57" t="s">
+    <row r="23" spans="1:7" ht="16.5">
+      <c r="A23" s="45" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="51" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="12"/>
@@ -4222,36 +4294,36 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="58"/>
+    <row r="24" spans="1:7" ht="16.5">
+      <c r="A24" s="47"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="50"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="59"/>
+    <row r="25" spans="1:7" ht="16.5">
+      <c r="A25" s="46"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="57" t="s">
+    <row r="26" spans="1:7" ht="16.5">
+      <c r="A26" s="45" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="60">
+      <c r="C26" s="48">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -4259,34 +4331,34 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="58"/>
+    <row r="27" spans="1:7" ht="16.5">
+      <c r="A27" s="47"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="62"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="58"/>
+    <row r="28" spans="1:7" ht="16.5">
+      <c r="A28" s="47"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="58"/>
+    <row r="29" spans="1:7" ht="16.5">
+      <c r="A29" s="47"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="60">
+      <c r="C29" s="48">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -4294,23 +4366,23 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="59"/>
+    <row r="30" spans="1:7" ht="16.5">
+      <c r="A30" s="46"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="62"/>
+      <c r="C30" s="50"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="16.5">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="61"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -4318,6 +4390,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -4332,14 +4410,9 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/樊佩茹/项目进度控制表-樊佩茹 .xlsx
+++ b/樊佩茹/项目进度控制表-樊佩茹 .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT-depository\git\hgkj_02\樊佩茹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SDX\Desktop\hgkj_02\樊佩茹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED860108-9585-4AD6-BDFE-0BD8698978D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF550EA2-D090-4AB1-9D57-8523BB8127D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="2640" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="樊佩茹" sheetId="1" r:id="rId1"/>
@@ -223,7 +223,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -611,15 +611,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -631,42 +667,6 @@
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1013,26 +1013,26 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="29.75" customWidth="1"/>
-    <col min="3" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="84.625" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" customWidth="1"/>
+    <col min="3" max="6" width="15.6328125" customWidth="1"/>
+    <col min="7" max="7" width="84.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="54"/>
-    </row>
-    <row r="2" spans="1:7" ht="21" customHeight="1">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1055,25 +1055,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="44" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A3" s="55" t="s">
+    <row r="3" spans="1:7" s="44" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="57"/>
-    </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="60">
         <v>43638</v>
       </c>
       <c r="D4" s="11"/>
@@ -1087,14 +1087,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="49"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -1104,8 +1104,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5">
-      <c r="A6" s="61" t="s">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="54" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -1125,12 +1125,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5">
-      <c r="A7" s="62"/>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="55"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="60">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -1144,12 +1144,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5">
-      <c r="A8" s="63"/>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="56"/>
       <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="49"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="12">
         <v>43641</v>
       </c>
@@ -1161,14 +1161,14 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5">
-      <c r="A9" s="45" t="s">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="57" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="60">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -1180,12 +1180,12 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5">
-      <c r="A10" s="47"/>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="58"/>
       <c r="B10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="50"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12">
         <v>43642</v>
@@ -1197,12 +1197,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5">
-      <c r="A11" s="46"/>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="59"/>
       <c r="B11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="49"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="12">
         <v>43643</v>
       </c>
@@ -1214,14 +1214,14 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5">
-      <c r="A12" s="45" t="s">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="57" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C12" s="60">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -1235,12 +1235,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5">
-      <c r="A13" s="47"/>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="58"/>
       <c r="B13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="50"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="12">
         <v>43643</v>
       </c>
@@ -1252,12 +1252,12 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5">
-      <c r="A14" s="47"/>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="58"/>
       <c r="B14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="50"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="12">
         <v>43643</v>
       </c>
@@ -1269,12 +1269,12 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5">
-      <c r="A15" s="46"/>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="59"/>
       <c r="B15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="49"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="12">
         <v>43643</v>
       </c>
@@ -1286,25 +1286,25 @@
       </c>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1">
-      <c r="A16" s="58" t="s">
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="60"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5">
-      <c r="A17" s="45" t="s">
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="57" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="48">
+      <c r="C17" s="60">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -1312,25 +1312,25 @@
       <c r="F17" s="28"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5">
-      <c r="A18" s="46"/>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="59"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="49"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5">
-      <c r="A19" s="45" t="s">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="57" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="60" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="12"/>
@@ -1338,23 +1338,23 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5">
-      <c r="A20" s="47"/>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="58"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="49"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5">
-      <c r="A21" s="47"/>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="58"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="48">
+      <c r="C21" s="60">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -1362,25 +1362,25 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5">
-      <c r="A22" s="46"/>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="59"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5">
-      <c r="A23" s="45" t="s">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="57" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="63" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="12"/>
@@ -1388,36 +1388,36 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5">
-      <c r="A24" s="47"/>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="58"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="50"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5">
-      <c r="A25" s="46"/>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="59"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="49"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5">
-      <c r="A26" s="45" t="s">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="57" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="60">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -1425,34 +1425,34 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5">
-      <c r="A27" s="47"/>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="58"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="50"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5">
-      <c r="A28" s="47"/>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="58"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="49"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5">
-      <c r="A29" s="47"/>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="58"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="48">
+      <c r="C29" s="60">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -1460,23 +1460,23 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5">
-      <c r="A30" s="46"/>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="59"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="50"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="49"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -1484,12 +1484,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -1504,6 +1498,12 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1519,29 +1519,29 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.875" customWidth="1"/>
-    <col min="2" max="2" width="32.875" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="81.125" customWidth="1"/>
+    <col min="1" max="1" width="18.90625" customWidth="1"/>
+    <col min="2" max="2" width="32.90625" customWidth="1"/>
+    <col min="3" max="3" width="15.08984375" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" customWidth="1"/>
+    <col min="5" max="5" width="14.90625" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" customWidth="1"/>
+    <col min="7" max="7" width="81.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="54"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1564,25 +1564,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="23.1" customHeight="1">
-      <c r="A3" s="55" t="s">
+    <row r="3" spans="1:7" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="57"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="60">
         <v>43638</v>
       </c>
       <c r="D4" s="11"/>
@@ -1596,14 +1596,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="49"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -1613,8 +1613,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5">
-      <c r="A6" s="61" t="s">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="54" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -1632,12 +1632,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5">
-      <c r="A7" s="62"/>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="55"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="60">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -1651,25 +1651,25 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5">
-      <c r="A8" s="63"/>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="56"/>
       <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="49"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="28"/>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5">
-      <c r="A9" s="45" t="s">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="57" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="60">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -1677,12 +1677,12 @@
       <c r="F9" s="28"/>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5">
-      <c r="A10" s="47"/>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="58"/>
       <c r="B10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="50"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12">
         <v>43642</v>
@@ -1694,25 +1694,25 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5">
-      <c r="A11" s="46"/>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="59"/>
       <c r="B11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="49"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="13"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5">
-      <c r="A12" s="45" t="s">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="57" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C12" s="60">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -1720,12 +1720,12 @@
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5">
-      <c r="A13" s="47"/>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="58"/>
       <c r="B13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="50"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12">
         <v>43642</v>
@@ -1737,12 +1737,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5">
-      <c r="A14" s="47"/>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="58"/>
       <c r="B14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="50"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12">
         <v>43642</v>
@@ -1754,36 +1754,36 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.5">
-      <c r="A15" s="46"/>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="59"/>
       <c r="B15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="49"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="28"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1">
-      <c r="A16" s="58" t="s">
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="60"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5">
-      <c r="A17" s="45" t="s">
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="57" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="48">
+      <c r="C17" s="60">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -1791,25 +1791,25 @@
       <c r="F17" s="28"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5">
-      <c r="A18" s="46"/>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="59"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="49"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5">
-      <c r="A19" s="45" t="s">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="57" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="60" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="12"/>
@@ -1817,23 +1817,23 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5">
-      <c r="A20" s="47"/>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="58"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="49"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5">
-      <c r="A21" s="47"/>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="58"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="48">
+      <c r="C21" s="60">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -1841,25 +1841,25 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5">
-      <c r="A22" s="46"/>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="59"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5">
-      <c r="A23" s="45" t="s">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="57" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="63" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="12"/>
@@ -1867,36 +1867,36 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5">
-      <c r="A24" s="47"/>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="58"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="50"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5">
-      <c r="A25" s="46"/>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="59"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="49"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5">
-      <c r="A26" s="45" t="s">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="57" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="60">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -1904,34 +1904,34 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5">
-      <c r="A27" s="47"/>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="58"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="50"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5">
-      <c r="A28" s="47"/>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="58"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="49"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5">
-      <c r="A29" s="47"/>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="58"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="48">
+      <c r="C29" s="60">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -1939,23 +1939,23 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5">
-      <c r="A30" s="46"/>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="59"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="50"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="49"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -1963,12 +1963,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -1983,6 +1977,12 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1994,22 +1994,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="31.625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="16.36328125" customWidth="1"/>
+    <col min="2" max="2" width="31.6328125" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="87.625" customWidth="1"/>
+    <col min="7" max="7" width="87.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75">
+    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2020,7 +2020,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2054,7 +2054,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="19"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
@@ -2134,7 +2134,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="20"/>
       <c r="B8" s="16" t="s">
         <v>18</v>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="21" t="s">
         <v>19</v>
       </c>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="22"/>
       <c r="B10" s="16" t="s">
         <v>21</v>
@@ -2185,18 +2185,22 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="17"/>
-      <c r="D11" s="12"/>
+      <c r="D11" s="12">
+        <v>43643</v>
+      </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
+      <c r="F11" s="13">
+        <v>0.5</v>
+      </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="21" t="s">
         <v>23</v>
       </c>
@@ -2219,29 +2223,37 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5">
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="22"/>
       <c r="B13" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="23"/>
-      <c r="D13" s="12"/>
+      <c r="D13" s="12">
+        <v>43643</v>
+      </c>
       <c r="E13" s="12"/>
-      <c r="F13" s="28"/>
+      <c r="F13" s="13">
+        <v>0.5</v>
+      </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5">
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="22"/>
       <c r="B14" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="23"/>
-      <c r="D14" s="12"/>
+      <c r="D14" s="12">
+        <v>43642</v>
+      </c>
       <c r="E14" s="12"/>
-      <c r="F14" s="28"/>
+      <c r="F14" s="13">
+        <v>1</v>
+      </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5">
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
         <v>27</v>
@@ -2252,7 +2264,7 @@
       <c r="F15" s="28"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1">
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>28</v>
       </c>
@@ -2263,7 +2275,7 @@
       <c r="F16" s="26"/>
       <c r="G16" s="27"/>
     </row>
-    <row r="17" spans="1:7" ht="16.5">
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="21" t="s">
         <v>29</v>
       </c>
@@ -2273,23 +2285,30 @@
       <c r="C17" s="10">
         <v>43643</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="28"/>
+      <c r="E17" s="12">
+        <v>43643</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0.5</v>
+      </c>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5">
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="17"/>
-      <c r="D18" s="12"/>
+      <c r="D18" s="12">
+        <v>43643</v>
+      </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
+      <c r="F18" s="13">
+        <v>1</v>
+      </c>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="21" t="s">
         <v>32</v>
       </c>
@@ -2304,7 +2323,7 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5">
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="22"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
@@ -2315,7 +2334,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5">
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="22"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
@@ -2328,7 +2347,7 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5">
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="24"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
@@ -2339,7 +2358,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="33">
+    <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.45">
       <c r="A23" s="21" t="s">
         <v>38</v>
       </c>
@@ -2354,7 +2373,7 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5">
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="22"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
@@ -2365,7 +2384,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5">
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="24"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
@@ -2376,7 +2395,7 @@
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="21" t="s">
         <v>43</v>
       </c>
@@ -2391,7 +2410,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5">
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="22"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
@@ -2402,7 +2421,7 @@
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5">
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="22"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
@@ -2413,7 +2432,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5">
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="22"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
@@ -2426,7 +2445,7 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5">
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A30" s="24"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
@@ -2437,7 +2456,7 @@
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
@@ -2451,7 +2470,7 @@
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2463,30 +2482,30 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.625" style="33" customWidth="1"/>
-    <col min="3" max="3" width="25.375" style="33" customWidth="1"/>
-    <col min="4" max="4" width="18.875" style="33" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="33" customWidth="1"/>
-    <col min="6" max="6" width="16.625" style="33" customWidth="1"/>
-    <col min="7" max="7" width="47.375" style="33" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="25.36328125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="18.90625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" style="33" customWidth="1"/>
+    <col min="6" max="6" width="16.6328125" style="33" customWidth="1"/>
+    <col min="7" max="7" width="47.36328125" style="33" customWidth="1"/>
     <col min="8" max="16384" width="11" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="54"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2509,25 +2528,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="55" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="57"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="34" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="60">
         <v>43638</v>
       </c>
       <c r="D4" s="36"/>
@@ -2537,14 +2556,14 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="49"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="13">
@@ -2552,7 +2571,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
@@ -2569,12 +2588,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="15"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="60">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -2584,12 +2603,12 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="38"/>
       <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="49"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="13">
@@ -2597,14 +2616,14 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="39" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="60">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -2614,12 +2633,12 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="38"/>
       <c r="B10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="50"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="13">
@@ -2627,12 +2646,12 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="40"/>
       <c r="B11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="49"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="13">
@@ -2640,14 +2659,14 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="39" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C12" s="60">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -2657,12 +2676,12 @@
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5">
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="15"/>
       <c r="B13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="50"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="13">
@@ -2670,12 +2689,12 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5">
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="41"/>
       <c r="B14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="50"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="13">
@@ -2683,12 +2702,12 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5">
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="42"/>
       <c r="B15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="49"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="13">
@@ -2696,25 +2715,25 @@
       </c>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="58" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="60"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5">
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="39" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="48">
+      <c r="C17" s="60">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -2722,25 +2741,25 @@
       <c r="F17" s="28"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5">
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="42"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="49"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="39" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="60" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="12"/>
@@ -2748,23 +2767,23 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5">
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="42"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="49"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5">
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="42"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="48">
+      <c r="C21" s="60">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -2772,25 +2791,25 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5">
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="41"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A23" s="39" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="63" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="12"/>
@@ -2798,36 +2817,36 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5">
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="40"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="50"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5">
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="40"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="49"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="25.5">
+    <row r="26" spans="1:7" ht="27" x14ac:dyDescent="0.45">
       <c r="A26" s="39" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="60">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -2835,34 +2854,34 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5">
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="40"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="50"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5">
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="42"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="49"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5">
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="42"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="48">
+      <c r="C29" s="60">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -2870,23 +2889,23 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5">
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A30" s="15"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="50"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="28"/>
       <c r="G30" s="43"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A31" s="36"/>
       <c r="B31" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="49"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="36"/>
       <c r="E31" s="36"/>
       <c r="F31" s="36"/>
@@ -2894,6 +2913,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C28"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A16:G16"/>
@@ -2901,12 +2926,6 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="C12:C15"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C28"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -2921,29 +2940,29 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="31.625" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="7" max="7" width="90.75" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
+    <col min="2" max="2" width="31.6328125" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" customWidth="1"/>
+    <col min="7" max="7" width="90.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="54"/>
-    </row>
-    <row r="2" spans="1:7" ht="23.1" customHeight="1">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:7" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2966,25 +2985,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="21.95" customHeight="1">
-      <c r="A3" s="55" t="s">
+    <row r="3" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="57"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="60">
         <v>43638</v>
       </c>
       <c r="D4" s="32">
@@ -2998,14 +3017,14 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="49"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -3015,8 +3034,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5">
-      <c r="A6" s="61" t="s">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="54" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -3036,12 +3055,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5">
-      <c r="A7" s="62"/>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="55"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="60">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -3055,12 +3074,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5">
-      <c r="A8" s="63"/>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="56"/>
       <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="49"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="12">
         <v>43643</v>
       </c>
@@ -3072,14 +3091,14 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5">
-      <c r="A9" s="45" t="s">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="57" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="60">
         <v>43641</v>
       </c>
       <c r="D9" s="12">
@@ -3093,12 +3112,12 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5">
-      <c r="A10" s="47"/>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="58"/>
       <c r="B10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="50"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12">
         <v>43641</v>
@@ -3110,12 +3129,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5">
-      <c r="A11" s="46"/>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="59"/>
       <c r="B11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="49"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12">
         <v>43641</v>
@@ -3125,14 +3144,14 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5">
-      <c r="A12" s="45" t="s">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="57" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C12" s="60">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -3146,12 +3165,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5">
-      <c r="A13" s="47"/>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="58"/>
       <c r="B13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="50"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12">
         <v>43642</v>
@@ -3161,12 +3180,12 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5">
-      <c r="A14" s="47"/>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="58"/>
       <c r="B14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="50"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12">
         <v>43642</v>
@@ -3178,12 +3197,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.5">
-      <c r="A15" s="46"/>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="59"/>
       <c r="B15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="49"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12">
         <v>43642</v>
@@ -3193,25 +3212,25 @@
       </c>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="21.95" customHeight="1">
-      <c r="A16" s="58" t="s">
+    <row r="16" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="60"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5">
-      <c r="A17" s="45" t="s">
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="57" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="48">
+      <c r="C17" s="60">
         <v>43643</v>
       </c>
       <c r="D17" s="12">
@@ -3224,12 +3243,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.5">
-      <c r="A18" s="46"/>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="59"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="49"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12">
         <v>43643</v>
@@ -3241,14 +3260,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.5">
-      <c r="A19" s="45" t="s">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="57" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="60" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="12"/>
@@ -3256,23 +3275,23 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5">
-      <c r="A20" s="47"/>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="58"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="49"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5">
-      <c r="A21" s="47"/>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="58"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="48">
+      <c r="C21" s="60">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -3280,25 +3299,25 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5">
-      <c r="A22" s="46"/>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="59"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5">
-      <c r="A23" s="45" t="s">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="57" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="63" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="12"/>
@@ -3306,36 +3325,36 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5">
-      <c r="A24" s="47"/>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="58"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="50"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5">
-      <c r="A25" s="46"/>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="59"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="49"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5">
-      <c r="A26" s="45" t="s">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="57" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="60">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -3343,34 +3362,34 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5">
-      <c r="A27" s="47"/>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="58"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="50"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5">
-      <c r="A28" s="47"/>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="58"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="49"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5">
-      <c r="A29" s="47"/>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="58"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="48">
+      <c r="C29" s="60">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -3378,23 +3397,23 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5">
-      <c r="A30" s="46"/>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="59"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="50"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="49"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -3402,12 +3421,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -3422,6 +3435,12 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -3432,22 +3451,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
-    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" customWidth="1"/>
+    <col min="2" max="2" width="30.6328125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" customWidth="1"/>
     <col min="7" max="7" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75">
+    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3458,7 +3477,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="21" customHeight="1">
+    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3481,7 +3500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="23.1" customHeight="1">
+    <row r="3" spans="1:7" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -3492,7 +3511,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -3513,7 +3532,7 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
@@ -3532,7 +3551,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
@@ -3553,7 +3572,7 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="19"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
@@ -3572,7 +3591,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="20"/>
       <c r="B8" s="16" t="s">
         <v>18</v>
@@ -3589,7 +3608,7 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="21" t="s">
         <v>19</v>
       </c>
@@ -3610,7 +3629,7 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="22"/>
       <c r="B10" s="16" t="s">
         <v>21</v>
@@ -3627,7 +3646,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
         <v>22</v>
@@ -3644,7 +3663,7 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="21" t="s">
         <v>23</v>
       </c>
@@ -3665,7 +3684,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5">
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="22"/>
       <c r="B13" s="16" t="s">
         <v>25</v>
@@ -3676,7 +3695,7 @@
       <c r="F13" s="28"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5">
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="22"/>
       <c r="B14" s="16" t="s">
         <v>26</v>
@@ -3687,7 +3706,7 @@
       <c r="F14" s="28"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5">
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
         <v>27</v>
@@ -3698,7 +3717,7 @@
       <c r="F15" s="28"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1">
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>28</v>
       </c>
@@ -3709,7 +3728,7 @@
       <c r="F16" s="26"/>
       <c r="G16" s="27"/>
     </row>
-    <row r="17" spans="1:7" ht="16.5">
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="21" t="s">
         <v>29</v>
       </c>
@@ -3730,7 +3749,7 @@
       </c>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5">
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
@@ -3747,7 +3766,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.5">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="21" t="s">
         <v>32</v>
       </c>
@@ -3762,7 +3781,7 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5">
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="22"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
@@ -3773,7 +3792,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5">
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="22"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
@@ -3786,7 +3805,7 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5">
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="24"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
@@ -3797,7 +3816,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="33">
+    <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.45">
       <c r="A23" s="21" t="s">
         <v>38</v>
       </c>
@@ -3812,7 +3831,7 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5">
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="22"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
@@ -3823,7 +3842,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5">
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="24"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
@@ -3834,7 +3853,7 @@
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="21" t="s">
         <v>43</v>
       </c>
@@ -3849,7 +3868,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5">
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="22"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
@@ -3860,7 +3879,7 @@
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5">
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="22"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
@@ -3871,7 +3890,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5">
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="22"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
@@ -3884,7 +3903,7 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5">
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A30" s="24"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
@@ -3895,7 +3914,7 @@
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
@@ -3920,29 +3939,29 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" customWidth="1"/>
+    <col min="2" max="2" width="30.6328125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" customWidth="1"/>
     <col min="7" max="7" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="54"/>
-    </row>
-    <row r="2" spans="1:7" ht="24" customHeight="1">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3965,25 +3984,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="21" customHeight="1">
-      <c r="A3" s="55" t="s">
+    <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="57"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="60">
         <v>43638</v>
       </c>
       <c r="D4" s="11"/>
@@ -3997,14 +4016,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="49"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -4014,8 +4033,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5">
-      <c r="A6" s="61" t="s">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="54" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -4033,12 +4052,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5">
-      <c r="A7" s="62"/>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="55"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="60">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -4052,12 +4071,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5">
-      <c r="A8" s="63"/>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="56"/>
       <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="49"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12">
         <v>43641</v>
@@ -4069,14 +4088,14 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5">
-      <c r="A9" s="45" t="s">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="57" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="60">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -4090,12 +4109,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5">
-      <c r="A10" s="47"/>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="58"/>
       <c r="B10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="50"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12">
         <v>43642</v>
@@ -4107,12 +4126,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5">
-      <c r="A11" s="46"/>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="59"/>
       <c r="B11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="49"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12">
         <v>43642</v>
@@ -4122,14 +4141,14 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5">
-      <c r="A12" s="45" t="s">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="57" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C12" s="60">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -4143,12 +4162,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5">
-      <c r="A13" s="47"/>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="58"/>
       <c r="B13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="50"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12">
         <v>43643</v>
@@ -4158,12 +4177,12 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5">
-      <c r="A14" s="47"/>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="58"/>
       <c r="B14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="50"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12">
         <v>43643</v>
@@ -4173,12 +4192,12 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5">
-      <c r="A15" s="46"/>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="59"/>
       <c r="B15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="49"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12">
         <v>43643</v>
@@ -4188,25 +4207,25 @@
       </c>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="21" customHeight="1">
-      <c r="A16" s="58" t="s">
+    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="60"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5">
-      <c r="A17" s="45" t="s">
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="57" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="48">
+      <c r="C17" s="60">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -4214,12 +4233,12 @@
       <c r="F17" s="28"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5">
-      <c r="A18" s="46"/>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="59"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="49"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13">
@@ -4229,14 +4248,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.5">
-      <c r="A19" s="45" t="s">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="57" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="60" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="12"/>
@@ -4244,23 +4263,23 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5">
-      <c r="A20" s="47"/>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="58"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="49"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5">
-      <c r="A21" s="47"/>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="58"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="48">
+      <c r="C21" s="60">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -4268,25 +4287,25 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5">
-      <c r="A22" s="46"/>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="59"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5">
-      <c r="A23" s="45" t="s">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="57" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="63" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="12"/>
@@ -4294,36 +4313,36 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5">
-      <c r="A24" s="47"/>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="58"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="50"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5">
-      <c r="A25" s="46"/>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="59"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="49"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5">
-      <c r="A26" s="45" t="s">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="57" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="60">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -4331,34 +4350,34 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5">
-      <c r="A27" s="47"/>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="58"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="50"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5">
-      <c r="A28" s="47"/>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="58"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="49"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5">
-      <c r="A29" s="47"/>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="58"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="48">
+      <c r="C29" s="60">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -4366,23 +4385,23 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5">
-      <c r="A30" s="46"/>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="59"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="50"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="49"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -4390,12 +4409,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -4410,6 +4423,12 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/樊佩茹/项目进度控制表-樊佩茹 .xlsx
+++ b/樊佩茹/项目进度控制表-樊佩茹 .xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SDX\Desktop\hgkj_02\樊佩茹\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF550EA2-D090-4AB1-9D57-8523BB8127D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24345" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="樊佩茹" sheetId="1" r:id="rId1"/>
@@ -26,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>进度控制表-在线点餐的设计与实现</t>
   </si>
@@ -79,9 +73,6 @@
     <t>查看路线类型</t>
   </si>
   <si>
-    <t>分页未做</t>
-  </si>
-  <si>
     <t>修改路线类型</t>
   </si>
   <si>
@@ -119,6 +110,9 @@
   </si>
   <si>
     <t>用户注册</t>
+  </si>
+  <si>
+    <t>30天内自动登录未做</t>
   </si>
   <si>
     <t>用户登录</t>
@@ -188,12 +182,18 @@
     <t>js校验有问题，验证码校验有问题</t>
   </si>
   <si>
+    <t>分页未做</t>
+  </si>
+  <si>
+    <t>js校验未做</t>
+  </si>
+  <si>
+    <t>直接退出</t>
+  </si>
+  <si>
     <t>假分页</t>
   </si>
   <si>
-    <t>30天内自动登录未做</t>
-  </si>
-  <si>
     <t>未成功 获取不到对应元素</t>
   </si>
   <si>
@@ -201,29 +201,19 @@
   </si>
   <si>
     <t>校验未做，30天内自动登录未做</t>
-  </si>
-  <si>
-    <t>分页未做</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>js校验未做</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>假分页</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>直接退出</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,7 +233,6 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -251,14 +240,12 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -266,7 +253,6 @@
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -274,35 +260,30 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -310,45 +291,177 @@
       <sz val="11"/>
       <color indexed="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF002060"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,8 +474,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -468,16 +767,258 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -490,16 +1031,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -611,76 +1152,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -729,7 +1257,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -762,26 +1290,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -814,23 +1325,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1001,38 +1495,38 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="29.7265625" customWidth="1"/>
-    <col min="3" max="6" width="15.6328125" customWidth="1"/>
-    <col min="7" max="7" width="84.6328125" customWidth="1"/>
+    <col min="1" max="1" width="15.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="29.725" customWidth="1"/>
+    <col min="3" max="6" width="15.6333333333333" customWidth="1"/>
+    <col min="7" max="7" width="84.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" ht="33.75" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-    </row>
-    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" ht="21" customHeight="1" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1055,25 +1549,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="44" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+    <row r="3" s="44" customFormat="1" ht="23.15" customHeight="1" spans="1:7">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-    </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" ht="18" customHeight="1" spans="1:7">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="10">
         <v>43638</v>
       </c>
       <c r="D4" s="11"/>
@@ -1087,14 +1581,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" ht="16.5" spans="1:7">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="61"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -1104,8 +1598,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="54" t="s">
+    <row r="6" ht="16.5" spans="1:7">
+      <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -1125,31 +1619,31 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="55"/>
+    <row r="7" ht="16.5" spans="1:7">
+      <c r="A7" s="19"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="10">
         <v>43640</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="12">
+        <v>43645</v>
+      </c>
       <c r="E7" s="12">
         <v>43641</v>
       </c>
       <c r="F7" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="G7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:7">
+      <c r="A8" s="20"/>
+      <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="56"/>
-      <c r="B8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="12">
         <v>43641</v>
       </c>
@@ -1161,14 +1655,14 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="57" t="s">
+    <row r="9" ht="16.5" spans="1:7">
+      <c r="A9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="60">
+      <c r="C9" s="10">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -1180,29 +1674,29 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="58"/>
+    <row r="10" ht="16.5" spans="1:7">
+      <c r="A10" s="22"/>
       <c r="B10" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="12"/>
+        <v>20</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="12">
+        <v>43645</v>
+      </c>
       <c r="E10" s="12">
         <v>43642</v>
       </c>
       <c r="F10" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="59"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:7">
+      <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="61"/>
+        <v>21</v>
+      </c>
+      <c r="C11" s="17"/>
       <c r="D11" s="12">
         <v>43643</v>
       </c>
@@ -1214,33 +1708,33 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="57" t="s">
+    <row r="12" ht="16.5" spans="1:7">
+      <c r="A12" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="60">
+      <c r="C12" s="10">
         <v>43642</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="12">
+        <v>43645</v>
+      </c>
       <c r="E12" s="12">
         <v>43643</v>
       </c>
       <c r="F12" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="58"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:7">
+      <c r="A13" s="22"/>
       <c r="B13" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="62"/>
+        <v>24</v>
+      </c>
+      <c r="C13" s="23"/>
       <c r="D13" s="12">
         <v>43643</v>
       </c>
@@ -1252,12 +1746,12 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="58"/>
+    <row r="14" ht="16.5" spans="1:7">
+      <c r="A14" s="22"/>
       <c r="B14" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="62"/>
+        <v>25</v>
+      </c>
+      <c r="C14" s="23"/>
       <c r="D14" s="12">
         <v>43643</v>
       </c>
@@ -1269,12 +1763,12 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="59"/>
+    <row r="15" ht="16.5" spans="1:7">
+      <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="61"/>
+        <v>26</v>
+      </c>
+      <c r="C15" s="17"/>
       <c r="D15" s="12">
         <v>43643</v>
       </c>
@@ -1286,51 +1780,63 @@
       </c>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+    <row r="16" ht="24" customHeight="1" spans="1:7">
+      <c r="A16" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:7">
+      <c r="A17" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="57" t="s">
+      <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="C17" s="10">
+        <v>43643</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12">
+        <v>43644</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="60">
-        <v>43643</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="59"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:7">
+      <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="12">
+        <v>43644</v>
+      </c>
+      <c r="E18" s="12">
+        <v>43644</v>
+      </c>
+      <c r="F18" s="13">
+        <v>1</v>
+      </c>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="57" t="s">
+    <row r="19" ht="16.5" spans="1:7">
+      <c r="A19" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="12"/>
@@ -1338,23 +1844,23 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="58"/>
+    <row r="20" ht="16.5" spans="1:7">
+      <c r="A20" s="22"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="61"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="58"/>
+    <row r="21" ht="16.5" spans="1:7">
+      <c r="A21" s="22"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="60">
+      <c r="C21" s="10">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -1362,25 +1868,25 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="59"/>
+    <row r="22" ht="16.5" spans="1:7">
+      <c r="A22" s="24"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="61"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="57" t="s">
+    <row r="23" ht="16.5" spans="1:7">
+      <c r="A23" s="21" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="29" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="12"/>
@@ -1388,36 +1894,36 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="58"/>
+    <row r="24" ht="16.5" spans="1:7">
+      <c r="A24" s="22"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="59"/>
+    <row r="25" ht="16.5" spans="1:7">
+      <c r="A25" s="24"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="57" t="s">
+    <row r="26" ht="16.5" spans="1:7">
+      <c r="A26" s="21" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="60">
+      <c r="C26" s="10">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -1425,34 +1931,34 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="58"/>
+    <row r="27" ht="16.5" spans="1:7">
+      <c r="A27" s="22"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="62"/>
+      <c r="C27" s="23"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="58"/>
+    <row r="28" ht="16.5" spans="1:7">
+      <c r="A28" s="22"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="58"/>
+    <row r="29" ht="16.5" spans="1:7">
+      <c r="A29" s="22"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="60">
+      <c r="C29" s="10">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -1460,23 +1966,23 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="59"/>
+    <row r="30" ht="16.5" spans="1:7">
+      <c r="A30" s="24"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="62"/>
+      <c r="C30" s="23"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="31" ht="16.5" spans="1:7">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="61"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -1484,6 +1990,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -1498,471 +2010,472 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="18.9083333333333" customWidth="1"/>
+    <col min="2" max="2" width="32.9083333333333" customWidth="1"/>
+    <col min="3" max="3" width="15.0916666666667" customWidth="1"/>
+    <col min="4" max="4" width="15.2666666666667" customWidth="1"/>
+    <col min="5" max="5" width="14.9083333333333" customWidth="1"/>
+    <col min="6" max="6" width="15.6333333333333" customWidth="1"/>
+    <col min="7" max="7" width="81.0916666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="33.75" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" ht="18" customHeight="1" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="23.15" customHeight="1" spans="1:7">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" ht="16.5" spans="1:7">
+      <c r="A4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="10">
+        <v>43638</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12">
+        <v>43640</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:7">
+      <c r="A5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12">
+        <v>43640</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:7">
+      <c r="A6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="12">
+        <v>43639</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12">
+        <v>43640</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:7">
+      <c r="A7" s="19"/>
+      <c r="B7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="10">
+        <v>43640</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:7">
+      <c r="A8" s="20"/>
+      <c r="B8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:7">
+      <c r="A9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="10">
+        <v>43641</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:7">
+      <c r="A10" s="22"/>
+      <c r="B10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:7">
+      <c r="A11" s="24"/>
+      <c r="B11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:7">
+      <c r="A12" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="10">
+        <v>43642</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:7">
+      <c r="A13" s="22"/>
+      <c r="B13" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="1:7">
+      <c r="A14" s="22"/>
+      <c r="B14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="1:7">
+      <c r="A15" s="24"/>
+      <c r="B15" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="1:7">
+      <c r="A16" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:7">
+      <c r="A17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="10">
+        <v>43643</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:7">
+      <c r="A18" s="24"/>
+      <c r="B18" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" ht="16.5" spans="1:7">
+      <c r="A19" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" ht="16.5" spans="1:7">
+      <c r="A20" s="22"/>
+      <c r="B20" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" ht="16.5" spans="1:7">
+      <c r="A21" s="22"/>
+      <c r="B21" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="10">
+        <v>43646</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" ht="16.5" spans="1:7">
+      <c r="A22" s="24"/>
+      <c r="B22" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" ht="16.5" spans="1:7">
+      <c r="A23" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" ht="16.5" spans="1:7">
+      <c r="A24" s="22"/>
+      <c r="B24" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" ht="16.5" spans="1:7">
+      <c r="A25" s="24"/>
+      <c r="B25" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" ht="16.5" spans="1:7">
+      <c r="A26" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="10">
+        <v>43650</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" ht="16.5" spans="1:7">
+      <c r="A27" s="22"/>
+      <c r="B27" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" ht="16.5" spans="1:7">
+      <c r="A28" s="22"/>
+      <c r="B28" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" ht="16.5" spans="1:7">
+      <c r="A29" s="22"/>
+      <c r="B29" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="10">
+        <v>43651</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" ht="16.5" spans="1:7">
+      <c r="A30" s="24"/>
+      <c r="B30" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="30"/>
+    </row>
+    <row r="31" ht="16.5" spans="1:7">
+      <c r="A31" s="11"/>
+      <c r="B31" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="17"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A15"/>
-  </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G31"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.90625" customWidth="1"/>
-    <col min="2" max="2" width="32.90625" customWidth="1"/>
-    <col min="3" max="3" width="15.08984375" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" customWidth="1"/>
-    <col min="5" max="5" width="14.90625" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" customWidth="1"/>
-    <col min="7" max="7" width="81.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="60">
-        <v>43638</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12">
-        <v>43640</v>
-      </c>
-      <c r="F4" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12">
-        <v>43640</v>
-      </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="12">
-        <v>43639</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12">
-        <v>43640</v>
-      </c>
-      <c r="F6" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="55"/>
-      <c r="B7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="60">
-        <v>43640</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12">
-        <v>43642</v>
-      </c>
-      <c r="F7" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="56"/>
-      <c r="B8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="60">
-        <v>43641</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="58"/>
-      <c r="B10" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12">
-        <v>43642</v>
-      </c>
-      <c r="F10" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="59"/>
-      <c r="B11" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="60">
-        <v>43642</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="58"/>
-      <c r="B13" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12">
-        <v>43642</v>
-      </c>
-      <c r="F13" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="58"/>
-      <c r="B14" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12">
-        <v>43642</v>
-      </c>
-      <c r="F14" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="59"/>
-      <c r="B15" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="60">
-        <v>43643</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="59"/>
-      <c r="B18" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="58"/>
-      <c r="B20" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="58"/>
-      <c r="B21" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="60">
-        <v>43646</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="59"/>
-      <c r="B22" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="58"/>
-      <c r="B24" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="62"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="59"/>
-      <c r="B25" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="60">
-        <v>43650</v>
-      </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="14"/>
-    </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="58"/>
-      <c r="B27" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="58"/>
-      <c r="B28" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="14"/>
-    </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="58"/>
-      <c r="B29" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="60">
-        <v>43651</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="14"/>
-    </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="59"/>
-      <c r="B30" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="30"/>
-    </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="11"/>
-      <c r="B31" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="31"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -1977,39 +2490,34 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16.36328125" customWidth="1"/>
-    <col min="2" max="2" width="31.6328125" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" width="16.3666666666667" customWidth="1"/>
+    <col min="2" max="2" width="31.6333333333333" customWidth="1"/>
+    <col min="3" max="3" width="14.45" customWidth="1"/>
+    <col min="4" max="4" width="15.45" customWidth="1"/>
+    <col min="5" max="5" width="15.2666666666667" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="87.6328125" customWidth="1"/>
+    <col min="7" max="7" width="87.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+    <row r="1" ht="33.75" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2020,7 +2528,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="18" customHeight="1" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2043,7 +2551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="20.15" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2054,7 +2562,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="4" ht="16.5" spans="1:7">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -2075,7 +2583,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" ht="16.5" spans="1:7">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
@@ -2092,7 +2600,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="6" ht="16.5" spans="1:7">
       <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
@@ -2113,7 +2621,7 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="7" ht="16.5" spans="1:7">
       <c r="A7" s="19"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
@@ -2134,10 +2642,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="8" ht="16.5" spans="1:7">
       <c r="A8" s="20"/>
       <c r="B8" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="12"/>
@@ -2149,12 +2657,12 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="9" ht="16.5" spans="1:7">
       <c r="A9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="C9" s="10">
         <v>43641</v>
@@ -2168,10 +2676,10 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="10" ht="16.5" spans="1:7">
       <c r="A10" s="22"/>
       <c r="B10" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="12">
@@ -2185,10 +2693,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="11" ht="16.5" spans="1:7">
       <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="12">
@@ -2200,12 +2708,12 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="12" ht="16.5" spans="1:7">
       <c r="A12" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="C12" s="10">
         <v>43642</v>
@@ -2223,10 +2731,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="13" ht="16.5" spans="1:7">
       <c r="A13" s="22"/>
       <c r="B13" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="12">
@@ -2238,10 +2746,10 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="14" ht="16.5" spans="1:7">
       <c r="A14" s="22"/>
       <c r="B14" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="12">
@@ -2253,10 +2761,10 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="15" ht="16.5" spans="1:7">
       <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="12"/>
@@ -2264,9 +2772,9 @@
       <c r="F15" s="28"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" ht="24" customHeight="1" spans="1:7">
       <c r="A16" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
@@ -2275,12 +2783,12 @@
       <c r="F16" s="26"/>
       <c r="G16" s="27"/>
     </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="17" ht="16.5" spans="1:7">
       <c r="A17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="C17" s="10">
         <v>43643</v>
@@ -2293,7 +2801,7 @@
       </c>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="18" ht="16.5" spans="1:7">
       <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
@@ -2308,7 +2816,7 @@
       </c>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="19" ht="16.5" spans="1:7">
       <c r="A19" s="21" t="s">
         <v>32</v>
       </c>
@@ -2323,7 +2831,7 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="20" ht="16.5" spans="1:7">
       <c r="A20" s="22"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
@@ -2334,7 +2842,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="21" ht="16.5" spans="1:7">
       <c r="A21" s="22"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
@@ -2347,7 +2855,7 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="22" ht="16.5" spans="1:7">
       <c r="A22" s="24"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
@@ -2358,7 +2866,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.45">
+    <row r="23" ht="33" spans="1:7">
       <c r="A23" s="21" t="s">
         <v>38</v>
       </c>
@@ -2373,7 +2881,7 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="24" ht="16.5" spans="1:7">
       <c r="A24" s="22"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
@@ -2384,7 +2892,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="25" ht="16.5" spans="1:7">
       <c r="A25" s="24"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
@@ -2395,7 +2903,7 @@
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="26" ht="16.5" spans="1:7">
       <c r="A26" s="21" t="s">
         <v>43</v>
       </c>
@@ -2410,7 +2918,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="27" ht="16.5" spans="1:7">
       <c r="A27" s="22"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
@@ -2421,7 +2929,7 @@
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="28" ht="16.5" spans="1:7">
       <c r="A28" s="22"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
@@ -2432,7 +2940,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="29" ht="16.5" spans="1:7">
       <c r="A29" s="22"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
@@ -2445,7 +2953,7 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="30" ht="16.5" spans="1:7">
       <c r="A30" s="24"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
@@ -2456,7 +2964,7 @@
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="31" ht="16.5" spans="1:7">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
@@ -2468,44 +2976,45 @@
       <c r="G31" s="31"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16.453125" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" style="33" customWidth="1"/>
-    <col min="3" max="3" width="25.36328125" style="33" customWidth="1"/>
-    <col min="4" max="4" width="18.90625" style="33" customWidth="1"/>
-    <col min="5" max="5" width="18.453125" style="33" customWidth="1"/>
-    <col min="6" max="6" width="16.6328125" style="33" customWidth="1"/>
-    <col min="7" max="7" width="47.36328125" style="33" customWidth="1"/>
+    <col min="1" max="1" width="16.45" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.6333333333333" style="33" customWidth="1"/>
+    <col min="3" max="3" width="25.3666666666667" style="33" customWidth="1"/>
+    <col min="4" max="4" width="18.9083333333333" style="33" customWidth="1"/>
+    <col min="5" max="5" width="18.45" style="33" customWidth="1"/>
+    <col min="6" max="6" width="16.6333333333333" style="33" customWidth="1"/>
+    <col min="7" max="7" width="47.3666666666667" style="33" customWidth="1"/>
     <col min="8" max="16384" width="11" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" ht="33.75" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2528,25 +3037,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" ht="16.5" spans="1:7">
       <c r="A4" s="34" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="10">
         <v>43638</v>
       </c>
       <c r="D4" s="36"/>
@@ -2556,14 +3065,14 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" ht="16.5" spans="1:7">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="61"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="13">
@@ -2571,7 +3080,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="6" ht="16.5" spans="1:7">
       <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
@@ -2588,12 +3097,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="7" ht="16.5" spans="1:7">
       <c r="A7" s="15"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="10">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -2603,12 +3112,12 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="8" ht="16.5" spans="1:7">
       <c r="A8" s="38"/>
       <c r="B8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="61"/>
+        <v>17</v>
+      </c>
+      <c r="C8" s="17"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="13">
@@ -2616,14 +3125,14 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="9" ht="16.5" spans="1:7">
       <c r="A9" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="60">
+      <c r="C9" s="10">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -2633,12 +3142,12 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="10" ht="16.5" spans="1:7">
       <c r="A10" s="38"/>
       <c r="B10" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="62"/>
+        <v>20</v>
+      </c>
+      <c r="C10" s="23"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="13">
@@ -2646,12 +3155,12 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="11" ht="16.5" spans="1:7">
       <c r="A11" s="40"/>
       <c r="B11" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="61"/>
+        <v>21</v>
+      </c>
+      <c r="C11" s="17"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="13">
@@ -2659,14 +3168,14 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="12" ht="16.5" spans="1:7">
       <c r="A12" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="60">
+      <c r="C12" s="10">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -2676,12 +3185,12 @@
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="13" ht="16.5" spans="1:7">
       <c r="A13" s="15"/>
       <c r="B13" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="62"/>
+        <v>24</v>
+      </c>
+      <c r="C13" s="23"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="13">
@@ -2689,12 +3198,12 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="14" ht="16.5" spans="1:7">
       <c r="A14" s="41"/>
       <c r="B14" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="62"/>
+        <v>25</v>
+      </c>
+      <c r="C14" s="23"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="13">
@@ -2702,12 +3211,12 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="15" ht="16.5" spans="1:7">
       <c r="A15" s="42"/>
       <c r="B15" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="61"/>
+        <v>26</v>
+      </c>
+      <c r="C15" s="17"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="13">
@@ -2715,25 +3224,25 @@
       </c>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:7">
+      <c r="A17" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="39" t="s">
+      <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="60">
+      <c r="C17" s="10">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -2741,25 +3250,25 @@
       <c r="F17" s="28"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="18" ht="16.5" spans="1:7">
       <c r="A18" s="42"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="61"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="19" ht="16.5" spans="1:7">
       <c r="A19" s="39" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="12"/>
@@ -2767,23 +3276,23 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="20" ht="16.5" spans="1:7">
       <c r="A20" s="42"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="61"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="21" ht="16.5" spans="1:7">
       <c r="A21" s="42"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="60">
+      <c r="C21" s="10">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -2791,25 +3300,25 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="22" ht="16.5" spans="1:7">
       <c r="A22" s="41"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="61"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="23" ht="16.5" spans="1:7">
       <c r="A23" s="39" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="29" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="12"/>
@@ -2817,36 +3326,36 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="24" ht="16.5" spans="1:7">
       <c r="A24" s="40"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="25" ht="16.5" spans="1:7">
       <c r="A25" s="40"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="27" x14ac:dyDescent="0.45">
+    <row r="26" ht="25.5" spans="1:7">
       <c r="A26" s="39" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="60">
+      <c r="C26" s="10">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -2854,34 +3363,34 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="27" ht="16.5" spans="1:7">
       <c r="A27" s="40"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="62"/>
+      <c r="C27" s="23"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="28" ht="16.5" spans="1:7">
       <c r="A28" s="42"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="29" ht="16.5" spans="1:7">
       <c r="A29" s="42"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="60">
+      <c r="C29" s="10">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -2889,23 +3398,23 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="30" ht="16.5" spans="1:7">
       <c r="A30" s="15"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="62"/>
+      <c r="C30" s="23"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="28"/>
       <c r="G30" s="43"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="31" ht="16.5" spans="1:7">
       <c r="A31" s="36"/>
       <c r="B31" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="61"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="36"/>
       <c r="E31" s="36"/>
       <c r="F31" s="36"/>
@@ -2913,12 +3422,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C28"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A16:G16"/>
@@ -2926,43 +3429,50 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C31"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16.453125" customWidth="1"/>
-    <col min="2" max="2" width="31.6328125" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" customWidth="1"/>
-    <col min="4" max="4" width="13.6328125" customWidth="1"/>
-    <col min="5" max="5" width="15.6328125" customWidth="1"/>
-    <col min="6" max="6" width="14.90625" customWidth="1"/>
-    <col min="7" max="7" width="90.7265625" customWidth="1"/>
+    <col min="1" max="1" width="16.45" customWidth="1"/>
+    <col min="2" max="2" width="31.6333333333333" customWidth="1"/>
+    <col min="3" max="3" width="14.725" customWidth="1"/>
+    <col min="4" max="4" width="13.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="15.6333333333333" customWidth="1"/>
+    <col min="6" max="6" width="14.9083333333333" customWidth="1"/>
+    <col min="7" max="7" width="90.725" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" ht="33.75" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-    </row>
-    <row r="2" spans="1:7" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" ht="23.15" customHeight="1" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2985,25 +3495,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+    <row r="3" ht="22" customHeight="1" spans="1:7">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" ht="16.5" spans="1:7">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="10">
         <v>43638</v>
       </c>
       <c r="D4" s="32">
@@ -3017,14 +3527,14 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" ht="16.5" spans="1:7">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="61"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -3034,8 +3544,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="54" t="s">
+    <row r="6" ht="16.5" spans="1:7">
+      <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -3055,12 +3565,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="55"/>
+    <row r="7" ht="16.5" spans="1:7">
+      <c r="A7" s="19"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="10">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -3071,15 +3581,15 @@
         <v>0.9</v>
       </c>
       <c r="G7" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:7">
+      <c r="A8" s="20"/>
+      <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="56"/>
-      <c r="B8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="12">
         <v>43643</v>
       </c>
@@ -3091,14 +3601,14 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="57" t="s">
+    <row r="9" ht="16.5" spans="1:7">
+      <c r="A9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="60">
+      <c r="C9" s="10">
         <v>43641</v>
       </c>
       <c r="D9" s="12">
@@ -3112,12 +3622,12 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="58"/>
+    <row r="10" ht="16.5" spans="1:7">
+      <c r="A10" s="22"/>
       <c r="B10" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="62"/>
+        <v>20</v>
+      </c>
+      <c r="C10" s="23"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12">
         <v>43641</v>
@@ -3126,15 +3636,15 @@
         <v>0.9</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="59"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:7">
+      <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="61"/>
+        <v>21</v>
+      </c>
+      <c r="C11" s="17"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12">
         <v>43641</v>
@@ -3144,14 +3654,14 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="57" t="s">
+    <row r="12" ht="16.5" spans="1:7">
+      <c r="A12" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="60">
+      <c r="C12" s="10">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -3162,15 +3672,15 @@
         <v>0.9</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="58"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:7">
+      <c r="A13" s="22"/>
       <c r="B13" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="62"/>
+        <v>24</v>
+      </c>
+      <c r="C13" s="23"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12">
         <v>43642</v>
@@ -3180,12 +3690,12 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="58"/>
+    <row r="14" ht="16.5" spans="1:7">
+      <c r="A14" s="22"/>
       <c r="B14" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="62"/>
+        <v>25</v>
+      </c>
+      <c r="C14" s="23"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12">
         <v>43642</v>
@@ -3194,15 +3704,15 @@
         <v>0.9</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="59"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="1:7">
+      <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="61"/>
+        <v>26</v>
+      </c>
+      <c r="C15" s="17"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12">
         <v>43642</v>
@@ -3212,25 +3722,25 @@
       </c>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+    <row r="16" ht="22" customHeight="1" spans="1:7">
+      <c r="A16" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:6">
+      <c r="A17" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="57" t="s">
+      <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="60">
+      <c r="C17" s="10">
         <v>43643</v>
       </c>
       <c r="D17" s="12">
@@ -3243,12 +3753,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="59"/>
+    <row r="18" ht="16.5" spans="1:7">
+      <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="61"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12">
         <v>43643</v>
@@ -3257,17 +3767,17 @@
         <v>0.9</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="57" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="1:7">
+      <c r="A19" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="12"/>
@@ -3275,23 +3785,23 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="58"/>
+    <row r="20" ht="16.5" spans="1:7">
+      <c r="A20" s="22"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="61"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="58"/>
+    <row r="21" ht="16.5" spans="1:7">
+      <c r="A21" s="22"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="60">
+      <c r="C21" s="10">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -3299,25 +3809,25 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="59"/>
+    <row r="22" ht="16.5" spans="1:7">
+      <c r="A22" s="24"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="61"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="57" t="s">
+    <row r="23" ht="16.5" spans="1:7">
+      <c r="A23" s="21" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="29" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="12"/>
@@ -3325,36 +3835,36 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="58"/>
+    <row r="24" ht="16.5" spans="1:7">
+      <c r="A24" s="22"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="59"/>
+    <row r="25" ht="16.5" spans="1:7">
+      <c r="A25" s="24"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="57" t="s">
+    <row r="26" ht="16.5" spans="1:7">
+      <c r="A26" s="21" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="60">
+      <c r="C26" s="10">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -3362,34 +3872,34 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="58"/>
+    <row r="27" ht="16.5" spans="1:7">
+      <c r="A27" s="22"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="62"/>
+      <c r="C27" s="23"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="58"/>
+    <row r="28" ht="16.5" spans="1:7">
+      <c r="A28" s="22"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="58"/>
+    <row r="29" ht="16.5" spans="1:7">
+      <c r="A29" s="22"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="60">
+      <c r="C29" s="10">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -3397,23 +3907,23 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="59"/>
+    <row r="30" ht="16.5" spans="1:7">
+      <c r="A30" s="24"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="62"/>
+      <c r="C30" s="23"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="31" ht="16.5" spans="1:7">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="61"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -3421,6 +3931,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -3435,980 +3951,982 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="14.725" customWidth="1"/>
+    <col min="2" max="2" width="30.6333333333333" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="14.0916666666667" customWidth="1"/>
+    <col min="5" max="5" width="13.2666666666667" customWidth="1"/>
+    <col min="6" max="6" width="14.45" customWidth="1"/>
+    <col min="7" max="7" width="90" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="33.75" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" ht="21" customHeight="1" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="23.15" customHeight="1" spans="1:7">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" ht="16.5" spans="1:7">
+      <c r="A4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="10">
+        <v>43638</v>
+      </c>
+      <c r="D4" s="32">
+        <v>43642</v>
+      </c>
+      <c r="E4" s="12">
+        <v>43640</v>
+      </c>
+      <c r="F4" s="13">
+        <v>1</v>
+      </c>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:7">
+      <c r="A5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12">
+        <v>43640</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:7">
+      <c r="A6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="12">
+        <v>43639</v>
+      </c>
+      <c r="D6" s="12">
+        <v>43643</v>
+      </c>
+      <c r="E6" s="12">
+        <v>43640</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1</v>
+      </c>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:7">
+      <c r="A7" s="19"/>
+      <c r="B7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="10">
+        <v>43640</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12">
+        <v>43641</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:7">
+      <c r="A8" s="20"/>
+      <c r="B8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="12">
+        <v>43643</v>
+      </c>
+      <c r="E8" s="12">
+        <v>43641</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1</v>
+      </c>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:7">
+      <c r="A9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="10">
+        <v>43641</v>
+      </c>
+      <c r="D9" s="12">
+        <v>43643</v>
+      </c>
+      <c r="E9" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F9" s="13">
+        <v>1</v>
+      </c>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:7">
+      <c r="A10" s="22"/>
+      <c r="B10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:7">
+      <c r="A11" s="24"/>
+      <c r="B11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="12">
+        <v>43643</v>
+      </c>
+      <c r="E11" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F11" s="13">
+        <v>1</v>
+      </c>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:7">
+      <c r="A12" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="10">
+        <v>43642</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:7">
+      <c r="A13" s="22"/>
+      <c r="B13" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:7">
+      <c r="A14" s="22"/>
+      <c r="B14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:7">
+      <c r="A15" s="24"/>
+      <c r="B15" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="1:7">
+      <c r="A16" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:7">
+      <c r="A17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="10">
+        <v>43643</v>
+      </c>
+      <c r="D17" s="12">
+        <v>43643</v>
+      </c>
+      <c r="E17" s="12">
+        <v>43641</v>
+      </c>
+      <c r="F17" s="13">
+        <v>1</v>
+      </c>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:7">
+      <c r="A18" s="24"/>
+      <c r="B18" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12">
+        <v>43641</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="1:7">
+      <c r="A19" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" ht="16.5" spans="1:7">
+      <c r="A20" s="22"/>
+      <c r="B20" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" ht="16.5" spans="1:7">
+      <c r="A21" s="22"/>
+      <c r="B21" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="10">
+        <v>43646</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" ht="16.5" spans="1:7">
+      <c r="A22" s="24"/>
+      <c r="B22" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" ht="33" spans="1:7">
+      <c r="A23" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" ht="16.5" spans="1:7">
+      <c r="A24" s="22"/>
+      <c r="B24" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" ht="16.5" spans="1:7">
+      <c r="A25" s="24"/>
+      <c r="B25" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" ht="16.5" spans="1:7">
+      <c r="A26" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="10">
+        <v>43650</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" ht="16.5" spans="1:7">
+      <c r="A27" s="22"/>
+      <c r="B27" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" ht="16.5" spans="1:7">
+      <c r="A28" s="22"/>
+      <c r="B28" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" ht="16.5" spans="1:7">
+      <c r="A29" s="22"/>
+      <c r="B29" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="10">
+        <v>43651</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" ht="16.5" spans="1:7">
+      <c r="A30" s="24"/>
+      <c r="B30" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="30"/>
+    </row>
+    <row r="31" ht="16.5" spans="1:7">
+      <c r="A31" s="11"/>
+      <c r="B31" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="17"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="31"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="16.725" customWidth="1"/>
+    <col min="2" max="2" width="30.6333333333333" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="14.0916666666667" customWidth="1"/>
+    <col min="5" max="5" width="13.2666666666667" customWidth="1"/>
+    <col min="6" max="6" width="14.45" customWidth="1"/>
+    <col min="7" max="7" width="90" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="33.75" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" ht="24" customHeight="1" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="21" customHeight="1" spans="1:7">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" ht="16.5" spans="1:7">
+      <c r="A4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="10">
+        <v>43638</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12">
+        <v>43640</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:7">
+      <c r="A5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12">
+        <v>43640</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:7">
+      <c r="A6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="12">
+        <v>43639</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12">
+        <v>43640</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1</v>
+      </c>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:7">
+      <c r="A7" s="19"/>
+      <c r="B7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="10">
+        <v>43640</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12">
+        <v>43641</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:7">
+      <c r="A8" s="20"/>
+      <c r="B8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12">
+        <v>43641</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="1:7">
+      <c r="A9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="10">
+        <v>43641</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="1:7">
+      <c r="A10" s="22"/>
+      <c r="B10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:7">
+      <c r="A11" s="24"/>
+      <c r="B11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:7">
+      <c r="A12" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="10">
+        <v>43642</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:7">
+      <c r="A13" s="22"/>
+      <c r="B13" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12">
+        <v>43643</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:7">
+      <c r="A14" s="22"/>
+      <c r="B14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12">
+        <v>43643</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0</v>
+      </c>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:7">
+      <c r="A15" s="24"/>
+      <c r="B15" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12">
+        <v>43643</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" ht="21" customHeight="1" spans="1:7">
+      <c r="A16" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:7">
+      <c r="A17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="10">
+        <v>43643</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:7">
+      <c r="A18" s="24"/>
+      <c r="B18" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="1:7">
+      <c r="A19" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" ht="16.5" spans="1:7">
+      <c r="A20" s="22"/>
+      <c r="B20" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" ht="16.5" spans="1:7">
+      <c r="A21" s="22"/>
+      <c r="B21" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="10">
+        <v>43646</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" ht="16.5" spans="1:7">
+      <c r="A22" s="24"/>
+      <c r="B22" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" ht="16.5" spans="1:7">
+      <c r="A23" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" ht="16.5" spans="1:7">
+      <c r="A24" s="22"/>
+      <c r="B24" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" ht="16.5" spans="1:7">
+      <c r="A25" s="24"/>
+      <c r="B25" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" ht="16.5" spans="1:7">
+      <c r="A26" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="10">
+        <v>43650</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" ht="16.5" spans="1:7">
+      <c r="A27" s="22"/>
+      <c r="B27" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" ht="16.5" spans="1:7">
+      <c r="A28" s="22"/>
+      <c r="B28" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" ht="16.5" spans="1:7">
+      <c r="A29" s="22"/>
+      <c r="B29" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="10">
+        <v>43651</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" ht="16.5" spans="1:7">
+      <c r="A30" s="24"/>
+      <c r="B30" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="30"/>
+    </row>
+    <row r="31" ht="16.5" spans="1:7">
+      <c r="A31" s="11"/>
+      <c r="B31" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="17"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A15"/>
-  </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G31"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.7265625" customWidth="1"/>
-    <col min="2" max="2" width="30.6328125" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" customWidth="1"/>
-    <col min="7" max="7" width="90" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="10">
-        <v>43638</v>
-      </c>
-      <c r="D4" s="32">
-        <v>43642</v>
-      </c>
-      <c r="E4" s="12">
-        <v>43640</v>
-      </c>
-      <c r="F4" s="13">
-        <v>1</v>
-      </c>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12">
-        <v>43640</v>
-      </c>
-      <c r="F5" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="12">
-        <v>43639</v>
-      </c>
-      <c r="D6" s="12">
-        <v>43643</v>
-      </c>
-      <c r="E6" s="12">
-        <v>43640</v>
-      </c>
-      <c r="F6" s="13">
-        <v>1</v>
-      </c>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="19"/>
-      <c r="B7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="10">
-        <v>43640</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12">
-        <v>43641</v>
-      </c>
-      <c r="F7" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="20"/>
-      <c r="B8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="12">
-        <v>43643</v>
-      </c>
-      <c r="E8" s="12">
-        <v>43641</v>
-      </c>
-      <c r="F8" s="13">
-        <v>1</v>
-      </c>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="10">
-        <v>43641</v>
-      </c>
-      <c r="D9" s="12">
-        <v>43643</v>
-      </c>
-      <c r="E9" s="12">
-        <v>43642</v>
-      </c>
-      <c r="F9" s="13">
-        <v>1</v>
-      </c>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="22"/>
-      <c r="B10" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12">
-        <v>43642</v>
-      </c>
-      <c r="F10" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="24"/>
-      <c r="B11" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="12">
-        <v>43643</v>
-      </c>
-      <c r="E11" s="12">
-        <v>43642</v>
-      </c>
-      <c r="F11" s="13">
-        <v>1</v>
-      </c>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="10">
-        <v>43642</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12">
-        <v>43642</v>
-      </c>
-      <c r="F12" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="22"/>
-      <c r="B13" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="22"/>
-      <c r="B14" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="24"/>
-      <c r="B15" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="10">
-        <v>43643</v>
-      </c>
-      <c r="D17" s="12">
-        <v>43643</v>
-      </c>
-      <c r="E17" s="12">
-        <v>43641</v>
-      </c>
-      <c r="F17" s="13">
-        <v>1</v>
-      </c>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="24"/>
-      <c r="B18" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12">
-        <v>43641</v>
-      </c>
-      <c r="F18" s="13">
-        <v>0.7</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="22"/>
-      <c r="B20" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="22"/>
-      <c r="B21" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="10">
-        <v>43646</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="24"/>
-      <c r="B22" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.45">
-      <c r="A23" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="22"/>
-      <c r="B24" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="24"/>
-      <c r="B25" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="10">
-        <v>43650</v>
-      </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="14"/>
-    </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="22"/>
-      <c r="B27" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="22"/>
-      <c r="B28" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="14"/>
-    </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="22"/>
-      <c r="B29" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="10">
-        <v>43651</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="14"/>
-    </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="24"/>
-      <c r="B30" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="30"/>
-    </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="11"/>
-      <c r="B31" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="31"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.7265625" customWidth="1"/>
-    <col min="2" max="2" width="30.6328125" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" customWidth="1"/>
-    <col min="7" max="7" width="90" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-    </row>
-    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="60">
-        <v>43638</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12">
-        <v>43640</v>
-      </c>
-      <c r="F4" s="13">
-        <v>0.6</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12">
-        <v>43640</v>
-      </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="12">
-        <v>43639</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12">
-        <v>43640</v>
-      </c>
-      <c r="F6" s="13">
-        <v>1</v>
-      </c>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="55"/>
-      <c r="B7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="60">
-        <v>43640</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12">
-        <v>43641</v>
-      </c>
-      <c r="F7" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="56"/>
-      <c r="B8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12">
-        <v>43641</v>
-      </c>
-      <c r="F8" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="60">
-        <v>43641</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12">
-        <v>43642</v>
-      </c>
-      <c r="F9" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="58"/>
-      <c r="B10" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12">
-        <v>43642</v>
-      </c>
-      <c r="F10" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="59"/>
-      <c r="B11" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12">
-        <v>43642</v>
-      </c>
-      <c r="F11" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="60">
-        <v>43642</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12">
-        <v>43642</v>
-      </c>
-      <c r="F12" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="58"/>
-      <c r="B13" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12">
-        <v>43643</v>
-      </c>
-      <c r="F13" s="13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="58"/>
-      <c r="B14" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12">
-        <v>43643</v>
-      </c>
-      <c r="F14" s="13">
-        <v>0</v>
-      </c>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="59"/>
-      <c r="B15" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12">
-        <v>43643</v>
-      </c>
-      <c r="F15" s="13">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="60">
-        <v>43643</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="59"/>
-      <c r="B18" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="58"/>
-      <c r="B20" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="58"/>
-      <c r="B21" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="60">
-        <v>43646</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="59"/>
-      <c r="B22" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="58"/>
-      <c r="B24" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="62"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="59"/>
-      <c r="B25" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="60">
-        <v>43650</v>
-      </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="14"/>
-    </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="58"/>
-      <c r="B27" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="58"/>
-      <c r="B28" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="14"/>
-    </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="58"/>
-      <c r="B29" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="60">
-        <v>43651</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="14"/>
-    </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="59"/>
-      <c r="B30" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="30"/>
-    </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="11"/>
-      <c r="B31" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="31"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -4423,15 +4941,9 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/樊佩茹/项目进度控制表-樊佩茹 .xlsx
+++ b/樊佩茹/项目进度控制表-樊佩茹 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12465"/>
+    <workbookView windowWidth="23040" windowHeight="9504" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="樊佩茹" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="61">
   <si>
     <t>进度控制表-在线点餐的设计与实现</t>
   </si>
@@ -173,25 +173,28 @@
     <t>统计网站出游人数</t>
   </si>
   <si>
+    <t>js校验未做</t>
+  </si>
+  <si>
+    <t>30天内自动登录没做</t>
+  </si>
+  <si>
+    <t>js校验有问题，验证码校验有问题</t>
+  </si>
+  <si>
+    <t>分页没做</t>
+  </si>
+  <si>
+    <t>分页未做</t>
+  </si>
+  <si>
+    <t>直接退出</t>
+  </si>
+  <si>
+    <t>假分页</t>
+  </si>
+  <si>
     <t>js校验未做，验证码校验有问题</t>
-  </si>
-  <si>
-    <t>分页没做</t>
-  </si>
-  <si>
-    <t>js校验有问题，验证码校验有问题</t>
-  </si>
-  <si>
-    <t>分页未做</t>
-  </si>
-  <si>
-    <t>js校验未做</t>
-  </si>
-  <si>
-    <t>直接退出</t>
-  </si>
-  <si>
-    <t>假分页</t>
   </si>
   <si>
     <t>未成功 获取不到对应元素</t>
@@ -208,10 +211,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -313,7 +316,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,48 +429,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -379,22 +442,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -404,58 +459,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,7 +479,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,49 +635,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,121 +659,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,26 +771,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -803,32 +791,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -857,11 +819,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -873,10 +876,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -885,136 +888,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1503,19 +1506,19 @@
   <sheetPr/>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="15.6333333333333" customWidth="1"/>
-    <col min="2" max="2" width="29.725" customWidth="1"/>
-    <col min="3" max="6" width="15.6333333333333" customWidth="1"/>
-    <col min="7" max="7" width="84.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="15.6296296296296" customWidth="1"/>
+    <col min="2" max="2" width="29.7222222222222" customWidth="1"/>
+    <col min="3" max="6" width="15.6296296296296" customWidth="1"/>
+    <col min="7" max="7" width="84.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.75" spans="1:7">
+    <row r="1" ht="32.4" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1581,7 +1584,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:7">
+    <row r="5" ht="15.6" spans="1:7">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
@@ -1598,7 +1601,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" ht="16.5" spans="1:7">
+    <row r="6" ht="15.6" spans="1:7">
       <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
@@ -1619,7 +1622,7 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" ht="16.5" spans="1:7">
+    <row r="7" ht="15.6" spans="1:7">
       <c r="A7" s="19"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
@@ -1638,7 +1641,7 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" ht="16.5" spans="1:7">
+    <row r="8" ht="15.6" spans="1:7">
       <c r="A8" s="20"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
@@ -1655,7 +1658,7 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" ht="16.5" spans="1:7">
+    <row r="9" ht="15.6" spans="1:7">
       <c r="A9" s="21" t="s">
         <v>18</v>
       </c>
@@ -1674,7 +1677,7 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" ht="16.5" spans="1:7">
+    <row r="10" ht="15.6" spans="1:7">
       <c r="A10" s="22"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
@@ -1691,7 +1694,7 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" ht="16.5" spans="1:7">
+    <row r="11" ht="15.6" spans="1:7">
       <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
@@ -1708,7 +1711,7 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" ht="16.5" spans="1:7">
+    <row r="12" ht="15.6" spans="1:7">
       <c r="A12" s="21" t="s">
         <v>22</v>
       </c>
@@ -1729,7 +1732,7 @@
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" ht="16.5" spans="1:7">
+    <row r="13" ht="15.6" spans="1:7">
       <c r="A13" s="22"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
@@ -1746,7 +1749,7 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" ht="16.5" spans="1:7">
+    <row r="14" ht="15.6" spans="1:7">
       <c r="A14" s="22"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
@@ -1763,7 +1766,7 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" ht="16.5" spans="1:7">
+    <row r="15" ht="15.6" spans="1:7">
       <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
@@ -1791,7 +1794,7 @@
       <c r="F16" s="26"/>
       <c r="G16" s="27"/>
     </row>
-    <row r="17" ht="16.5" spans="1:7">
+    <row r="17" ht="15.6" spans="1:7">
       <c r="A17" s="21" t="s">
         <v>28</v>
       </c>
@@ -1812,7 +1815,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:7">
+    <row r="18" ht="15.6" spans="1:7">
       <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
@@ -1829,7 +1832,7 @@
       </c>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" ht="16.5" spans="1:7">
+    <row r="19" ht="15.6" spans="1:7">
       <c r="A19" s="21" t="s">
         <v>32</v>
       </c>
@@ -1844,7 +1847,7 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" ht="16.5" spans="1:7">
+    <row r="20" ht="15.6" spans="1:7">
       <c r="A20" s="22"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
@@ -1855,7 +1858,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" ht="16.5" spans="1:7">
+    <row r="21" ht="15.6" spans="1:7">
       <c r="A21" s="22"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
@@ -1868,7 +1871,7 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" ht="16.5" spans="1:7">
+    <row r="22" ht="15.6" spans="1:7">
       <c r="A22" s="24"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
@@ -1879,7 +1882,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" ht="16.5" spans="1:7">
+    <row r="23" ht="15.6" spans="1:7">
       <c r="A23" s="21" t="s">
         <v>38</v>
       </c>
@@ -1894,7 +1897,7 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" ht="16.5" spans="1:7">
+    <row r="24" ht="15.6" spans="1:7">
       <c r="A24" s="22"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
@@ -1905,7 +1908,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" ht="16.5" spans="1:7">
+    <row r="25" ht="15.6" spans="1:7">
       <c r="A25" s="24"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
@@ -1916,7 +1919,7 @@
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" ht="16.5" spans="1:7">
+    <row r="26" ht="15.6" spans="1:7">
       <c r="A26" s="21" t="s">
         <v>43</v>
       </c>
@@ -1931,7 +1934,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" ht="16.5" spans="1:7">
+    <row r="27" ht="15.6" spans="1:7">
       <c r="A27" s="22"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
@@ -1942,7 +1945,7 @@
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" ht="16.5" spans="1:7">
+    <row r="28" ht="15.6" spans="1:7">
       <c r="A28" s="22"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
@@ -1953,7 +1956,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" ht="16.5" spans="1:7">
+    <row r="29" ht="15.6" spans="1:7">
       <c r="A29" s="22"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
@@ -1966,7 +1969,7 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" ht="16.5" spans="1:7">
+    <row r="30" ht="15.6" spans="1:7">
       <c r="A30" s="24"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
@@ -1977,7 +1980,7 @@
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" ht="16.5" spans="1:7">
+    <row r="31" ht="15.6" spans="1:7">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
@@ -2022,22 +2025,22 @@
   <sheetPr/>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.9083333333333" customWidth="1"/>
-    <col min="2" max="2" width="32.9083333333333" customWidth="1"/>
-    <col min="3" max="3" width="15.0916666666667" customWidth="1"/>
-    <col min="4" max="4" width="15.2666666666667" customWidth="1"/>
-    <col min="5" max="5" width="14.9083333333333" customWidth="1"/>
-    <col min="6" max="6" width="15.6333333333333" customWidth="1"/>
-    <col min="7" max="7" width="81.0916666666667" customWidth="1"/>
+    <col min="1" max="1" width="18.9074074074074" customWidth="1"/>
+    <col min="2" max="2" width="32.9074074074074" customWidth="1"/>
+    <col min="3" max="3" width="15.0925925925926" customWidth="1"/>
+    <col min="4" max="4" width="15.2685185185185" customWidth="1"/>
+    <col min="5" max="5" width="14.9074074074074" customWidth="1"/>
+    <col min="6" max="6" width="15.6296296296296" customWidth="1"/>
+    <col min="7" max="7" width="81.0925925925926" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.75" spans="1:7">
+    <row r="1" ht="32.4" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2082,7 +2085,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" ht="16.5" spans="1:7">
+    <row r="4" ht="15.6" spans="1:7">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -2097,13 +2100,13 @@
         <v>43640</v>
       </c>
       <c r="F4" s="13">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:7">
+    <row r="5" ht="15.6" spans="1:7">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
@@ -2120,7 +2123,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" ht="16.5" spans="1:7">
+    <row r="6" ht="15.6" spans="1:7">
       <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
@@ -2130,16 +2133,18 @@
       <c r="C6" s="12">
         <v>43639</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="12">
+        <v>43643</v>
+      </c>
       <c r="E6" s="12">
         <v>43640</v>
       </c>
       <c r="F6" s="13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" ht="16.5" spans="1:7">
+    <row r="7" ht="15.6" spans="1:7">
       <c r="A7" s="19"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
@@ -2147,29 +2152,35 @@
       <c r="C7" s="10">
         <v>43640</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="12">
+        <v>43646</v>
+      </c>
       <c r="E7" s="12">
         <v>43642</v>
       </c>
       <c r="F7" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" ht="15.6" spans="1:7">
       <c r="A8" s="20"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="17"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="28"/>
+      <c r="D8" s="12">
+        <v>43644</v>
+      </c>
+      <c r="E8" s="12">
+        <v>43643</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1</v>
+      </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" ht="16.5" spans="1:7">
+    <row r="9" ht="15.6" spans="1:7">
       <c r="A9" s="21" t="s">
         <v>18</v>
       </c>
@@ -2179,40 +2190,50 @@
       <c r="C9" s="10">
         <v>43641</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="28"/>
+      <c r="D9" s="12">
+        <v>43644</v>
+      </c>
+      <c r="E9" s="12">
+        <v>43644</v>
+      </c>
+      <c r="F9" s="13">
+        <v>1</v>
+      </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" ht="16.5" spans="1:7">
+    <row r="10" ht="15.6" spans="1:7">
       <c r="A10" s="22"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="23"/>
-      <c r="D10" s="12"/>
+      <c r="D10" s="12">
+        <v>43646</v>
+      </c>
       <c r="E10" s="12">
         <v>43642</v>
       </c>
       <c r="F10" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" ht="16.5" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" ht="15.6" spans="1:7">
       <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
+      <c r="E11" s="12">
+        <v>43645</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.5</v>
+      </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" ht="16.5" spans="1:7">
+    <row r="12" ht="15.6" spans="1:7">
       <c r="A12" s="21" t="s">
         <v>22</v>
       </c>
@@ -2222,46 +2243,46 @@
       <c r="C12" s="10">
         <v>43642</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
+      <c r="D12" s="12">
+        <v>43646</v>
+      </c>
+      <c r="E12" s="12">
+        <v>43643</v>
+      </c>
+      <c r="F12" s="13">
+        <v>1</v>
+      </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" ht="16.5" spans="1:7">
+    <row r="13" ht="15.6" spans="1:7">
       <c r="A13" s="22"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="12">
-        <v>43642</v>
-      </c>
-      <c r="F13" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" ht="16.5" spans="1:7">
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" ht="15.6" spans="1:7">
       <c r="A14" s="22"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="23"/>
-      <c r="D14" s="12"/>
+      <c r="D14" s="12">
+        <v>43646</v>
+      </c>
       <c r="E14" s="12">
         <v>43642</v>
       </c>
       <c r="F14" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" ht="16.5" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" ht="15.6" spans="1:7">
       <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
@@ -2283,7 +2304,7 @@
       <c r="F16" s="26"/>
       <c r="G16" s="27"/>
     </row>
-    <row r="17" ht="16.5" spans="1:7">
+    <row r="17" ht="15.6" spans="1:7">
       <c r="A17" s="21" t="s">
         <v>28</v>
       </c>
@@ -2294,22 +2315,32 @@
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="28"/>
+      <c r="E17" s="12">
+        <v>43643</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0.8</v>
+      </c>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" ht="16.5" spans="1:7">
+    <row r="18" ht="15.6" spans="1:7">
       <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" ht="16.5" spans="1:7">
+      <c r="E18" s="12">
+        <v>43643</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" ht="15.6" spans="1:7">
       <c r="A19" s="21" t="s">
         <v>32</v>
       </c>
@@ -2324,7 +2355,7 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" ht="16.5" spans="1:7">
+    <row r="20" ht="15.6" spans="1:7">
       <c r="A20" s="22"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
@@ -2335,7 +2366,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" ht="16.5" spans="1:7">
+    <row r="21" ht="15.6" spans="1:7">
       <c r="A21" s="22"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
@@ -2348,7 +2379,7 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" ht="16.5" spans="1:7">
+    <row r="22" ht="15.6" spans="1:7">
       <c r="A22" s="24"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
@@ -2359,7 +2390,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" ht="16.5" spans="1:7">
+    <row r="23" ht="15.6" spans="1:7">
       <c r="A23" s="21" t="s">
         <v>38</v>
       </c>
@@ -2374,7 +2405,7 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" ht="16.5" spans="1:7">
+    <row r="24" ht="15.6" spans="1:7">
       <c r="A24" s="22"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
@@ -2385,7 +2416,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" ht="16.5" spans="1:7">
+    <row r="25" ht="15.6" spans="1:7">
       <c r="A25" s="24"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
@@ -2396,7 +2427,7 @@
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" ht="16.5" spans="1:7">
+    <row r="26" ht="15.6" spans="1:7">
       <c r="A26" s="21" t="s">
         <v>43</v>
       </c>
@@ -2411,7 +2442,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" ht="16.5" spans="1:7">
+    <row r="27" ht="15.6" spans="1:7">
       <c r="A27" s="22"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
@@ -2422,7 +2453,7 @@
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" ht="16.5" spans="1:7">
+    <row r="28" ht="15.6" spans="1:7">
       <c r="A28" s="22"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
@@ -2433,7 +2464,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" ht="16.5" spans="1:7">
+    <row r="29" ht="15.6" spans="1:7">
       <c r="A29" s="22"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
@@ -2446,7 +2477,7 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" ht="16.5" spans="1:7">
+    <row r="30" ht="15.6" spans="1:7">
       <c r="A30" s="24"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
@@ -2457,7 +2488,7 @@
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" ht="16.5" spans="1:7">
+    <row r="31" ht="15.6" spans="1:7">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
@@ -2506,18 +2537,18 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16.3666666666667" customWidth="1"/>
-    <col min="2" max="2" width="31.6333333333333" customWidth="1"/>
-    <col min="3" max="3" width="14.45" customWidth="1"/>
-    <col min="4" max="4" width="15.45" customWidth="1"/>
-    <col min="5" max="5" width="15.2666666666667" customWidth="1"/>
+    <col min="1" max="1" width="16.3703703703704" customWidth="1"/>
+    <col min="2" max="2" width="31.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="14.4537037037037" customWidth="1"/>
+    <col min="4" max="4" width="15.4537037037037" customWidth="1"/>
+    <col min="5" max="5" width="15.2685185185185" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="87.6333333333333" customWidth="1"/>
+    <col min="7" max="7" width="87.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.75" spans="1:7">
+    <row r="1" ht="32.4" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2562,7 +2593,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" ht="16.5" spans="1:7">
+    <row r="4" ht="15.6" spans="1:7">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -2583,7 +2614,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:7">
+    <row r="5" ht="15.6" spans="1:7">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
@@ -2600,7 +2631,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" ht="16.5" spans="1:7">
+    <row r="6" ht="15.6" spans="1:7">
       <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
@@ -2621,7 +2652,7 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" ht="16.5" spans="1:7">
+    <row r="7" ht="15.6" spans="1:7">
       <c r="A7" s="19"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
@@ -2639,10 +2670,10 @@
         <v>0.8</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" spans="1:7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" ht="15.6" spans="1:7">
       <c r="A8" s="20"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
@@ -2657,7 +2688,7 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" ht="16.5" spans="1:7">
+    <row r="9" ht="15.6" spans="1:7">
       <c r="A9" s="21" t="s">
         <v>18</v>
       </c>
@@ -2676,7 +2707,7 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" ht="16.5" spans="1:7">
+    <row r="10" ht="15.6" spans="1:7">
       <c r="A10" s="22"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
@@ -2690,10 +2721,10 @@
         <v>0.8</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" ht="16.5" spans="1:7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" ht="15.6" spans="1:7">
       <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
@@ -2708,7 +2739,7 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" ht="16.5" spans="1:7">
+    <row r="12" ht="15.6" spans="1:7">
       <c r="A12" s="21" t="s">
         <v>22</v>
       </c>
@@ -2728,10 +2759,10 @@
         <v>0.8</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" ht="16.5" spans="1:7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" ht="15.6" spans="1:7">
       <c r="A13" s="22"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
@@ -2746,7 +2777,7 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" ht="16.5" spans="1:7">
+    <row r="14" ht="15.6" spans="1:7">
       <c r="A14" s="22"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
@@ -2761,7 +2792,7 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" ht="16.5" spans="1:7">
+    <row r="15" ht="15.6" spans="1:7">
       <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
@@ -2783,7 +2814,7 @@
       <c r="F16" s="26"/>
       <c r="G16" s="27"/>
     </row>
-    <row r="17" ht="16.5" spans="1:7">
+    <row r="17" ht="15.6" spans="1:7">
       <c r="A17" s="21" t="s">
         <v>28</v>
       </c>
@@ -2801,7 +2832,7 @@
       </c>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" ht="16.5" spans="1:7">
+    <row r="18" ht="15.6" spans="1:7">
       <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
@@ -2816,7 +2847,7 @@
       </c>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" ht="16.5" spans="1:7">
+    <row r="19" ht="15.6" spans="1:7">
       <c r="A19" s="21" t="s">
         <v>32</v>
       </c>
@@ -2831,7 +2862,7 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" ht="16.5" spans="1:7">
+    <row r="20" ht="15.6" spans="1:7">
       <c r="A20" s="22"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
@@ -2842,7 +2873,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" ht="16.5" spans="1:7">
+    <row r="21" ht="15.6" spans="1:7">
       <c r="A21" s="22"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
@@ -2855,7 +2886,7 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" ht="16.5" spans="1:7">
+    <row r="22" ht="15.6" spans="1:7">
       <c r="A22" s="24"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
@@ -2866,7 +2897,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" ht="33" spans="1:7">
+    <row r="23" ht="31.2" spans="1:7">
       <c r="A23" s="21" t="s">
         <v>38</v>
       </c>
@@ -2881,7 +2912,7 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" ht="16.5" spans="1:7">
+    <row r="24" ht="15.6" spans="1:7">
       <c r="A24" s="22"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
@@ -2892,7 +2923,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" ht="16.5" spans="1:7">
+    <row r="25" ht="15.6" spans="1:7">
       <c r="A25" s="24"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
@@ -2903,7 +2934,7 @@
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" ht="16.5" spans="1:7">
+    <row r="26" ht="15.6" spans="1:7">
       <c r="A26" s="21" t="s">
         <v>43</v>
       </c>
@@ -2918,7 +2949,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" ht="16.5" spans="1:7">
+    <row r="27" ht="15.6" spans="1:7">
       <c r="A27" s="22"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
@@ -2929,7 +2960,7 @@
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" ht="16.5" spans="1:7">
+    <row r="28" ht="15.6" spans="1:7">
       <c r="A28" s="22"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
@@ -2940,7 +2971,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" ht="16.5" spans="1:7">
+    <row r="29" ht="15.6" spans="1:7">
       <c r="A29" s="22"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
@@ -2953,7 +2984,7 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" ht="16.5" spans="1:7">
+    <row r="30" ht="15.6" spans="1:7">
       <c r="A30" s="24"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
@@ -2964,7 +2995,7 @@
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" ht="16.5" spans="1:7">
+    <row r="31" ht="15.6" spans="1:7">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
@@ -2991,19 +3022,19 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16.45" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.6333333333333" style="33" customWidth="1"/>
-    <col min="3" max="3" width="25.3666666666667" style="33" customWidth="1"/>
-    <col min="4" max="4" width="18.9083333333333" style="33" customWidth="1"/>
-    <col min="5" max="5" width="18.45" style="33" customWidth="1"/>
-    <col min="6" max="6" width="16.6333333333333" style="33" customWidth="1"/>
-    <col min="7" max="7" width="47.3666666666667" style="33" customWidth="1"/>
+    <col min="1" max="1" width="16.4537037037037" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.6296296296296" style="33" customWidth="1"/>
+    <col min="3" max="3" width="25.3703703703704" style="33" customWidth="1"/>
+    <col min="4" max="4" width="18.9074074074074" style="33" customWidth="1"/>
+    <col min="5" max="5" width="18.4537037037037" style="33" customWidth="1"/>
+    <col min="6" max="6" width="16.6296296296296" style="33" customWidth="1"/>
+    <col min="7" max="7" width="47.3703703703704" style="33" customWidth="1"/>
     <col min="8" max="16384" width="11" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.75" spans="1:7">
+    <row r="1" ht="32.4" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3048,7 +3079,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" ht="16.5" spans="1:7">
+    <row r="4" ht="15.6" spans="1:7">
       <c r="A4" s="34" t="s">
         <v>9</v>
       </c>
@@ -3065,7 +3096,7 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" ht="16.5" spans="1:7">
+    <row r="5" ht="15.6" spans="1:7">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
@@ -3080,7 +3111,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" ht="16.5" spans="1:7">
+    <row r="6" ht="15.6" spans="1:7">
       <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
@@ -3097,7 +3128,7 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" ht="16.5" spans="1:7">
+    <row r="7" ht="15.6" spans="1:7">
       <c r="A7" s="15"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
@@ -3112,7 +3143,7 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" ht="16.5" spans="1:7">
+    <row r="8" ht="15.6" spans="1:7">
       <c r="A8" s="38"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
@@ -3125,7 +3156,7 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" ht="16.5" spans="1:7">
+    <row r="9" ht="15.6" spans="1:7">
       <c r="A9" s="39" t="s">
         <v>18</v>
       </c>
@@ -3142,7 +3173,7 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" ht="16.5" spans="1:7">
+    <row r="10" ht="15.6" spans="1:7">
       <c r="A10" s="38"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
@@ -3155,7 +3186,7 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" ht="16.5" spans="1:7">
+    <row r="11" ht="15.6" spans="1:7">
       <c r="A11" s="40"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
@@ -3168,7 +3199,7 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" ht="16.5" spans="1:7">
+    <row r="12" ht="15.6" spans="1:7">
       <c r="A12" s="39" t="s">
         <v>22</v>
       </c>
@@ -3185,7 +3216,7 @@
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" ht="16.5" spans="1:7">
+    <row r="13" ht="15.6" spans="1:7">
       <c r="A13" s="15"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
@@ -3198,7 +3229,7 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" ht="16.5" spans="1:7">
+    <row r="14" ht="15.6" spans="1:7">
       <c r="A14" s="41"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
@@ -3211,7 +3242,7 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" ht="16.5" spans="1:7">
+    <row r="15" ht="15.6" spans="1:7">
       <c r="A15" s="42"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
@@ -3235,7 +3266,7 @@
       <c r="F16" s="26"/>
       <c r="G16" s="27"/>
     </row>
-    <row r="17" ht="16.5" spans="1:7">
+    <row r="17" ht="15.6" spans="1:7">
       <c r="A17" s="39" t="s">
         <v>28</v>
       </c>
@@ -3250,7 +3281,7 @@
       <c r="F17" s="28"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" ht="16.5" spans="1:7">
+    <row r="18" ht="15.6" spans="1:7">
       <c r="A18" s="42"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
@@ -3261,7 +3292,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" ht="16.5" spans="1:7">
+    <row r="19" ht="15.6" spans="1:7">
       <c r="A19" s="39" t="s">
         <v>32</v>
       </c>
@@ -3276,7 +3307,7 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" ht="16.5" spans="1:7">
+    <row r="20" ht="15.6" spans="1:7">
       <c r="A20" s="42"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
@@ -3287,7 +3318,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" ht="16.5" spans="1:7">
+    <row r="21" ht="15.6" spans="1:7">
       <c r="A21" s="42"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
@@ -3300,7 +3331,7 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" ht="16.5" spans="1:7">
+    <row r="22" ht="15.6" spans="1:7">
       <c r="A22" s="41"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
@@ -3311,7 +3342,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" ht="16.5" spans="1:7">
+    <row r="23" ht="15.6" spans="1:7">
       <c r="A23" s="39" t="s">
         <v>38</v>
       </c>
@@ -3326,7 +3357,7 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" ht="16.5" spans="1:7">
+    <row r="24" ht="15.6" spans="1:7">
       <c r="A24" s="40"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
@@ -3337,7 +3368,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" ht="16.5" spans="1:7">
+    <row r="25" ht="15.6" spans="1:7">
       <c r="A25" s="40"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
@@ -3348,7 +3379,7 @@
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" ht="25.5" spans="1:7">
+    <row r="26" ht="28.8" spans="1:7">
       <c r="A26" s="39" t="s">
         <v>43</v>
       </c>
@@ -3363,7 +3394,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" ht="16.5" spans="1:7">
+    <row r="27" ht="15.6" spans="1:7">
       <c r="A27" s="40"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
@@ -3374,7 +3405,7 @@
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" ht="16.5" spans="1:7">
+    <row r="28" ht="15.6" spans="1:7">
       <c r="A28" s="42"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
@@ -3385,7 +3416,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" ht="16.5" spans="1:7">
+    <row r="29" ht="15.6" spans="1:7">
       <c r="A29" s="42"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
@@ -3398,7 +3429,7 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" ht="16.5" spans="1:7">
+    <row r="30" ht="15.6" spans="1:7">
       <c r="A30" s="15"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
@@ -3409,7 +3440,7 @@
       <c r="F30" s="28"/>
       <c r="G30" s="43"/>
     </row>
-    <row r="31" ht="16.5" spans="1:7">
+    <row r="31" ht="15.6" spans="1:7">
       <c r="A31" s="36"/>
       <c r="B31" s="35" t="s">
         <v>49</v>
@@ -3450,18 +3481,18 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16.45" customWidth="1"/>
-    <col min="2" max="2" width="31.6333333333333" customWidth="1"/>
-    <col min="3" max="3" width="14.725" customWidth="1"/>
-    <col min="4" max="4" width="13.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="15.6333333333333" customWidth="1"/>
-    <col min="6" max="6" width="14.9083333333333" customWidth="1"/>
-    <col min="7" max="7" width="90.725" customWidth="1"/>
+    <col min="1" max="1" width="16.4537037037037" customWidth="1"/>
+    <col min="2" max="2" width="31.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="14.7222222222222" customWidth="1"/>
+    <col min="4" max="4" width="13.6296296296296" customWidth="1"/>
+    <col min="5" max="5" width="15.6296296296296" customWidth="1"/>
+    <col min="6" max="6" width="14.9074074074074" customWidth="1"/>
+    <col min="7" max="7" width="90.7222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.75" spans="1:7">
+    <row r="1" ht="32.4" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3506,7 +3537,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" ht="16.5" spans="1:7">
+    <row r="4" ht="15.6" spans="1:7">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -3527,7 +3558,7 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" ht="16.5" spans="1:7">
+    <row r="5" ht="15.6" spans="1:7">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
@@ -3544,7 +3575,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" ht="16.5" spans="1:7">
+    <row r="6" ht="15.6" spans="1:7">
       <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
@@ -3565,7 +3596,7 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" ht="16.5" spans="1:7">
+    <row r="7" ht="15.6" spans="1:7">
       <c r="A7" s="19"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
@@ -3581,10 +3612,10 @@
         <v>0.9</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" ht="15.6" spans="1:7">
       <c r="A8" s="20"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
@@ -3601,7 +3632,7 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" ht="16.5" spans="1:7">
+    <row r="9" ht="15.6" spans="1:7">
       <c r="A9" s="21" t="s">
         <v>18</v>
       </c>
@@ -3622,7 +3653,7 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" ht="16.5" spans="1:7">
+    <row r="10" ht="15.6" spans="1:7">
       <c r="A10" s="22"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
@@ -3636,10 +3667,10 @@
         <v>0.9</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" ht="16.5" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" ht="15.6" spans="1:7">
       <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
@@ -3654,7 +3685,7 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" ht="16.5" spans="1:7">
+    <row r="12" ht="15.6" spans="1:7">
       <c r="A12" s="21" t="s">
         <v>22</v>
       </c>
@@ -3672,10 +3703,10 @@
         <v>0.9</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" ht="16.5" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" ht="15.6" spans="1:7">
       <c r="A13" s="22"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
@@ -3690,7 +3721,7 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" ht="16.5" spans="1:7">
+    <row r="14" ht="15.6" spans="1:7">
       <c r="A14" s="22"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
@@ -3704,10 +3735,10 @@
         <v>0.9</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" ht="16.5" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" ht="15.6" spans="1:7">
       <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
@@ -3733,7 +3764,7 @@
       <c r="F16" s="26"/>
       <c r="G16" s="27"/>
     </row>
-    <row r="17" ht="16.5" spans="1:6">
+    <row r="17" ht="15.6" spans="1:6">
       <c r="A17" s="21" t="s">
         <v>28</v>
       </c>
@@ -3753,7 +3784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:7">
+    <row r="18" ht="15.6" spans="1:7">
       <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
@@ -3767,10 +3798,10 @@
         <v>0.9</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" ht="16.5" spans="1:7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" ht="15.6" spans="1:7">
       <c r="A19" s="21" t="s">
         <v>32</v>
       </c>
@@ -3785,7 +3816,7 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" ht="16.5" spans="1:7">
+    <row r="20" ht="15.6" spans="1:7">
       <c r="A20" s="22"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
@@ -3796,7 +3827,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" ht="16.5" spans="1:7">
+    <row r="21" ht="15.6" spans="1:7">
       <c r="A21" s="22"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
@@ -3809,7 +3840,7 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" ht="16.5" spans="1:7">
+    <row r="22" ht="15.6" spans="1:7">
       <c r="A22" s="24"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
@@ -3820,7 +3851,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" ht="16.5" spans="1:7">
+    <row r="23" ht="15.6" spans="1:7">
       <c r="A23" s="21" t="s">
         <v>38</v>
       </c>
@@ -3835,7 +3866,7 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" ht="16.5" spans="1:7">
+    <row r="24" ht="15.6" spans="1:7">
       <c r="A24" s="22"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
@@ -3846,7 +3877,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" ht="16.5" spans="1:7">
+    <row r="25" ht="15.6" spans="1:7">
       <c r="A25" s="24"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
@@ -3857,7 +3888,7 @@
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" ht="16.5" spans="1:7">
+    <row r="26" ht="15.6" spans="1:7">
       <c r="A26" s="21" t="s">
         <v>43</v>
       </c>
@@ -3872,7 +3903,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" ht="16.5" spans="1:7">
+    <row r="27" ht="15.6" spans="1:7">
       <c r="A27" s="22"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
@@ -3883,7 +3914,7 @@
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" ht="16.5" spans="1:7">
+    <row r="28" ht="15.6" spans="1:7">
       <c r="A28" s="22"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
@@ -3894,7 +3925,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" ht="16.5" spans="1:7">
+    <row r="29" ht="15.6" spans="1:7">
       <c r="A29" s="22"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
@@ -3907,7 +3938,7 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" ht="16.5" spans="1:7">
+    <row r="30" ht="15.6" spans="1:7">
       <c r="A30" s="24"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
@@ -3918,7 +3949,7 @@
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" ht="16.5" spans="1:7">
+    <row r="31" ht="15.6" spans="1:7">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
@@ -3966,18 +3997,18 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="14.725" customWidth="1"/>
-    <col min="2" max="2" width="30.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="14.7222222222222" customWidth="1"/>
+    <col min="2" max="2" width="30.6296296296296" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.0916666666667" customWidth="1"/>
-    <col min="5" max="5" width="13.2666666666667" customWidth="1"/>
-    <col min="6" max="6" width="14.45" customWidth="1"/>
+    <col min="4" max="4" width="14.0925925925926" customWidth="1"/>
+    <col min="5" max="5" width="13.2685185185185" customWidth="1"/>
+    <col min="6" max="6" width="14.4537037037037" customWidth="1"/>
     <col min="7" max="7" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.75" spans="1:7">
+    <row r="1" ht="32.4" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4022,7 +4053,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" ht="16.5" spans="1:7">
+    <row r="4" ht="15.6" spans="1:7">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -4043,7 +4074,7 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" ht="16.5" spans="1:7">
+    <row r="5" ht="15.6" spans="1:7">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
@@ -4062,7 +4093,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:7">
+    <row r="6" ht="15.6" spans="1:7">
       <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
@@ -4083,7 +4114,7 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" ht="16.5" spans="1:7">
+    <row r="7" ht="15.6" spans="1:7">
       <c r="A7" s="19"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
@@ -4102,7 +4133,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:7">
+    <row r="8" ht="15.6" spans="1:7">
       <c r="A8" s="20"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
@@ -4119,7 +4150,7 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" ht="16.5" spans="1:7">
+    <row r="9" ht="15.6" spans="1:7">
       <c r="A9" s="21" t="s">
         <v>18</v>
       </c>
@@ -4140,7 +4171,7 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" ht="16.5" spans="1:7">
+    <row r="10" ht="15.6" spans="1:7">
       <c r="A10" s="22"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
@@ -4157,7 +4188,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:7">
+    <row r="11" ht="15.6" spans="1:7">
       <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
@@ -4174,7 +4205,7 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" ht="16.5" spans="1:7">
+    <row r="12" ht="15.6" spans="1:7">
       <c r="A12" s="21" t="s">
         <v>22</v>
       </c>
@@ -4195,7 +4226,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:7">
+    <row r="13" ht="15.6" spans="1:7">
       <c r="A13" s="22"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
@@ -4206,7 +4237,7 @@
       <c r="F13" s="28"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" ht="16.5" spans="1:7">
+    <row r="14" ht="15.6" spans="1:7">
       <c r="A14" s="22"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
@@ -4217,7 +4248,7 @@
       <c r="F14" s="28"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" ht="16.5" spans="1:7">
+    <row r="15" ht="15.6" spans="1:7">
       <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
@@ -4239,7 +4270,7 @@
       <c r="F16" s="26"/>
       <c r="G16" s="27"/>
     </row>
-    <row r="17" ht="16.5" spans="1:7">
+    <row r="17" ht="15.6" spans="1:7">
       <c r="A17" s="21" t="s">
         <v>28</v>
       </c>
@@ -4260,7 +4291,7 @@
       </c>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" ht="16.5" spans="1:7">
+    <row r="18" ht="15.6" spans="1:7">
       <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
@@ -4277,7 +4308,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:7">
+    <row r="19" ht="15.6" spans="1:7">
       <c r="A19" s="21" t="s">
         <v>32</v>
       </c>
@@ -4292,7 +4323,7 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" ht="16.5" spans="1:7">
+    <row r="20" ht="15.6" spans="1:7">
       <c r="A20" s="22"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
@@ -4303,7 +4334,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" ht="16.5" spans="1:7">
+    <row r="21" ht="15.6" spans="1:7">
       <c r="A21" s="22"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
@@ -4316,7 +4347,7 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" ht="16.5" spans="1:7">
+    <row r="22" ht="15.6" spans="1:7">
       <c r="A22" s="24"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
@@ -4327,7 +4358,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" ht="33" spans="1:7">
+    <row r="23" ht="31.2" spans="1:7">
       <c r="A23" s="21" t="s">
         <v>38</v>
       </c>
@@ -4342,7 +4373,7 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" ht="16.5" spans="1:7">
+    <row r="24" ht="15.6" spans="1:7">
       <c r="A24" s="22"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
@@ -4353,7 +4384,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" ht="16.5" spans="1:7">
+    <row r="25" ht="15.6" spans="1:7">
       <c r="A25" s="24"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
@@ -4364,7 +4395,7 @@
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" ht="16.5" spans="1:7">
+    <row r="26" ht="15.6" spans="1:7">
       <c r="A26" s="21" t="s">
         <v>43</v>
       </c>
@@ -4379,7 +4410,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" ht="16.5" spans="1:7">
+    <row r="27" ht="15.6" spans="1:7">
       <c r="A27" s="22"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
@@ -4390,7 +4421,7 @@
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" ht="16.5" spans="1:7">
+    <row r="28" ht="15.6" spans="1:7">
       <c r="A28" s="22"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
@@ -4401,7 +4432,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" ht="16.5" spans="1:7">
+    <row r="29" ht="15.6" spans="1:7">
       <c r="A29" s="22"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
@@ -4414,7 +4445,7 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" ht="16.5" spans="1:7">
+    <row r="30" ht="15.6" spans="1:7">
       <c r="A30" s="24"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
@@ -4425,7 +4456,7 @@
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" ht="16.5" spans="1:7">
+    <row r="31" ht="15.6" spans="1:7">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
@@ -4451,18 +4482,18 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16.725" customWidth="1"/>
-    <col min="2" max="2" width="30.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="16.7222222222222" customWidth="1"/>
+    <col min="2" max="2" width="30.6296296296296" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.0916666666667" customWidth="1"/>
-    <col min="5" max="5" width="13.2666666666667" customWidth="1"/>
-    <col min="6" max="6" width="14.45" customWidth="1"/>
+    <col min="4" max="4" width="14.0925925925926" customWidth="1"/>
+    <col min="5" max="5" width="13.2685185185185" customWidth="1"/>
+    <col min="6" max="6" width="14.4537037037037" customWidth="1"/>
     <col min="7" max="7" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.75" spans="1:7">
+    <row r="1" ht="32.4" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4507,7 +4538,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" ht="16.5" spans="1:7">
+    <row r="4" ht="15.6" spans="1:7">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -4525,10 +4556,10 @@
         <v>0.6</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" ht="15.6" spans="1:7">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
@@ -4545,7 +4576,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" ht="16.5" spans="1:7">
+    <row r="6" ht="15.6" spans="1:7">
       <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
@@ -4564,7 +4595,7 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" ht="16.5" spans="1:7">
+    <row r="7" ht="15.6" spans="1:7">
       <c r="A7" s="19"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
@@ -4580,10 +4611,10 @@
         <v>0.5</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" ht="15.6" spans="1:7">
       <c r="A8" s="20"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
@@ -4597,10 +4628,10 @@
         <v>0.5</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" ht="16.5" spans="1:7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" ht="15.6" spans="1:7">
       <c r="A9" s="21" t="s">
         <v>18</v>
       </c>
@@ -4618,10 +4649,10 @@
         <v>0.5</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" spans="1:7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" ht="15.6" spans="1:7">
       <c r="A10" s="22"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
@@ -4635,10 +4666,10 @@
         <v>0.5</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" ht="16.5" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" ht="15.6" spans="1:7">
       <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
@@ -4653,7 +4684,7 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" ht="16.5" spans="1:7">
+    <row r="12" ht="15.6" spans="1:7">
       <c r="A12" s="21" t="s">
         <v>22</v>
       </c>
@@ -4671,10 +4702,10 @@
         <v>0.5</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" ht="16.5" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" ht="15.6" spans="1:7">
       <c r="A13" s="22"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
@@ -4689,7 +4720,7 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" ht="16.5" spans="1:7">
+    <row r="14" ht="15.6" spans="1:7">
       <c r="A14" s="22"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
@@ -4704,7 +4735,7 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" ht="16.5" spans="1:7">
+    <row r="15" ht="15.6" spans="1:7">
       <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
@@ -4730,7 +4761,7 @@
       <c r="F16" s="26"/>
       <c r="G16" s="27"/>
     </row>
-    <row r="17" ht="16.5" spans="1:7">
+    <row r="17" ht="15.6" spans="1:7">
       <c r="A17" s="21" t="s">
         <v>28</v>
       </c>
@@ -4745,7 +4776,7 @@
       <c r="F17" s="28"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" ht="16.5" spans="1:7">
+    <row r="18" ht="15.6" spans="1:7">
       <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
@@ -4757,10 +4788,10 @@
         <v>0.4</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" ht="16.5" spans="1:7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" ht="15.6" spans="1:7">
       <c r="A19" s="21" t="s">
         <v>32</v>
       </c>
@@ -4775,7 +4806,7 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" ht="16.5" spans="1:7">
+    <row r="20" ht="15.6" spans="1:7">
       <c r="A20" s="22"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
@@ -4786,7 +4817,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" ht="16.5" spans="1:7">
+    <row r="21" ht="15.6" spans="1:7">
       <c r="A21" s="22"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
@@ -4799,7 +4830,7 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" ht="16.5" spans="1:7">
+    <row r="22" ht="15.6" spans="1:7">
       <c r="A22" s="24"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
@@ -4810,7 +4841,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" ht="16.5" spans="1:7">
+    <row r="23" ht="15.6" spans="1:7">
       <c r="A23" s="21" t="s">
         <v>38</v>
       </c>
@@ -4825,7 +4856,7 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" ht="16.5" spans="1:7">
+    <row r="24" ht="15.6" spans="1:7">
       <c r="A24" s="22"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
@@ -4836,7 +4867,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" ht="16.5" spans="1:7">
+    <row r="25" ht="15.6" spans="1:7">
       <c r="A25" s="24"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
@@ -4847,7 +4878,7 @@
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" ht="16.5" spans="1:7">
+    <row r="26" ht="15.6" spans="1:7">
       <c r="A26" s="21" t="s">
         <v>43</v>
       </c>
@@ -4862,7 +4893,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" ht="16.5" spans="1:7">
+    <row r="27" ht="15.6" spans="1:7">
       <c r="A27" s="22"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
@@ -4873,7 +4904,7 @@
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" ht="16.5" spans="1:7">
+    <row r="28" ht="15.6" spans="1:7">
       <c r="A28" s="22"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
@@ -4884,7 +4915,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" ht="16.5" spans="1:7">
+    <row r="29" ht="15.6" spans="1:7">
       <c r="A29" s="22"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
@@ -4897,7 +4928,7 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" ht="16.5" spans="1:7">
+    <row r="30" ht="15.6" spans="1:7">
       <c r="A30" s="24"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
@@ -4908,7 +4939,7 @@
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" ht="16.5" spans="1:7">
+    <row r="31" ht="15.6" spans="1:7">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>

--- a/樊佩茹/项目进度控制表-樊佩茹 .xlsx
+++ b/樊佩茹/项目进度控制表-樊佩茹 .xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SDX\Desktop\hgkj_02\樊佩茹\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBFEABC-21AD-48D6-8EA4-A5AC844B571C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9504" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="樊佩茹" sheetId="1" r:id="rId1"/>
@@ -179,12 +185,6 @@
     <t>30天内自动登录没做</t>
   </si>
   <si>
-    <t>js校验有问题，验证码校验有问题</t>
-  </si>
-  <si>
-    <t>分页没做</t>
-  </si>
-  <si>
     <t>分页未做</t>
   </si>
   <si>
@@ -204,19 +204,19 @@
   </si>
   <si>
     <t>校验未做，30天内自动登录未做</t>
+  </si>
+  <si>
+    <t>多张图片修改</t>
+  </si>
+  <si>
+    <t>2019/629</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="35">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,156 +315,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -477,194 +339,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -770,258 +446,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1034,16 +468,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1155,63 +589,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1498,38 +945,38 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6296296296296" customWidth="1"/>
-    <col min="2" max="2" width="29.7222222222222" customWidth="1"/>
-    <col min="3" max="6" width="15.6296296296296" customWidth="1"/>
-    <col min="7" max="7" width="84.6296296296296" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" customWidth="1"/>
+    <col min="3" max="6" width="15.6328125" customWidth="1"/>
+    <col min="7" max="7" width="84.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.4" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" ht="21" customHeight="1" spans="1:7">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1552,25 +999,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="44" customFormat="1" ht="23.15" customHeight="1" spans="1:7">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:7" s="44" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" ht="18" customHeight="1" spans="1:7">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="60">
         <v>43638</v>
       </c>
       <c r="D4" s="11"/>
@@ -1584,14 +1031,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:7">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -1601,8 +1048,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" ht="15.6" spans="1:7">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="54" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -1622,12 +1069,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" ht="15.6" spans="1:7">
-      <c r="A7" s="19"/>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="55"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="60">
         <v>43640</v>
       </c>
       <c r="D7" s="12">
@@ -1641,12 +1088,12 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" ht="15.6" spans="1:7">
-      <c r="A8" s="20"/>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="56"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="12">
         <v>43641</v>
       </c>
@@ -1658,14 +1105,14 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" ht="15.6" spans="1:7">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="57" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="60">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -1677,12 +1124,12 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" ht="15.6" spans="1:7">
-      <c r="A10" s="22"/>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="58"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="23"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="12">
         <v>43645</v>
       </c>
@@ -1694,12 +1141,12 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" ht="15.6" spans="1:7">
-      <c r="A11" s="24"/>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="59"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="12">
         <v>43643</v>
       </c>
@@ -1711,14 +1158,14 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" ht="15.6" spans="1:7">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="57" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="60">
         <v>43642</v>
       </c>
       <c r="D12" s="12">
@@ -1732,12 +1179,12 @@
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" ht="15.6" spans="1:7">
-      <c r="A13" s="22"/>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="58"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="12">
         <v>43643</v>
       </c>
@@ -1749,12 +1196,12 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" ht="15.6" spans="1:7">
-      <c r="A14" s="22"/>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="58"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="23"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="12">
         <v>43643</v>
       </c>
@@ -1766,12 +1213,12 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" ht="15.6" spans="1:7">
-      <c r="A15" s="24"/>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="59"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="12">
         <v>43643</v>
       </c>
@@ -1783,25 +1230,25 @@
       </c>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" ht="24" customHeight="1" spans="1:7">
-      <c r="A16" s="25" t="s">
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
-    </row>
-    <row r="17" ht="15.6" spans="1:7">
-      <c r="A17" s="21" t="s">
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="57" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="60">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -1815,12 +1262,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" ht="15.6" spans="1:7">
-      <c r="A18" s="24"/>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="59"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="12">
         <v>43644</v>
       </c>
@@ -1832,14 +1279,14 @@
       </c>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" ht="15.6" spans="1:7">
-      <c r="A19" s="21" t="s">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="57" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="60" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="12"/>
@@ -1847,23 +1294,23 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" ht="15.6" spans="1:7">
-      <c r="A20" s="22"/>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="58"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" ht="15.6" spans="1:7">
-      <c r="A21" s="22"/>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="58"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="60">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -1871,25 +1318,25 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" ht="15.6" spans="1:7">
-      <c r="A22" s="24"/>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="59"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="17"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" ht="15.6" spans="1:7">
-      <c r="A23" s="21" t="s">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="57" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="63" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="12"/>
@@ -1897,36 +1344,36 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" ht="15.6" spans="1:7">
-      <c r="A24" s="22"/>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="58"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="23"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" ht="15.6" spans="1:7">
-      <c r="A25" s="24"/>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="59"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" ht="15.6" spans="1:7">
-      <c r="A26" s="21" t="s">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="57" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="60">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -1934,34 +1381,34 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" ht="15.6" spans="1:7">
-      <c r="A27" s="22"/>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="58"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="23"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" ht="15.6" spans="1:7">
-      <c r="A28" s="22"/>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="58"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" ht="15.6" spans="1:7">
-      <c r="A29" s="22"/>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="58"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="60">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -1969,23 +1416,23 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" ht="15.6" spans="1:7">
-      <c r="A30" s="24"/>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="59"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="23"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" ht="15.6" spans="1:7">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="17"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -1993,12 +1440,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -2013,45 +1454,50 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.9074074074074" customWidth="1"/>
-    <col min="2" max="2" width="32.9074074074074" customWidth="1"/>
-    <col min="3" max="3" width="15.0925925925926" customWidth="1"/>
-    <col min="4" max="4" width="15.2685185185185" customWidth="1"/>
-    <col min="5" max="5" width="14.9074074074074" customWidth="1"/>
-    <col min="6" max="6" width="15.6296296296296" customWidth="1"/>
-    <col min="7" max="7" width="81.0925925925926" customWidth="1"/>
+    <col min="1" max="1" width="18.90625" customWidth="1"/>
+    <col min="2" max="2" width="32.90625" customWidth="1"/>
+    <col min="3" max="3" width="15.08984375" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" customWidth="1"/>
+    <col min="5" max="5" width="14.90625" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" customWidth="1"/>
+    <col min="7" max="7" width="81.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.4" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" ht="18" customHeight="1" spans="1:7">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2074,25 +1520,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="23.15" customHeight="1" spans="1:7">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:7" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" ht="15.6" spans="1:7">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="60">
         <v>43638</v>
       </c>
       <c r="D4" s="11"/>
@@ -2106,14 +1552,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:7">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -2123,8 +1569,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" ht="15.6" spans="1:7">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="54" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -2144,12 +1590,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" ht="15.6" spans="1:7">
-      <c r="A7" s="19"/>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="55"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="60">
         <v>43640</v>
       </c>
       <c r="D7" s="12">
@@ -2163,12 +1609,12 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" ht="15.6" spans="1:7">
-      <c r="A8" s="20"/>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="56"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="12">
         <v>43644</v>
       </c>
@@ -2180,14 +1626,14 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" ht="15.6" spans="1:7">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="57" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="60">
         <v>43641</v>
       </c>
       <c r="D9" s="12">
@@ -2201,12 +1647,12 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" ht="15.6" spans="1:7">
-      <c r="A10" s="22"/>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="58"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="23"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="12">
         <v>43646</v>
       </c>
@@ -2218,12 +1664,12 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" ht="15.6" spans="1:7">
-      <c r="A11" s="24"/>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="59"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12">
         <v>43645</v>
@@ -2233,14 +1679,14 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" ht="15.6" spans="1:7">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="57" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="60">
         <v>43642</v>
       </c>
       <c r="D12" s="12">
@@ -2254,23 +1700,23 @@
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" ht="15.6" spans="1:7">
-      <c r="A13" s="22"/>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="58"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="13"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" ht="15.6" spans="1:7">
-      <c r="A14" s="22"/>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="58"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="23"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="12">
         <v>43646</v>
       </c>
@@ -2282,36 +1728,36 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" ht="15.6" spans="1:7">
-      <c r="A15" s="24"/>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="59"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="28"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" ht="24" customHeight="1" spans="1:7">
-      <c r="A16" s="25" t="s">
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
-    </row>
-    <row r="17" ht="15.6" spans="1:7">
-      <c r="A17" s="21" t="s">
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="57" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="60">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -2323,12 +1769,12 @@
       </c>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" ht="15.6" spans="1:7">
-      <c r="A18" s="24"/>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="59"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12">
         <v>43643</v>
@@ -2340,14 +1786,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" ht="15.6" spans="1:7">
-      <c r="A19" s="21" t="s">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="57" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="60" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="12"/>
@@ -2355,23 +1801,23 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" ht="15.6" spans="1:7">
-      <c r="A20" s="22"/>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="58"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" ht="15.6" spans="1:7">
-      <c r="A21" s="22"/>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="58"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="60">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -2379,25 +1825,25 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" ht="15.6" spans="1:7">
-      <c r="A22" s="24"/>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="59"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="17"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" ht="15.6" spans="1:7">
-      <c r="A23" s="21" t="s">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="57" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="63" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="12"/>
@@ -2405,36 +1851,36 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" ht="15.6" spans="1:7">
-      <c r="A24" s="22"/>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="58"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="23"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" ht="15.6" spans="1:7">
-      <c r="A25" s="24"/>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="59"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" ht="15.6" spans="1:7">
-      <c r="A26" s="21" t="s">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="57" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="60">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -2442,34 +1888,34 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" ht="15.6" spans="1:7">
-      <c r="A27" s="22"/>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="58"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="23"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" ht="15.6" spans="1:7">
-      <c r="A28" s="22"/>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="58"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" ht="15.6" spans="1:7">
-      <c r="A29" s="22"/>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="58"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="60">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -2477,23 +1923,23 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" ht="15.6" spans="1:7">
-      <c r="A30" s="24"/>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="59"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="23"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" ht="15.6" spans="1:7">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="17"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -2501,12 +1947,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -2521,34 +1961,39 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C13" sqref="A1:G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.3703703703704" customWidth="1"/>
-    <col min="2" max="2" width="31.6296296296296" customWidth="1"/>
-    <col min="3" max="3" width="14.4537037037037" customWidth="1"/>
-    <col min="4" max="4" width="15.4537037037037" customWidth="1"/>
-    <col min="5" max="5" width="15.2685185185185" customWidth="1"/>
+    <col min="1" max="1" width="16.36328125" customWidth="1"/>
+    <col min="2" max="2" width="31.6328125" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="87.6296296296296" customWidth="1"/>
+    <col min="7" max="7" width="87.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.4" spans="1:7">
+    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2559,7 +2004,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="18" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2582,7 +2027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="20.15" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2593,7 +2038,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" ht="15.6" spans="1:7">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -2603,18 +2048,18 @@
       <c r="C4" s="10">
         <v>43638</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="32">
+        <v>43641</v>
+      </c>
       <c r="E4" s="12">
         <v>43640</v>
       </c>
       <c r="F4" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" ht="15.6" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
@@ -2631,7 +2076,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" ht="15.6" spans="1:7">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
@@ -2652,7 +2097,7 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" ht="15.6" spans="1:7">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="19"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
@@ -2667,28 +2112,28 @@
         <v>43641</v>
       </c>
       <c r="F7" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" ht="15.6" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="20"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="17"/>
-      <c r="D8" s="12"/>
+      <c r="D8" s="12">
+        <v>43642</v>
+      </c>
       <c r="E8" s="12">
         <v>43641</v>
       </c>
       <c r="F8" s="13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" ht="15.6" spans="1:7">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="21" t="s">
         <v>18</v>
       </c>
@@ -2698,16 +2143,18 @@
       <c r="C9" s="10">
         <v>43641</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="12">
+        <v>43644</v>
+      </c>
       <c r="E9" s="12">
         <v>43642</v>
       </c>
       <c r="F9" s="13">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" ht="15.6" spans="1:7">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="22"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
@@ -2718,13 +2165,11 @@
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" ht="15.6" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
@@ -2735,11 +2180,13 @@
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" ht="15.6" spans="1:7">
+        <v>0.6</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="21" t="s">
         <v>22</v>
       </c>
@@ -2756,13 +2203,11 @@
         <v>43640</v>
       </c>
       <c r="F12" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" ht="15.6" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="22"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
@@ -2773,11 +2218,13 @@
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" ht="15.6" spans="1:7">
+        <v>0.6</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="22"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
@@ -2792,7 +2239,7 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" ht="15.6" spans="1:7">
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
@@ -2800,10 +2247,14 @@
       <c r="C15" s="17"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" ht="24" customHeight="1" spans="1:7">
+      <c r="F15" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>27</v>
       </c>
@@ -2814,7 +2265,7 @@
       <c r="F16" s="26"/>
       <c r="G16" s="27"/>
     </row>
-    <row r="17" ht="15.6" spans="1:7">
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="21" t="s">
         <v>28</v>
       </c>
@@ -2824,15 +2275,15 @@
       <c r="C17" s="10">
         <v>43643</v>
       </c>
-      <c r="E17" s="12">
-        <v>43643</v>
+      <c r="E17" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="F17" s="13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" ht="15.6" spans="1:7">
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
@@ -2847,7 +2298,7 @@
       </c>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" ht="15.6" spans="1:7">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="21" t="s">
         <v>32</v>
       </c>
@@ -2862,7 +2313,7 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" ht="15.6" spans="1:7">
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="22"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
@@ -2873,7 +2324,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" ht="15.6" spans="1:7">
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="22"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
@@ -2886,7 +2337,7 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" ht="15.6" spans="1:7">
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="24"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
@@ -2897,7 +2348,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" ht="31.2" spans="1:7">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A23" s="21" t="s">
         <v>38</v>
       </c>
@@ -2912,7 +2363,7 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" ht="15.6" spans="1:7">
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="22"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
@@ -2923,7 +2374,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" ht="15.6" spans="1:7">
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="24"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
@@ -2934,7 +2385,7 @@
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" ht="15.6" spans="1:7">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="21" t="s">
         <v>43</v>
       </c>
@@ -2949,7 +2400,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" ht="15.6" spans="1:7">
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="22"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
@@ -2960,7 +2411,7 @@
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" ht="15.6" spans="1:7">
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="22"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
@@ -2971,7 +2422,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" ht="15.6" spans="1:7">
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="22"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
@@ -2984,7 +2435,7 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" ht="15.6" spans="1:7">
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A30" s="24"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
@@ -2995,7 +2446,7 @@
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" ht="15.6" spans="1:7">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
@@ -3007,45 +2458,44 @@
       <c r="G31" s="31"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.4537037037037" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.6296296296296" style="33" customWidth="1"/>
-    <col min="3" max="3" width="25.3703703703704" style="33" customWidth="1"/>
-    <col min="4" max="4" width="18.9074074074074" style="33" customWidth="1"/>
-    <col min="5" max="5" width="18.4537037037037" style="33" customWidth="1"/>
-    <col min="6" max="6" width="16.6296296296296" style="33" customWidth="1"/>
-    <col min="7" max="7" width="47.3703703703704" style="33" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="25.36328125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="18.90625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" style="33" customWidth="1"/>
+    <col min="6" max="6" width="16.6328125" style="33" customWidth="1"/>
+    <col min="7" max="7" width="47.36328125" style="33" customWidth="1"/>
     <col min="8" max="16384" width="11" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.4" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3068,25 +2518,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" ht="15.6" spans="1:7">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="34" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="60">
         <v>43638</v>
       </c>
       <c r="D4" s="36"/>
@@ -3096,14 +2546,14 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" ht="15.6" spans="1:7">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="13">
@@ -3111,7 +2561,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" ht="15.6" spans="1:7">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
@@ -3128,12 +2578,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" ht="15.6" spans="1:7">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="15"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="60">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -3143,12 +2593,12 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" ht="15.6" spans="1:7">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="38"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="13">
@@ -3156,14 +2606,14 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" ht="15.6" spans="1:7">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="39" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="60">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -3173,12 +2623,12 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" ht="15.6" spans="1:7">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="38"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="23"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="13">
@@ -3186,12 +2636,12 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" ht="15.6" spans="1:7">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="40"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="13">
@@ -3199,14 +2649,14 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" ht="15.6" spans="1:7">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="39" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="60">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -3216,12 +2666,12 @@
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" ht="15.6" spans="1:7">
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="15"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="13">
@@ -3229,12 +2679,12 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" ht="15.6" spans="1:7">
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="41"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="23"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="13">
@@ -3242,12 +2692,12 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" ht="15.6" spans="1:7">
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="42"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="13">
@@ -3255,25 +2705,25 @@
       </c>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="25" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
-    </row>
-    <row r="17" ht="15.6" spans="1:7">
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="39" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="60">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -3281,25 +2731,25 @@
       <c r="F17" s="28"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" ht="15.6" spans="1:7">
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="42"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" ht="15.6" spans="1:7">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="39" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="60" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="12"/>
@@ -3307,23 +2757,23 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" ht="15.6" spans="1:7">
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="42"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" ht="15.6" spans="1:7">
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="42"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="60">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -3331,25 +2781,25 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" ht="15.6" spans="1:7">
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="41"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="17"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" ht="15.6" spans="1:7">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A23" s="39" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="63" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="12"/>
@@ -3357,36 +2807,36 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" ht="15.6" spans="1:7">
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="40"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="23"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" ht="15.6" spans="1:7">
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="40"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" ht="28.8" spans="1:7">
+    <row r="26" spans="1:7" ht="27" x14ac:dyDescent="0.45">
       <c r="A26" s="39" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="60">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -3394,34 +2844,34 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" ht="15.6" spans="1:7">
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="40"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="23"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" ht="15.6" spans="1:7">
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="42"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" ht="15.6" spans="1:7">
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="42"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="60">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -3429,23 +2879,23 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" ht="15.6" spans="1:7">
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A30" s="15"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="23"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="28"/>
       <c r="G30" s="43"/>
     </row>
-    <row r="31" ht="15.6" spans="1:7">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A31" s="36"/>
       <c r="B31" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="17"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="36"/>
       <c r="E31" s="36"/>
       <c r="F31" s="36"/>
@@ -3453,6 +2903,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C28"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A16:G16"/>
@@ -3460,50 +2916,43 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="C12:C15"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C31"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.4537037037037" customWidth="1"/>
-    <col min="2" max="2" width="31.6296296296296" customWidth="1"/>
-    <col min="3" max="3" width="14.7222222222222" customWidth="1"/>
-    <col min="4" max="4" width="13.6296296296296" customWidth="1"/>
-    <col min="5" max="5" width="15.6296296296296" customWidth="1"/>
-    <col min="6" max="6" width="14.9074074074074" customWidth="1"/>
-    <col min="7" max="7" width="90.7222222222222" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
+    <col min="2" max="2" width="31.6328125" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" customWidth="1"/>
+    <col min="7" max="7" width="90.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.4" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" ht="23.15" customHeight="1" spans="1:7">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:7" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3526,25 +2975,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="22" customHeight="1" spans="1:7">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" ht="15.6" spans="1:7">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="60">
         <v>43638</v>
       </c>
       <c r="D4" s="32">
@@ -3558,14 +3007,14 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" ht="15.6" spans="1:7">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -3575,8 +3024,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" ht="15.6" spans="1:7">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="54" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -3596,12 +3045,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" ht="15.6" spans="1:7">
-      <c r="A7" s="19"/>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="55"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="60">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -3612,15 +3061,15 @@
         <v>0.9</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" ht="15.6" spans="1:7">
-      <c r="A8" s="20"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="56"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="12">
         <v>43643</v>
       </c>
@@ -3632,14 +3081,14 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" ht="15.6" spans="1:7">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="57" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="60">
         <v>43641</v>
       </c>
       <c r="D9" s="12">
@@ -3653,12 +3102,12 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" ht="15.6" spans="1:7">
-      <c r="A10" s="22"/>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="58"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="23"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12">
         <v>43641</v>
@@ -3667,15 +3116,15 @@
         <v>0.9</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" ht="15.6" spans="1:7">
-      <c r="A11" s="24"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="59"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12">
         <v>43641</v>
@@ -3685,14 +3134,14 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" ht="15.6" spans="1:7">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="57" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="60">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -3703,15 +3152,15 @@
         <v>0.9</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" ht="15.6" spans="1:7">
-      <c r="A13" s="22"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="58"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12">
         <v>43642</v>
@@ -3721,12 +3170,12 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" ht="15.6" spans="1:7">
-      <c r="A14" s="22"/>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="58"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="23"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12">
         <v>43642</v>
@@ -3735,15 +3184,15 @@
         <v>0.9</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" ht="15.6" spans="1:7">
-      <c r="A15" s="24"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="59"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12">
         <v>43642</v>
@@ -3753,25 +3202,25 @@
       </c>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" ht="22" customHeight="1" spans="1:7">
-      <c r="A16" s="25" t="s">
+    <row r="16" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
-    </row>
-    <row r="17" ht="15.6" spans="1:6">
-      <c r="A17" s="21" t="s">
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="57" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="60">
         <v>43643</v>
       </c>
       <c r="D17" s="12">
@@ -3784,12 +3233,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" ht="15.6" spans="1:7">
-      <c r="A18" s="24"/>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="59"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12">
         <v>43643</v>
@@ -3801,14 +3250,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" ht="15.6" spans="1:7">
-      <c r="A19" s="21" t="s">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="57" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="60" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="12"/>
@@ -3816,23 +3265,23 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" ht="15.6" spans="1:7">
-      <c r="A20" s="22"/>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="58"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" ht="15.6" spans="1:7">
-      <c r="A21" s="22"/>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="58"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="60">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -3840,25 +3289,25 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" ht="15.6" spans="1:7">
-      <c r="A22" s="24"/>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="59"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="17"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" ht="15.6" spans="1:7">
-      <c r="A23" s="21" t="s">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="57" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="63" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="12"/>
@@ -3866,36 +3315,36 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" ht="15.6" spans="1:7">
-      <c r="A24" s="22"/>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="58"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="23"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" ht="15.6" spans="1:7">
-      <c r="A25" s="24"/>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="59"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" ht="15.6" spans="1:7">
-      <c r="A26" s="21" t="s">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="57" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="60">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -3903,34 +3352,34 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" ht="15.6" spans="1:7">
-      <c r="A27" s="22"/>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="58"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="23"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" ht="15.6" spans="1:7">
-      <c r="A28" s="22"/>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="58"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" ht="15.6" spans="1:7">
-      <c r="A29" s="22"/>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="58"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="60">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -3938,23 +3387,23 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" ht="15.6" spans="1:7">
-      <c r="A30" s="24"/>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="59"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="23"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" ht="15.6" spans="1:7">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="17"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -3962,12 +3411,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -3982,33 +3425,38 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7222222222222" customWidth="1"/>
-    <col min="2" max="2" width="30.6296296296296" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" customWidth="1"/>
+    <col min="2" max="2" width="30.6328125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.0925925925926" customWidth="1"/>
-    <col min="5" max="5" width="13.2685185185185" customWidth="1"/>
-    <col min="6" max="6" width="14.4537037037037" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" customWidth="1"/>
     <col min="7" max="7" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.4" spans="1:7">
+    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4019,7 +3467,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="21" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -4042,7 +3490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="23.15" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -4053,7 +3501,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" ht="15.6" spans="1:7">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -4074,7 +3522,7 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" ht="15.6" spans="1:7">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
@@ -4090,10 +3538,10 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" ht="15.6" spans="1:7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
@@ -4114,7 +3562,7 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" ht="15.6" spans="1:7">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="19"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
@@ -4130,10 +3578,10 @@
         <v>0.8</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" ht="15.6" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="20"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
@@ -4150,7 +3598,7 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" ht="15.6" spans="1:7">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="21" t="s">
         <v>18</v>
       </c>
@@ -4171,7 +3619,7 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" ht="15.6" spans="1:7">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="22"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
@@ -4185,10 +3633,10 @@
         <v>0.8</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" ht="15.6" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
@@ -4205,7 +3653,7 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" ht="15.6" spans="1:7">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="21" t="s">
         <v>22</v>
       </c>
@@ -4223,10 +3671,10 @@
         <v>0.8</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" ht="15.6" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="22"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
@@ -4237,7 +3685,7 @@
       <c r="F13" s="28"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" ht="15.6" spans="1:7">
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="22"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
@@ -4248,7 +3696,7 @@
       <c r="F14" s="28"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" ht="15.6" spans="1:7">
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
@@ -4259,7 +3707,7 @@
       <c r="F15" s="28"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" ht="24" customHeight="1" spans="1:7">
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>27</v>
       </c>
@@ -4270,7 +3718,7 @@
       <c r="F16" s="26"/>
       <c r="G16" s="27"/>
     </row>
-    <row r="17" ht="15.6" spans="1:7">
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="21" t="s">
         <v>28</v>
       </c>
@@ -4291,7 +3739,7 @@
       </c>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" ht="15.6" spans="1:7">
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
@@ -4308,7 +3756,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" ht="15.6" spans="1:7">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="21" t="s">
         <v>32</v>
       </c>
@@ -4323,7 +3771,7 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" ht="15.6" spans="1:7">
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="22"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
@@ -4334,7 +3782,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" ht="15.6" spans="1:7">
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="22"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
@@ -4347,7 +3795,7 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" ht="15.6" spans="1:7">
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="24"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
@@ -4358,7 +3806,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" ht="31.2" spans="1:7">
+    <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.45">
       <c r="A23" s="21" t="s">
         <v>38</v>
       </c>
@@ -4373,7 +3821,7 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" ht="15.6" spans="1:7">
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="22"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
@@ -4384,7 +3832,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" ht="15.6" spans="1:7">
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="24"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
@@ -4395,7 +3843,7 @@
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" ht="15.6" spans="1:7">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="21" t="s">
         <v>43</v>
       </c>
@@ -4410,7 +3858,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" ht="15.6" spans="1:7">
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="22"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
@@ -4421,7 +3869,7 @@
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" ht="15.6" spans="1:7">
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="22"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
@@ -4432,7 +3880,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" ht="15.6" spans="1:7">
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="22"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
@@ -4445,7 +3893,7 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" ht="15.6" spans="1:7">
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A30" s="24"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
@@ -4456,7 +3904,7 @@
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" ht="15.6" spans="1:7">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
@@ -4468,43 +3916,42 @@
       <c r="G31" s="31"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7222222222222" customWidth="1"/>
-    <col min="2" max="2" width="30.6296296296296" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" customWidth="1"/>
+    <col min="2" max="2" width="30.6328125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.0925925925926" customWidth="1"/>
-    <col min="5" max="5" width="13.2685185185185" customWidth="1"/>
-    <col min="6" max="6" width="14.4537037037037" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" customWidth="1"/>
     <col min="7" max="7" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.4" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" ht="24" customHeight="1" spans="1:7">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -4527,25 +3974,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="21" customHeight="1" spans="1:7">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" ht="15.6" spans="1:7">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="60">
         <v>43638</v>
       </c>
       <c r="D4" s="11"/>
@@ -4556,17 +4003,17 @@
         <v>0.6</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" ht="15.6" spans="1:7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -4576,8 +4023,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" ht="15.6" spans="1:7">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="54" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -4595,12 +4042,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" ht="15.6" spans="1:7">
-      <c r="A7" s="19"/>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="55"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="60">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -4611,15 +4058,15 @@
         <v>0.5</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" ht="15.6" spans="1:7">
-      <c r="A8" s="20"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="56"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12">
         <v>43641</v>
@@ -4628,17 +4075,17 @@
         <v>0.5</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" ht="15.6" spans="1:7">
-      <c r="A9" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="57" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="60">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -4649,15 +4096,15 @@
         <v>0.5</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" ht="15.6" spans="1:7">
-      <c r="A10" s="22"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="58"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="23"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12">
         <v>43642</v>
@@ -4666,15 +4113,15 @@
         <v>0.5</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" ht="15.6" spans="1:7">
-      <c r="A11" s="24"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="59"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12">
         <v>43642</v>
@@ -4684,14 +4131,14 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" ht="15.6" spans="1:7">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="57" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="60">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -4702,15 +4149,15 @@
         <v>0.5</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" ht="15.6" spans="1:7">
-      <c r="A13" s="22"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="58"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12">
         <v>43643</v>
@@ -4720,12 +4167,12 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" ht="15.6" spans="1:7">
-      <c r="A14" s="22"/>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="58"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="23"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12">
         <v>43643</v>
@@ -4735,12 +4182,12 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" ht="15.6" spans="1:7">
-      <c r="A15" s="24"/>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="59"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12">
         <v>43643</v>
@@ -4750,25 +4197,25 @@
       </c>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" ht="21" customHeight="1" spans="1:7">
-      <c r="A16" s="25" t="s">
+    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
-    </row>
-    <row r="17" ht="15.6" spans="1:7">
-      <c r="A17" s="21" t="s">
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="57" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="60">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -4776,29 +4223,29 @@
       <c r="F17" s="28"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" ht="15.6" spans="1:7">
-      <c r="A18" s="24"/>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="59"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13">
         <v>0.4</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" ht="15.6" spans="1:7">
-      <c r="A19" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="57" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="60" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="12"/>
@@ -4806,23 +4253,23 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" ht="15.6" spans="1:7">
-      <c r="A20" s="22"/>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="58"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" ht="15.6" spans="1:7">
-      <c r="A21" s="22"/>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="58"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="60">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -4830,25 +4277,25 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" ht="15.6" spans="1:7">
-      <c r="A22" s="24"/>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="59"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="17"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" ht="15.6" spans="1:7">
-      <c r="A23" s="21" t="s">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="57" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="63" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="12"/>
@@ -4856,36 +4303,36 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" ht="15.6" spans="1:7">
-      <c r="A24" s="22"/>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="58"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="23"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" ht="15.6" spans="1:7">
-      <c r="A25" s="24"/>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="59"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" ht="15.6" spans="1:7">
-      <c r="A26" s="21" t="s">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="57" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="60">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -4893,34 +4340,34 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" ht="15.6" spans="1:7">
-      <c r="A27" s="22"/>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="58"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="23"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" ht="15.6" spans="1:7">
-      <c r="A28" s="22"/>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="58"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" ht="15.6" spans="1:7">
-      <c r="A29" s="22"/>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="58"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="60">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -4928,23 +4375,23 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" ht="15.6" spans="1:7">
-      <c r="A30" s="24"/>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="59"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="23"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" ht="15.6" spans="1:7">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="17"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -4952,12 +4399,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -4972,9 +4413,15 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/樊佩茹/项目进度控制表-樊佩茹 .xlsx
+++ b/樊佩茹/项目进度控制表-樊佩茹 .xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SDX\Desktop\hgkj_02\樊佩茹\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBFEABC-21AD-48D6-8EA4-A5AC844B571C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="樊佩茹" sheetId="1" r:id="rId1"/>
@@ -26,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="62">
   <si>
     <t>进度控制表-在线点餐的设计与实现</t>
   </si>
@@ -210,12 +204,16 @@
   </si>
   <si>
     <t>2019/629</t>
+  </si>
+  <si>
+    <t>30天登录未做</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -589,6 +587,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -624,32 +643,11 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -950,33 +948,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="29.7265625" customWidth="1"/>
-    <col min="3" max="6" width="15.6328125" customWidth="1"/>
-    <col min="7" max="7" width="84.6328125" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="29.75" customWidth="1"/>
+    <col min="3" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="84.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-    </row>
-    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -999,25 +997,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="44" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:7" s="44" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-    </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="48">
         <v>43638</v>
       </c>
       <c r="D4" s="11"/>
@@ -1031,14 +1029,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="61"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -1048,8 +1046,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="54" t="s">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="61" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -1069,12 +1067,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="55"/>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="62"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="48">
         <v>43640</v>
       </c>
       <c r="D7" s="12">
@@ -1088,12 +1086,12 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="56"/>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="63"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="12">
         <v>43641</v>
       </c>
@@ -1105,14 +1103,14 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="57" t="s">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="45" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="48">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -1124,12 +1122,12 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="58"/>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="47"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="62"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="12">
         <v>43645</v>
       </c>
@@ -1141,12 +1139,12 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="59"/>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="46"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="12">
         <v>43643</v>
       </c>
@@ -1158,14 +1156,14 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="57" t="s">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="45" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="60">
+      <c r="C12" s="48">
         <v>43642</v>
       </c>
       <c r="D12" s="12">
@@ -1179,12 +1177,12 @@
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="58"/>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="47"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="62"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="12">
         <v>43643</v>
       </c>
@@ -1196,12 +1194,12 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="58"/>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="47"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="62"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="12">
         <v>43643</v>
       </c>
@@ -1213,12 +1211,12 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="59"/>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="46"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="61"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="12">
         <v>43643</v>
       </c>
@@ -1230,25 +1228,25 @@
       </c>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="57" t="s">
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="45" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="48">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -1262,12 +1260,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="59"/>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="46"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="61"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="12">
         <v>43644</v>
       </c>
@@ -1279,14 +1277,14 @@
       </c>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="57" t="s">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="45" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="48" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="12"/>
@@ -1294,23 +1292,23 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="58"/>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="47"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="61"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="58"/>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="47"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="60">
+      <c r="C21" s="48">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -1318,25 +1316,25 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="59"/>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="46"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="61"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="57" t="s">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="45" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="51" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="12"/>
@@ -1344,36 +1342,36 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="58"/>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="47"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="50"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="59"/>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="46"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="57" t="s">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="45" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="60">
+      <c r="C26" s="48">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -1381,34 +1379,34 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="58"/>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="47"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="62"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="58"/>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="47"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="58"/>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="47"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="60">
+      <c r="C29" s="48">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -1416,23 +1414,23 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="59"/>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="46"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="62"/>
+      <c r="C30" s="50"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="61"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -1440,6 +1438,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -1454,12 +1458,6 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1468,36 +1466,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+    <sheetView topLeftCell="B5" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.90625" customWidth="1"/>
-    <col min="2" max="2" width="32.90625" customWidth="1"/>
-    <col min="3" max="3" width="15.08984375" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" customWidth="1"/>
-    <col min="5" max="5" width="14.90625" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" customWidth="1"/>
-    <col min="7" max="7" width="81.08984375" customWidth="1"/>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="32.875" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="81.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
+    </row>
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1520,25 +1518,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="48">
         <v>43638</v>
       </c>
       <c r="D4" s="11"/>
@@ -1552,14 +1550,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="61"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -1569,8 +1567,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="54" t="s">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="61" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -1590,12 +1588,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="55"/>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="62"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="48">
         <v>43640</v>
       </c>
       <c r="D7" s="12">
@@ -1609,12 +1607,12 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="56"/>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="63"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="12">
         <v>43644</v>
       </c>
@@ -1626,14 +1624,14 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="57" t="s">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="45" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="48">
         <v>43641</v>
       </c>
       <c r="D9" s="12">
@@ -1647,12 +1645,12 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="58"/>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="47"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="62"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="12">
         <v>43646</v>
       </c>
@@ -1664,12 +1662,12 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="59"/>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="46"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12">
         <v>43645</v>
@@ -1679,14 +1677,14 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="57" t="s">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="45" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="60">
+      <c r="C12" s="48">
         <v>43642</v>
       </c>
       <c r="D12" s="12">
@@ -1700,23 +1698,23 @@
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="58"/>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="47"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="62"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="13"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="58"/>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="47"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="62"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="12">
         <v>43646</v>
       </c>
@@ -1728,36 +1726,36 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="59"/>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="46"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="61"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="28"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="57" t="s">
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="45" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="48">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -1769,12 +1767,12 @@
       </c>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="59"/>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="46"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="61"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12">
         <v>43643</v>
@@ -1786,14 +1784,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="57" t="s">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="45" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="48" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="12"/>
@@ -1801,23 +1799,23 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="58"/>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="47"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="61"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="58"/>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="47"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="60">
+      <c r="C21" s="48">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -1825,25 +1823,25 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="59"/>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="46"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="61"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="57" t="s">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="45" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="51" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="12"/>
@@ -1851,36 +1849,36 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="58"/>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="47"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="50"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="59"/>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="46"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="57" t="s">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="45" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="60">
+      <c r="C26" s="48">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -1888,34 +1886,34 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="58"/>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="47"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="62"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="58"/>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="47"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="58"/>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="47"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="60">
+      <c r="C29" s="48">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -1923,23 +1921,23 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="59"/>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="46"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="62"/>
+      <c r="C30" s="50"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="61"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -1947,6 +1945,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -1961,12 +1965,6 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1975,25 +1973,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C13" sqref="A1:G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.36328125" customWidth="1"/>
-    <col min="2" max="2" width="31.6328125" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="31.625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="87.6328125" customWidth="1"/>
+    <col min="7" max="7" width="87.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2004,7 +2002,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2027,7 +2025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2038,7 +2036,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -2059,7 +2057,7 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
@@ -2076,7 +2074,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
@@ -2097,7 +2095,7 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
@@ -2116,7 +2114,7 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="20"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
@@ -2133,7 +2131,7 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>18</v>
       </c>
@@ -2154,7 +2152,7 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="22"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
@@ -2169,7 +2167,7 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
@@ -2186,7 +2184,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>22</v>
       </c>
@@ -2207,7 +2205,7 @@
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="22"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
@@ -2224,7 +2222,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="22"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
@@ -2239,7 +2237,7 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
@@ -2254,7 +2252,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="25" t="s">
         <v>27</v>
       </c>
@@ -2265,7 +2263,7 @@
       <c r="F16" s="26"/>
       <c r="G16" s="27"/>
     </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>28</v>
       </c>
@@ -2283,7 +2281,7 @@
       </c>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
@@ -2298,7 +2296,7 @@
       </c>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>32</v>
       </c>
@@ -2313,7 +2311,7 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="22"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
@@ -2324,7 +2322,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="22"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
@@ -2337,7 +2335,7 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="24"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
@@ -2348,7 +2346,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
         <v>38</v>
       </c>
@@ -2363,7 +2361,7 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="22"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
@@ -2374,7 +2372,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="24"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
@@ -2385,7 +2383,7 @@
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
         <v>43</v>
       </c>
@@ -2400,7 +2398,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="22"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
@@ -2411,7 +2409,7 @@
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="22"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
@@ -2422,7 +2420,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="22"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
@@ -2435,7 +2433,7 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="24"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
@@ -2446,7 +2444,7 @@
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
@@ -2465,37 +2463,37 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.453125" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" style="33" customWidth="1"/>
-    <col min="3" max="3" width="25.36328125" style="33" customWidth="1"/>
-    <col min="4" max="4" width="18.90625" style="33" customWidth="1"/>
-    <col min="5" max="5" width="18.453125" style="33" customWidth="1"/>
-    <col min="6" max="6" width="16.6328125" style="33" customWidth="1"/>
-    <col min="7" max="7" width="47.36328125" style="33" customWidth="1"/>
+    <col min="1" max="1" width="16.5" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="25.375" style="33" customWidth="1"/>
+    <col min="4" max="4" width="18.875" style="33" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="33" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="47.375" style="33" customWidth="1"/>
     <col min="8" max="16384" width="11" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2518,25 +2516,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="48">
         <v>43638</v>
       </c>
       <c r="D4" s="36"/>
@@ -2546,14 +2544,14 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="61"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="13">
@@ -2561,7 +2559,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
@@ -2578,12 +2576,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="48">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -2593,12 +2591,12 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="38"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="13">
@@ -2606,14 +2604,14 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="48">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -2623,12 +2621,12 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="38"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="62"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="13">
@@ -2636,12 +2634,12 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="40"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="13">
@@ -2649,14 +2647,14 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="60">
+      <c r="C12" s="48">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -2666,12 +2664,12 @@
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="62"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="13">
@@ -2679,12 +2677,12 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="41"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="62"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="13">
@@ -2692,12 +2690,12 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="42"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="61"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="13">
@@ -2705,25 +2703,25 @@
       </c>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="39" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="48">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -2731,25 +2729,25 @@
       <c r="F17" s="28"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="42"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="61"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="39" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="48" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="12"/>
@@ -2757,23 +2755,23 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="42"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="61"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="42"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="60">
+      <c r="C21" s="48">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -2781,25 +2779,25 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="41"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="61"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="51" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="12"/>
@@ -2807,36 +2805,36 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="50"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="27" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A26" s="39" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="60">
+      <c r="C26" s="48">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -2844,34 +2842,34 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="62"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="42"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="42"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="60">
+      <c r="C29" s="48">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -2879,23 +2877,23 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="62"/>
+      <c r="C30" s="50"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="28"/>
       <c r="G30" s="43"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="36"/>
       <c r="B31" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="61"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="36"/>
       <c r="E31" s="36"/>
       <c r="F31" s="36"/>
@@ -2903,12 +2901,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C28"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A16:G16"/>
@@ -2916,6 +2908,12 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C28"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -2923,36 +2921,36 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.453125" customWidth="1"/>
-    <col min="2" max="2" width="31.6328125" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" customWidth="1"/>
-    <col min="4" max="4" width="13.6328125" customWidth="1"/>
-    <col min="5" max="5" width="15.6328125" customWidth="1"/>
-    <col min="6" max="6" width="14.90625" customWidth="1"/>
-    <col min="7" max="7" width="90.7265625" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="31.625" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="90.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-    </row>
-    <row r="2" spans="1:7" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
+    </row>
+    <row r="2" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2975,25 +2973,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="48">
         <v>43638</v>
       </c>
       <c r="D4" s="32">
@@ -3007,14 +3005,14 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="61"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -3024,8 +3022,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="54" t="s">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="61" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -3045,31 +3043,31 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="55"/>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="62"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="48">
         <v>43640</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="12">
+        <v>43647</v>
+      </c>
       <c r="E7" s="12">
         <v>43641</v>
       </c>
       <c r="F7" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="56"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="63"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="12">
         <v>43643</v>
       </c>
@@ -3081,14 +3079,14 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="57" t="s">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="45" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="48">
         <v>43641</v>
       </c>
       <c r="D9" s="12">
@@ -3102,162 +3100,169 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="58"/>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="47"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="12"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="12">
+        <v>43647</v>
+      </c>
       <c r="E10" s="12">
         <v>43641</v>
       </c>
       <c r="F10" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="59"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="46"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="12"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="12">
+        <v>43647</v>
+      </c>
       <c r="E11" s="12">
         <v>43641</v>
       </c>
       <c r="F11" s="13">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="57" t="s">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="45" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="60">
+      <c r="C12" s="48">
         <v>43642</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="12">
+        <v>43647</v>
+      </c>
       <c r="E12" s="12">
         <v>43642</v>
       </c>
       <c r="F12" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="58"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="47"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="12"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="12">
+        <v>43647</v>
+      </c>
       <c r="E13" s="12">
         <v>43642</v>
       </c>
       <c r="F13" s="13">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="58"/>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="47"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="12"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="12">
+        <v>43647</v>
+      </c>
       <c r="E14" s="12">
         <v>43642</v>
       </c>
       <c r="F14" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="59"/>
+        <v>1</v>
+      </c>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="46"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="12"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="12">
+        <v>43647</v>
+      </c>
       <c r="E15" s="12">
         <v>43642</v>
       </c>
       <c r="F15" s="13">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+    <row r="16" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="57" t="s">
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="45" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="48">
         <v>43643</v>
       </c>
-      <c r="D17" s="12">
-        <v>43643</v>
-      </c>
+      <c r="D17" s="12"/>
       <c r="E17" s="12">
         <v>43643</v>
       </c>
       <c r="F17" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="59"/>
+        <v>0.8</v>
+      </c>
+      <c r="G17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="46"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="12"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="12">
+        <v>43644</v>
+      </c>
       <c r="E18" s="12">
         <v>43643</v>
       </c>
       <c r="F18" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="45" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="48" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="12"/>
@@ -3265,23 +3270,23 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="58"/>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="47"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="61"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="58"/>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="47"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="60">
+      <c r="C21" s="48">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -3289,25 +3294,25 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="59"/>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="46"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="61"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="57" t="s">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="45" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="51" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="12"/>
@@ -3315,36 +3320,36 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="58"/>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="47"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="50"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="59"/>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="46"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="57" t="s">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="45" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="60">
+      <c r="C26" s="48">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -3352,34 +3357,34 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="58"/>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="47"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="62"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="58"/>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="47"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="58"/>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="47"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="60">
+      <c r="C29" s="48">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -3387,23 +3392,23 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="59"/>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="46"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="62"/>
+      <c r="C30" s="50"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="61"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -3411,6 +3416,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -3425,12 +3436,6 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -3438,25 +3443,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" customWidth="1"/>
-    <col min="2" max="2" width="30.6328125" customWidth="1"/>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
     <col min="7" max="7" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3467,7 +3472,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3490,7 +3495,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -3501,7 +3506,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -3522,7 +3527,7 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
@@ -3541,7 +3546,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
@@ -3562,7 +3567,7 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
@@ -3581,7 +3586,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="20"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
@@ -3598,7 +3603,7 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>18</v>
       </c>
@@ -3619,7 +3624,7 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="22"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
@@ -3636,7 +3641,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
@@ -3653,7 +3658,7 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>22</v>
       </c>
@@ -3674,7 +3679,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="22"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
@@ -3685,7 +3690,7 @@
       <c r="F13" s="28"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="22"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
@@ -3696,7 +3701,7 @@
       <c r="F14" s="28"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
@@ -3707,7 +3712,7 @@
       <c r="F15" s="28"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="25" t="s">
         <v>27</v>
       </c>
@@ -3718,7 +3723,7 @@
       <c r="F16" s="26"/>
       <c r="G16" s="27"/>
     </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>28</v>
       </c>
@@ -3739,7 +3744,7 @@
       </c>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
@@ -3756,7 +3761,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>32</v>
       </c>
@@ -3771,7 +3776,7 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="22"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
@@ -3782,7 +3787,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="22"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
@@ -3795,7 +3800,7 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="24"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
@@ -3806,7 +3811,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
         <v>38</v>
       </c>
@@ -3821,7 +3826,7 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="22"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
@@ -3832,7 +3837,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="24"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
@@ -3843,7 +3848,7 @@
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
         <v>43</v>
       </c>
@@ -3858,7 +3863,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="22"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
@@ -3869,7 +3874,7 @@
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="22"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
@@ -3880,7 +3885,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="22"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
@@ -3893,7 +3898,7 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="24"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
@@ -3904,7 +3909,7 @@
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
@@ -3922,36 +3927,36 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" customWidth="1"/>
-    <col min="2" max="2" width="30.6328125" customWidth="1"/>
+    <col min="1" max="1" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
     <col min="7" max="7" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-    </row>
-    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
+    </row>
+    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3974,25 +3979,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="48">
         <v>43638</v>
       </c>
       <c r="D4" s="11"/>
@@ -4006,14 +4011,14 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="61"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -4023,8 +4028,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="54" t="s">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="61" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -4042,12 +4047,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="55"/>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="62"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="48">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -4061,12 +4066,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="56"/>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="63"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12">
         <v>43641</v>
@@ -4078,14 +4083,14 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="57" t="s">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="45" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="48">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -4099,12 +4104,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="58"/>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="47"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="62"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12">
         <v>43642</v>
@@ -4116,12 +4121,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="59"/>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="46"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12">
         <v>43642</v>
@@ -4131,14 +4136,14 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="57" t="s">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="45" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="60">
+      <c r="C12" s="48">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -4152,12 +4157,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="58"/>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="47"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="62"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12">
         <v>43643</v>
@@ -4167,12 +4172,12 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="58"/>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="47"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="62"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12">
         <v>43643</v>
@@ -4182,12 +4187,12 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="59"/>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="46"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="61"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12">
         <v>43643</v>
@@ -4197,25 +4202,25 @@
       </c>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="57" t="s">
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="45" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="48">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -4223,12 +4228,12 @@
       <c r="F17" s="28"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="59"/>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="46"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="61"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13">
@@ -4238,14 +4243,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="57" t="s">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="45" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="48" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="12"/>
@@ -4253,23 +4258,23 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="58"/>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="47"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="61"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="58"/>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="47"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="60">
+      <c r="C21" s="48">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -4277,25 +4282,25 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="59"/>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="46"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="61"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="57" t="s">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="45" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="51" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="12"/>
@@ -4303,36 +4308,36 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="58"/>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="47"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="50"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="59"/>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="46"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="57" t="s">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="45" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="60">
+      <c r="C26" s="48">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -4340,34 +4345,34 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="58"/>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="47"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="62"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="58"/>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="47"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="58"/>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="47"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="60">
+      <c r="C29" s="48">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -4375,23 +4380,23 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="59"/>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="46"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="62"/>
+      <c r="C30" s="50"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="61"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -4399,6 +4404,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -4413,12 +4424,6 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/樊佩茹/项目进度控制表-樊佩茹 .xlsx
+++ b/樊佩茹/项目进度控制表-樊佩茹 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19428" windowHeight="10428" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="樊佩茹" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="59">
   <si>
     <t>进度控制表-在线点餐的设计与实现</t>
   </si>
@@ -179,34 +179,27 @@
     <t>30天内自动登录没做</t>
   </si>
   <si>
-    <t>分页未做</t>
-  </si>
-  <si>
     <t>直接退出</t>
   </si>
   <si>
     <t>假分页</t>
   </si>
   <si>
-    <t>js校验未做，验证码校验有问题</t>
-  </si>
-  <si>
-    <t>未成功 获取不到对应元素</t>
+    <t>多张图片修改</t>
+  </si>
+  <si>
+    <t>2019/629</t>
+  </si>
+  <si>
+    <t>30天登录未做</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>30天内自动登录未做</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>未成功</t>
-  </si>
-  <si>
-    <t>校验未做，30天内自动登录未做</t>
-  </si>
-  <si>
-    <t>多张图片修改</t>
-  </si>
-  <si>
-    <t>2019/629</t>
-  </si>
-  <si>
-    <t>30天登录未做</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -587,15 +580,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -607,42 +636,6 @@
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -955,26 +948,26 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="29.75" customWidth="1"/>
-    <col min="3" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="84.625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" customWidth="1"/>
+    <col min="3" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="84.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:7" ht="32.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="54"/>
-    </row>
-    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -997,25 +990,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="44" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="55" t="s">
+    <row r="3" spans="1:7" s="44" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="57"/>
-    </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="60">
         <v>43638</v>
       </c>
       <c r="D4" s="11"/>
@@ -1029,14 +1022,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="49"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -1046,8 +1039,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="61" t="s">
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A6" s="54" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -1067,12 +1060,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="62"/>
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A7" s="55"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="60">
         <v>43640</v>
       </c>
       <c r="D7" s="12">
@@ -1086,12 +1079,12 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="63"/>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A8" s="56"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="49"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="12">
         <v>43641</v>
       </c>
@@ -1103,14 +1096,14 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="45" t="s">
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A9" s="57" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="60">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -1122,12 +1115,12 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A10" s="58"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="50"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="12">
         <v>43645</v>
       </c>
@@ -1139,12 +1132,12 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A11" s="59"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="49"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="12">
         <v>43643</v>
       </c>
@@ -1156,14 +1149,14 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A12" s="57" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C12" s="60">
         <v>43642</v>
       </c>
       <c r="D12" s="12">
@@ -1177,12 +1170,12 @@
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A13" s="58"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="50"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="12">
         <v>43643</v>
       </c>
@@ -1194,12 +1187,12 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A14" s="58"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="50"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="12">
         <v>43643</v>
       </c>
@@ -1211,12 +1204,12 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A15" s="59"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="49"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="12">
         <v>43643</v>
       </c>
@@ -1228,25 +1221,25 @@
       </c>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="58" t="s">
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="60"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="45" t="s">
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A17" s="57" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="48">
+      <c r="C17" s="60">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -1260,12 +1253,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="46"/>
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A18" s="59"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="49"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="12">
         <v>43644</v>
       </c>
@@ -1277,14 +1270,14 @@
       </c>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="45" t="s">
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A19" s="57" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="60" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="12"/>
@@ -1292,23 +1285,23 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="47"/>
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A20" s="58"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="49"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="47"/>
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A21" s="58"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="48">
+      <c r="C21" s="60">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -1316,25 +1309,25 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="46"/>
+    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A22" s="59"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="45" t="s">
+    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A23" s="57" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="63" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="12"/>
@@ -1342,36 +1335,36 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="47"/>
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A24" s="58"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="50"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="46"/>
+    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A25" s="59"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="49"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="45" t="s">
+    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A26" s="57" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="60">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -1379,34 +1372,34 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="47"/>
+    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A27" s="58"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="50"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="47"/>
+    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A28" s="58"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="49"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="47"/>
+    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A29" s="58"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="48">
+      <c r="C29" s="60">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -1414,23 +1407,23 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="46"/>
+    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A30" s="59"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="50"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="49"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -1438,12 +1431,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -1458,6 +1445,12 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1473,29 +1466,29 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.875" customWidth="1"/>
-    <col min="2" max="2" width="32.875" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="81.125" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="81.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:7" ht="32.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="54"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1518,25 +1511,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="55" t="s">
+    <row r="3" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="57"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="60">
         <v>43638</v>
       </c>
       <c r="D4" s="11"/>
@@ -1550,14 +1543,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="49"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -1567,8 +1560,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="61" t="s">
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A6" s="54" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -1588,12 +1581,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="62"/>
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A7" s="55"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="60">
         <v>43640</v>
       </c>
       <c r="D7" s="12">
@@ -1607,12 +1600,12 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="63"/>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A8" s="56"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="49"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="12">
         <v>43644</v>
       </c>
@@ -1624,14 +1617,14 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="45" t="s">
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A9" s="57" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="60">
         <v>43641</v>
       </c>
       <c r="D9" s="12">
@@ -1645,12 +1638,12 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A10" s="58"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="50"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="12">
         <v>43646</v>
       </c>
@@ -1662,12 +1655,12 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A11" s="59"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="49"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12">
         <v>43645</v>
@@ -1677,14 +1670,14 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A12" s="57" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C12" s="60">
         <v>43642</v>
       </c>
       <c r="D12" s="12">
@@ -1698,23 +1691,23 @@
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A13" s="58"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="50"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="13"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A14" s="58"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="50"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="12">
         <v>43646</v>
       </c>
@@ -1726,36 +1719,36 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A15" s="59"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="49"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="28"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="58" t="s">
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="60"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="45" t="s">
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A17" s="57" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="48">
+      <c r="C17" s="60">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -1767,12 +1760,12 @@
       </c>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="46"/>
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A18" s="59"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="49"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12">
         <v>43643</v>
@@ -1784,14 +1777,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="45" t="s">
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A19" s="57" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="60" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="12"/>
@@ -1799,23 +1792,23 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="47"/>
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A20" s="58"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="49"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="47"/>
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A21" s="58"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="48">
+      <c r="C21" s="60">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -1823,25 +1816,25 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="46"/>
+    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A22" s="59"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="45" t="s">
+    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A23" s="57" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="63" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="12"/>
@@ -1849,36 +1842,36 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="47"/>
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A24" s="58"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="50"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="46"/>
+    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A25" s="59"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="49"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="45" t="s">
+    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A26" s="57" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="60">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -1886,34 +1879,34 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="47"/>
+    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A27" s="58"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="50"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="47"/>
+    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A28" s="58"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="49"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="47"/>
+    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A29" s="58"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="48">
+      <c r="C29" s="60">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -1921,23 +1914,23 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="46"/>
+    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A30" s="59"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="50"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="49"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -1945,12 +1938,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -1965,6 +1952,12 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1980,18 +1973,18 @@
       <selection activeCell="C13" sqref="A1:G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="31.625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="87.625" customWidth="1"/>
+    <col min="7" max="7" width="87.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2002,7 +1995,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2025,7 +2018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2036,7 +2029,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -2057,7 +2050,7 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
@@ -2074,7 +2067,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
@@ -2095,7 +2088,7 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="19"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
@@ -2114,7 +2107,7 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="20"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
@@ -2131,7 +2124,7 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
         <v>18</v>
       </c>
@@ -2152,7 +2145,7 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="22"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
@@ -2167,7 +2160,7 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
@@ -2181,10 +2174,10 @@
         <v>0.6</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="21" t="s">
         <v>22</v>
       </c>
@@ -2205,7 +2198,7 @@
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="22"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
@@ -2219,10 +2212,10 @@
         <v>0.6</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="22"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
@@ -2237,7 +2230,7 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
@@ -2249,10 +2242,10 @@
         <v>0.6</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>27</v>
       </c>
@@ -2263,7 +2256,7 @@
       <c r="F16" s="26"/>
       <c r="G16" s="27"/>
     </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="21" t="s">
         <v>28</v>
       </c>
@@ -2274,14 +2267,14 @@
         <v>43643</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F17" s="13">
         <v>1</v>
       </c>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
@@ -2296,7 +2289,7 @@
       </c>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" s="21" t="s">
         <v>32</v>
       </c>
@@ -2311,7 +2304,7 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="22"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
@@ -2322,7 +2315,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="22"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
@@ -2335,7 +2328,7 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" s="24"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
@@ -2346,7 +2339,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A23" s="21" t="s">
         <v>38</v>
       </c>
@@ -2361,7 +2354,7 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="22"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
@@ -2372,7 +2365,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="24"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
@@ -2383,7 +2376,7 @@
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="21" t="s">
         <v>43</v>
       </c>
@@ -2398,7 +2391,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="22"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
@@ -2409,7 +2402,7 @@
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="22"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
@@ -2420,7 +2413,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="22"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
@@ -2433,7 +2426,7 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A30" s="24"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
@@ -2444,7 +2437,7 @@
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
@@ -2470,30 +2463,30 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.625" style="33" customWidth="1"/>
-    <col min="3" max="3" width="25.375" style="33" customWidth="1"/>
-    <col min="4" max="4" width="18.875" style="33" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="33" customWidth="1"/>
-    <col min="6" max="6" width="16.625" style="33" customWidth="1"/>
-    <col min="7" max="7" width="47.375" style="33" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="33" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="47.33203125" style="33" customWidth="1"/>
     <col min="8" max="16384" width="11" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:7" ht="32.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="54"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2516,25 +2509,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="55" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="57"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="60">
         <v>43638</v>
       </c>
       <c r="D4" s="36"/>
@@ -2544,14 +2537,14 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="49"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="13">
@@ -2559,7 +2552,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
@@ -2576,12 +2569,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="60">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -2591,12 +2584,12 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="38"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="49"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="13">
@@ -2604,14 +2597,14 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="39" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="60">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -2621,12 +2614,12 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="38"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="50"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="13">
@@ -2634,12 +2627,12 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="40"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="49"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="13">
@@ -2647,14 +2640,14 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="39" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C12" s="60">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -2664,12 +2657,12 @@
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="15"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="50"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="13">
@@ -2677,12 +2670,12 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="41"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="50"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="13">
@@ -2690,12 +2683,12 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="42"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="49"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="13">
@@ -2703,25 +2696,25 @@
       </c>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="58" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="60"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="39" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="48">
+      <c r="C17" s="60">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -2729,25 +2722,25 @@
       <c r="F17" s="28"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="42"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="49"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" s="39" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="60" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="12"/>
@@ -2755,23 +2748,23 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="42"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="49"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="42"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="48">
+      <c r="C21" s="60">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -2779,25 +2772,25 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" s="41"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A23" s="39" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="63" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="12"/>
@@ -2805,36 +2798,36 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="40"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="50"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="40"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="49"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.35">
       <c r="A26" s="39" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="60">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -2842,34 +2835,34 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="40"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="50"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="42"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="49"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="42"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="48">
+      <c r="C29" s="60">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -2877,23 +2870,23 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A30" s="15"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="50"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="28"/>
       <c r="G30" s="43"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A31" s="36"/>
       <c r="B31" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="49"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="36"/>
       <c r="E31" s="36"/>
       <c r="F31" s="36"/>
@@ -2901,6 +2894,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C28"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A16:G16"/>
@@ -2908,12 +2907,6 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="C12:C15"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C28"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -2924,33 +2917,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="31.625" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="7" max="7" width="90.75" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="90.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:7" ht="32.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="54"/>
-    </row>
-    <row r="2" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2973,25 +2966,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="55" t="s">
+    <row r="3" spans="1:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="57"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="60">
         <v>43638</v>
       </c>
       <c r="D4" s="32">
@@ -3005,14 +2998,14 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="49"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -3022,8 +3015,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="61" t="s">
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A6" s="54" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -3043,12 +3036,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="62"/>
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A7" s="55"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="60">
         <v>43640</v>
       </c>
       <c r="D7" s="12">
@@ -3062,12 +3055,12 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="63"/>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A8" s="56"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="49"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="12">
         <v>43643</v>
       </c>
@@ -3079,14 +3072,14 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="45" t="s">
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A9" s="57" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="60">
         <v>43641</v>
       </c>
       <c r="D9" s="12">
@@ -3100,12 +3093,12 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A10" s="58"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="50"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="12">
         <v>43647</v>
       </c>
@@ -3117,12 +3110,12 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A11" s="59"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="49"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="12">
         <v>43647</v>
       </c>
@@ -3134,14 +3127,14 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A12" s="57" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C12" s="60">
         <v>43642</v>
       </c>
       <c r="D12" s="12">
@@ -3155,12 +3148,12 @@
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A13" s="58"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="50"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="12">
         <v>43647</v>
       </c>
@@ -3172,12 +3165,12 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A14" s="58"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="50"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="12">
         <v>43647</v>
       </c>
@@ -3189,12 +3182,12 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A15" s="59"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="49"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="12">
         <v>43647</v>
       </c>
@@ -3206,25 +3199,25 @@
       </c>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="58" t="s">
+    <row r="16" spans="1:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="60"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="45" t="s">
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A17" s="57" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="48">
+      <c r="C17" s="60">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -3235,15 +3228,15 @@
         <v>0.8</v>
       </c>
       <c r="G17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="46"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A18" s="59"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="49"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="12">
         <v>43644</v>
       </c>
@@ -3255,14 +3248,14 @@
       </c>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="45" t="s">
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A19" s="57" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="60" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="12"/>
@@ -3270,23 +3263,23 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="47"/>
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A20" s="58"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="49"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="47"/>
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A21" s="58"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="48">
+      <c r="C21" s="60">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -3294,25 +3287,25 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="46"/>
+    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A22" s="59"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="45" t="s">
+    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A23" s="57" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="63" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="12"/>
@@ -3320,36 +3313,36 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="47"/>
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A24" s="58"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="50"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="46"/>
+    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A25" s="59"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="49"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="45" t="s">
+    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A26" s="57" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="60">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -3357,34 +3350,34 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="47"/>
+    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A27" s="58"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="50"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="47"/>
+    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A28" s="58"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="49"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="47"/>
+    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A29" s="58"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="48">
+      <c r="C29" s="60">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -3392,23 +3385,23 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="46"/>
+    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A30" s="59"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="50"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="49"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -3416,12 +3409,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -3436,6 +3423,12 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -3450,18 +3443,18 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
-    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
     <col min="7" max="7" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3472,7 +3465,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3495,7 +3488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -3506,7 +3499,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -3527,7 +3520,7 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
@@ -3543,10 +3536,10 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
@@ -3567,7 +3560,7 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="19"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
@@ -3583,10 +3576,10 @@
         <v>0.8</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="20"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
@@ -3603,7 +3596,7 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
         <v>18</v>
       </c>
@@ -3624,7 +3617,7 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="22"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
@@ -3638,10 +3631,10 @@
         <v>0.8</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
@@ -3658,7 +3651,7 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="21" t="s">
         <v>22</v>
       </c>
@@ -3676,10 +3669,10 @@
         <v>0.8</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="22"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
@@ -3690,7 +3683,7 @@
       <c r="F13" s="28"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="22"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
@@ -3701,7 +3694,7 @@
       <c r="F14" s="28"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
@@ -3712,7 +3705,7 @@
       <c r="F15" s="28"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>27</v>
       </c>
@@ -3723,7 +3716,7 @@
       <c r="F16" s="26"/>
       <c r="G16" s="27"/>
     </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="21" t="s">
         <v>28</v>
       </c>
@@ -3744,7 +3737,7 @@
       </c>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
@@ -3761,7 +3754,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" s="21" t="s">
         <v>32</v>
       </c>
@@ -3776,7 +3769,7 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="22"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
@@ -3787,7 +3780,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="22"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
@@ -3800,7 +3793,7 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" s="24"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
@@ -3811,7 +3804,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A23" s="21" t="s">
         <v>38</v>
       </c>
@@ -3826,7 +3819,7 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="22"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
@@ -3837,7 +3830,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="24"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
@@ -3848,7 +3841,7 @@
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="21" t="s">
         <v>43</v>
       </c>
@@ -3863,7 +3856,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="22"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
@@ -3874,7 +3867,7 @@
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="22"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
@@ -3885,7 +3878,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="22"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
@@ -3898,7 +3891,7 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A30" s="24"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
@@ -3909,7 +3902,7 @@
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
@@ -3930,33 +3923,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
     <col min="7" max="7" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:7" ht="32.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="54"/>
-    </row>
-    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3979,25 +3972,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="55" t="s">
+    <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="57"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="60">
         <v>43638</v>
       </c>
       <c r="D4" s="11"/>
@@ -4005,20 +3998,18 @@
         <v>43640</v>
       </c>
       <c r="F4" s="13">
-        <v>0.6</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="49"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -4028,8 +4019,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="61" t="s">
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A6" s="54" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -4047,12 +4038,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="62"/>
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A7" s="55"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="60">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -4060,37 +4051,33 @@
         <v>43641</v>
       </c>
       <c r="F7" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="63"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A8" s="56"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="49"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12">
         <v>43641</v>
       </c>
       <c r="F8" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A9" s="57" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="60">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -4098,52 +4085,48 @@
         <v>43642</v>
       </c>
       <c r="F9" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A10" s="58"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="50"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12">
         <v>43642</v>
       </c>
       <c r="F10" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A11" s="59"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="49"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12">
         <v>43642</v>
       </c>
       <c r="F11" s="13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A12" s="57" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C12" s="60">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -4151,106 +4134,112 @@
         <v>43642</v>
       </c>
       <c r="F12" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A13" s="58"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="50"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12">
         <v>43643</v>
       </c>
       <c r="F13" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A14" s="58"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="50"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12">
         <v>43643</v>
       </c>
       <c r="F14" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A15" s="59"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="49"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12">
         <v>43643</v>
       </c>
       <c r="F15" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="58" t="s">
+    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="60"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="45" t="s">
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A17" s="57" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="48">
+      <c r="C17" s="60">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="46"/>
+      <c r="E17" s="12">
+        <v>43644</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A18" s="59"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="49"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="E18" s="12">
+        <v>43644</v>
+      </c>
       <c r="F18" s="13">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="45" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A19" s="57" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="60" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="12"/>
@@ -4258,23 +4247,23 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="47"/>
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A20" s="58"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="49"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="47"/>
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A21" s="58"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="48">
+      <c r="C21" s="60">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -4282,25 +4271,25 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="46"/>
+    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A22" s="59"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="45" t="s">
+    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A23" s="57" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="63" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="12"/>
@@ -4308,36 +4297,36 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="47"/>
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A24" s="58"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="50"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="46"/>
+    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A25" s="59"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="49"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="45" t="s">
+    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A26" s="57" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="60">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -4345,34 +4334,34 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="47"/>
+    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A27" s="58"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="50"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="47"/>
+    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A28" s="58"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="49"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="47"/>
+    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A29" s="58"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="48">
+      <c r="C29" s="60">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -4380,23 +4369,23 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="46"/>
+    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A30" s="59"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="50"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="49"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -4404,12 +4393,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -4424,6 +4407,12 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/樊佩茹/项目进度控制表-樊佩茹 .xlsx
+++ b/樊佩茹/项目进度控制表-樊佩茹 .xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19428" windowHeight="10428" activeTab="6"/>
+    <workbookView windowWidth="24345" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="樊佩茹" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t>进度控制表-在线点餐的设计与实现</t>
   </si>
@@ -179,35 +179,35 @@
     <t>30天内自动登录没做</t>
   </si>
   <si>
+    <t>多张图片修改</t>
+  </si>
+  <si>
+    <t>2019/629</t>
+  </si>
+  <si>
+    <t>30天登录未做</t>
+  </si>
+  <si>
     <t>直接退出</t>
   </si>
   <si>
     <t>假分页</t>
   </si>
   <si>
-    <t>多张图片修改</t>
-  </si>
-  <si>
-    <t>2019/629</t>
-  </si>
-  <si>
-    <t>30天登录未做</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>30天内自动登录未做</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>未成功</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,18 +306,156 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,8 +468,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -437,16 +761,258 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -459,16 +1025,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -580,76 +1146,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -936,38 +1489,38 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.77734375" customWidth="1"/>
-    <col min="3" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="84.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="29.775" customWidth="1"/>
+    <col min="3" max="6" width="15.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="84.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" ht="33.75" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-    </row>
-    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" ht="21" customHeight="1" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -990,25 +1543,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="44" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+    <row r="3" s="44" customFormat="1" ht="23.1" customHeight="1" spans="1:7">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-    </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" ht="18" customHeight="1" spans="1:7">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="10">
         <v>43638</v>
       </c>
       <c r="D4" s="11"/>
@@ -1022,14 +1575,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" ht="16.5" spans="1:7">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="61"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -1039,8 +1592,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="54" t="s">
+    <row r="6" ht="16.5" spans="1:7">
+      <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -1060,12 +1613,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="55"/>
+    <row r="7" ht="16.5" spans="1:7">
+      <c r="A7" s="19"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="10">
         <v>43640</v>
       </c>
       <c r="D7" s="12">
@@ -1079,12 +1632,12 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="56"/>
+    <row r="8" ht="16.5" spans="1:7">
+      <c r="A8" s="20"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="12">
         <v>43641</v>
       </c>
@@ -1096,14 +1649,14 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="57" t="s">
+    <row r="9" ht="16.5" spans="1:7">
+      <c r="A9" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="10">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -1115,12 +1668,12 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="58"/>
+    <row r="10" ht="16.5" spans="1:7">
+      <c r="A10" s="22"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="62"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="12">
         <v>43645</v>
       </c>
@@ -1132,12 +1685,12 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="59"/>
+    <row r="11" ht="16.5" spans="1:7">
+      <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="12">
         <v>43643</v>
       </c>
@@ -1149,14 +1702,14 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A12" s="57" t="s">
+    <row r="12" ht="16.5" spans="1:7">
+      <c r="A12" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="60">
+      <c r="C12" s="10">
         <v>43642</v>
       </c>
       <c r="D12" s="12">
@@ -1170,12 +1723,12 @@
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="58"/>
+    <row r="13" ht="16.5" spans="1:7">
+      <c r="A13" s="22"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="62"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="12">
         <v>43643</v>
       </c>
@@ -1187,12 +1740,12 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A14" s="58"/>
+    <row r="14" ht="16.5" spans="1:7">
+      <c r="A14" s="22"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="62"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="12">
         <v>43643</v>
       </c>
@@ -1204,12 +1757,12 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A15" s="59"/>
+    <row r="15" ht="16.5" spans="1:7">
+      <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="61"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="12">
         <v>43643</v>
       </c>
@@ -1221,25 +1774,25 @@
       </c>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+    <row r="16" ht="24" customHeight="1" spans="1:7">
+      <c r="A16" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A17" s="57" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:7">
+      <c r="A17" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="10">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -1253,12 +1806,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A18" s="59"/>
+    <row r="18" ht="16.5" spans="1:7">
+      <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="61"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="12">
         <v>43644</v>
       </c>
@@ -1270,64 +1823,82 @@
       </c>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A19" s="57" t="s">
+    <row r="19" ht="16.5" spans="1:7">
+      <c r="A19" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="28"/>
+      <c r="D19" s="12">
+        <v>43647</v>
+      </c>
+      <c r="E19" s="12">
+        <v>43646</v>
+      </c>
+      <c r="F19" s="13">
+        <v>1</v>
+      </c>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A20" s="58"/>
+    <row r="20" ht="16.5" spans="1:7">
+      <c r="A20" s="22"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="61"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="28"/>
+      <c r="E20" s="12">
+        <v>43646</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0.2</v>
+      </c>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A21" s="58"/>
+    <row r="21" ht="16.5" spans="1:7">
+      <c r="A21" s="22"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="60">
+      <c r="C21" s="10">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="28"/>
+      <c r="E21" s="12">
+        <v>43647</v>
+      </c>
+      <c r="F21" s="13">
+        <v>1</v>
+      </c>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A22" s="59"/>
+    <row r="22" ht="16.5" spans="1:7">
+      <c r="A22" s="24"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="61"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="28"/>
+      <c r="E22" s="12">
+        <v>43647</v>
+      </c>
+      <c r="F22" s="13">
+        <v>0.9</v>
+      </c>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A23" s="57" t="s">
+    <row r="23" ht="16.5" spans="1:7">
+      <c r="A23" s="21" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="29" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="12"/>
@@ -1335,36 +1906,36 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A24" s="58"/>
+    <row r="24" ht="16.5" spans="1:7">
+      <c r="A24" s="22"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A25" s="59"/>
+    <row r="25" ht="16.5" spans="1:7">
+      <c r="A25" s="24"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A26" s="57" t="s">
+    <row r="26" ht="16.5" spans="1:7">
+      <c r="A26" s="21" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="60">
+      <c r="C26" s="10">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -1372,34 +1943,34 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A27" s="58"/>
+    <row r="27" ht="16.5" spans="1:7">
+      <c r="A27" s="22"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="62"/>
+      <c r="C27" s="23"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A28" s="58"/>
+    <row r="28" ht="16.5" spans="1:7">
+      <c r="A28" s="22"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A29" s="58"/>
+    <row r="29" ht="16.5" spans="1:7">
+      <c r="A29" s="22"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="60">
+      <c r="C29" s="10">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -1407,23 +1978,23 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A30" s="59"/>
+    <row r="30" ht="16.5" spans="1:7">
+      <c r="A30" s="24"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="62"/>
+      <c r="C30" s="23"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="31" ht="16.5" spans="1:7">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="61"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -1431,6 +2002,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -1445,499 +2022,500 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="18.8833333333333" customWidth="1"/>
+    <col min="2" max="2" width="32.8833333333333" customWidth="1"/>
+    <col min="3" max="3" width="15.1083333333333" customWidth="1"/>
+    <col min="4" max="4" width="15.2166666666667" customWidth="1"/>
+    <col min="5" max="5" width="14.8833333333333" customWidth="1"/>
+    <col min="6" max="6" width="15.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="81.1083333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="33.75" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" ht="18" customHeight="1" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="23.1" customHeight="1" spans="1:7">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" ht="16.5" spans="1:7">
+      <c r="A4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="10">
+        <v>43638</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12">
+        <v>43640</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:7">
+      <c r="A5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12">
+        <v>43640</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:7">
+      <c r="A6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="12">
+        <v>43639</v>
+      </c>
+      <c r="D6" s="12">
+        <v>43643</v>
+      </c>
+      <c r="E6" s="12">
+        <v>43640</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1</v>
+      </c>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:7">
+      <c r="A7" s="19"/>
+      <c r="B7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="10">
+        <v>43640</v>
+      </c>
+      <c r="D7" s="12">
+        <v>43646</v>
+      </c>
+      <c r="E7" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:7">
+      <c r="A8" s="20"/>
+      <c r="B8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="12">
+        <v>43644</v>
+      </c>
+      <c r="E8" s="12">
+        <v>43643</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1</v>
+      </c>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:7">
+      <c r="A9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="10">
+        <v>43641</v>
+      </c>
+      <c r="D9" s="12">
+        <v>43644</v>
+      </c>
+      <c r="E9" s="12">
+        <v>43644</v>
+      </c>
+      <c r="F9" s="13">
+        <v>1</v>
+      </c>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:7">
+      <c r="A10" s="22"/>
+      <c r="B10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="12">
+        <v>43646</v>
+      </c>
+      <c r="E10" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1</v>
+      </c>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:7">
+      <c r="A11" s="24"/>
+      <c r="B11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12">
+        <v>43645</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:7">
+      <c r="A12" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="10">
+        <v>43642</v>
+      </c>
+      <c r="D12" s="12">
+        <v>43646</v>
+      </c>
+      <c r="E12" s="12">
+        <v>43643</v>
+      </c>
+      <c r="F12" s="13">
+        <v>1</v>
+      </c>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:7">
+      <c r="A13" s="22"/>
+      <c r="B13" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:7">
+      <c r="A14" s="22"/>
+      <c r="B14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="12">
+        <v>43646</v>
+      </c>
+      <c r="E14" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F14" s="13">
+        <v>1</v>
+      </c>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:7">
+      <c r="A15" s="24"/>
+      <c r="B15" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="1:7">
+      <c r="A16" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:7">
+      <c r="A17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="10">
+        <v>43643</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12">
+        <v>43643</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:7">
+      <c r="A18" s="24"/>
+      <c r="B18" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12">
+        <v>43643</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="1:7">
+      <c r="A19" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" ht="16.5" spans="1:7">
+      <c r="A20" s="22"/>
+      <c r="B20" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" ht="16.5" spans="1:7">
+      <c r="A21" s="22"/>
+      <c r="B21" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="10">
+        <v>43646</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" ht="16.5" spans="1:7">
+      <c r="A22" s="24"/>
+      <c r="B22" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" ht="16.5" spans="1:7">
+      <c r="A23" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" ht="16.5" spans="1:7">
+      <c r="A24" s="22"/>
+      <c r="B24" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" ht="16.5" spans="1:7">
+      <c r="A25" s="24"/>
+      <c r="B25" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" ht="16.5" spans="1:7">
+      <c r="A26" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="10">
+        <v>43650</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" ht="16.5" spans="1:7">
+      <c r="A27" s="22"/>
+      <c r="B27" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" ht="16.5" spans="1:7">
+      <c r="A28" s="22"/>
+      <c r="B28" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" ht="16.5" spans="1:7">
+      <c r="A29" s="22"/>
+      <c r="B29" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="10">
+        <v>43651</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" ht="16.5" spans="1:7">
+      <c r="A30" s="24"/>
+      <c r="B30" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="30"/>
+    </row>
+    <row r="31" ht="16.5" spans="1:7">
+      <c r="A31" s="11"/>
+      <c r="B31" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="17"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A15"/>
-  </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
-  <sheetViews>
-    <sheetView topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="81.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="60">
-        <v>43638</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12">
-        <v>43640</v>
-      </c>
-      <c r="F4" s="13">
-        <v>0.7</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12">
-        <v>43640</v>
-      </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="12">
-        <v>43639</v>
-      </c>
-      <c r="D6" s="12">
-        <v>43643</v>
-      </c>
-      <c r="E6" s="12">
-        <v>43640</v>
-      </c>
-      <c r="F6" s="13">
-        <v>1</v>
-      </c>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="55"/>
-      <c r="B7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="60">
-        <v>43640</v>
-      </c>
-      <c r="D7" s="12">
-        <v>43646</v>
-      </c>
-      <c r="E7" s="12">
-        <v>43642</v>
-      </c>
-      <c r="F7" s="13">
-        <v>1</v>
-      </c>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="56"/>
-      <c r="B8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="12">
-        <v>43644</v>
-      </c>
-      <c r="E8" s="12">
-        <v>43643</v>
-      </c>
-      <c r="F8" s="13">
-        <v>1</v>
-      </c>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="60">
-        <v>43641</v>
-      </c>
-      <c r="D9" s="12">
-        <v>43644</v>
-      </c>
-      <c r="E9" s="12">
-        <v>43644</v>
-      </c>
-      <c r="F9" s="13">
-        <v>1</v>
-      </c>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="58"/>
-      <c r="B10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="12">
-        <v>43646</v>
-      </c>
-      <c r="E10" s="12">
-        <v>43642</v>
-      </c>
-      <c r="F10" s="13">
-        <v>1</v>
-      </c>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="59"/>
-      <c r="B11" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12">
-        <v>43645</v>
-      </c>
-      <c r="F11" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="60">
-        <v>43642</v>
-      </c>
-      <c r="D12" s="12">
-        <v>43646</v>
-      </c>
-      <c r="E12" s="12">
-        <v>43643</v>
-      </c>
-      <c r="F12" s="13">
-        <v>1</v>
-      </c>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="58"/>
-      <c r="B13" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A14" s="58"/>
-      <c r="B14" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="12">
-        <v>43646</v>
-      </c>
-      <c r="E14" s="12">
-        <v>43642</v>
-      </c>
-      <c r="F14" s="13">
-        <v>1</v>
-      </c>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A15" s="59"/>
-      <c r="B15" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A17" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="60">
-        <v>43643</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12">
-        <v>43643</v>
-      </c>
-      <c r="F17" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A18" s="59"/>
-      <c r="B18" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12">
-        <v>43643</v>
-      </c>
-      <c r="F18" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A19" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A20" s="58"/>
-      <c r="B20" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A21" s="58"/>
-      <c r="B21" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="60">
-        <v>43646</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A22" s="59"/>
-      <c r="B22" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A23" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A24" s="58"/>
-      <c r="B24" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="62"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A25" s="59"/>
-      <c r="B25" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A26" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="60">
-        <v>43650</v>
-      </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="14"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A27" s="58"/>
-      <c r="B27" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A28" s="58"/>
-      <c r="B28" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="14"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A29" s="58"/>
-      <c r="B29" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="60">
-        <v>43651</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="14"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A30" s="59"/>
-      <c r="B30" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="30"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A31" s="11"/>
-      <c r="B31" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="31"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -1952,39 +2530,34 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C13" sqref="A1:G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="16.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="31.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="14.4416666666667" customWidth="1"/>
+    <col min="4" max="4" width="15.4416666666667" customWidth="1"/>
+    <col min="5" max="5" width="15.2166666666667" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="87.6640625" customWidth="1"/>
+    <col min="7" max="7" width="87.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" ht="33.75" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1995,7 +2568,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="18" customHeight="1" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2018,7 +2591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="20.1" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2029,7 +2602,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" ht="16.5" spans="1:7">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -2050,7 +2623,7 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" ht="16.5" spans="1:7">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
@@ -2067,7 +2640,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" ht="16.5" spans="1:7">
       <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
@@ -2088,7 +2661,7 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="7" ht="16.5" spans="1:7">
       <c r="A7" s="19"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
@@ -2107,7 +2680,7 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="8" ht="16.5" spans="1:7">
       <c r="A8" s="20"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
@@ -2124,7 +2697,7 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="9" ht="16.5" spans="1:7">
       <c r="A9" s="21" t="s">
         <v>18</v>
       </c>
@@ -2145,7 +2718,7 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" ht="16.5" spans="1:7">
       <c r="A10" s="22"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
@@ -2160,7 +2733,7 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="11" ht="16.5" spans="1:7">
       <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
@@ -2174,10 +2747,10 @@
         <v>0.6</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:7">
       <c r="A12" s="21" t="s">
         <v>22</v>
       </c>
@@ -2198,7 +2771,7 @@
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" ht="16.5" spans="1:7">
       <c r="A13" s="22"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
@@ -2212,10 +2785,10 @@
         <v>0.6</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="1:7">
       <c r="A14" s="22"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
@@ -2230,7 +2803,7 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="15" ht="16.5" spans="1:7">
       <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
@@ -2242,10 +2815,10 @@
         <v>0.6</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="1:7">
       <c r="A16" s="25" t="s">
         <v>27</v>
       </c>
@@ -2256,7 +2829,7 @@
       <c r="F16" s="26"/>
       <c r="G16" s="27"/>
     </row>
-    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" ht="16.5" spans="1:7">
       <c r="A17" s="21" t="s">
         <v>28</v>
       </c>
@@ -2267,14 +2840,14 @@
         <v>43643</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F17" s="13">
         <v>1</v>
       </c>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="18" ht="16.5" spans="1:7">
       <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
@@ -2289,7 +2862,7 @@
       </c>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="19" ht="16.5" spans="1:7">
       <c r="A19" s="21" t="s">
         <v>32</v>
       </c>
@@ -2304,7 +2877,7 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" ht="16.5" spans="1:7">
       <c r="A20" s="22"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
@@ -2315,7 +2888,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" ht="16.5" spans="1:7">
       <c r="A21" s="22"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
@@ -2328,7 +2901,7 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="22" ht="16.5" spans="1:7">
       <c r="A22" s="24"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
@@ -2339,7 +2912,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="31.2" x14ac:dyDescent="0.35">
+    <row r="23" ht="33" spans="1:7">
       <c r="A23" s="21" t="s">
         <v>38</v>
       </c>
@@ -2354,7 +2927,7 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="24" ht="16.5" spans="1:7">
       <c r="A24" s="22"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
@@ -2365,7 +2938,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="25" ht="16.5" spans="1:7">
       <c r="A25" s="24"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
@@ -2376,7 +2949,7 @@
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="26" ht="16.5" spans="1:7">
       <c r="A26" s="21" t="s">
         <v>43</v>
       </c>
@@ -2391,7 +2964,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="27" ht="16.5" spans="1:7">
       <c r="A27" s="22"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
@@ -2402,7 +2975,7 @@
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="28" ht="16.5" spans="1:7">
       <c r="A28" s="22"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
@@ -2413,7 +2986,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="29" ht="16.5" spans="1:7">
       <c r="A29" s="22"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
@@ -2426,7 +2999,7 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="30" ht="16.5" spans="1:7">
       <c r="A30" s="24"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
@@ -2437,7 +3010,7 @@
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="31" ht="16.5" spans="1:7">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
@@ -2449,44 +3022,45 @@
       <c r="G31" s="31"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="33" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" style="33" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" style="33" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="33" customWidth="1"/>
-    <col min="7" max="7" width="47.33203125" style="33" customWidth="1"/>
+    <col min="1" max="1" width="16.4416666666667" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.6666666666667" style="33" customWidth="1"/>
+    <col min="3" max="3" width="25.3333333333333" style="33" customWidth="1"/>
+    <col min="4" max="4" width="18.8833333333333" style="33" customWidth="1"/>
+    <col min="5" max="5" width="18.4416666666667" style="33" customWidth="1"/>
+    <col min="6" max="6" width="16.6666666666667" style="33" customWidth="1"/>
+    <col min="7" max="7" width="47.3333333333333" style="33" customWidth="1"/>
     <col min="8" max="16384" width="11" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" ht="33.75" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2509,25 +3083,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" ht="16.5" spans="1:7">
       <c r="A4" s="34" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="10">
         <v>43638</v>
       </c>
       <c r="D4" s="36"/>
@@ -2537,14 +3111,14 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" ht="16.5" spans="1:7">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="61"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="13">
@@ -2552,7 +3126,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" ht="16.5" spans="1:7">
       <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
@@ -2569,12 +3143,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="7" ht="16.5" spans="1:7">
       <c r="A7" s="15"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="10">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -2584,12 +3158,12 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="8" ht="16.5" spans="1:7">
       <c r="A8" s="38"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="13">
@@ -2597,14 +3171,14 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="9" ht="16.5" spans="1:7">
       <c r="A9" s="39" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="10">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -2614,12 +3188,12 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" ht="16.5" spans="1:7">
       <c r="A10" s="38"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="62"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="13">
@@ -2627,12 +3201,12 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="11" ht="16.5" spans="1:7">
       <c r="A11" s="40"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="13">
@@ -2640,14 +3214,14 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" ht="16.5" spans="1:7">
       <c r="A12" s="39" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="60">
+      <c r="C12" s="10">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -2657,12 +3231,12 @@
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" ht="16.5" spans="1:7">
       <c r="A13" s="15"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="62"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="13">
@@ -2670,12 +3244,12 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" ht="16.5" spans="1:7">
       <c r="A14" s="41"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="62"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="13">
@@ -2683,12 +3257,12 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="15" ht="16.5" spans="1:7">
       <c r="A15" s="42"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="61"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="13">
@@ -2696,25 +3270,25 @@
       </c>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:7">
       <c r="A17" s="39" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="10">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -2722,25 +3296,25 @@
       <c r="F17" s="28"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="18" ht="16.5" spans="1:7">
       <c r="A18" s="42"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="61"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="19" ht="16.5" spans="1:7">
       <c r="A19" s="39" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="12"/>
@@ -2748,23 +3322,23 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" ht="16.5" spans="1:7">
       <c r="A20" s="42"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="61"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" ht="16.5" spans="1:7">
       <c r="A21" s="42"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="60">
+      <c r="C21" s="10">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -2772,25 +3346,25 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="22" ht="16.5" spans="1:7">
       <c r="A22" s="41"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="61"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="23" ht="16.5" spans="1:7">
       <c r="A23" s="39" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="29" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="12"/>
@@ -2798,36 +3372,36 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="24" ht="16.5" spans="1:7">
       <c r="A24" s="40"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="25" ht="16.5" spans="1:7">
       <c r="A25" s="40"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.35">
+    <row r="26" ht="25.5" spans="1:7">
       <c r="A26" s="39" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="60">
+      <c r="C26" s="10">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -2835,34 +3409,34 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="27" ht="16.5" spans="1:7">
       <c r="A27" s="40"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="62"/>
+      <c r="C27" s="23"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="28" ht="16.5" spans="1:7">
       <c r="A28" s="42"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="29" ht="16.5" spans="1:7">
       <c r="A29" s="42"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="60">
+      <c r="C29" s="10">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -2870,23 +3444,23 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="30" ht="16.5" spans="1:7">
       <c r="A30" s="15"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="62"/>
+      <c r="C30" s="23"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="28"/>
       <c r="G30" s="43"/>
     </row>
-    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="31" ht="16.5" spans="1:7">
       <c r="A31" s="36"/>
       <c r="B31" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="61"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="36"/>
       <c r="E31" s="36"/>
       <c r="F31" s="36"/>
@@ -2894,12 +3468,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C28"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A16:G16"/>
@@ -2907,43 +3475,50 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C31"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="90.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.4416666666667" customWidth="1"/>
+    <col min="2" max="2" width="31.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="14.775" customWidth="1"/>
+    <col min="4" max="4" width="13.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="15.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="14.8833333333333" customWidth="1"/>
+    <col min="7" max="7" width="90.775" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" ht="33.75" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-    </row>
-    <row r="2" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" ht="23.1" customHeight="1" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2966,25 +3541,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+    <row r="3" ht="21.9" customHeight="1" spans="1:7">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" ht="16.5" spans="1:7">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="10">
         <v>43638</v>
       </c>
       <c r="D4" s="32">
@@ -2998,14 +3573,14 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" ht="16.5" spans="1:7">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="61"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -3015,8 +3590,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="54" t="s">
+    <row r="6" ht="16.5" spans="1:7">
+      <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -3036,12 +3611,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="55"/>
+    <row r="7" ht="16.5" spans="1:7">
+      <c r="A7" s="19"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="10">
         <v>43640</v>
       </c>
       <c r="D7" s="12">
@@ -3055,12 +3630,12 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="56"/>
+    <row r="8" ht="16.5" spans="1:7">
+      <c r="A8" s="20"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="12">
         <v>43643</v>
       </c>
@@ -3072,14 +3647,14 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="57" t="s">
+    <row r="9" ht="16.5" spans="1:7">
+      <c r="A9" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="10">
         <v>43641</v>
       </c>
       <c r="D9" s="12">
@@ -3093,12 +3668,12 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="58"/>
+    <row r="10" ht="16.5" spans="1:7">
+      <c r="A10" s="22"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="62"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="12">
         <v>43647</v>
       </c>
@@ -3110,12 +3685,12 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="59"/>
+    <row r="11" ht="16.5" spans="1:7">
+      <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="12">
         <v>43647</v>
       </c>
@@ -3127,14 +3702,14 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A12" s="57" t="s">
+    <row r="12" ht="16.5" spans="1:7">
+      <c r="A12" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="60">
+      <c r="C12" s="10">
         <v>43642</v>
       </c>
       <c r="D12" s="12">
@@ -3148,12 +3723,12 @@
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="58"/>
+    <row r="13" ht="16.5" spans="1:7">
+      <c r="A13" s="22"/>
       <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="62"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="12">
         <v>43647</v>
       </c>
@@ -3165,12 +3740,12 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A14" s="58"/>
+    <row r="14" ht="16.5" spans="1:7">
+      <c r="A14" s="22"/>
       <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="62"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="12">
         <v>43647</v>
       </c>
@@ -3182,12 +3757,12 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A15" s="59"/>
+    <row r="15" ht="16.5" spans="1:7">
+      <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="61"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="12">
         <v>43647</v>
       </c>
@@ -3199,25 +3774,25 @@
       </c>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+    <row r="16" ht="21.9" customHeight="1" spans="1:7">
+      <c r="A16" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A17" s="57" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:7">
+      <c r="A17" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="10">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -3228,15 +3803,15 @@
         <v>0.8</v>
       </c>
       <c r="G17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A18" s="59"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="1:7">
+      <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="61"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="12">
         <v>43644</v>
       </c>
@@ -3248,14 +3823,14 @@
       </c>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A19" s="57" t="s">
+    <row r="19" ht="16.5" spans="1:7">
+      <c r="A19" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="12"/>
@@ -3263,23 +3838,23 @@
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A20" s="58"/>
+    <row r="20" ht="16.5" spans="1:7">
+      <c r="A20" s="22"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="61"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="28"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A21" s="58"/>
+    <row r="21" ht="16.5" spans="1:7">
+      <c r="A21" s="22"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="60">
+      <c r="C21" s="10">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -3287,25 +3862,25 @@
       <c r="F21" s="28"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A22" s="59"/>
+    <row r="22" ht="16.5" spans="1:7">
+      <c r="A22" s="24"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="61"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="28"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A23" s="57" t="s">
+    <row r="23" ht="16.5" spans="1:7">
+      <c r="A23" s="21" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="29" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="12"/>
@@ -3313,36 +3888,36 @@
       <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A24" s="58"/>
+    <row r="24" ht="16.5" spans="1:7">
+      <c r="A24" s="22"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A25" s="59"/>
+    <row r="25" ht="16.5" spans="1:7">
+      <c r="A25" s="24"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="28"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A26" s="57" t="s">
+    <row r="26" ht="16.5" spans="1:7">
+      <c r="A26" s="21" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="60">
+      <c r="C26" s="10">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -3350,34 +3925,34 @@
       <c r="F26" s="28"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A27" s="58"/>
+    <row r="27" ht="16.5" spans="1:7">
+      <c r="A27" s="22"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="62"/>
+      <c r="C27" s="23"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="28"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A28" s="58"/>
+    <row r="28" ht="16.5" spans="1:7">
+      <c r="A28" s="22"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="28"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A29" s="58"/>
+    <row r="29" ht="16.5" spans="1:7">
+      <c r="A29" s="22"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="60">
+      <c r="C29" s="10">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -3385,23 +3960,23 @@
       <c r="F29" s="28"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A30" s="59"/>
+    <row r="30" ht="16.5" spans="1:7">
+      <c r="A30" s="24"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="62"/>
+      <c r="C30" s="23"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="31" ht="16.5" spans="1:7">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="61"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -3409,6 +3984,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -3423,976 +4004,978 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="14.775" customWidth="1"/>
+    <col min="2" max="2" width="30.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="14.1083333333333" customWidth="1"/>
+    <col min="5" max="5" width="13.2166666666667" customWidth="1"/>
+    <col min="6" max="6" width="14.4416666666667" customWidth="1"/>
+    <col min="7" max="7" width="90" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="33.75" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" ht="21" customHeight="1" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="23.1" customHeight="1" spans="1:7">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" ht="16.5" spans="1:7">
+      <c r="A4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="10">
+        <v>43638</v>
+      </c>
+      <c r="D4" s="32">
+        <v>43642</v>
+      </c>
+      <c r="E4" s="12">
+        <v>43640</v>
+      </c>
+      <c r="F4" s="13">
+        <v>1</v>
+      </c>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:7">
+      <c r="A5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12">
+        <v>43640</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:7">
+      <c r="A6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="12">
+        <v>43639</v>
+      </c>
+      <c r="D6" s="12">
+        <v>43643</v>
+      </c>
+      <c r="E6" s="12">
+        <v>43640</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1</v>
+      </c>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:7">
+      <c r="A7" s="19"/>
+      <c r="B7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="10">
+        <v>43640</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12">
+        <v>43641</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:7">
+      <c r="A8" s="20"/>
+      <c r="B8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="12">
+        <v>43643</v>
+      </c>
+      <c r="E8" s="12">
+        <v>43641</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1</v>
+      </c>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:7">
+      <c r="A9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="10">
+        <v>43641</v>
+      </c>
+      <c r="D9" s="12">
+        <v>43643</v>
+      </c>
+      <c r="E9" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F9" s="13">
+        <v>1</v>
+      </c>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:7">
+      <c r="A10" s="22"/>
+      <c r="B10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:7">
+      <c r="A11" s="24"/>
+      <c r="B11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="12">
+        <v>43643</v>
+      </c>
+      <c r="E11" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F11" s="13">
+        <v>1</v>
+      </c>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:7">
+      <c r="A12" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="10">
+        <v>43642</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:7">
+      <c r="A13" s="22"/>
+      <c r="B13" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:7">
+      <c r="A14" s="22"/>
+      <c r="B14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:7">
+      <c r="A15" s="24"/>
+      <c r="B15" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="1:7">
+      <c r="A16" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:7">
+      <c r="A17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="10">
+        <v>43643</v>
+      </c>
+      <c r="D17" s="12">
+        <v>43643</v>
+      </c>
+      <c r="E17" s="12">
+        <v>43641</v>
+      </c>
+      <c r="F17" s="13">
+        <v>1</v>
+      </c>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:7">
+      <c r="A18" s="24"/>
+      <c r="B18" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12">
+        <v>43641</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="1:7">
+      <c r="A19" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" ht="16.5" spans="1:7">
+      <c r="A20" s="22"/>
+      <c r="B20" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" ht="16.5" spans="1:7">
+      <c r="A21" s="22"/>
+      <c r="B21" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="10">
+        <v>43646</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" ht="16.5" spans="1:7">
+      <c r="A22" s="24"/>
+      <c r="B22" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" ht="33" spans="1:7">
+      <c r="A23" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" ht="16.5" spans="1:7">
+      <c r="A24" s="22"/>
+      <c r="B24" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" ht="16.5" spans="1:7">
+      <c r="A25" s="24"/>
+      <c r="B25" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" ht="16.5" spans="1:7">
+      <c r="A26" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="10">
+        <v>43650</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" ht="16.5" spans="1:7">
+      <c r="A27" s="22"/>
+      <c r="B27" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" ht="16.5" spans="1:7">
+      <c r="A28" s="22"/>
+      <c r="B28" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" ht="16.5" spans="1:7">
+      <c r="A29" s="22"/>
+      <c r="B29" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="10">
+        <v>43651</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" ht="16.5" spans="1:7">
+      <c r="A30" s="24"/>
+      <c r="B30" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="30"/>
+    </row>
+    <row r="31" ht="16.5" spans="1:7">
+      <c r="A31" s="11"/>
+      <c r="B31" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="17"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="31"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="16.775" customWidth="1"/>
+    <col min="2" max="2" width="30.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="14.1083333333333" customWidth="1"/>
+    <col min="5" max="5" width="13.2166666666667" customWidth="1"/>
+    <col min="6" max="6" width="14.4416666666667" customWidth="1"/>
+    <col min="7" max="7" width="90" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="33.75" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" ht="24" customHeight="1" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="21" customHeight="1" spans="1:7">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" ht="16.5" spans="1:7">
+      <c r="A4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="10">
+        <v>43638</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12">
+        <v>43640</v>
+      </c>
+      <c r="F4" s="13">
+        <v>1</v>
+      </c>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:7">
+      <c r="A5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12">
+        <v>43640</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:7">
+      <c r="A6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="12">
+        <v>43639</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12">
+        <v>43640</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1</v>
+      </c>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:7">
+      <c r="A7" s="19"/>
+      <c r="B7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="10">
+        <v>43640</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12">
+        <v>43641</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:7">
+      <c r="A8" s="20"/>
+      <c r="B8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12">
+        <v>43641</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1</v>
+      </c>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:7">
+      <c r="A9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="10">
+        <v>43641</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F9" s="13">
+        <v>1</v>
+      </c>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:7">
+      <c r="A10" s="22"/>
+      <c r="B10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1</v>
+      </c>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:7">
+      <c r="A11" s="24"/>
+      <c r="B11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F11" s="13">
+        <v>1</v>
+      </c>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:7">
+      <c r="A12" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="10">
+        <v>43642</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F12" s="13">
+        <v>1</v>
+      </c>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:7">
+      <c r="A13" s="22"/>
+      <c r="B13" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12">
+        <v>43643</v>
+      </c>
+      <c r="F13" s="13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:7">
+      <c r="A14" s="22"/>
+      <c r="B14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12">
+        <v>43643</v>
+      </c>
+      <c r="F14" s="13">
+        <v>1</v>
+      </c>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:7">
+      <c r="A15" s="24"/>
+      <c r="B15" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12">
+        <v>43643</v>
+      </c>
+      <c r="F15" s="13">
+        <v>1</v>
+      </c>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" ht="21" customHeight="1" spans="1:7">
+      <c r="A16" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:7">
+      <c r="A17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="10">
+        <v>43643</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12">
+        <v>43644</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="1:7">
+      <c r="A18" s="24"/>
+      <c r="B18" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12">
+        <v>43644</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="1:7">
+      <c r="A19" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" ht="16.5" spans="1:7">
+      <c r="A20" s="22"/>
+      <c r="B20" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" ht="16.5" spans="1:7">
+      <c r="A21" s="22"/>
+      <c r="B21" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="10">
+        <v>43646</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" ht="16.5" spans="1:7">
+      <c r="A22" s="24"/>
+      <c r="B22" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" ht="16.5" spans="1:7">
+      <c r="A23" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" ht="16.5" spans="1:7">
+      <c r="A24" s="22"/>
+      <c r="B24" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" ht="16.5" spans="1:7">
+      <c r="A25" s="24"/>
+      <c r="B25" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" ht="16.5" spans="1:7">
+      <c r="A26" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="10">
+        <v>43650</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" ht="16.5" spans="1:7">
+      <c r="A27" s="22"/>
+      <c r="B27" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" ht="16.5" spans="1:7">
+      <c r="A28" s="22"/>
+      <c r="B28" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" ht="16.5" spans="1:7">
+      <c r="A29" s="22"/>
+      <c r="B29" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="10">
+        <v>43651</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" ht="16.5" spans="1:7">
+      <c r="A30" s="24"/>
+      <c r="B30" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="30"/>
+    </row>
+    <row r="31" ht="16.5" spans="1:7">
+      <c r="A31" s="11"/>
+      <c r="B31" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="17"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A15"/>
-  </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.77734375" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="90" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="10">
-        <v>43638</v>
-      </c>
-      <c r="D4" s="32">
-        <v>43642</v>
-      </c>
-      <c r="E4" s="12">
-        <v>43640</v>
-      </c>
-      <c r="F4" s="13">
-        <v>1</v>
-      </c>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12">
-        <v>43640</v>
-      </c>
-      <c r="F5" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="12">
-        <v>43639</v>
-      </c>
-      <c r="D6" s="12">
-        <v>43643</v>
-      </c>
-      <c r="E6" s="12">
-        <v>43640</v>
-      </c>
-      <c r="F6" s="13">
-        <v>1</v>
-      </c>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
-      <c r="B7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="10">
-        <v>43640</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12">
-        <v>43641</v>
-      </c>
-      <c r="F7" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="20"/>
-      <c r="B8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="12">
-        <v>43643</v>
-      </c>
-      <c r="E8" s="12">
-        <v>43641</v>
-      </c>
-      <c r="F8" s="13">
-        <v>1</v>
-      </c>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="10">
-        <v>43641</v>
-      </c>
-      <c r="D9" s="12">
-        <v>43643</v>
-      </c>
-      <c r="E9" s="12">
-        <v>43642</v>
-      </c>
-      <c r="F9" s="13">
-        <v>1</v>
-      </c>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="22"/>
-      <c r="B10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12">
-        <v>43642</v>
-      </c>
-      <c r="F10" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="24"/>
-      <c r="B11" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="12">
-        <v>43643</v>
-      </c>
-      <c r="E11" s="12">
-        <v>43642</v>
-      </c>
-      <c r="F11" s="13">
-        <v>1</v>
-      </c>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A12" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="10">
-        <v>43642</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12">
-        <v>43642</v>
-      </c>
-      <c r="F12" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="22"/>
-      <c r="B13" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A14" s="22"/>
-      <c r="B14" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A15" s="24"/>
-      <c r="B15" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A17" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="10">
-        <v>43643</v>
-      </c>
-      <c r="D17" s="12">
-        <v>43643</v>
-      </c>
-      <c r="E17" s="12">
-        <v>43641</v>
-      </c>
-      <c r="F17" s="13">
-        <v>1</v>
-      </c>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A18" s="24"/>
-      <c r="B18" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12">
-        <v>43641</v>
-      </c>
-      <c r="F18" s="13">
-        <v>0.7</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A19" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A20" s="22"/>
-      <c r="B20" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A21" s="22"/>
-      <c r="B21" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="10">
-        <v>43646</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A22" s="24"/>
-      <c r="B22" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="1:7" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A23" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A24" s="22"/>
-      <c r="B24" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A25" s="24"/>
-      <c r="B25" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A26" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="10">
-        <v>43650</v>
-      </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="14"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A27" s="22"/>
-      <c r="B27" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A28" s="22"/>
-      <c r="B28" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="14"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A29" s="22"/>
-      <c r="B29" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="10">
-        <v>43651</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="14"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A30" s="24"/>
-      <c r="B30" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="30"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A31" s="11"/>
-      <c r="B31" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="31"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="90" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-    </row>
-    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="60">
-        <v>43638</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12">
-        <v>43640</v>
-      </c>
-      <c r="F4" s="13">
-        <v>1</v>
-      </c>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12">
-        <v>43640</v>
-      </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="12">
-        <v>43639</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12">
-        <v>43640</v>
-      </c>
-      <c r="F6" s="13">
-        <v>1</v>
-      </c>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="55"/>
-      <c r="B7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="60">
-        <v>43640</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12">
-        <v>43641</v>
-      </c>
-      <c r="F7" s="13">
-        <v>1</v>
-      </c>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="56"/>
-      <c r="B8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12">
-        <v>43641</v>
-      </c>
-      <c r="F8" s="13">
-        <v>1</v>
-      </c>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="60">
-        <v>43641</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12">
-        <v>43642</v>
-      </c>
-      <c r="F9" s="13">
-        <v>1</v>
-      </c>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="58"/>
-      <c r="B10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12">
-        <v>43642</v>
-      </c>
-      <c r="F10" s="13">
-        <v>1</v>
-      </c>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="59"/>
-      <c r="B11" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12">
-        <v>43642</v>
-      </c>
-      <c r="F11" s="13">
-        <v>1</v>
-      </c>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="60">
-        <v>43642</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12">
-        <v>43642</v>
-      </c>
-      <c r="F12" s="13">
-        <v>1</v>
-      </c>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="58"/>
-      <c r="B13" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12">
-        <v>43643</v>
-      </c>
-      <c r="F13" s="13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A14" s="58"/>
-      <c r="B14" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12">
-        <v>43643</v>
-      </c>
-      <c r="F14" s="13">
-        <v>1</v>
-      </c>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A15" s="59"/>
-      <c r="B15" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12">
-        <v>43643</v>
-      </c>
-      <c r="F15" s="13">
-        <v>1</v>
-      </c>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A17" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="60">
-        <v>43643</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12">
-        <v>43644</v>
-      </c>
-      <c r="F17" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A18" s="59"/>
-      <c r="B18" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12">
-        <v>43644</v>
-      </c>
-      <c r="F18" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A19" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A20" s="58"/>
-      <c r="B20" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A21" s="58"/>
-      <c r="B21" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="60">
-        <v>43646</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A22" s="59"/>
-      <c r="B22" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A23" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A24" s="58"/>
-      <c r="B24" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="62"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A25" s="59"/>
-      <c r="B25" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A26" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="60">
-        <v>43650</v>
-      </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="14"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A27" s="58"/>
-      <c r="B27" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A28" s="58"/>
-      <c r="B28" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="14"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A29" s="58"/>
-      <c r="B29" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="60">
-        <v>43651</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="14"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A30" s="59"/>
-      <c r="B30" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="30"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A31" s="11"/>
-      <c r="B31" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="31"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -4407,15 +4990,9 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/樊佩茹/项目进度控制表-樊佩茹 .xlsx
+++ b/樊佩茹/项目进度控制表-樊佩茹 .xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SDX\Desktop\hgkj_02\樊佩茹\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E856F392-800E-488C-91A2-8DD706D070B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12465"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="樊佩茹" sheetId="1" r:id="rId1"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="58">
   <si>
     <t>进度控制表-在线点餐的设计与实现</t>
   </si>
@@ -179,9 +185,6 @@
     <t>30天内自动登录没做</t>
   </si>
   <si>
-    <t>多张图片修改</t>
-  </si>
-  <si>
     <t>2019/629</t>
   </si>
   <si>
@@ -195,19 +198,29 @@
   </si>
   <si>
     <t>未成功</t>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0天自动登录没写</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="35">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,156 +319,32 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -468,194 +357,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -761,258 +464,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1025,16 +486,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1146,63 +607,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1489,38 +966,38 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="29.775" customWidth="1"/>
-    <col min="3" max="6" width="15.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="84.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" customWidth="1"/>
+    <col min="3" max="6" width="15.6328125" customWidth="1"/>
+    <col min="7" max="7" width="84.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.75" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" ht="21" customHeight="1" spans="1:7">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1543,25 +1020,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="44" customFormat="1" ht="23.1" customHeight="1" spans="1:7">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:7" s="44" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c